--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\fModuleCan\Doc\ConfigPrj\ExcelCfg\STM32F474RE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\Stm32PrjTpl\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB02D3D1-91CE-4E8C-89B4-020E11ADBC27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8BAA3A-520C-46CA-9E61-E7A8078D0B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="341">
   <si>
     <t>Colonne1</t>
   </si>
@@ -1044,6 +1044,24 @@
   </si>
   <si>
     <t>PA11</t>
+  </si>
+  <si>
+    <t>Interrupt line associate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purpose </t>
+  </si>
+  <si>
+    <t>Timer Purpose</t>
+  </si>
+  <si>
+    <t>PWM/IC/OC/OP</t>
+  </si>
+  <si>
+    <t>EVENT</t>
+  </si>
+  <si>
+    <t>DAC</t>
   </si>
 </sst>
 </file>
@@ -1118,17 +1136,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82E1452B-3AF2-4D4B-B30D-A715E2B5240F}" name="GI_Timer" displayName="GI_Timer" ref="J18:K30" totalsRowShown="0">
-  <autoFilter ref="J18:K30" xr:uid="{82E1452B-3AF2-4D4B-B30D-A715E2B5240F}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82E1452B-3AF2-4D4B-B30D-A715E2B5240F}" name="GI_Timer" displayName="GI_Timer" ref="J18:M30" totalsRowShown="0">
+  <autoFilter ref="J18:M30" xr:uid="{82E1452B-3AF2-4D4B-B30D-A715E2B5240F}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{8EBC08AF-F674-4D3F-80D1-664693CE12C7}" name="Timer_name"/>
     <tableColumn id="2" xr3:uid="{9707AE90-9D0C-47B3-A89D-28A13CE83851}" name="Number of channels"/>
+    <tableColumn id="3" xr3:uid="{D8031831-59FD-4378-ADF9-534E59E34124}" name="Interrupt line associate"/>
+    <tableColumn id="4" xr3:uid="{F81B2123-AE73-4BAA-A2DB-915ACD9E2233}" name="Purpose "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{7B17A539-E635-4152-9412-9ADCB0D5ADE1}" name="Tableau26" displayName="Tableau26" ref="AD41:AD44" totalsRowShown="0">
+  <autoFilter ref="AD41:AD44" xr:uid="{7B17A539-E635-4152-9412-9ADCB0D5ADE1}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{41DEADB1-B8AC-4DA1-AAC6-1E2E0AF40D54}" name="Timer Purpose"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9F4B7C8E-8730-4908-B1BE-2954AF9427C0}" name="FMKIO_InputDig" displayName="FMKIO_InputDig" ref="A6:C17" totalsRowShown="0">
   <autoFilter ref="A6:C17" xr:uid="{9F4B7C8E-8730-4908-B1BE-2954AF9427C0}"/>
   <tableColumns count="3">
@@ -1140,7 +1170,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{098A48DC-88A9-4122-ADE1-86E0F3796141}" name="FMKIO_OutputDig" displayName="FMKIO_OutputDig" ref="AD5:AF14" totalsRowShown="0">
   <autoFilter ref="AD5:AF14" xr:uid="{098A48DC-88A9-4122-ADE1-86E0F3796141}"/>
   <tableColumns count="3">
@@ -1152,7 +1182,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{27D0C574-E325-48F5-AA31-7FBAF1E09007}" name="FMKIO_InputFreq" displayName="FMKIO_InputFreq" ref="K6:P9" totalsRowShown="0">
   <autoFilter ref="K6:P9" xr:uid="{27D0C574-E325-48F5-AA31-7FBAF1E09007}"/>
   <tableColumns count="6">
@@ -1167,7 +1197,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0918A5C3-EE53-4DBF-8C0C-2251FB41871E}" name="FMKIO_InputEvnt" displayName="FMKIO_InputEvnt" ref="R5:U7" totalsRowShown="0">
   <autoFilter ref="R5:U7" xr:uid="{0918A5C3-EE53-4DBF-8C0C-2251FB41871E}"/>
   <tableColumns count="4">
@@ -1180,7 +1210,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{DE41CD30-BCBD-40FE-B5DD-848DAAA9C25B}" name="FMKIO_OutputPwm" displayName="FMKIO_OutputPwm" ref="W5:AB13" totalsRowShown="0">
   <autoFilter ref="W5:AB13" xr:uid="{DE41CD30-BCBD-40FE-B5DD-848DAAA9C25B}"/>
   <tableColumns count="6">
@@ -1195,7 +1225,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B6D8F853-4E95-4D0E-932E-0F3ECC221901}" name="FMKIO_InputAna" displayName="FMKIO_InputAna" ref="E6:I16" totalsRowShown="0">
   <autoFilter ref="E6:I16" xr:uid="{B6D8F853-4E95-4D0E-932E-0F3ECC221901}"/>
   <tableColumns count="5">
@@ -1209,7 +1239,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{3EEFA786-828B-422C-9405-D0B0DD120CF4}" name="Tableau17" displayName="Tableau17" ref="AJ5:AJ21" totalsRowShown="0">
   <autoFilter ref="AJ5:AJ21" xr:uid="{3EEFA786-828B-422C-9405-D0B0DD120CF4}"/>
   <tableColumns count="1">
@@ -1219,7 +1249,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{06E0084F-32F1-4C7D-A6E0-EE7152DB4CBF}" name="Tableau18" displayName="Tableau18" ref="AL6:AL10" totalsRowShown="0">
   <autoFilter ref="AL6:AL10" xr:uid="{06E0084F-32F1-4C7D-A6E0-EE7152DB4CBF}"/>
   <tableColumns count="1">
@@ -1229,7 +1259,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{9F1C0A09-0E71-42DD-A451-D3B53F431EBF}" name="Tableau1720" displayName="Tableau1720" ref="AN5:AN23" totalsRowShown="0">
   <autoFilter ref="AN5:AN23" xr:uid="{9F1C0A09-0E71-42DD-A451-D3B53F431EBF}"/>
   <tableColumns count="1">
@@ -1239,7 +1269,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FB0F4D34-CEA0-4CC8-AB6D-4C40C7CBEB5D}" name="GI_GPIO" displayName="GI_GPIO" ref="O33:P40" totalsRowShown="0">
+  <autoFilter ref="O33:P40" xr:uid="{FB0F4D34-CEA0-4CC8-AB6D-4C40C7CBEB5D}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3404615A-1121-4984-AE0D-5A1D34461BCA}" name="GPIO_Name"/>
+    <tableColumn id="2" xr3:uid="{37ECDCD3-2CED-4177-80B2-3A88EFA9E7C2}" name="Number of pin"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B3BFFBC0-5215-4824-AE53-6F0674E6F949}" name="Tableau20" displayName="Tableau20" ref="A25:C28" totalsRowShown="0">
   <autoFilter ref="A25:C28" xr:uid="{B3BFFBC0-5215-4824-AE53-6F0674E6F949}"/>
   <tableColumns count="3">
@@ -1251,18 +1292,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FB0F4D34-CEA0-4CC8-AB6D-4C40C7CBEB5D}" name="GI_GPIO" displayName="GI_GPIO" ref="M18:N25" totalsRowShown="0">
-  <autoFilter ref="M18:N25" xr:uid="{FB0F4D34-CEA0-4CC8-AB6D-4C40C7CBEB5D}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3404615A-1121-4984-AE0D-5A1D34461BCA}" name="GPIO_Name"/>
-    <tableColumn id="2" xr3:uid="{37ECDCD3-2CED-4177-80B2-3A88EFA9E7C2}" name="Number of pin"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{0C2EE56A-0FA0-4A8F-A981-3DF80A8100DC}" name="Tableau2022" displayName="Tableau2022" ref="E27:G29" totalsRowShown="0">
   <autoFilter ref="E27:G29" xr:uid="{0C2EE56A-0FA0-4A8F-A981-3DF80A8100DC}"/>
   <tableColumns count="3">
@@ -1274,7 +1304,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{EB071486-BBE3-47FA-A4DE-38B8C83448BA}" name="Tableau202223" displayName="Tableau202223" ref="I27:K30" totalsRowShown="0">
   <autoFilter ref="I27:K30" xr:uid="{EB071486-BBE3-47FA-A4DE-38B8C83448BA}"/>
   <tableColumns count="3">
@@ -1286,7 +1316,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0413BBED-76B8-4200-A43C-D97EFAA1EA94}" name="Tableau20222324" displayName="Tableau20222324" ref="M27:O30" totalsRowShown="0">
   <autoFilter ref="M27:O30" xr:uid="{0413BBED-76B8-4200-A43C-D97EFAA1EA94}"/>
   <tableColumns count="3">
@@ -1298,7 +1328,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{684AB3A4-4693-477C-AADC-64EBB335C3E9}" name="FMKCPU_EvntTimer" displayName="FMKCPU_EvntTimer" ref="B4:C6" totalsRowShown="0">
   <autoFilter ref="B4:C6" xr:uid="{684AB3A4-4693-477C-AADC-64EBB335C3E9}"/>
   <tableColumns count="2">
@@ -1309,7 +1339,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{A4F27ADC-56A6-479B-93EF-D6AA72368D72}" name="FMKCDA_CalibrationOthers" displayName="FMKCDA_CalibrationOthers" ref="I3:L5" totalsRowShown="0">
   <autoFilter ref="I3:L5" xr:uid="{A4F27ADC-56A6-479B-93EF-D6AA72368D72}"/>
   <tableColumns count="4">
@@ -1322,7 +1352,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{99B4503A-67B2-48AD-BE25-2B3425F892A9}" name="FMKCDA_VoltageRef" displayName="FMKCDA_VoltageRef" ref="S3:V4" totalsRowShown="0">
   <autoFilter ref="S3:V4" xr:uid="{99B4503A-67B2-48AD-BE25-2B3425F892A9}"/>
   <tableColumns count="4">
@@ -1336,8 +1366,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A27CADD5-26F4-4DF6-9D41-CEE02A85C4E9}" name="GI_ADC" displayName="GI_ADC" ref="P18:Q23" totalsRowShown="0">
-  <autoFilter ref="P18:Q23" xr:uid="{A27CADD5-26F4-4DF6-9D41-CEE02A85C4E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A27CADD5-26F4-4DF6-9D41-CEE02A85C4E9}" name="GI_ADC" displayName="GI_ADC" ref="S36:T41" totalsRowShown="0">
+  <autoFilter ref="S36:T41" xr:uid="{A27CADD5-26F4-4DF6-9D41-CEE02A85C4E9}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{46462DEE-B3A7-45AD-A2F8-63AC8C3C0154}" name="ADC_Name"/>
     <tableColumn id="2" xr3:uid="{20DF5352-4B39-416D-A6E4-D94E56AED1C9}" name="number of channel"/>
@@ -1347,8 +1377,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5A8C957F-EDE6-44F1-B8F8-2086E255196A}" name="GI_DAC" displayName="GI_DAC" ref="S18:T19" totalsRowShown="0">
-  <autoFilter ref="S18:T19" xr:uid="{5A8C957F-EDE6-44F1-B8F8-2086E255196A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5A8C957F-EDE6-44F1-B8F8-2086E255196A}" name="GI_DAC" displayName="GI_DAC" ref="V36:W37" totalsRowShown="0">
+  <autoFilter ref="V36:W37" xr:uid="{5A8C957F-EDE6-44F1-B8F8-2086E255196A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{73150C50-6B2A-4CD8-A7E6-62C171935AF8}" name="DAC_Name"/>
     <tableColumn id="2" xr3:uid="{EF9B5413-9A3C-4163-8063-C74DAB2D51F7}" name="number of channel"/>
@@ -1380,8 +1410,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FC2F87AB-FFF7-4006-99CC-8D938E27338D}" name="GI_DMA" displayName="GI_DMA" ref="V18:W20" totalsRowShown="0">
-  <autoFilter ref="V18:W20" xr:uid="{FC2F87AB-FFF7-4006-99CC-8D938E27338D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FC2F87AB-FFF7-4006-99CC-8D938E27338D}" name="GI_DMA" displayName="GI_DMA" ref="Y36:Z38" totalsRowShown="0">
+  <autoFilter ref="Y36:Z38" xr:uid="{FC2F87AB-FFF7-4006-99CC-8D938E27338D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00302DEC-D815-47CE-9380-676FE769FF43}" name="DMA_Name"/>
     <tableColumn id="2" xr3:uid="{2654BB85-F763-4BBA-9124-13A3875B62D0}" name="number of channel"/>
@@ -1391,8 +1421,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{13E9277E-229F-41F0-9B99-7D1A0B71D1B3}" name="Tableau16" displayName="Tableau16" ref="AA17:AA20" totalsRowShown="0">
-  <autoFilter ref="AA17:AA20" xr:uid="{13E9277E-229F-41F0-9B99-7D1A0B71D1B3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{13E9277E-229F-41F0-9B99-7D1A0B71D1B3}" name="Tableau16" displayName="Tableau16" ref="AD35:AD38" totalsRowShown="0">
+  <autoFilter ref="AD35:AD38" xr:uid="{13E9277E-229F-41F0-9B99-7D1A0B71D1B3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{84137467-8FB1-43EA-9F20-573D7FE9FADD}" name="_NVIC_Piority_Choice"/>
   </tableColumns>
@@ -1727,10 +1757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2D6D-43F7-44B1-8255-ECFDDA33AA9C}">
-  <dimension ref="B17:AA119"/>
+  <dimension ref="B18:AD119"/>
   <sheetViews>
-    <sheetView topLeftCell="E2" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1745,7 +1775,7 @@
     <col min="8" max="8" width="21.44140625" customWidth="1"/>
     <col min="9" max="9" width="21.33203125" customWidth="1"/>
     <col min="11" max="11" width="20.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" customWidth="1"/>
+    <col min="12" max="12" width="29.44140625" customWidth="1"/>
     <col min="13" max="13" width="21.33203125" customWidth="1"/>
     <col min="14" max="14" width="22.77734375" customWidth="1"/>
     <col min="15" max="15" width="23.44140625" customWidth="1"/>
@@ -1754,14 +1784,10 @@
     <col min="22" max="22" width="18.77734375" customWidth="1"/>
     <col min="23" max="23" width="29.21875" customWidth="1"/>
     <col min="27" max="27" width="24" customWidth="1"/>
+    <col min="30" max="30" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="17" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="AA17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>169</v>
       </c>
@@ -1783,35 +1809,14 @@
       <c r="K18" t="s">
         <v>3</v>
       </c>
+      <c r="L18" t="s">
+        <v>335</v>
+      </c>
       <c r="M18" t="s">
-        <v>9</v>
-      </c>
-      <c r="N18" t="s">
-        <v>10</v>
-      </c>
-      <c r="P18" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>18</v>
-      </c>
-      <c r="S18" t="s">
-        <v>19</v>
-      </c>
-      <c r="T18" t="s">
-        <v>18</v>
-      </c>
-      <c r="V18" t="s">
-        <v>23</v>
-      </c>
-      <c r="W18" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="2:27" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>170</v>
       </c>
@@ -1830,35 +1835,14 @@
       <c r="K19">
         <v>4</v>
       </c>
+      <c r="L19" t="s">
+        <v>191</v>
+      </c>
       <c r="M19" t="s">
-        <v>11</v>
-      </c>
-      <c r="N19">
-        <v>16</v>
-      </c>
-      <c r="P19" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q19">
-        <v>18</v>
-      </c>
-      <c r="S19" t="s">
-        <v>20</v>
-      </c>
-      <c r="T19" t="s">
-        <v>20</v>
-      </c>
-      <c r="V19" t="s">
-        <v>95</v>
-      </c>
-      <c r="W19">
-        <v>8</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>277</v>
       </c>
@@ -1874,29 +1858,14 @@
       <c r="K20">
         <v>4</v>
       </c>
+      <c r="L20" t="s">
+        <v>194</v>
+      </c>
       <c r="M20" t="s">
-        <v>12</v>
-      </c>
-      <c r="N20">
-        <v>16</v>
-      </c>
-      <c r="P20" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q20">
-        <v>18</v>
-      </c>
-      <c r="V20" t="s">
-        <v>277</v>
-      </c>
-      <c r="W20">
-        <v>8</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>281</v>
       </c>
@@ -1912,20 +1881,14 @@
       <c r="K21">
         <v>4</v>
       </c>
+      <c r="L21" t="s">
+        <v>66</v>
+      </c>
       <c r="M21" t="s">
-        <v>13</v>
-      </c>
-      <c r="N21">
-        <v>16</v>
-      </c>
-      <c r="P21" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>282</v>
       </c>
@@ -1941,20 +1904,14 @@
       <c r="K22">
         <v>4</v>
       </c>
+      <c r="L22" t="s">
+        <v>195</v>
+      </c>
       <c r="M22" t="s">
-        <v>14</v>
-      </c>
-      <c r="N22">
-        <v>16</v>
-      </c>
-      <c r="P22" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q22">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>283</v>
       </c>
@@ -1970,20 +1927,14 @@
       <c r="K23">
         <v>4</v>
       </c>
+      <c r="L23" t="s">
+        <v>211</v>
+      </c>
       <c r="M23" t="s">
-        <v>308</v>
-      </c>
-      <c r="N23">
-        <v>16</v>
-      </c>
-      <c r="P23" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q23">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>284</v>
       </c>
@@ -1999,14 +1950,14 @@
       <c r="K24">
         <v>1</v>
       </c>
+      <c r="L24" t="s">
+        <v>215</v>
+      </c>
       <c r="M24" t="s">
-        <v>15</v>
-      </c>
-      <c r="N24">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="2:27" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>94</v>
       </c>
@@ -2022,14 +1973,14 @@
       <c r="K25">
         <v>1</v>
       </c>
+      <c r="L25" t="s">
+        <v>216</v>
+      </c>
       <c r="M25" t="s">
-        <v>309</v>
-      </c>
-      <c r="N25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="2:27" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>310</v>
       </c>
@@ -2045,8 +1996,14 @@
       <c r="K26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="L26" t="s">
+        <v>204</v>
+      </c>
+      <c r="M26" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>93</v>
       </c>
@@ -2062,8 +2019,14 @@
       <c r="K27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="L27" t="s">
+        <v>211</v>
+      </c>
+      <c r="M27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>278</v>
       </c>
@@ -2079,8 +2042,14 @@
       <c r="K28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="L28" t="s">
+        <v>192</v>
+      </c>
+      <c r="M28" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>279</v>
       </c>
@@ -2096,8 +2065,14 @@
       <c r="K29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="L29" t="s">
+        <v>193</v>
+      </c>
+      <c r="M29" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>92</v>
       </c>
@@ -2113,8 +2088,14 @@
       <c r="K30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="L30" t="s">
+        <v>238</v>
+      </c>
+      <c r="M30" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>91</v>
       </c>
@@ -2125,7 +2106,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>90</v>
       </c>
@@ -2136,7 +2117,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>285</v>
       </c>
@@ -2146,8 +2127,14 @@
       <c r="H33" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="O33" t="s">
+        <v>9</v>
+      </c>
+      <c r="P33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>286</v>
       </c>
@@ -2157,8 +2144,14 @@
       <c r="H34" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="O34" t="s">
+        <v>11</v>
+      </c>
+      <c r="P34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>276</v>
       </c>
@@ -2168,8 +2161,17 @@
       <c r="H35" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="O35" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35">
+        <v>16</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>275</v>
       </c>
@@ -2179,8 +2181,35 @@
       <c r="H36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="O36" t="s">
+        <v>13</v>
+      </c>
+      <c r="P36">
+        <v>16</v>
+      </c>
+      <c r="S36" t="s">
+        <v>17</v>
+      </c>
+      <c r="T36" t="s">
+        <v>18</v>
+      </c>
+      <c r="V36" t="s">
+        <v>19</v>
+      </c>
+      <c r="W36" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>287</v>
       </c>
@@ -2190,8 +2219,35 @@
       <c r="H37" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="O37" t="s">
+        <v>14</v>
+      </c>
+      <c r="P37">
+        <v>16</v>
+      </c>
+      <c r="S37" t="s">
+        <v>16</v>
+      </c>
+      <c r="T37">
+        <v>18</v>
+      </c>
+      <c r="V37" t="s">
+        <v>20</v>
+      </c>
+      <c r="W37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z37">
+        <v>8</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>288</v>
       </c>
@@ -2201,8 +2257,29 @@
       <c r="H38" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="O38" t="s">
+        <v>308</v>
+      </c>
+      <c r="P38">
+        <v>16</v>
+      </c>
+      <c r="S38" t="s">
+        <v>311</v>
+      </c>
+      <c r="T38">
+        <v>18</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z38">
+        <v>8</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>262</v>
       </c>
@@ -2212,8 +2289,20 @@
       <c r="H39" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="O39" t="s">
+        <v>15</v>
+      </c>
+      <c r="P39">
+        <v>16</v>
+      </c>
+      <c r="S39" t="s">
+        <v>312</v>
+      </c>
+      <c r="T39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>289</v>
       </c>
@@ -2223,8 +2312,20 @@
       <c r="H40" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="41" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="O40" t="s">
+        <v>309</v>
+      </c>
+      <c r="P40">
+        <v>11</v>
+      </c>
+      <c r="S40" t="s">
+        <v>313</v>
+      </c>
+      <c r="T40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>290</v>
       </c>
@@ -2234,8 +2335,17 @@
       <c r="H41" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="42" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="S41" t="s">
+        <v>314</v>
+      </c>
+      <c r="T41">
+        <v>18</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="42" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>274</v>
       </c>
@@ -2245,8 +2355,11 @@
       <c r="H42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="43" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="AD42" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>82</v>
       </c>
@@ -2256,8 +2369,11 @@
       <c r="H43" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="44" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="AD43" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>273</v>
       </c>
@@ -2267,8 +2383,11 @@
       <c r="H44" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="AD44" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="45" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>291</v>
       </c>
@@ -2279,7 +2398,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>272</v>
       </c>
@@ -2290,7 +2409,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>271</v>
       </c>
@@ -2301,7 +2420,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:30" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>292</v>
       </c>
@@ -2972,14 +3091,17 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H119" xr:uid="{049086B5-6506-4A03-974B-48087CF064BC}">
-      <formula1>$AA$18:$AA$20</formula1>
+      <formula1>$AD$36:$AD$38</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M19:M30" xr:uid="{697CB459-5495-4019-B31C-A222FA50D4B5}">
+      <formula1>$AD$42:$AD$44</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="9">
+  <tableParts count="10">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -2989,6 +3111,7 @@
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2997,7 +3120,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7761-01BE-400F-9C40-BE71D85F5C61}">
   <dimension ref="A2:AN30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -4049,13 +4172,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA00DA78-9682-47F8-B701-D35809CE3FB0}">
           <x14:formula1>
-            <xm:f>General_Info!$M$19:$M$24</xm:f>
+            <xm:f>General_Info!$O$34:$O$39</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K9 A7:A17 E7:E16 AD6:AD14 W6:W13 R6:R7</xm:sqref>
+          <xm:sqref>K7:K9 R6:R7 W6:W13 AD6:AD14 E7:E16 A7:A17</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C428027-B16D-4B04-9CB2-8290577ED0FB}">
           <x14:formula1>
-            <xm:f>General_Info!$P$19:$P$23</xm:f>
+            <xm:f>General_Info!$S$37:$S$41</xm:f>
           </x14:formula1>
           <xm:sqref>G6:G16</xm:sqref>
         </x14:dataValidation>
@@ -4117,8 +4240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0962FBCC-E1F3-44E3-92A8-D1FF17927B08}">
   <dimension ref="I2:V5"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4226,13 +4349,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E258101-4BE3-4FFA-9159-E0120D35AA71}">
           <x14:formula1>
-            <xm:f>General_Info!$P$19:$P$23</xm:f>
+            <xm:f>General_Info!$S$37:$S$41</xm:f>
           </x14:formula1>
           <xm:sqref>K4:K5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F78BF8D-EC95-4E4B-B9DE-1CEC06FF7E2D}">
           <x14:formula1>
-            <xm:f>General_Info!R19</xm:f>
+            <xm:f>General_Info!U37</xm:f>
           </x14:formula1>
           <xm:sqref>U4</xm:sqref>
         </x14:dataValidation>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\Stm32PrjTpl\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8BAA3A-520C-46CA-9E61-E7A8078D0B1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2DA139-9947-4D5E-A936-59BF18D7868C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="343">
   <si>
     <t>Colonne1</t>
   </si>
@@ -923,12 +923,6 @@
     <t>RTCAPB</t>
   </si>
   <si>
-    <t>USART4</t>
-  </si>
-  <si>
-    <t>USART5</t>
-  </si>
-  <si>
     <t>FDCAN</t>
   </si>
   <si>
@@ -1062,6 +1056,18 @@
   </si>
   <si>
     <t>DAC</t>
+  </si>
+  <si>
+    <t>IRQN assoiated</t>
+  </si>
+  <si>
+    <t>Clock Associated</t>
+  </si>
+  <si>
+    <t>UART4</t>
+  </si>
+  <si>
+    <t>UART5</t>
   </si>
 </sst>
 </file>
@@ -1149,8 +1155,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{7B17A539-E635-4152-9412-9ADCB0D5ADE1}" name="Tableau26" displayName="Tableau26" ref="AD41:AD44" totalsRowShown="0">
-  <autoFilter ref="AD41:AD44" xr:uid="{7B17A539-E635-4152-9412-9ADCB0D5ADE1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{7B17A539-E635-4152-9412-9ADCB0D5ADE1}" name="Tableau26" displayName="Tableau26" ref="AD22:AD25" totalsRowShown="0">
+  <autoFilter ref="AD22:AD25" xr:uid="{7B17A539-E635-4152-9412-9ADCB0D5ADE1}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{41DEADB1-B8AC-4DA1-AAC6-1E2E0AF40D54}" name="Timer Purpose"/>
   </tableColumns>
@@ -1366,19 +1372,21 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A27CADD5-26F4-4DF6-9D41-CEE02A85C4E9}" name="GI_ADC" displayName="GI_ADC" ref="S36:T41" totalsRowShown="0">
-  <autoFilter ref="S36:T41" xr:uid="{A27CADD5-26F4-4DF6-9D41-CEE02A85C4E9}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A27CADD5-26F4-4DF6-9D41-CEE02A85C4E9}" name="GI_ADC" displayName="GI_ADC" ref="S36:V41" totalsRowShown="0">
+  <autoFilter ref="S36:V41" xr:uid="{A27CADD5-26F4-4DF6-9D41-CEE02A85C4E9}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{46462DEE-B3A7-45AD-A2F8-63AC8C3C0154}" name="ADC_Name"/>
     <tableColumn id="2" xr3:uid="{20DF5352-4B39-416D-A6E4-D94E56AED1C9}" name="number of channel"/>
+    <tableColumn id="3" xr3:uid="{9F9316C2-2066-47BF-B84E-436D4C41B07C}" name="IRQN assoiated"/>
+    <tableColumn id="4" xr3:uid="{CC116C4D-98B0-46BC-A882-0B90828FFD68}" name="Clock Associated"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5A8C957F-EDE6-44F1-B8F8-2086E255196A}" name="GI_DAC" displayName="GI_DAC" ref="V36:W37" totalsRowShown="0">
-  <autoFilter ref="V36:W37" xr:uid="{5A8C957F-EDE6-44F1-B8F8-2086E255196A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5A8C957F-EDE6-44F1-B8F8-2086E255196A}" name="GI_DAC" displayName="GI_DAC" ref="V17:W18" totalsRowShown="0">
+  <autoFilter ref="V17:W18" xr:uid="{5A8C957F-EDE6-44F1-B8F8-2086E255196A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{73150C50-6B2A-4CD8-A7E6-62C171935AF8}" name="DAC_Name"/>
     <tableColumn id="2" xr3:uid="{EF9B5413-9A3C-4163-8063-C74DAB2D51F7}" name="number of channel"/>
@@ -1410,8 +1418,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FC2F87AB-FFF7-4006-99CC-8D938E27338D}" name="GI_DMA" displayName="GI_DMA" ref="Y36:Z38" totalsRowShown="0">
-  <autoFilter ref="Y36:Z38" xr:uid="{FC2F87AB-FFF7-4006-99CC-8D938E27338D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FC2F87AB-FFF7-4006-99CC-8D938E27338D}" name="GI_DMA" displayName="GI_DMA" ref="Y17:Z19" totalsRowShown="0">
+  <autoFilter ref="Y17:Z19" xr:uid="{FC2F87AB-FFF7-4006-99CC-8D938E27338D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00302DEC-D815-47CE-9380-676FE769FF43}" name="DMA_Name"/>
     <tableColumn id="2" xr3:uid="{2654BB85-F763-4BBA-9124-13A3875B62D0}" name="number of channel"/>
@@ -1421,8 +1429,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{13E9277E-229F-41F0-9B99-7D1A0B71D1B3}" name="Tableau16" displayName="Tableau16" ref="AD35:AD38" totalsRowShown="0">
-  <autoFilter ref="AD35:AD38" xr:uid="{13E9277E-229F-41F0-9B99-7D1A0B71D1B3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{13E9277E-229F-41F0-9B99-7D1A0B71D1B3}" name="Tableau16" displayName="Tableau16" ref="AD16:AD19" totalsRowShown="0">
+  <autoFilter ref="AD16:AD19" xr:uid="{13E9277E-229F-41F0-9B99-7D1A0B71D1B3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{84137467-8FB1-43EA-9F20-573D7FE9FADD}" name="_NVIC_Piority_Choice"/>
   </tableColumns>
@@ -1757,10 +1765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2D6D-43F7-44B1-8255-ECFDDA33AA9C}">
-  <dimension ref="B18:AD119"/>
+  <dimension ref="B16:AD119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="D42" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1781,13 +1789,37 @@
     <col min="15" max="15" width="23.44140625" customWidth="1"/>
     <col min="16" max="16" width="20.6640625" customWidth="1"/>
     <col min="19" max="19" width="21.33203125" customWidth="1"/>
+    <col min="20" max="20" width="21.21875" customWidth="1"/>
+    <col min="21" max="21" width="19.109375" customWidth="1"/>
     <col min="22" max="22" width="18.77734375" customWidth="1"/>
     <col min="23" max="23" width="29.21875" customWidth="1"/>
     <col min="27" max="27" width="24" customWidth="1"/>
     <col min="30" max="30" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
+      <c r="V17" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>169</v>
       </c>
@@ -1810,13 +1842,28 @@
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="M18" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+      <c r="V18" t="s">
+        <v>20</v>
+      </c>
+      <c r="W18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z18">
+        <v>8</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>170</v>
       </c>
@@ -1839,10 +1886,19 @@
         <v>191</v>
       </c>
       <c r="M19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z19">
+        <v>8</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>277</v>
       </c>
@@ -1853,7 +1909,7 @@
         <v>71</v>
       </c>
       <c r="J20" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K20">
         <v>4</v>
@@ -1862,10 +1918,10 @@
         <v>194</v>
       </c>
       <c r="M20" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>281</v>
       </c>
@@ -1885,10 +1941,10 @@
         <v>66</v>
       </c>
       <c r="M21" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>282</v>
       </c>
@@ -1899,7 +1955,7 @@
         <v>71</v>
       </c>
       <c r="J22" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K22">
         <v>4</v>
@@ -1908,10 +1964,13 @@
         <v>195</v>
       </c>
       <c r="M22" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>283</v>
       </c>
@@ -1922,7 +1981,7 @@
         <v>71</v>
       </c>
       <c r="J23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -1931,10 +1990,13 @@
         <v>211</v>
       </c>
       <c r="M23" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>284</v>
       </c>
@@ -1945,7 +2007,7 @@
         <v>71</v>
       </c>
       <c r="J24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1954,10 +2016,13 @@
         <v>215</v>
       </c>
       <c r="M24" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>94</v>
       </c>
@@ -1968,7 +2033,7 @@
         <v>71</v>
       </c>
       <c r="J25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K25">
         <v>1</v>
@@ -1977,12 +2042,15 @@
         <v>216</v>
       </c>
       <c r="M25" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+        <v>338</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G26" t="s">
         <v>175</v>
@@ -1991,7 +2059,7 @@
         <v>71</v>
       </c>
       <c r="J26" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K26">
         <v>4</v>
@@ -2000,10 +2068,10 @@
         <v>204</v>
       </c>
       <c r="M26" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>93</v>
       </c>
@@ -2023,10 +2091,10 @@
         <v>211</v>
       </c>
       <c r="M27" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>278</v>
       </c>
@@ -2046,10 +2114,10 @@
         <v>192</v>
       </c>
       <c r="M28" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>279</v>
       </c>
@@ -2069,10 +2137,10 @@
         <v>193</v>
       </c>
       <c r="M29" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>92</v>
       </c>
@@ -2083,7 +2151,7 @@
         <v>71</v>
       </c>
       <c r="J30" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K30">
         <v>4</v>
@@ -2092,10 +2160,10 @@
         <v>238</v>
       </c>
       <c r="M30" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>91</v>
       </c>
@@ -2106,7 +2174,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:30" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>90</v>
       </c>
@@ -2117,7 +2185,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>285</v>
       </c>
@@ -2134,7 +2202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>286</v>
       </c>
@@ -2151,7 +2219,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>276</v>
       </c>
@@ -2167,11 +2235,8 @@
       <c r="P35">
         <v>16</v>
       </c>
-      <c r="AD35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="4:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>275</v>
       </c>
@@ -2193,23 +2258,14 @@
       <c r="T36" t="s">
         <v>18</v>
       </c>
+      <c r="U36" t="s">
+        <v>339</v>
+      </c>
       <c r="V36" t="s">
-        <v>19</v>
-      </c>
-      <c r="W36" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y36" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="4:30" x14ac:dyDescent="0.3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="37" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>287</v>
       </c>
@@ -2231,23 +2287,14 @@
       <c r="T37">
         <v>18</v>
       </c>
+      <c r="U37" t="s">
+        <v>185</v>
+      </c>
       <c r="V37" t="s">
-        <v>20</v>
-      </c>
-      <c r="W37" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z37">
-        <v>8</v>
-      </c>
-      <c r="AD37" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="38" spans="4:30" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>288</v>
       </c>
@@ -2258,28 +2305,25 @@
         <v>71</v>
       </c>
       <c r="O38" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="P38">
         <v>16</v>
       </c>
       <c r="S38" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="T38">
         <v>18</v>
       </c>
-      <c r="Y38" t="s">
-        <v>277</v>
-      </c>
-      <c r="Z38">
-        <v>8</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="U38" t="s">
+        <v>185</v>
+      </c>
+      <c r="V38" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>262</v>
       </c>
@@ -2296,13 +2340,19 @@
         <v>16</v>
       </c>
       <c r="S39" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="T39">
         <v>18</v>
       </c>
-    </row>
-    <row r="40" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="U39" t="s">
+        <v>208</v>
+      </c>
+      <c r="V39" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>289</v>
       </c>
@@ -2313,19 +2363,25 @@
         <v>100</v>
       </c>
       <c r="O40" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="P40">
         <v>11</v>
       </c>
       <c r="S40" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="T40">
         <v>18</v>
       </c>
-    </row>
-    <row r="41" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="U40" t="s">
+        <v>222</v>
+      </c>
+      <c r="V40" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="41" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>290</v>
       </c>
@@ -2336,16 +2392,19 @@
         <v>100</v>
       </c>
       <c r="S41" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="T41">
         <v>18</v>
       </c>
-      <c r="AD41" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="42" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="U41" t="s">
+        <v>223</v>
+      </c>
+      <c r="V41" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="42" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>274</v>
       </c>
@@ -2355,11 +2414,8 @@
       <c r="H42" t="s">
         <v>71</v>
       </c>
-      <c r="AD42" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="43" spans="4:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>82</v>
       </c>
@@ -2369,11 +2425,8 @@
       <c r="H43" t="s">
         <v>71</v>
       </c>
-      <c r="AD43" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="44" spans="4:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>273</v>
       </c>
@@ -2383,11 +2436,8 @@
       <c r="H44" t="s">
         <v>71</v>
       </c>
-      <c r="AD44" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="45" spans="4:30" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>291</v>
       </c>
@@ -2398,7 +2448,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>272</v>
       </c>
@@ -2409,7 +2459,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>271</v>
       </c>
@@ -2420,7 +2470,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>292</v>
       </c>
@@ -2499,7 +2549,7 @@
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="G55" t="s">
         <v>68</v>
@@ -2510,7 +2560,7 @@
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>295</v>
+        <v>342</v>
       </c>
       <c r="G56" t="s">
         <v>69</v>
@@ -2543,7 +2593,7 @@
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G59" t="s">
         <v>201</v>
@@ -2587,7 +2637,7 @@
     </row>
     <row r="63" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G63" t="s">
         <v>205</v>
@@ -2659,7 +2709,7 @@
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E69" t="s">
         <v>280</v>
@@ -2717,7 +2767,7 @@
     </row>
     <row r="74" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G74" t="s">
         <v>216</v>
@@ -2728,7 +2778,7 @@
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G75" t="s">
         <v>217</v>
@@ -3093,10 +3143,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H119" xr:uid="{049086B5-6506-4A03-974B-48087CF064BC}">
-      <formula1>$AD$36:$AD$38</formula1>
+      <formula1>$AD$17:$AD$19</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M19:M30" xr:uid="{697CB459-5495-4019-B31C-A222FA50D4B5}">
-      <formula1>$AD$42:$AD$44</formula1>
+      <formula1>$AD$23:$AD$25</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3276,7 +3326,7 @@
         <v>148</v>
       </c>
       <c r="W6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="X6" t="s">
         <v>34</v>
@@ -3285,13 +3335,13 @@
         <v>49</v>
       </c>
       <c r="Z6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AA6" t="s">
         <v>102</v>
       </c>
       <c r="AB6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AD6" t="s">
         <v>12</v>
@@ -3338,13 +3388,13 @@
         <v>125</v>
       </c>
       <c r="K7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L7" t="s">
         <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="N7" t="s">
         <v>5</v>
@@ -3353,7 +3403,7 @@
         <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="R7" t="s">
         <v>11</v>
@@ -3368,7 +3418,7 @@
         <v>75</v>
       </c>
       <c r="W7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="X7" t="s">
         <v>35</v>
@@ -3377,13 +3427,13 @@
         <v>49</v>
       </c>
       <c r="Z7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AA7" t="s">
         <v>52</v>
       </c>
       <c r="AB7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AD7" t="s">
         <v>12</v>
@@ -3412,7 +3462,7 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -3430,13 +3480,13 @@
         <v>124</v>
       </c>
       <c r="K8" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L8" t="s">
         <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N8" t="s">
         <v>5</v>
@@ -3445,7 +3495,7 @@
         <v>47</v>
       </c>
       <c r="P8" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="W8" t="s">
         <v>15</v>
@@ -3457,13 +3507,13 @@
         <v>49</v>
       </c>
       <c r="Z8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AA8" t="s">
         <v>46</v>
       </c>
       <c r="AB8" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AD8" t="s">
         <v>13</v>
@@ -3510,13 +3560,13 @@
         <v>123</v>
       </c>
       <c r="K9" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L9" t="s">
         <v>30</v>
       </c>
       <c r="M9" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="N9" t="s">
         <v>5</v>
@@ -3525,7 +3575,7 @@
         <v>102</v>
       </c>
       <c r="P9" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="W9" t="s">
         <v>15</v>
@@ -3537,13 +3587,13 @@
         <v>49</v>
       </c>
       <c r="Z9" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AA9" t="s">
         <v>47</v>
       </c>
       <c r="AB9" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AD9" t="s">
         <v>13</v>
@@ -3599,13 +3649,13 @@
         <v>49</v>
       </c>
       <c r="Z10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AA10" t="s">
         <v>102</v>
       </c>
       <c r="AB10" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AD10" t="s">
         <v>13</v>
@@ -3643,7 +3693,7 @@
         <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H11" t="s">
         <v>107</v>
@@ -3661,13 +3711,13 @@
         <v>49</v>
       </c>
       <c r="Z11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AA11" t="s">
         <v>52</v>
       </c>
       <c r="AB11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AD11" t="s">
         <v>15</v>
@@ -3702,7 +3752,7 @@
         <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H12" t="s">
         <v>108</v>
@@ -3723,7 +3773,7 @@
         <v>49</v>
       </c>
       <c r="Z12" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AA12" t="s">
         <v>46</v>
@@ -3738,7 +3788,7 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AJ12" t="s">
         <v>32</v>
@@ -3782,7 +3832,7 @@
         <v>49</v>
       </c>
       <c r="Z13" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="AA13" t="s">
         <v>47</v>
@@ -3797,7 +3847,7 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AJ13" t="s">
         <v>33</v>
@@ -3838,7 +3888,7 @@
         <v>36</v>
       </c>
       <c r="AF14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AJ14" t="s">
         <v>34</v>
@@ -4240,7 +4290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0962FBCC-E1F3-44E3-92A8-D1FF17927B08}">
   <dimension ref="I2:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
@@ -4296,7 +4346,7 @@
         <v>159</v>
       </c>
       <c r="J4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -4308,7 +4358,7 @@
         <v>162</v>
       </c>
       <c r="T4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="U4" t="s">
         <v>16</v>
@@ -4319,13 +4369,13 @@
     </row>
     <row r="5" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
+        <v>328</v>
+      </c>
+      <c r="J5" t="s">
         <v>330</v>
       </c>
-      <c r="J5" t="s">
-        <v>332</v>
-      </c>
       <c r="K5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="L5" t="s">
         <v>108</v>
@@ -4355,7 +4405,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F78BF8D-EC95-4E4B-B9DE-1CEC06FF7E2D}">
           <x14:formula1>
-            <xm:f>General_Info!U37</xm:f>
+            <xm:f>General_Info!W37</xm:f>
           </x14:formula1>
           <xm:sqref>U4</xm:sqref>
         </x14:dataValidation>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\Stm32PrjTpl\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2DA139-9947-4D5E-A936-59BF18D7868C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087912D5-D1C5-485F-9A92-01F79705E048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="346">
   <si>
     <t>Colonne1</t>
   </si>
@@ -989,12 +989,6 @@
     <t>GPIO_AF9_TIM15</t>
   </si>
   <si>
-    <t>PE8</t>
-  </si>
-  <si>
-    <t>PE9</t>
-  </si>
-  <si>
     <t>PF12</t>
   </si>
   <si>
@@ -1068,6 +1062,21 @@
   </si>
   <si>
     <t>UART5</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>Registre</t>
+  </si>
+  <si>
+    <t>ADC</t>
+  </si>
+  <si>
+    <t>Max Clock Frequency (MHz)</t>
   </si>
 </sst>
 </file>
@@ -1165,6 +1174,17 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{00403EF2-391D-4DDF-AB62-FECA73965F51}" name="Tableau27" displayName="Tableau27" ref="A27:B30" totalsRowShown="0">
+  <autoFilter ref="A27:B30" xr:uid="{00403EF2-391D-4DDF-AB62-FECA73965F51}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{8DA9BC8A-42CE-4C30-97A8-288FDEAB51D0}" name="Registre"/>
+    <tableColumn id="2" xr3:uid="{B79EB748-2894-4CA2-AF71-1F52E1882F52}" name="Max Clock Frequency (MHz)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9F4B7C8E-8730-4908-B1BE-2954AF9427C0}" name="FMKIO_InputDig" displayName="FMKIO_InputDig" ref="A6:C17" totalsRowShown="0">
   <autoFilter ref="A6:C17" xr:uid="{9F4B7C8E-8730-4908-B1BE-2954AF9427C0}"/>
   <tableColumns count="3">
@@ -1176,7 +1196,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{098A48DC-88A9-4122-ADE1-86E0F3796141}" name="FMKIO_OutputDig" displayName="FMKIO_OutputDig" ref="AD5:AF14" totalsRowShown="0">
   <autoFilter ref="AD5:AF14" xr:uid="{098A48DC-88A9-4122-ADE1-86E0F3796141}"/>
   <tableColumns count="3">
@@ -1188,7 +1208,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{27D0C574-E325-48F5-AA31-7FBAF1E09007}" name="FMKIO_InputFreq" displayName="FMKIO_InputFreq" ref="K6:P9" totalsRowShown="0">
   <autoFilter ref="K6:P9" xr:uid="{27D0C574-E325-48F5-AA31-7FBAF1E09007}"/>
   <tableColumns count="6">
@@ -1203,7 +1223,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0918A5C3-EE53-4DBF-8C0C-2251FB41871E}" name="FMKIO_InputEvnt" displayName="FMKIO_InputEvnt" ref="R5:U7" totalsRowShown="0">
   <autoFilter ref="R5:U7" xr:uid="{0918A5C3-EE53-4DBF-8C0C-2251FB41871E}"/>
   <tableColumns count="4">
@@ -1216,7 +1236,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{DE41CD30-BCBD-40FE-B5DD-848DAAA9C25B}" name="FMKIO_OutputPwm" displayName="FMKIO_OutputPwm" ref="W5:AB13" totalsRowShown="0">
   <autoFilter ref="W5:AB13" xr:uid="{DE41CD30-BCBD-40FE-B5DD-848DAAA9C25B}"/>
   <tableColumns count="6">
@@ -1231,7 +1251,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B6D8F853-4E95-4D0E-932E-0F3ECC221901}" name="FMKIO_InputAna" displayName="FMKIO_InputAna" ref="E6:I16" totalsRowShown="0">
   <autoFilter ref="E6:I16" xr:uid="{B6D8F853-4E95-4D0E-932E-0F3ECC221901}"/>
   <tableColumns count="5">
@@ -1245,7 +1265,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{3EEFA786-828B-422C-9405-D0B0DD120CF4}" name="Tableau17" displayName="Tableau17" ref="AJ5:AJ21" totalsRowShown="0">
   <autoFilter ref="AJ5:AJ21" xr:uid="{3EEFA786-828B-422C-9405-D0B0DD120CF4}"/>
   <tableColumns count="1">
@@ -1255,21 +1275,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{06E0084F-32F1-4C7D-A6E0-EE7152DB4CBF}" name="Tableau18" displayName="Tableau18" ref="AL6:AL10" totalsRowShown="0">
   <autoFilter ref="AL6:AL10" xr:uid="{06E0084F-32F1-4C7D-A6E0-EE7152DB4CBF}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{DD976920-6FFB-4C96-8085-12D970F3A0A7}" name="Channel_Choice"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{9F1C0A09-0E71-42DD-A451-D3B53F431EBF}" name="Tableau1720" displayName="Tableau1720" ref="AN5:AN23" totalsRowShown="0">
-  <autoFilter ref="AN5:AN23" xr:uid="{9F1C0A09-0E71-42DD-A451-D3B53F431EBF}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{D50D0836-4115-4278-AA16-2E66D5FB62AC}" name="Adc_Channel"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1287,6 +1297,16 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{9F1C0A09-0E71-42DD-A451-D3B53F431EBF}" name="Tableau1720" displayName="Tableau1720" ref="AN5:AN23" totalsRowShown="0">
+  <autoFilter ref="AN5:AN23" xr:uid="{9F1C0A09-0E71-42DD-A451-D3B53F431EBF}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{D50D0836-4115-4278-AA16-2E66D5FB62AC}" name="Adc_Channel"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B3BFFBC0-5215-4824-AE53-6F0674E6F949}" name="Tableau20" displayName="Tableau20" ref="A25:C28" totalsRowShown="0">
   <autoFilter ref="A25:C28" xr:uid="{B3BFFBC0-5215-4824-AE53-6F0674E6F949}"/>
   <tableColumns count="3">
@@ -1298,7 +1318,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{0C2EE56A-0FA0-4A8F-A981-3DF80A8100DC}" name="Tableau2022" displayName="Tableau2022" ref="E27:G29" totalsRowShown="0">
   <autoFilter ref="E27:G29" xr:uid="{0C2EE56A-0FA0-4A8F-A981-3DF80A8100DC}"/>
   <tableColumns count="3">
@@ -1310,7 +1330,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{EB071486-BBE3-47FA-A4DE-38B8C83448BA}" name="Tableau202223" displayName="Tableau202223" ref="I27:K30" totalsRowShown="0">
   <autoFilter ref="I27:K30" xr:uid="{EB071486-BBE3-47FA-A4DE-38B8C83448BA}"/>
   <tableColumns count="3">
@@ -1322,7 +1342,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0413BBED-76B8-4200-A43C-D97EFAA1EA94}" name="Tableau20222324" displayName="Tableau20222324" ref="M27:O30" totalsRowShown="0">
   <autoFilter ref="M27:O30" xr:uid="{0413BBED-76B8-4200-A43C-D97EFAA1EA94}"/>
   <tableColumns count="3">
@@ -1334,7 +1354,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{684AB3A4-4693-477C-AADC-64EBB335C3E9}" name="FMKCPU_EvntTimer" displayName="FMKCPU_EvntTimer" ref="B4:C6" totalsRowShown="0">
   <autoFilter ref="B4:C6" xr:uid="{684AB3A4-4693-477C-AADC-64EBB335C3E9}"/>
   <tableColumns count="2">
@@ -1345,7 +1365,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{A4F27ADC-56A6-479B-93EF-D6AA72368D72}" name="FMKCDA_CalibrationOthers" displayName="FMKCDA_CalibrationOthers" ref="I3:L5" totalsRowShown="0">
   <autoFilter ref="I3:L5" xr:uid="{A4F27ADC-56A6-479B-93EF-D6AA72368D72}"/>
   <tableColumns count="4">
@@ -1358,7 +1378,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{99B4503A-67B2-48AD-BE25-2B3425F892A9}" name="FMKCDA_VoltageRef" displayName="FMKCDA_VoltageRef" ref="S3:V4" totalsRowShown="0">
   <autoFilter ref="S3:V4" xr:uid="{99B4503A-67B2-48AD-BE25-2B3425F892A9}"/>
   <tableColumns count="4">
@@ -1765,10 +1785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2D6D-43F7-44B1-8255-ECFDDA33AA9C}">
-  <dimension ref="B16:AD119"/>
+  <dimension ref="A16:AD119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D42" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1802,7 +1822,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="V17" t="s">
         <v>19</v>
       </c>
@@ -1819,7 +1839,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>169</v>
       </c>
@@ -1842,10 +1862,10 @@
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M18" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="V18" t="s">
         <v>20</v>
@@ -1863,7 +1883,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>170</v>
       </c>
@@ -1886,7 +1906,7 @@
         <v>191</v>
       </c>
       <c r="M19" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="Y19" t="s">
         <v>277</v>
@@ -1898,7 +1918,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>277</v>
       </c>
@@ -1918,10 +1938,10 @@
         <v>194</v>
       </c>
       <c r="M20" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>281</v>
       </c>
@@ -1941,10 +1961,10 @@
         <v>66</v>
       </c>
       <c r="M21" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>282</v>
       </c>
@@ -1964,13 +1984,13 @@
         <v>195</v>
       </c>
       <c r="M22" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AD22" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>283</v>
       </c>
@@ -1990,13 +2010,13 @@
         <v>211</v>
       </c>
       <c r="M23" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="AD23" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="24" spans="2:30" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>284</v>
       </c>
@@ -2016,13 +2036,13 @@
         <v>215</v>
       </c>
       <c r="M24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AD24" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="25" spans="2:30" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>94</v>
       </c>
@@ -2042,13 +2062,13 @@
         <v>216</v>
       </c>
       <c r="M25" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AD25" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>308</v>
       </c>
@@ -2068,10 +2088,16 @@
         <v>204</v>
       </c>
       <c r="M26" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>343</v>
+      </c>
+      <c r="B27" t="s">
+        <v>345</v>
+      </c>
       <c r="D27" t="s">
         <v>93</v>
       </c>
@@ -2091,10 +2117,16 @@
         <v>211</v>
       </c>
       <c r="M27" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>344</v>
+      </c>
+      <c r="B28">
+        <v>50</v>
+      </c>
       <c r="D28" t="s">
         <v>278</v>
       </c>
@@ -2114,10 +2146,16 @@
         <v>192</v>
       </c>
       <c r="M28" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>294</v>
+      </c>
+      <c r="B29">
+        <v>170</v>
+      </c>
       <c r="D29" t="s">
         <v>279</v>
       </c>
@@ -2137,10 +2175,10 @@
         <v>193</v>
       </c>
       <c r="M29" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>92</v>
       </c>
@@ -2160,10 +2198,10 @@
         <v>238</v>
       </c>
       <c r="M30" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>91</v>
       </c>
@@ -2174,7 +2212,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>90</v>
       </c>
@@ -2259,10 +2297,10 @@
         <v>18</v>
       </c>
       <c r="U36" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="V36" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" spans="4:22" x14ac:dyDescent="0.3">
@@ -2549,7 +2587,7 @@
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G55" t="s">
         <v>68</v>
@@ -2560,7 +2598,7 @@
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G56" t="s">
         <v>69</v>
@@ -3151,7 +3189,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="10">
+  <tableParts count="11">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -3162,6 +3200,7 @@
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3171,7 +3210,7 @@
   <dimension ref="A2:AN30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3326,22 +3365,22 @@
         <v>148</v>
       </c>
       <c r="W6" t="s">
-        <v>306</v>
+        <v>13</v>
       </c>
       <c r="X6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y6" t="s">
         <v>49</v>
       </c>
       <c r="Z6" t="s">
-        <v>305</v>
+        <v>5</v>
       </c>
       <c r="AA6" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="AB6" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="AD6" t="s">
         <v>12</v>
@@ -3397,13 +3436,13 @@
         <v>315</v>
       </c>
       <c r="N7" t="s">
-        <v>5</v>
+        <v>303</v>
       </c>
       <c r="O7" t="s">
         <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="R7" t="s">
         <v>11</v>
@@ -3418,22 +3457,22 @@
         <v>75</v>
       </c>
       <c r="W7" t="s">
-        <v>306</v>
+        <v>13</v>
       </c>
       <c r="X7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y7" t="s">
         <v>49</v>
       </c>
       <c r="Z7" t="s">
-        <v>305</v>
+        <v>5</v>
       </c>
       <c r="AA7" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="AB7" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="AD7" t="s">
         <v>12</v>
@@ -3462,7 +3501,7 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -3492,10 +3531,10 @@
         <v>5</v>
       </c>
       <c r="O8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="W8" t="s">
         <v>15</v>
@@ -3513,7 +3552,7 @@
         <v>46</v>
       </c>
       <c r="AB8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AD8" t="s">
         <v>13</v>
@@ -3575,7 +3614,7 @@
         <v>102</v>
       </c>
       <c r="P9" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="W9" t="s">
         <v>15</v>
@@ -3593,7 +3632,7 @@
         <v>47</v>
       </c>
       <c r="AB9" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AD9" t="s">
         <v>13</v>
@@ -3655,7 +3694,7 @@
         <v>102</v>
       </c>
       <c r="AB10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AD10" t="s">
         <v>13</v>
@@ -3717,7 +3756,7 @@
         <v>52</v>
       </c>
       <c r="AB11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AD11" t="s">
         <v>15</v>
@@ -3788,7 +3827,7 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AJ12" t="s">
         <v>32</v>
@@ -3847,7 +3886,7 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AJ13" t="s">
         <v>33</v>
@@ -3888,7 +3927,7 @@
         <v>36</v>
       </c>
       <c r="AF14" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AJ14" t="s">
         <v>34</v>
@@ -4346,7 +4385,7 @@
         <v>159</v>
       </c>
       <c r="J4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -4358,7 +4397,7 @@
         <v>162</v>
       </c>
       <c r="T4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="U4" t="s">
         <v>16</v>
@@ -4369,10 +4408,10 @@
     </row>
     <row r="5" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J5" t="s">
         <v>328</v>
-      </c>
-      <c r="J5" t="s">
-        <v>330</v>
       </c>
       <c r="K5" t="s">
         <v>312</v>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\Stm32PrjTpl\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087912D5-D1C5-485F-9A92-01F79705E048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC66E95-EB2E-4A9F-A13C-0C4BECB00FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="349">
   <si>
     <t>Colonne1</t>
   </si>
@@ -188,9 +188,6 @@
     <t>GPIO_IRQN</t>
   </si>
   <si>
-    <t>GPIO_AF0_MCO</t>
-  </si>
-  <si>
     <t>ADC_Used</t>
   </si>
   <si>
@@ -1077,6 +1074,18 @@
   </si>
   <si>
     <t>Max Clock Frequency (MHz)</t>
+  </si>
+  <si>
+    <t>Reference to AlternateFunction Datasheet</t>
+  </si>
+  <si>
+    <t>GPIO_AF2_TIM3</t>
+  </si>
+  <si>
+    <t>GPIO_AF2_TIM20</t>
+  </si>
+  <si>
+    <t>GPIO_AF6_TIM5</t>
   </si>
 </sst>
 </file>
@@ -1787,7 +1796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2D6D-43F7-44B1-8255-ECFDDA33AA9C}">
   <dimension ref="A16:AD119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
@@ -1819,7 +1828,7 @@
   <sheetData>
     <row r="16" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
@@ -1836,12 +1845,12 @@
         <v>18</v>
       </c>
       <c r="AD17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -1850,10 +1859,10 @@
         <v>21</v>
       </c>
       <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s">
         <v>59</v>
-      </c>
-      <c r="H18" t="s">
-        <v>60</v>
       </c>
       <c r="J18" t="s">
         <v>2</v>
@@ -1862,10 +1871,10 @@
         <v>3</v>
       </c>
       <c r="L18" t="s">
+        <v>330</v>
+      </c>
+      <c r="M18" t="s">
         <v>331</v>
-      </c>
-      <c r="M18" t="s">
-        <v>332</v>
       </c>
       <c r="V18" t="s">
         <v>20</v>
@@ -1874,27 +1883,27 @@
         <v>20</v>
       </c>
       <c r="Y18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="Z18">
         <v>8</v>
       </c>
       <c r="AD18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J19" t="s">
         <v>4</v>
@@ -1903,53 +1912,53 @@
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="Y19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Z19">
         <v>8</v>
       </c>
       <c r="AD19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K20">
         <v>4</v>
       </c>
       <c r="L20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="M20" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J21" t="s">
         <v>5</v>
@@ -1958,154 +1967,154 @@
         <v>4</v>
       </c>
       <c r="L21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G22" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K22">
         <v>4</v>
       </c>
       <c r="L22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AD22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K23">
         <v>4</v>
       </c>
       <c r="L23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AD23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J24" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M24" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AD25" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J26" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K26">
         <v>4</v>
       </c>
       <c r="L26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="M26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B27" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J27" t="s">
         <v>6</v>
@@ -2114,27 +2123,27 @@
         <v>2</v>
       </c>
       <c r="L27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B28">
         <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J28" t="s">
         <v>7</v>
@@ -2143,27 +2152,27 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B29">
         <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G29" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J29" t="s">
         <v>8</v>
@@ -2172,66 +2181,66 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H30" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J30" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K30">
         <v>4</v>
       </c>
       <c r="L30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M30" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G32" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O33" t="s">
         <v>9</v>
@@ -2242,13 +2251,13 @@
     </row>
     <row r="34" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O34" t="s">
         <v>11</v>
@@ -2259,13 +2268,13 @@
     </row>
     <row r="35" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O35" t="s">
         <v>12</v>
@@ -2276,13 +2285,13 @@
     </row>
     <row r="36" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G36" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O36" t="s">
         <v>13</v>
@@ -2297,21 +2306,21 @@
         <v>18</v>
       </c>
       <c r="U36" t="s">
+        <v>336</v>
+      </c>
+      <c r="V36" t="s">
         <v>337</v>
-      </c>
-      <c r="V36" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="37" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O37" t="s">
         <v>14</v>
@@ -2326,50 +2335,50 @@
         <v>18</v>
       </c>
       <c r="U37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V37" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="38" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O38" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="P38">
         <v>16</v>
       </c>
       <c r="S38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="T38">
         <v>18</v>
       </c>
       <c r="U38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="V38" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O39" t="s">
         <v>15</v>
@@ -2378,803 +2387,803 @@
         <v>16</v>
       </c>
       <c r="S39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T39">
         <v>18</v>
       </c>
       <c r="U39" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="V39" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G40" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O40" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="P40">
         <v>11</v>
       </c>
       <c r="S40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T40">
         <v>18</v>
       </c>
       <c r="U40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="V40" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="S41" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T41">
         <v>18</v>
       </c>
       <c r="U41" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="V41" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G42" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="43" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G43" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G44" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G48" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H49" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H51" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G52" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G57" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H57" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G58" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H58" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G60" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H60" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G61" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H63" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H64" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="65" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H65" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G66" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H66" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E67" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G67" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E68" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G68" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H68" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E69" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G69" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H69" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G70" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H70" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G71" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G72" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H72" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="73" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G73" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G74" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G75" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H75" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="76" spans="4:8" x14ac:dyDescent="0.3">
       <c r="G76" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H76" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77" spans="4:8" x14ac:dyDescent="0.3">
       <c r="G77" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H77" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="4:8" x14ac:dyDescent="0.3">
       <c r="G78" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H78" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.3">
       <c r="G79" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.3">
       <c r="G80" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G81" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G82" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H82" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G83" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H83" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G84" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H84" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G85" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H85" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="86" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G86" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H86" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="87" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G88" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H88" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="89" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G89" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H89" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G90" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H90" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G91" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H91" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G92" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H92" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G93" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H93" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="94" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G94" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H94" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="95" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G95" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H95" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="96" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G96" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H96" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="97" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G97" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H97" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G98" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H98" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G99" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H99" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G100" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H100" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G101" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H101" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="102" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G102" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H102" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="103" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G103" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H103" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="104" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G104" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G105" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G106" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G107" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G108" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H108" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="109" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G109" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H109" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G110" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H110" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="111" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G111" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H111" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="112" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G112" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H112" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="113" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G113" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H113" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="114" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G114" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H114" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="115" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G115" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H115" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="116" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G116" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H116" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="117" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G117" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H117" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="118" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G118" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H118" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="119" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G119" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H119" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -3209,8 +3218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7761-01BE-400F-9C40-BE71D85F5C61}">
   <dimension ref="A2:AN30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3224,6 +3233,7 @@
     <col min="8" max="8" width="17.33203125" customWidth="1"/>
     <col min="9" max="9" width="15.21875" customWidth="1"/>
     <col min="10" max="10" width="24.109375" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" customWidth="1"/>
     <col min="13" max="13" width="21.33203125" customWidth="1"/>
     <col min="16" max="16" width="24.6640625" customWidth="1"/>
     <col min="18" max="18" width="14.88671875" customWidth="1"/>
@@ -3239,15 +3249,18 @@
   <sheetData>
     <row r="2" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.3">
       <c r="R4" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" t="s">
         <v>57</v>
       </c>
-      <c r="W4" t="s">
-        <v>58</v>
+      <c r="Y4" t="s">
+        <v>345</v>
       </c>
       <c r="AD4" t="s">
         <v>38</v>
@@ -3255,13 +3268,16 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" t="s">
         <v>55</v>
       </c>
-      <c r="E5" t="s">
-        <v>54</v>
-      </c>
-      <c r="K5" t="s">
-        <v>56</v>
+      <c r="M5" t="s">
+        <v>345</v>
       </c>
       <c r="R5" t="s">
         <v>24</v>
@@ -3273,7 +3289,7 @@
         <v>48</v>
       </c>
       <c r="U5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s">
         <v>24</v>
@@ -3291,7 +3307,7 @@
         <v>45</v>
       </c>
       <c r="AB5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s">
         <v>24</v>
@@ -3300,13 +3316,13 @@
         <v>25</v>
       </c>
       <c r="AF5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.3">
@@ -3317,7 +3333,7 @@
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
@@ -3326,13 +3342,13 @@
         <v>25</v>
       </c>
       <c r="G6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s">
         <v>50</v>
       </c>
-      <c r="H6" t="s">
-        <v>51</v>
-      </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s">
         <v>24</v>
@@ -3350,7 +3366,7 @@
         <v>45</v>
       </c>
       <c r="P6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R6" t="s">
         <v>12</v>
@@ -3359,10 +3375,10 @@
         <v>36</v>
       </c>
       <c r="T6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W6" t="s">
         <v>13</v>
@@ -3371,7 +3387,7 @@
         <v>33</v>
       </c>
       <c r="Y6" t="s">
-        <v>49</v>
+        <v>346</v>
       </c>
       <c r="Z6" t="s">
         <v>5</v>
@@ -3380,7 +3396,7 @@
         <v>47</v>
       </c>
       <c r="AB6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="AD6" t="s">
         <v>12</v>
@@ -3389,16 +3405,16 @@
         <v>39</v>
       </c>
       <c r="AF6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AJ6" t="s">
         <v>26</v>
       </c>
       <c r="AL6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AN6" t="s">
         <v>103</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.3">
@@ -3409,7 +3425,7 @@
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -3421,28 +3437,28 @@
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L7" t="s">
         <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="N7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O7" t="s">
         <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="R7" t="s">
         <v>11</v>
@@ -3451,10 +3467,10 @@
         <v>30</v>
       </c>
       <c r="T7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="U7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W7" t="s">
         <v>13</v>
@@ -3463,7 +3479,7 @@
         <v>32</v>
       </c>
       <c r="Y7" t="s">
-        <v>49</v>
+        <v>346</v>
       </c>
       <c r="Z7" t="s">
         <v>5</v>
@@ -3472,7 +3488,7 @@
         <v>46</v>
       </c>
       <c r="AB7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AD7" t="s">
         <v>12</v>
@@ -3481,7 +3497,7 @@
         <v>40</v>
       </c>
       <c r="AF7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AJ7" t="s">
         <v>27</v>
@@ -3490,7 +3506,7 @@
         <v>46</v>
       </c>
       <c r="AN7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.3">
@@ -3501,7 +3517,7 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -3513,28 +3529,28 @@
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L8" t="s">
         <v>29</v>
       </c>
       <c r="M8" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="N8" t="s">
         <v>5</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="W8" t="s">
         <v>15</v>
@@ -3543,16 +3559,16 @@
         <v>39</v>
       </c>
       <c r="Y8" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
       <c r="Z8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA8" t="s">
         <v>46</v>
       </c>
       <c r="AB8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AD8" t="s">
         <v>13</v>
@@ -3561,7 +3577,7 @@
         <v>30</v>
       </c>
       <c r="AF8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AJ8" t="s">
         <v>28</v>
@@ -3570,7 +3586,7 @@
         <v>47</v>
       </c>
       <c r="AN8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.3">
@@ -3581,7 +3597,7 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -3593,28 +3609,28 @@
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L9" t="s">
         <v>30</v>
       </c>
       <c r="M9" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N9" t="s">
         <v>5</v>
       </c>
       <c r="O9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="W9" t="s">
         <v>15</v>
@@ -3623,16 +3639,16 @@
         <v>40</v>
       </c>
       <c r="Y9" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
       <c r="Z9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA9" t="s">
         <v>47</v>
       </c>
       <c r="AB9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AD9" t="s">
         <v>13</v>
@@ -3641,16 +3657,16 @@
         <v>31</v>
       </c>
       <c r="AF9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AJ9" t="s">
         <v>29</v>
       </c>
       <c r="AL9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AN9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.3">
@@ -3661,7 +3677,7 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -3673,10 +3689,10 @@
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W10" t="s">
         <v>15</v>
@@ -3685,16 +3701,16 @@
         <v>41</v>
       </c>
       <c r="Y10" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
       <c r="Z10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AB10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AD10" t="s">
         <v>13</v>
@@ -3703,16 +3719,16 @@
         <v>40</v>
       </c>
       <c r="AF10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AJ10" t="s">
         <v>30</v>
       </c>
       <c r="AL10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AN10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.3">
@@ -3723,7 +3739,7 @@
         <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -3732,13 +3748,13 @@
         <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s">
         <v>15</v>
@@ -3747,16 +3763,16 @@
         <v>42</v>
       </c>
       <c r="Y11" t="s">
-        <v>49</v>
+        <v>347</v>
       </c>
       <c r="Z11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB11" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AD11" t="s">
         <v>15</v>
@@ -3765,13 +3781,13 @@
         <v>30</v>
       </c>
       <c r="AF11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AJ11" t="s">
         <v>31</v>
       </c>
       <c r="AN11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.3">
@@ -3782,7 +3798,7 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -3791,16 +3807,16 @@
         <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W12" t="s">
         <v>15</v>
@@ -3809,16 +3825,16 @@
         <v>32</v>
       </c>
       <c r="Y12" t="s">
-        <v>49</v>
+        <v>348</v>
       </c>
       <c r="Z12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA12" t="s">
         <v>46</v>
       </c>
       <c r="AB12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD12" t="s">
         <v>14</v>
@@ -3827,13 +3843,13 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AJ12" t="s">
         <v>32</v>
       </c>
       <c r="AN12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.3">
@@ -3844,7 +3860,7 @@
         <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -3856,10 +3872,10 @@
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="W13" t="s">
         <v>15</v>
@@ -3868,16 +3884,16 @@
         <v>33</v>
       </c>
       <c r="Y13" t="s">
-        <v>49</v>
+        <v>348</v>
       </c>
       <c r="Z13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AA13" t="s">
         <v>47</v>
       </c>
       <c r="AB13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AD13" t="s">
         <v>14</v>
@@ -3886,13 +3902,13 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AJ13" t="s">
         <v>33</v>
       </c>
       <c r="AN13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.3">
@@ -3903,7 +3919,7 @@
         <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -3915,10 +3931,10 @@
         <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AD14" t="s">
         <v>14</v>
@@ -3927,13 +3943,13 @@
         <v>36</v>
       </c>
       <c r="AF14" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AJ14" t="s">
         <v>34</v>
       </c>
       <c r="AN14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.3">
@@ -3944,7 +3960,7 @@
         <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -3956,16 +3972,16 @@
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AJ15" t="s">
         <v>35</v>
       </c>
       <c r="AN15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.3">
@@ -3976,7 +3992,7 @@
         <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -3988,16 +4004,16 @@
         <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AJ16" t="s">
         <v>36</v>
       </c>
       <c r="AN16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.3">
@@ -4008,13 +4024,13 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AJ17" t="s">
         <v>37</v>
       </c>
       <c r="AN17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.3">
@@ -4022,7 +4038,7 @@
         <v>39</v>
       </c>
       <c r="AN18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.3">
@@ -4030,7 +4046,7 @@
         <v>40</v>
       </c>
       <c r="AN19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.3">
@@ -4038,7 +4054,7 @@
         <v>41</v>
       </c>
       <c r="AN20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.3">
@@ -4046,22 +4062,22 @@
         <v>42</v>
       </c>
       <c r="AN21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:40" x14ac:dyDescent="0.3">
       <c r="AN22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.3">
       <c r="AN23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.3">
@@ -4072,7 +4088,7 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.3">
@@ -4083,16 +4099,16 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I26" t="s">
+        <v>136</v>
+      </c>
+      <c r="M26" t="s">
         <v>137</v>
-      </c>
-      <c r="M26" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.3">
@@ -4103,7 +4119,7 @@
         <v>32</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
         <v>24</v>
@@ -4112,7 +4128,7 @@
         <v>25</v>
       </c>
       <c r="G27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I27" t="s">
         <v>24</v>
@@ -4121,7 +4137,7 @@
         <v>25</v>
       </c>
       <c r="K27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M27" t="s">
         <v>24</v>
@@ -4130,7 +4146,7 @@
         <v>25</v>
       </c>
       <c r="O27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.3">
@@ -4141,7 +4157,7 @@
         <v>33</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
         <v>12</v>
@@ -4150,7 +4166,7 @@
         <v>32</v>
       </c>
       <c r="G28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I28" t="s">
         <v>13</v>
@@ -4159,7 +4175,7 @@
         <v>36</v>
       </c>
       <c r="K28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M28" t="s">
         <v>11</v>
@@ -4168,7 +4184,7 @@
         <v>26</v>
       </c>
       <c r="O28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.3">
@@ -4179,7 +4195,7 @@
         <v>33</v>
       </c>
       <c r="G29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
         <v>13</v>
@@ -4188,7 +4204,7 @@
         <v>37</v>
       </c>
       <c r="K29" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M29" t="s">
         <v>11</v>
@@ -4197,7 +4213,7 @@
         <v>41</v>
       </c>
       <c r="O29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.3">
@@ -4208,7 +4224,7 @@
         <v>39</v>
       </c>
       <c r="K30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M30" t="s">
         <v>11</v>
@@ -4217,12 +4233,12 @@
         <v>42</v>
       </c>
       <c r="O30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ22 L7:L9 S6:S7 X6:X13 AE6:AE14 F7:F16 B7:B17" xr:uid="{14BC2D73-1395-4E2C-9D1E-55C781825C64}">
       <formula1>$AJ$6:$AJ$21</formula1>
     </dataValidation>
@@ -4252,7 +4268,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1C3D18C3-7241-4088-8034-07AAE0EB53A9}">
           <x14:formula1>
             <xm:f>General_Info!$J$19:$J$30</xm:f>
@@ -4289,7 +4305,7 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -4348,76 +4364,76 @@
   <sheetData>
     <row r="2" spans="9:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J3" t="s">
+        <v>166</v>
+      </c>
+      <c r="K3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L3" t="s">
+        <v>165</v>
+      </c>
+      <c r="S3" t="s">
+        <v>162</v>
+      </c>
+      <c r="T3" t="s">
         <v>167</v>
       </c>
-      <c r="K3" t="s">
+      <c r="U3" t="s">
+        <v>164</v>
+      </c>
+      <c r="V3" t="s">
         <v>165</v>
-      </c>
-      <c r="L3" t="s">
-        <v>166</v>
-      </c>
-      <c r="S3" t="s">
-        <v>163</v>
-      </c>
-      <c r="T3" t="s">
-        <v>168</v>
-      </c>
-      <c r="U3" t="s">
-        <v>165</v>
-      </c>
-      <c r="V3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="4" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="T4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="U4" t="s">
         <v>16</v>
       </c>
       <c r="V4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="L5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\Stm32PrjTpl\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC66E95-EB2E-4A9F-A13C-0C4BECB00FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD53EE3-632F-4A65-84EA-AC08F74732BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="313">
   <si>
     <t>Colonne1</t>
   </si>
@@ -254,30 +254,6 @@
     <t>MEDIUM</t>
   </si>
   <si>
-    <t>bsp pin name</t>
-  </si>
-  <si>
-    <t>PA2</t>
-  </si>
-  <si>
-    <t>PA3</t>
-  </si>
-  <si>
-    <t>PA4</t>
-  </si>
-  <si>
-    <t>PA5</t>
-  </si>
-  <si>
-    <t>PA6</t>
-  </si>
-  <si>
-    <t>PA7</t>
-  </si>
-  <si>
-    <t>PA12</t>
-  </si>
-  <si>
     <t>SYSCFG</t>
   </si>
   <si>
@@ -404,24 +380,6 @@
     <t>ADC_CHANNEL_17</t>
   </si>
   <si>
-    <t>PC3</t>
-  </si>
-  <si>
-    <t>PC2</t>
-  </si>
-  <si>
-    <t>PC1</t>
-  </si>
-  <si>
-    <t>PC0</t>
-  </si>
-  <si>
-    <t>PB8</t>
-  </si>
-  <si>
-    <t>PB9</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -449,69 +407,6 @@
     <t>PC12</t>
   </si>
   <si>
-    <t xml:space="preserve">Others USART _1 configuration (USART4 in DataSheet) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Others USART _2 configuration (USART1 in DataSheet) </t>
-  </si>
-  <si>
-    <t>PA0</t>
-  </si>
-  <si>
-    <t>PA14</t>
-  </si>
-  <si>
-    <t>PA15</t>
-  </si>
-  <si>
-    <t>PB0</t>
-  </si>
-  <si>
-    <t>PB1</t>
-  </si>
-  <si>
-    <t>PB2</t>
-  </si>
-  <si>
-    <t>PB3</t>
-  </si>
-  <si>
-    <t>PB4</t>
-  </si>
-  <si>
-    <t>PB5</t>
-  </si>
-  <si>
-    <t>PB10</t>
-  </si>
-  <si>
-    <t>PB11</t>
-  </si>
-  <si>
-    <t>PB12</t>
-  </si>
-  <si>
-    <t>PB13</t>
-  </si>
-  <si>
-    <t>PC4</t>
-  </si>
-  <si>
-    <t>PC5</t>
-  </si>
-  <si>
-    <t>PC13</t>
-  </si>
-  <si>
-    <t>PF4</t>
-  </si>
-  <si>
-    <t>PF6</t>
-  </si>
-  <si>
-    <t>PF7</t>
-  </si>
-  <si>
     <t>PC15, PC14, PF0, PF1  are forbidden</t>
   </si>
   <si>
@@ -986,36 +881,6 @@
     <t>GPIO_AF9_TIM15</t>
   </si>
   <si>
-    <t>PF12</t>
-  </si>
-  <si>
-    <t>PF13</t>
-  </si>
-  <si>
-    <t>PF14</t>
-  </si>
-  <si>
-    <t>PF15</t>
-  </si>
-  <si>
-    <t>PD13</t>
-  </si>
-  <si>
-    <t>PD9</t>
-  </si>
-  <si>
-    <t>PD10</t>
-  </si>
-  <si>
-    <t>PE2</t>
-  </si>
-  <si>
-    <t>PE3</t>
-  </si>
-  <si>
-    <t>PE4</t>
-  </si>
-  <si>
     <t>TS_CAL2</t>
   </si>
   <si>
@@ -1028,9 +893,6 @@
     <t>0x1FFF75AA</t>
   </si>
   <si>
-    <t>PA11</t>
-  </si>
-  <si>
     <t>Interrupt line associate</t>
   </si>
   <si>
@@ -1061,12 +923,6 @@
     <t>UART5</t>
   </si>
   <si>
-    <t>PC7</t>
-  </si>
-  <si>
-    <t>PC6</t>
-  </si>
-  <si>
     <t>Registre</t>
   </si>
   <si>
@@ -1086,6 +942,42 @@
   </si>
   <si>
     <t>GPIO_AF6_TIM5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Others USART configuration </t>
+  </si>
+  <si>
+    <t>OthersCAN configuration</t>
+  </si>
+  <si>
+    <t>GPIO_AF9_FDCAN1</t>
+  </si>
+  <si>
+    <t>Rx_GPIO_name</t>
+  </si>
+  <si>
+    <t>RxPin_name</t>
+  </si>
+  <si>
+    <t>Tx_Gpio_Name</t>
+  </si>
+  <si>
+    <t>Tx_Pin_Name</t>
+  </si>
+  <si>
+    <t>FDCAN 1</t>
+  </si>
+  <si>
+    <t>FDCAN 3</t>
+  </si>
+  <si>
+    <t>FDCAN 2</t>
+  </si>
+  <si>
+    <t>FDCAnx</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1142,6 +1034,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1194,89 +1087,83 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9F4B7C8E-8730-4908-B1BE-2954AF9427C0}" name="FMKIO_InputDig" displayName="FMKIO_InputDig" ref="A6:C17" totalsRowShown="0">
-  <autoFilter ref="A6:C17" xr:uid="{9F4B7C8E-8730-4908-B1BE-2954AF9427C0}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9F4B7C8E-8730-4908-B1BE-2954AF9427C0}" name="FMKIO_InputDig" displayName="FMKIO_InputDig" ref="A6:B15" totalsRowShown="0">
+  <autoFilter ref="A6:B15" xr:uid="{9F4B7C8E-8730-4908-B1BE-2954AF9427C0}"/>
+  <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6C4BEFED-5E85-401A-AA66-51A07D13FEBC}" name="GPIO_name"/>
     <tableColumn id="2" xr3:uid="{E08F986F-8D6D-4DEB-A18F-F4FB9A36C956}" name="Pin_name"/>
-    <tableColumn id="3" xr3:uid="{F49EBA6C-41BD-4C20-9D26-15768A7B10D2}" name="bsp pin name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{098A48DC-88A9-4122-ADE1-86E0F3796141}" name="FMKIO_OutputDig" displayName="FMKIO_OutputDig" ref="AD5:AF14" totalsRowShown="0">
-  <autoFilter ref="AD5:AF14" xr:uid="{098A48DC-88A9-4122-ADE1-86E0F3796141}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{098A48DC-88A9-4122-ADE1-86E0F3796141}" name="FMKIO_OutputDig" displayName="FMKIO_OutputDig" ref="Z7:AA16" totalsRowShown="0">
+  <autoFilter ref="Z7:AA16" xr:uid="{098A48DC-88A9-4122-ADE1-86E0F3796141}"/>
+  <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{395BD36A-0840-48CF-8D8D-56878E366FC5}" name="GPIO_name"/>
     <tableColumn id="2" xr3:uid="{34DF2CF3-8826-4F9E-A09D-280EE0FEFFBB}" name="Pin_name"/>
-    <tableColumn id="3" xr3:uid="{E768A198-E65B-4C98-95AC-D8359662A49C}" name="bsp pin name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{27D0C574-E325-48F5-AA31-7FBAF1E09007}" name="FMKIO_InputFreq" displayName="FMKIO_InputFreq" ref="K6:P9" totalsRowShown="0">
-  <autoFilter ref="K6:P9" xr:uid="{27D0C574-E325-48F5-AA31-7FBAF1E09007}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{27D0C574-E325-48F5-AA31-7FBAF1E09007}" name="FMKIO_InputFreq" displayName="FMKIO_InputFreq" ref="J6:N9" totalsRowShown="0">
+  <autoFilter ref="J6:N9" xr:uid="{27D0C574-E325-48F5-AA31-7FBAF1E09007}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F1DD33F7-0EF3-4BDF-839A-2E3FA15D0FD7}" name="GPIO_name"/>
     <tableColumn id="2" xr3:uid="{1EC5875F-046C-4961-B678-CB3386C5E012}" name="Pin_name"/>
     <tableColumn id="3" xr3:uid="{2903FC49-054C-4AAE-B1B2-EC8322607BC4}" name="alternate function timer"/>
     <tableColumn id="4" xr3:uid="{0FAF5E65-42DC-4A3D-BA84-99E7D9316BC5}" name="Timer "/>
     <tableColumn id="5" xr3:uid="{B821B507-A7EE-484E-99AA-009CEEB6B587}" name="Timer_channel"/>
-    <tableColumn id="6" xr3:uid="{2022CEEE-6DB4-429F-B475-019834CC2155}" name="bsp pin name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0918A5C3-EE53-4DBF-8C0C-2251FB41871E}" name="FMKIO_InputEvnt" displayName="FMKIO_InputEvnt" ref="R5:U7" totalsRowShown="0">
-  <autoFilter ref="R5:U7" xr:uid="{0918A5C3-EE53-4DBF-8C0C-2251FB41871E}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0918A5C3-EE53-4DBF-8C0C-2251FB41871E}" name="FMKIO_InputEvnt" displayName="FMKIO_InputEvnt" ref="V6:X8" totalsRowShown="0">
+  <autoFilter ref="V6:X8" xr:uid="{0918A5C3-EE53-4DBF-8C0C-2251FB41871E}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5C8A98A4-9028-4F61-A263-67D85D1BFF84}" name="GPIO_name"/>
     <tableColumn id="2" xr3:uid="{D3F2DFB4-9CF8-4086-ABAA-63BD13D3A4C5}" name="Pin_name"/>
     <tableColumn id="3" xr3:uid="{1B7695EF-BA44-4919-B42B-7277C82EAEAE}" name="GPIO_IRQN"/>
-    <tableColumn id="4" xr3:uid="{6A430537-74C5-4A0B-B496-4B277CC5FDC6}" name="bsp pin name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{DE41CD30-BCBD-40FE-B5DD-848DAAA9C25B}" name="FMKIO_OutputPwm" displayName="FMKIO_OutputPwm" ref="W5:AB13" totalsRowShown="0">
-  <autoFilter ref="W5:AB13" xr:uid="{DE41CD30-BCBD-40FE-B5DD-848DAAA9C25B}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{DE41CD30-BCBD-40FE-B5DD-848DAAA9C25B}" name="FMKIO_OutputPwm" displayName="FMKIO_OutputPwm" ref="P6:T14" totalsRowShown="0">
+  <autoFilter ref="P6:T14" xr:uid="{DE41CD30-BCBD-40FE-B5DD-848DAAA9C25B}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F2B685DB-87AE-429A-9E70-076DA856F9A2}" name="GPIO_name"/>
     <tableColumn id="2" xr3:uid="{30126296-E33C-4D56-9110-2D49FE159CF1}" name="Pin_name"/>
     <tableColumn id="3" xr3:uid="{40FECABF-BB72-44BD-85CF-471C0A6DFCAD}" name="alternate function timer"/>
     <tableColumn id="4" xr3:uid="{B11B3F8E-B4EB-4DA0-9576-7D8704B7B2D1}" name="Timer "/>
     <tableColumn id="5" xr3:uid="{7FD00E0A-7E1B-4877-A449-DCC379CE738A}" name="Timer_channel"/>
-    <tableColumn id="6" xr3:uid="{A05C98B6-F594-4D67-B222-8544AF81A27C}" name="bsp pin name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B6D8F853-4E95-4D0E-932E-0F3ECC221901}" name="FMKIO_InputAna" displayName="FMKIO_InputAna" ref="E6:I16" totalsRowShown="0">
-  <autoFilter ref="E6:I16" xr:uid="{B6D8F853-4E95-4D0E-932E-0F3ECC221901}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B6D8F853-4E95-4D0E-932E-0F3ECC221901}" name="FMKIO_InputAna" displayName="FMKIO_InputAna" ref="E6:H16" totalsRowShown="0">
+  <autoFilter ref="E6:H16" xr:uid="{B6D8F853-4E95-4D0E-932E-0F3ECC221901}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EDBDBF14-1FA4-44B8-A62D-BAA9F312652A}" name="GPIO_name"/>
     <tableColumn id="2" xr3:uid="{75AD9B1E-8F88-4CD9-86AB-C0D6BFDB44CD}" name="Pin_name"/>
     <tableColumn id="3" xr3:uid="{1D048BA7-3BEB-4D49-9106-38D6D8BF0832}" name="ADC_Used"/>
     <tableColumn id="4" xr3:uid="{2343B7ED-C668-4AE0-9949-C8D70A9AC2BF}" name="Adc_Channel"/>
-    <tableColumn id="5" xr3:uid="{B4C9B515-B929-452B-A84D-CF5AF8173BFA}" name="bsp pin name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{3EEFA786-828B-422C-9405-D0B0DD120CF4}" name="Tableau17" displayName="Tableau17" ref="AJ5:AJ21" totalsRowShown="0">
-  <autoFilter ref="AJ5:AJ21" xr:uid="{3EEFA786-828B-422C-9405-D0B0DD120CF4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{3EEFA786-828B-422C-9405-D0B0DD120CF4}" name="Tableau17" displayName="Tableau17" ref="AW29:AW45" totalsRowShown="0">
+  <autoFilter ref="AW29:AW45" xr:uid="{3EEFA786-828B-422C-9405-D0B0DD120CF4}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{01BF5210-733A-4DB1-A72E-FC1B749F7F18}" name="Pin_Choice"/>
   </tableColumns>
@@ -1285,8 +1172,8 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{06E0084F-32F1-4C7D-A6E0-EE7152DB4CBF}" name="Tableau18" displayName="Tableau18" ref="AL6:AL10" totalsRowShown="0">
-  <autoFilter ref="AL6:AL10" xr:uid="{06E0084F-32F1-4C7D-A6E0-EE7152DB4CBF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{06E0084F-32F1-4C7D-A6E0-EE7152DB4CBF}" name="Tableau18" displayName="Tableau18" ref="AY30:AY34" totalsRowShown="0">
+  <autoFilter ref="AY30:AY34" xr:uid="{06E0084F-32F1-4C7D-A6E0-EE7152DB4CBF}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{DD976920-6FFB-4C96-8085-12D970F3A0A7}" name="Channel_Choice"/>
   </tableColumns>
@@ -1306,8 +1193,8 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{9F1C0A09-0E71-42DD-A451-D3B53F431EBF}" name="Tableau1720" displayName="Tableau1720" ref="AN5:AN23" totalsRowShown="0">
-  <autoFilter ref="AN5:AN23" xr:uid="{9F1C0A09-0E71-42DD-A451-D3B53F431EBF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{9F1C0A09-0E71-42DD-A451-D3B53F431EBF}" name="Tableau1720" displayName="Tableau1720" ref="BA29:BA47" totalsRowShown="0">
+  <autoFilter ref="BA29:BA47" xr:uid="{9F1C0A09-0E71-42DD-A451-D3B53F431EBF}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{D50D0836-4115-4278-AA16-2E66D5FB62AC}" name="Adc_Channel"/>
   </tableColumns>
@@ -1316,20 +1203,19 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B3BFFBC0-5215-4824-AE53-6F0674E6F949}" name="Tableau20" displayName="Tableau20" ref="A25:C28" totalsRowShown="0">
-  <autoFilter ref="A25:C28" xr:uid="{B3BFFBC0-5215-4824-AE53-6F0674E6F949}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B3BFFBC0-5215-4824-AE53-6F0674E6F949}" name="Tableau20" displayName="Tableau20" ref="K74:L77" totalsRowShown="0">
+  <autoFilter ref="K74:L77" xr:uid="{B3BFFBC0-5215-4824-AE53-6F0674E6F949}"/>
+  <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{35492CF7-2D64-4A31-B52A-8DC201862D23}" name="GPIO_name"/>
     <tableColumn id="2" xr3:uid="{55201EA4-78EC-451A-894D-4121BE7C2D46}" name="Pin_name"/>
-    <tableColumn id="3" xr3:uid="{95976D38-4750-4385-89A0-E867F26709DF}" name="Bsp_Pin_Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{0C2EE56A-0FA0-4A8F-A981-3DF80A8100DC}" name="Tableau2022" displayName="Tableau2022" ref="E27:G29" totalsRowShown="0">
-  <autoFilter ref="E27:G29" xr:uid="{0C2EE56A-0FA0-4A8F-A981-3DF80A8100DC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{0C2EE56A-0FA0-4A8F-A981-3DF80A8100DC}" name="Tableau2022" displayName="Tableau2022" ref="O78:Q80" totalsRowShown="0">
+  <autoFilter ref="O78:Q80" xr:uid="{0C2EE56A-0FA0-4A8F-A981-3DF80A8100DC}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{231389D4-B645-4CB2-A30E-5CBE9EE6FEFC}" name="GPIO_name"/>
     <tableColumn id="2" xr3:uid="{56336DBF-18EC-4309-B422-97BDC37985D4}" name="Pin_name"/>
@@ -1340,8 +1226,8 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{EB071486-BBE3-47FA-A4DE-38B8C83448BA}" name="Tableau202223" displayName="Tableau202223" ref="I27:K30" totalsRowShown="0">
-  <autoFilter ref="I27:K30" xr:uid="{EB071486-BBE3-47FA-A4DE-38B8C83448BA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{EB071486-BBE3-47FA-A4DE-38B8C83448BA}" name="Tableau202223" displayName="Tableau202223" ref="S78:U81" totalsRowShown="0">
+  <autoFilter ref="S78:U81" xr:uid="{EB071486-BBE3-47FA-A4DE-38B8C83448BA}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{30F87F4B-0EBB-4470-919C-8CEF7288D9C8}" name="GPIO_name"/>
     <tableColumn id="2" xr3:uid="{DAB30C64-2E65-452D-A80D-3D932E8F35B6}" name="Pin_name"/>
@@ -1352,12 +1238,15 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0413BBED-76B8-4200-A43C-D97EFAA1EA94}" name="Tableau20222324" displayName="Tableau20222324" ref="M27:O30" totalsRowShown="0">
-  <autoFilter ref="M27:O30" xr:uid="{0413BBED-76B8-4200-A43C-D97EFAA1EA94}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{95762CE8-B06D-493C-B844-88501CD65909}" name="GPIO_name"/>
-    <tableColumn id="2" xr3:uid="{F5525426-5A61-46C9-A36F-3B7B9F70AC40}" name="Pin_name"/>
-    <tableColumn id="3" xr3:uid="{108F58E5-A0A9-420E-87F0-F24D6540D066}" name="Bsp_Pin_Name"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0413BBED-76B8-4200-A43C-D97EFAA1EA94}" name="FMKIO_CanCfg" displayName="FMKIO_CanCfg" ref="C29:H32" totalsRowShown="0">
+  <autoFilter ref="C29:H32" xr:uid="{0413BBED-76B8-4200-A43C-D97EFAA1EA94}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{95762CE8-B06D-493C-B844-88501CD65909}" name="Rx_GPIO_name"/>
+    <tableColumn id="4" xr3:uid="{A74F40FB-56BA-4761-B2D5-1E61012674DB}" name="RxPin_name"/>
+    <tableColumn id="6" xr3:uid="{6FE9310C-C4EC-42EB-9AC8-096669172652}" name="Tx_Gpio_Name"/>
+    <tableColumn id="5" xr3:uid="{F380EA12-9AE7-4F1E-87A3-552D4DD6AFC7}" name="Tx_Pin_Name"/>
+    <tableColumn id="2" xr3:uid="{F5525426-5A61-46C9-A36F-3B7B9F70AC40}" name="alternate function timer"/>
+    <tableColumn id="7" xr3:uid="{C3C3D9CA-81EB-41EA-A0AC-F29FFF017741}" name="FDCAnx"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1828,7 +1717,7 @@
   <sheetData>
     <row r="16" spans="30:30" x14ac:dyDescent="0.3">
       <c r="AD16" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.3">
@@ -1845,12 +1734,12 @@
         <v>18</v>
       </c>
       <c r="AD17" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="D18" t="s">
         <v>22</v>
@@ -1871,10 +1760,10 @@
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="M18" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="V18" t="s">
         <v>20</v>
@@ -1883,7 +1772,7 @@
         <v>20</v>
       </c>
       <c r="Y18" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="Z18">
         <v>8</v>
@@ -1894,10 +1783,10 @@
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="D19" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s">
         <v>60</v>
@@ -1912,50 +1801,50 @@
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="M19" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="Y19" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="Z19">
         <v>8</v>
       </c>
       <c r="AD19" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>276</v>
+        <v>241</v>
       </c>
       <c r="G20" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="H20" t="s">
         <v>70</v>
       </c>
       <c r="J20" t="s">
-        <v>298</v>
+        <v>263</v>
       </c>
       <c r="K20">
         <v>4</v>
       </c>
       <c r="L20" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="M20" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="G21" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="H21" t="s">
         <v>70</v>
@@ -1970,38 +1859,38 @@
         <v>65</v>
       </c>
       <c r="M21" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="G22" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="H22" t="s">
         <v>70</v>
       </c>
       <c r="J22" t="s">
-        <v>299</v>
+        <v>264</v>
       </c>
       <c r="K22">
         <v>4</v>
       </c>
       <c r="L22" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="M22" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="AD22" t="s">
-        <v>332</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="G23" t="s">
         <v>61</v>
@@ -2010,24 +1899,24 @@
         <v>70</v>
       </c>
       <c r="J23" t="s">
-        <v>304</v>
+        <v>269</v>
       </c>
       <c r="K23">
         <v>4</v>
       </c>
       <c r="L23" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="M23" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="AD23" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="G24" t="s">
         <v>62</v>
@@ -2036,82 +1925,82 @@
         <v>70</v>
       </c>
       <c r="J24" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="M24" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="AD24" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G25" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="H25" t="s">
         <v>70</v>
       </c>
       <c r="J25" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="M25" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="AD25" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="G26" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="H26" t="s">
         <v>70</v>
       </c>
       <c r="J26" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="K26">
         <v>4</v>
       </c>
       <c r="L26" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="M26" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>342</v>
+        <v>294</v>
       </c>
       <c r="B27" t="s">
-        <v>344</v>
+        <v>296</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G27" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="H27" t="s">
         <v>70</v>
@@ -2123,24 +2012,24 @@
         <v>2</v>
       </c>
       <c r="L27" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="M27" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>343</v>
+        <v>295</v>
       </c>
       <c r="B28">
         <v>50</v>
       </c>
       <c r="D28" t="s">
-        <v>277</v>
+        <v>242</v>
       </c>
       <c r="G28" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="H28" t="s">
         <v>70</v>
@@ -2152,24 +2041,24 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="M28" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="B29">
         <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="G29" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="H29" t="s">
         <v>70</v>
@@ -2181,15 +2070,15 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="M29" t="s">
-        <v>334</v>
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G30" t="s">
         <v>63</v>
@@ -2198,24 +2087,24 @@
         <v>70</v>
       </c>
       <c r="J30" t="s">
-        <v>303</v>
+        <v>268</v>
       </c>
       <c r="K30">
         <v>4</v>
       </c>
       <c r="L30" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="M30" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="H31" t="s">
         <v>70</v>
@@ -2223,10 +2112,10 @@
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G32" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="H32" t="s">
         <v>70</v>
@@ -2234,10 +2123,10 @@
     </row>
     <row r="33" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="G33" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="H33" t="s">
         <v>70</v>
@@ -2251,10 +2140,10 @@
     </row>
     <row r="34" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="G34" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="H34" t="s">
         <v>70</v>
@@ -2268,10 +2157,10 @@
     </row>
     <row r="35" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="G35" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="H35" t="s">
         <v>70</v>
@@ -2285,10 +2174,10 @@
     </row>
     <row r="36" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>274</v>
+        <v>239</v>
       </c>
       <c r="G36" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="H36" t="s">
         <v>70</v>
@@ -2306,18 +2195,18 @@
         <v>18</v>
       </c>
       <c r="U36" t="s">
-        <v>336</v>
+        <v>290</v>
       </c>
       <c r="V36" t="s">
-        <v>337</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="G37" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="H37" t="s">
         <v>70</v>
@@ -2335,47 +2224,47 @@
         <v>18</v>
       </c>
       <c r="U37" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="V37" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="G38" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="H38" t="s">
         <v>70</v>
       </c>
       <c r="O38" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="P38">
         <v>16</v>
       </c>
       <c r="S38" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="T38">
         <v>18</v>
       </c>
       <c r="U38" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="V38" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="G39" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="H39" t="s">
         <v>70</v>
@@ -2387,76 +2276,76 @@
         <v>16</v>
       </c>
       <c r="S39" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="T39">
         <v>18</v>
       </c>
       <c r="U39" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="V39" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>288</v>
+        <v>253</v>
       </c>
       <c r="G40" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="H40" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="O40" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="P40">
         <v>11</v>
       </c>
       <c r="S40" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="T40">
         <v>18</v>
       </c>
       <c r="U40" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="V40" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
     </row>
     <row r="41" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>289</v>
+        <v>254</v>
       </c>
       <c r="G41" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="H41" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="S41" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="T41">
         <v>18</v>
       </c>
       <c r="U41" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="V41" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
     </row>
     <row r="42" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>273</v>
+        <v>238</v>
       </c>
       <c r="G42" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="H42" t="s">
         <v>70</v>
@@ -2464,10 +2353,10 @@
     </row>
     <row r="43" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="H43" t="s">
         <v>70</v>
@@ -2475,10 +2364,10 @@
     </row>
     <row r="44" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="G44" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="H44" t="s">
         <v>70</v>
@@ -2486,10 +2375,10 @@
     </row>
     <row r="45" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="G45" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="H45" t="s">
         <v>70</v>
@@ -2497,7 +2386,7 @@
     </row>
     <row r="46" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>271</v>
+        <v>236</v>
       </c>
       <c r="G46" t="s">
         <v>64</v>
@@ -2508,10 +2397,10 @@
     </row>
     <row r="47" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>270</v>
+        <v>235</v>
       </c>
       <c r="G47" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="H47" t="s">
         <v>70</v>
@@ -2519,7 +2408,7 @@
     </row>
     <row r="48" spans="4:22" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>291</v>
+        <v>256</v>
       </c>
       <c r="G48" t="s">
         <v>65</v>
@@ -2530,10 +2419,10 @@
     </row>
     <row r="49" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="G49" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="H49" t="s">
         <v>70</v>
@@ -2541,10 +2430,10 @@
     </row>
     <row r="50" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G50" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="H50" t="s">
         <v>70</v>
@@ -2552,10 +2441,10 @@
     </row>
     <row r="51" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="H51" t="s">
         <v>70</v>
@@ -2563,10 +2452,10 @@
     </row>
     <row r="52" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>266</v>
+        <v>231</v>
       </c>
       <c r="G52" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="H52" t="s">
         <v>70</v>
@@ -2574,10 +2463,10 @@
     </row>
     <row r="53" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="H53" t="s">
         <v>70</v>
@@ -2585,7 +2474,7 @@
     </row>
     <row r="54" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>265</v>
+        <v>230</v>
       </c>
       <c r="G54" t="s">
         <v>66</v>
@@ -2596,7 +2485,7 @@
     </row>
     <row r="55" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="G55" t="s">
         <v>67</v>
@@ -2607,7 +2496,7 @@
     </row>
     <row r="56" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="G56" t="s">
         <v>68</v>
@@ -2618,7 +2507,7 @@
     </row>
     <row r="57" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>264</v>
+        <v>229</v>
       </c>
       <c r="G57" t="s">
         <v>69</v>
@@ -2629,10 +2518,10 @@
     </row>
     <row r="58" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>262</v>
+        <v>227</v>
       </c>
       <c r="G58" t="s">
-        <v>199</v>
+        <v>164</v>
       </c>
       <c r="H58" t="s">
         <v>70</v>
@@ -2640,10 +2529,10 @@
     </row>
     <row r="59" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="G59" t="s">
-        <v>200</v>
+        <v>165</v>
       </c>
       <c r="H59" t="s">
         <v>70</v>
@@ -2651,10 +2540,10 @@
     </row>
     <row r="60" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G60" t="s">
-        <v>201</v>
+        <v>166</v>
       </c>
       <c r="H60" t="s">
         <v>70</v>
@@ -2662,10 +2551,10 @@
     </row>
     <row r="61" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="G61" t="s">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="H61" t="s">
         <v>70</v>
@@ -2673,10 +2562,10 @@
     </row>
     <row r="62" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>267</v>
+        <v>232</v>
       </c>
       <c r="G62" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="H62" t="s">
         <v>70</v>
@@ -2684,10 +2573,10 @@
     </row>
     <row r="63" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="G63" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
       <c r="H63" t="s">
         <v>70</v>
@@ -2695,10 +2584,10 @@
     </row>
     <row r="64" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G64" t="s">
-        <v>205</v>
+        <v>170</v>
       </c>
       <c r="H64" t="s">
         <v>70</v>
@@ -2706,10 +2595,10 @@
     </row>
     <row r="65" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G65" t="s">
-        <v>206</v>
+        <v>171</v>
       </c>
       <c r="H65" t="s">
         <v>70</v>
@@ -2717,10 +2606,10 @@
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G66" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="H66" t="s">
         <v>70</v>
@@ -2728,13 +2617,13 @@
     </row>
     <row r="67" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>269</v>
+        <v>234</v>
       </c>
       <c r="E67" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="G67" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="H67" t="s">
         <v>70</v>
@@ -2742,13 +2631,13 @@
     </row>
     <row r="68" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E68" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="G68" t="s">
-        <v>209</v>
+        <v>174</v>
       </c>
       <c r="H68" t="s">
         <v>70</v>
@@ -2756,13 +2645,13 @@
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>295</v>
+        <v>260</v>
       </c>
       <c r="E69" t="s">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="G69" t="s">
-        <v>210</v>
+        <v>175</v>
       </c>
       <c r="H69" t="s">
         <v>70</v>
@@ -2770,10 +2659,10 @@
     </row>
     <row r="70" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G70" t="s">
-        <v>211</v>
+        <v>176</v>
       </c>
       <c r="H70" t="s">
         <v>70</v>
@@ -2781,10 +2670,10 @@
     </row>
     <row r="71" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="G71" t="s">
-        <v>212</v>
+        <v>177</v>
       </c>
       <c r="H71" t="s">
         <v>70</v>
@@ -2792,10 +2681,10 @@
     </row>
     <row r="72" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G72" t="s">
-        <v>213</v>
+        <v>178</v>
       </c>
       <c r="H72" t="s">
         <v>70</v>
@@ -2803,10 +2692,10 @@
     </row>
     <row r="73" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
-        <v>268</v>
+        <v>233</v>
       </c>
       <c r="G73" t="s">
-        <v>214</v>
+        <v>179</v>
       </c>
       <c r="H73" t="s">
         <v>70</v>
@@ -2814,10 +2703,10 @@
     </row>
     <row r="74" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>296</v>
+        <v>261</v>
       </c>
       <c r="G74" t="s">
-        <v>215</v>
+        <v>180</v>
       </c>
       <c r="H74" t="s">
         <v>70</v>
@@ -2825,10 +2714,10 @@
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>297</v>
+        <v>262</v>
       </c>
       <c r="G75" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="H75" t="s">
         <v>70</v>
@@ -2836,7 +2725,7 @@
     </row>
     <row r="76" spans="4:8" x14ac:dyDescent="0.3">
       <c r="G76" t="s">
-        <v>217</v>
+        <v>182</v>
       </c>
       <c r="H76" t="s">
         <v>70</v>
@@ -2844,7 +2733,7 @@
     </row>
     <row r="77" spans="4:8" x14ac:dyDescent="0.3">
       <c r="G77" t="s">
-        <v>218</v>
+        <v>183</v>
       </c>
       <c r="H77" t="s">
         <v>70</v>
@@ -2852,7 +2741,7 @@
     </row>
     <row r="78" spans="4:8" x14ac:dyDescent="0.3">
       <c r="G78" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
       <c r="H78" t="s">
         <v>70</v>
@@ -2860,7 +2749,7 @@
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.3">
       <c r="G79" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="H79" t="s">
         <v>70</v>
@@ -2868,7 +2757,7 @@
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.3">
       <c r="G80" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="H80" t="s">
         <v>70</v>
@@ -2876,7 +2765,7 @@
     </row>
     <row r="81" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G81" t="s">
-        <v>222</v>
+        <v>187</v>
       </c>
       <c r="H81" t="s">
         <v>70</v>
@@ -2884,7 +2773,7 @@
     </row>
     <row r="82" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G82" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="H82" t="s">
         <v>70</v>
@@ -2892,7 +2781,7 @@
     </row>
     <row r="83" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G83" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
       <c r="H83" t="s">
         <v>70</v>
@@ -2900,7 +2789,7 @@
     </row>
     <row r="84" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G84" t="s">
-        <v>225</v>
+        <v>190</v>
       </c>
       <c r="H84" t="s">
         <v>70</v>
@@ -2908,7 +2797,7 @@
     </row>
     <row r="85" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G85" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="H85" t="s">
         <v>70</v>
@@ -2916,7 +2805,7 @@
     </row>
     <row r="86" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G86" t="s">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="H86" t="s">
         <v>70</v>
@@ -2924,7 +2813,7 @@
     </row>
     <row r="87" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G87" t="s">
-        <v>228</v>
+        <v>193</v>
       </c>
       <c r="H87" t="s">
         <v>70</v>
@@ -2932,7 +2821,7 @@
     </row>
     <row r="88" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G88" t="s">
-        <v>229</v>
+        <v>194</v>
       </c>
       <c r="H88" t="s">
         <v>70</v>
@@ -2940,7 +2829,7 @@
     </row>
     <row r="89" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G89" t="s">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="H89" t="s">
         <v>70</v>
@@ -2948,7 +2837,7 @@
     </row>
     <row r="90" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G90" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="H90" t="s">
         <v>70</v>
@@ -2956,7 +2845,7 @@
     </row>
     <row r="91" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G91" t="s">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="H91" t="s">
         <v>70</v>
@@ -2964,7 +2853,7 @@
     </row>
     <row r="92" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G92" t="s">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="H92" t="s">
         <v>70</v>
@@ -2972,7 +2861,7 @@
     </row>
     <row r="93" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G93" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="H93" t="s">
         <v>70</v>
@@ -2980,7 +2869,7 @@
     </row>
     <row r="94" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G94" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="H94" t="s">
         <v>70</v>
@@ -2988,7 +2877,7 @@
     </row>
     <row r="95" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G95" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="H95" t="s">
         <v>70</v>
@@ -2996,7 +2885,7 @@
     </row>
     <row r="96" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G96" t="s">
-        <v>237</v>
+        <v>202</v>
       </c>
       <c r="H96" t="s">
         <v>70</v>
@@ -3004,7 +2893,7 @@
     </row>
     <row r="97" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G97" t="s">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="H97" t="s">
         <v>70</v>
@@ -3012,7 +2901,7 @@
     </row>
     <row r="98" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G98" t="s">
-        <v>239</v>
+        <v>204</v>
       </c>
       <c r="H98" t="s">
         <v>70</v>
@@ -3020,7 +2909,7 @@
     </row>
     <row r="99" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G99" t="s">
-        <v>240</v>
+        <v>205</v>
       </c>
       <c r="H99" t="s">
         <v>70</v>
@@ -3028,7 +2917,7 @@
     </row>
     <row r="100" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G100" t="s">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="H100" t="s">
         <v>70</v>
@@ -3036,7 +2925,7 @@
     </row>
     <row r="101" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G101" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="H101" t="s">
         <v>70</v>
@@ -3044,7 +2933,7 @@
     </row>
     <row r="102" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G102" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="H102" t="s">
         <v>70</v>
@@ -3052,7 +2941,7 @@
     </row>
     <row r="103" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G103" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="H103" t="s">
         <v>70</v>
@@ -3060,39 +2949,39 @@
     </row>
     <row r="104" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G104" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="H104" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="105" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G105" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="H105" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="106" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G106" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="H106" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="107" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G107" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="H107" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="108" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G108" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="H108" t="s">
         <v>70</v>
@@ -3100,7 +2989,7 @@
     </row>
     <row r="109" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G109" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="H109" t="s">
         <v>70</v>
@@ -3108,7 +2997,7 @@
     </row>
     <row r="110" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G110" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
       <c r="H110" t="s">
         <v>70</v>
@@ -3116,7 +3005,7 @@
     </row>
     <row r="111" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G111" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="H111" t="s">
         <v>70</v>
@@ -3124,7 +3013,7 @@
     </row>
     <row r="112" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G112" t="s">
-        <v>253</v>
+        <v>218</v>
       </c>
       <c r="H112" t="s">
         <v>70</v>
@@ -3132,7 +3021,7 @@
     </row>
     <row r="113" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G113" t="s">
-        <v>254</v>
+        <v>219</v>
       </c>
       <c r="H113" t="s">
         <v>70</v>
@@ -3140,7 +3029,7 @@
     </row>
     <row r="114" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G114" t="s">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="H114" t="s">
         <v>70</v>
@@ -3148,7 +3037,7 @@
     </row>
     <row r="115" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G115" t="s">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="H115" t="s">
         <v>70</v>
@@ -3156,7 +3045,7 @@
     </row>
     <row r="116" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G116" t="s">
-        <v>257</v>
+        <v>222</v>
       </c>
       <c r="H116" t="s">
         <v>70</v>
@@ -3164,7 +3053,7 @@
     </row>
     <row r="117" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G117" t="s">
-        <v>258</v>
+        <v>223</v>
       </c>
       <c r="H117" t="s">
         <v>70</v>
@@ -3172,7 +3061,7 @@
     </row>
     <row r="118" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G118" t="s">
-        <v>259</v>
+        <v>224</v>
       </c>
       <c r="H118" t="s">
         <v>70</v>
@@ -3180,7 +3069,7 @@
     </row>
     <row r="119" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G119" t="s">
-        <v>260</v>
+        <v>225</v>
       </c>
       <c r="H119" t="s">
         <v>70</v>
@@ -3216,10 +3105,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7761-01BE-400F-9C40-BE71D85F5C61}">
-  <dimension ref="A2:AN30"/>
+  <dimension ref="A2:BA81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3230,16 +3119,20 @@
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="22.109375" customWidth="1"/>
     <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
+    <col min="8" max="8" width="22.88671875" customWidth="1"/>
     <col min="9" max="9" width="15.21875" customWidth="1"/>
     <col min="10" max="10" width="24.109375" customWidth="1"/>
     <col min="12" max="12" width="21.109375" customWidth="1"/>
-    <col min="13" max="13" width="21.33203125" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" customWidth="1"/>
     <col min="16" max="16" width="24.6640625" customWidth="1"/>
-    <col min="18" max="18" width="14.88671875" customWidth="1"/>
+    <col min="18" max="18" width="18.5546875" customWidth="1"/>
+    <col min="19" max="19" width="23.33203125" customWidth="1"/>
     <col min="20" max="20" width="18.44140625" customWidth="1"/>
+    <col min="21" max="21" width="23.109375" customWidth="1"/>
     <col min="24" max="24" width="20" customWidth="1"/>
     <col min="25" max="25" width="16.77734375" customWidth="1"/>
+    <col min="26" max="26" width="20.77734375" customWidth="1"/>
     <col min="27" max="27" width="16.77734375" customWidth="1"/>
     <col min="30" max="30" width="13" customWidth="1"/>
     <col min="31" max="31" width="17.6640625" customWidth="1"/>
@@ -3247,94 +3140,41 @@
     <col min="40" max="40" width="19.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="R4" t="s">
-        <v>56</v>
-      </c>
-      <c r="W4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>345</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
       <c r="E5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
         <v>55</v>
       </c>
-      <c r="M5" t="s">
-        <v>345</v>
+      <c r="L5" t="s">
+        <v>297</v>
+      </c>
+      <c r="P5" t="s">
+        <v>57</v>
       </c>
       <c r="R5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" t="s">
-        <v>48</v>
-      </c>
-      <c r="U5" t="s">
-        <v>71</v>
-      </c>
-      <c r="W5" t="s">
-        <v>24</v>
-      </c>
-      <c r="X5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>24</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>25</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+      <c r="V5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
@@ -3347,85 +3187,55 @@
       <c r="H6" t="s">
         <v>50</v>
       </c>
-      <c r="I6" t="s">
-        <v>71</v>
+      <c r="J6" t="s">
+        <v>24</v>
       </c>
       <c r="K6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" t="s">
         <v>24</v>
       </c>
-      <c r="L6" t="s">
+      <c r="Q6" t="s">
         <v>25</v>
       </c>
-      <c r="M6" t="s">
+      <c r="R6" t="s">
         <v>43</v>
       </c>
-      <c r="N6" t="s">
+      <c r="S6" t="s">
         <v>44</v>
       </c>
-      <c r="O6" t="s">
+      <c r="T6" t="s">
         <v>45</v>
       </c>
-      <c r="P6" t="s">
-        <v>71</v>
-      </c>
-      <c r="R6" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" t="s">
-        <v>200</v>
-      </c>
-      <c r="U6" t="s">
-        <v>147</v>
+      <c r="V6" t="s">
+        <v>24</v>
       </c>
       <c r="W6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="X6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>346</v>
+        <v>48</v>
       </c>
       <c r="Z6" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>340</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
@@ -3437,87 +3247,60 @@
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7" t="s">
-        <v>124</v>
+        <v>101</v>
+      </c>
+      <c r="J7" t="s">
+        <v>270</v>
       </c>
       <c r="K7" t="s">
-        <v>305</v>
+        <v>28</v>
       </c>
       <c r="L7" t="s">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="M7" t="s">
-        <v>314</v>
+        <v>267</v>
       </c>
       <c r="N7" t="s">
-        <v>302</v>
-      </c>
-      <c r="O7" t="s">
         <v>46</v>
       </c>
       <c r="P7" t="s">
-        <v>322</v>
+        <v>13</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>33</v>
       </c>
       <c r="R7" t="s">
-        <v>11</v>
+        <v>298</v>
       </c>
       <c r="S7" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="T7" t="s">
-        <v>177</v>
-      </c>
-      <c r="U7" t="s">
-        <v>74</v>
+        <v>47</v>
+      </c>
+      <c r="V7" t="s">
+        <v>12</v>
       </c>
       <c r="W7" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="X7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>346</v>
+        <v>165</v>
       </c>
       <c r="Z7" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="AA7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>341</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>27</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" t="s">
-        <v>329</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
@@ -3529,75 +3312,60 @@
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" t="s">
-        <v>123</v>
+        <v>102</v>
+      </c>
+      <c r="J8" t="s">
+        <v>270</v>
       </c>
       <c r="K8" t="s">
-        <v>305</v>
+        <v>29</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>277</v>
       </c>
       <c r="M8" t="s">
-        <v>312</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R8" t="s">
+        <v>298</v>
+      </c>
+      <c r="S8" t="s">
         <v>5</v>
       </c>
-      <c r="O8" t="s">
-        <v>51</v>
-      </c>
-      <c r="P8" t="s">
-        <v>323</v>
+      <c r="T8" t="s">
+        <v>46</v>
+      </c>
+      <c r="V8" t="s">
+        <v>11</v>
       </c>
       <c r="W8" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="X8" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA8" t="s">
         <v>39</v>
       </c>
-      <c r="Y8" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>315</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>139</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
@@ -3609,75 +3377,51 @@
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I9" t="s">
-        <v>122</v>
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>270</v>
       </c>
       <c r="K9" t="s">
-        <v>305</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>278</v>
       </c>
       <c r="M9" t="s">
-        <v>313</v>
+        <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>5</v>
-      </c>
-      <c r="O9" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="P9" t="s">
-        <v>324</v>
-      </c>
-      <c r="W9" t="s">
         <v>15</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Q9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" t="s">
+        <v>299</v>
+      </c>
+      <c r="S9" t="s">
+        <v>268</v>
+      </c>
+      <c r="T9" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA9" t="s">
         <v>40</v>
       </c>
-      <c r="Y9" t="s">
-        <v>347</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>316</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>31</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>152</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AN9" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" t="s">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -3689,57 +3433,36 @@
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>112</v>
-      </c>
-      <c r="I10" t="s">
-        <v>121</v>
-      </c>
-      <c r="W10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" t="s">
         <v>15</v>
       </c>
-      <c r="X10" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>347</v>
+      <c r="Q10" t="s">
+        <v>40</v>
+      </c>
+      <c r="R10" t="s">
+        <v>299</v>
+      </c>
+      <c r="S10" t="s">
+        <v>268</v>
+      </c>
+      <c r="T10" t="s">
+        <v>47</v>
       </c>
       <c r="Z10" t="s">
-        <v>303</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>317</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>153</v>
-      </c>
-      <c r="AJ10" t="s">
         <v>30</v>
       </c>
-      <c r="AL10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>141</v>
+        <v>28</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -3748,57 +3471,39 @@
         <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="H11" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" t="s">
-        <v>76</v>
-      </c>
-      <c r="W11" t="s">
+        <v>98</v>
+      </c>
+      <c r="P11" t="s">
         <v>15</v>
       </c>
-      <c r="X11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>347</v>
+      <c r="Q11" t="s">
+        <v>41</v>
+      </c>
+      <c r="R11" t="s">
+        <v>299</v>
+      </c>
+      <c r="S11" t="s">
+        <v>268</v>
+      </c>
+      <c r="T11" t="s">
+        <v>93</v>
       </c>
       <c r="Z11" t="s">
-        <v>303</v>
+        <v>13</v>
       </c>
       <c r="AA11" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>318</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>154</v>
-      </c>
-      <c r="AJ11" t="s">
         <v>31</v>
       </c>
-      <c r="AN11" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" t="s">
-        <v>142</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -3807,60 +3512,39 @@
         <v>33</v>
       </c>
       <c r="G12" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="H12" t="s">
-        <v>107</v>
-      </c>
-      <c r="I12" t="s">
-        <v>77</v>
+        <v>99</v>
+      </c>
+      <c r="P12" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>42</v>
+      </c>
+      <c r="R12" t="s">
+        <v>299</v>
+      </c>
+      <c r="S12" t="s">
+        <v>268</v>
       </c>
       <c r="T12" t="s">
-        <v>127</v>
-      </c>
-      <c r="W12" t="s">
-        <v>15</v>
-      </c>
-      <c r="X12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>348</v>
+        <v>51</v>
       </c>
       <c r="Z12" t="s">
-        <v>304</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE12" t="s">
         <v>40</v>
       </c>
-      <c r="AF12" t="s">
-        <v>319</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AN12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" t="s">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
@@ -3872,54 +3556,36 @@
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>118</v>
-      </c>
-      <c r="I13" t="s">
-        <v>125</v>
-      </c>
-      <c r="W13" t="s">
+        <v>110</v>
+      </c>
+      <c r="P13" t="s">
         <v>15</v>
       </c>
-      <c r="X13" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>348</v>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+      <c r="R13" t="s">
+        <v>300</v>
+      </c>
+      <c r="S13" t="s">
+        <v>269</v>
+      </c>
+      <c r="T13" t="s">
+        <v>46</v>
       </c>
       <c r="Z13" t="s">
-        <v>304</v>
+        <v>15</v>
       </c>
       <c r="AA13" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>320</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
@@ -3931,36 +3597,36 @@
         <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>115</v>
-      </c>
-      <c r="I14" t="s">
-        <v>126</v>
-      </c>
-      <c r="AD14" t="s">
+        <v>107</v>
+      </c>
+      <c r="P14" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" t="s">
+        <v>300</v>
+      </c>
+      <c r="S14" t="s">
+        <v>269</v>
+      </c>
+      <c r="T14" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z14" t="s">
         <v>14</v>
       </c>
-      <c r="AE14" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>321</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN14" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AA14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>145</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
@@ -3972,28 +3638,16 @@
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AJ15" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA15" t="s">
         <v>35</v>
       </c>
-      <c r="AN15" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>146</v>
-      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>11</v>
       </c>
@@ -4004,249 +3658,391 @@
         <v>16</v>
       </c>
       <c r="H16" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="3:53" x14ac:dyDescent="0.3">
+      <c r="Q18" s="4"/>
+    </row>
+    <row r="23" spans="3:53" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="3:53" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="29" spans="3:53" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>304</v>
+      </c>
+      <c r="D29" t="s">
+        <v>305</v>
+      </c>
+      <c r="E29" t="s">
+        <v>306</v>
+      </c>
+      <c r="F29" t="s">
+        <v>307</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s">
+        <v>311</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="3:53" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>303</v>
+      </c>
+      <c r="H30" t="s">
+        <v>308</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>26</v>
+      </c>
+      <c r="AY30" t="s">
+        <v>94</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="3:53" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>271</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>271</v>
+      </c>
+      <c r="F31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s">
+        <v>303</v>
+      </c>
+      <c r="H31" t="s">
+        <v>310</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>46</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="3:53" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" t="s">
+        <v>303</v>
+      </c>
+      <c r="H32" t="s">
+        <v>309</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>28</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="49:53" x14ac:dyDescent="0.3">
+      <c r="AW33" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="49:53" x14ac:dyDescent="0.3">
+      <c r="AW34" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="49:53" x14ac:dyDescent="0.3">
+      <c r="AW35" t="s">
+        <v>31</v>
+      </c>
+      <c r="BA35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="49:53" x14ac:dyDescent="0.3">
+      <c r="AW36" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="49:53" x14ac:dyDescent="0.3">
+      <c r="AW37" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="49:53" x14ac:dyDescent="0.3">
+      <c r="AW38" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="49:53" x14ac:dyDescent="0.3">
+      <c r="AW39" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="49:53" x14ac:dyDescent="0.3">
+      <c r="AW40" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="49:53" x14ac:dyDescent="0.3">
+      <c r="AW41" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="49:53" x14ac:dyDescent="0.3">
+      <c r="AW42" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA42" t="s">
         <v>107</v>
       </c>
-      <c r="I16" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ16" t="s">
+    </row>
+    <row r="43" spans="49:53" x14ac:dyDescent="0.3">
+      <c r="AW43" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="49:53" x14ac:dyDescent="0.3">
+      <c r="AW44" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA44" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="49:53" x14ac:dyDescent="0.3">
+      <c r="AW45" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="49:53" x14ac:dyDescent="0.3">
+      <c r="BA46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="49:53" x14ac:dyDescent="0.3">
+      <c r="BA47" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="57" spans="36:36" x14ac:dyDescent="0.3">
+      <c r="AJ57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K74" t="s">
+        <v>24</v>
+      </c>
+      <c r="L74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K75" t="s">
+        <v>11</v>
+      </c>
+      <c r="L75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="76" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K76" t="s">
+        <v>11</v>
+      </c>
+      <c r="L76" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="K77" t="s">
+        <v>11</v>
+      </c>
+      <c r="L77" t="s">
+        <v>33</v>
+      </c>
+      <c r="N77" t="s">
+        <v>116</v>
+      </c>
+      <c r="R77" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="78" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="O78" t="s">
+        <v>24</v>
+      </c>
+      <c r="P78" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>115</v>
+      </c>
+      <c r="S78" t="s">
+        <v>24</v>
+      </c>
+      <c r="T78" t="s">
+        <v>25</v>
+      </c>
+      <c r="U78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="O79" t="s">
+        <v>12</v>
+      </c>
+      <c r="P79" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>117</v>
+      </c>
+      <c r="S79" t="s">
+        <v>13</v>
+      </c>
+      <c r="T79" t="s">
         <v>36</v>
       </c>
-      <c r="AN16" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="U79" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="11:21" x14ac:dyDescent="0.3">
+      <c r="O80" t="s">
         <v>12</v>
       </c>
-      <c r="B17" t="s">
+      <c r="P80" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>118</v>
+      </c>
+      <c r="S80" t="s">
+        <v>13</v>
+      </c>
+      <c r="T80" t="s">
         <v>37</v>
       </c>
-      <c r="C17" t="s">
-        <v>148</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AJ18" t="s">
+      <c r="U80" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81" spans="19:21" x14ac:dyDescent="0.3">
+      <c r="S81" t="s">
+        <v>13</v>
+      </c>
+      <c r="T81" t="s">
         <v>39</v>
       </c>
-      <c r="AN18" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AJ19" t="s">
-        <v>40</v>
-      </c>
-      <c r="AN19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AJ20" t="s">
-        <v>41</v>
-      </c>
-      <c r="AN20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AJ21" t="s">
-        <v>42</v>
-      </c>
-      <c r="AN21" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AN22" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="AN23" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" t="s">
-        <v>130</v>
-      </c>
-      <c r="I26" t="s">
-        <v>136</v>
-      </c>
-      <c r="M26" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" t="s">
-        <v>25</v>
-      </c>
-      <c r="G27" t="s">
-        <v>129</v>
-      </c>
-      <c r="I27" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" t="s">
-        <v>25</v>
-      </c>
-      <c r="K27" t="s">
-        <v>129</v>
-      </c>
-      <c r="M27" t="s">
-        <v>24</v>
-      </c>
-      <c r="N27" t="s">
-        <v>25</v>
-      </c>
-      <c r="O27" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F28" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" t="s">
-        <v>131</v>
-      </c>
-      <c r="I28" t="s">
-        <v>13</v>
-      </c>
-      <c r="J28" t="s">
-        <v>36</v>
-      </c>
-      <c r="K28" t="s">
-        <v>133</v>
-      </c>
-      <c r="M28" t="s">
-        <v>11</v>
-      </c>
-      <c r="N28" t="s">
-        <v>26</v>
-      </c>
-      <c r="O28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="E29" t="s">
-        <v>12</v>
-      </c>
-      <c r="F29" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" t="s">
-        <v>132</v>
-      </c>
-      <c r="I29" t="s">
-        <v>13</v>
-      </c>
-      <c r="J29" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" t="s">
-        <v>134</v>
-      </c>
-      <c r="M29" t="s">
-        <v>11</v>
-      </c>
-      <c r="N29" t="s">
-        <v>41</v>
-      </c>
-      <c r="O29" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="I30" t="s">
-        <v>13</v>
-      </c>
-      <c r="J30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K30" t="s">
-        <v>135</v>
-      </c>
-      <c r="M30" t="s">
-        <v>11</v>
-      </c>
-      <c r="N30" t="s">
-        <v>42</v>
-      </c>
-      <c r="O30" t="s">
-        <v>140</v>
+      <c r="U81" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AJ22 L7:L9 S6:S7 X6:X13 AE6:AE14 F7:F16 B7:B17" xr:uid="{14BC2D73-1395-4E2C-9D1E-55C781825C64}">
-      <formula1>$AJ$6:$AJ$21</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW46 B7:B15 F7:F16 AA8:AA16 Q7:Q14 W7:W8 K7:K9" xr:uid="{14BC2D73-1395-4E2C-9D1E-55C781825C64}">
+      <formula1>$AW$30:$AW$45</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA6:AA13 O7:O9" xr:uid="{727A5344-B28A-4866-9EC1-7C96029AF8B6}">
-      <formula1>$AL$7:$AL$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T14 N7:N9" xr:uid="{727A5344-B28A-4866-9EC1-7C96029AF8B6}">
+      <formula1>$AY$31:$AY$34</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H16" xr:uid="{FFFA1AF2-B35F-4BAA-AEF6-4A6121806F8D}">
-      <formula1>$AN$6:$AN$23</formula1>
+      <formula1>$BA$30:$BA$47</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4268,18 +4064,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1C3D18C3-7241-4088-8034-07AAE0EB53A9}">
           <x14:formula1>
             <xm:f>General_Info!$J$19:$J$30</xm:f>
           </x14:formula1>
-          <xm:sqref>Z6:Z13</xm:sqref>
+          <xm:sqref>S7:S14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA00DA78-9682-47F8-B701-D35809CE3FB0}">
           <x14:formula1>
             <xm:f>General_Info!$O$34:$O$39</xm:f>
           </x14:formula1>
-          <xm:sqref>K7:K9 R6:R7 W6:W13 AD6:AD14 E7:E16 A7:A17</xm:sqref>
+          <xm:sqref>J7:J9 V7:V8 P7:P14 Z8:Z16 E7:E16 A7:A15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C428027-B16D-4B04-9CB2-8290577ED0FB}">
           <x14:formula1>
@@ -4364,76 +4160,76 @@
   <sheetData>
     <row r="2" spans="9:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="3" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>160</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I3" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="J3" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="K3" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="L3" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="S3" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="T3" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="U3" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="V3" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="J4" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="S4" t="s">
-        <v>161</v>
+        <v>126</v>
       </c>
       <c r="T4" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="U4" t="s">
         <v>16</v>
       </c>
       <c r="V4" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="J5" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="K5" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="L5" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4446,17 +4242,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7AB0981D-B484-49AA-81E2-46EA728857EF}">
-          <x14:formula1>
-            <xm:f>FMK_IO!$AN$6:$AN$23</xm:f>
-          </x14:formula1>
-          <xm:sqref>V4 L4:L5</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E258101-4BE3-4FFA-9159-E0120D35AA71}">
           <x14:formula1>
             <xm:f>General_Info!$S$37:$S$41</xm:f>
           </x14:formula1>
           <xm:sqref>K4:K5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7AB0981D-B484-49AA-81E2-46EA728857EF}">
+          <x14:formula1>
+            <xm:f>FMK_IO!$BA$30:$BA$47</xm:f>
+          </x14:formula1>
+          <xm:sqref>V4 L4:L5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F78BF8D-EC95-4E4B-B9DE-1CEC06FF7E2D}">
           <x14:formula1>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\Stm32PrjTpl\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD53EE3-632F-4A65-84EA-AC08F74732BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903DDFA1-DA53-48E1-B07F-B153D0106613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="317">
   <si>
     <t>Colonne1</t>
   </si>
@@ -978,6 +978,18 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>Clock Src</t>
+  </si>
+  <si>
+    <t>APB1</t>
+  </si>
+  <si>
+    <t>APB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clock Source </t>
   </si>
 </sst>
 </file>
@@ -1053,21 +1065,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82E1452B-3AF2-4D4B-B30D-A715E2B5240F}" name="GI_Timer" displayName="GI_Timer" ref="J18:M30" totalsRowShown="0">
-  <autoFilter ref="J18:M30" xr:uid="{82E1452B-3AF2-4D4B-B30D-A715E2B5240F}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82E1452B-3AF2-4D4B-B30D-A715E2B5240F}" name="GI_Timer" displayName="GI_Timer" ref="J18:N30" totalsRowShown="0">
+  <autoFilter ref="J18:N30" xr:uid="{82E1452B-3AF2-4D4B-B30D-A715E2B5240F}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8EBC08AF-F674-4D3F-80D1-664693CE12C7}" name="Timer_name"/>
     <tableColumn id="2" xr3:uid="{9707AE90-9D0C-47B3-A89D-28A13CE83851}" name="Number of channels"/>
     <tableColumn id="3" xr3:uid="{D8031831-59FD-4378-ADF9-534E59E34124}" name="Interrupt line associate"/>
     <tableColumn id="4" xr3:uid="{F81B2123-AE73-4BAA-A2DB-915ACD9E2233}" name="Purpose "/>
+    <tableColumn id="5" xr3:uid="{90409EC9-D84F-4040-AB7C-7CFE8D3ABB81}" name="Clock Source "/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{7B17A539-E635-4152-9412-9ADCB0D5ADE1}" name="Tableau26" displayName="Tableau26" ref="AD22:AD25" totalsRowShown="0">
-  <autoFilter ref="AD22:AD25" xr:uid="{7B17A539-E635-4152-9412-9ADCB0D5ADE1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{7B17A539-E635-4152-9412-9ADCB0D5ADE1}" name="Tableau26" displayName="Tableau26" ref="AE46:AE49" totalsRowShown="0">
+  <autoFilter ref="AE46:AE49" xr:uid="{7B17A539-E635-4152-9412-9ADCB0D5ADE1}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{41DEADB1-B8AC-4DA1-AAC6-1E2E0AF40D54}" name="Timer Purpose"/>
   </tableColumns>
@@ -1087,6 +1100,16 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{93312290-37F4-462E-A13D-1DDA737E97BF}" name="Tableau28" displayName="Tableau28" ref="AE52:AE54" totalsRowShown="0">
+  <autoFilter ref="AE52:AE54" xr:uid="{93312290-37F4-462E-A13D-1DDA737E97BF}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{23F99948-81BD-4C18-8B63-7CCABA76B6A0}" name="Clock Src"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9F4B7C8E-8730-4908-B1BE-2954AF9427C0}" name="FMKIO_InputDig" displayName="FMKIO_InputDig" ref="A6:B15" totalsRowShown="0">
   <autoFilter ref="A6:B15" xr:uid="{9F4B7C8E-8730-4908-B1BE-2954AF9427C0}"/>
   <tableColumns count="2">
@@ -1097,7 +1120,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{098A48DC-88A9-4122-ADE1-86E0F3796141}" name="FMKIO_OutputDig" displayName="FMKIO_OutputDig" ref="Z7:AA16" totalsRowShown="0">
   <autoFilter ref="Z7:AA16" xr:uid="{098A48DC-88A9-4122-ADE1-86E0F3796141}"/>
   <tableColumns count="2">
@@ -1108,7 +1131,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{27D0C574-E325-48F5-AA31-7FBAF1E09007}" name="FMKIO_InputFreq" displayName="FMKIO_InputFreq" ref="J6:N9" totalsRowShown="0">
   <autoFilter ref="J6:N9" xr:uid="{27D0C574-E325-48F5-AA31-7FBAF1E09007}"/>
   <tableColumns count="5">
@@ -1122,7 +1145,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0918A5C3-EE53-4DBF-8C0C-2251FB41871E}" name="FMKIO_InputEvnt" displayName="FMKIO_InputEvnt" ref="V6:X8" totalsRowShown="0">
   <autoFilter ref="V6:X8" xr:uid="{0918A5C3-EE53-4DBF-8C0C-2251FB41871E}"/>
   <tableColumns count="3">
@@ -1134,7 +1157,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{DE41CD30-BCBD-40FE-B5DD-848DAAA9C25B}" name="FMKIO_OutputPwm" displayName="FMKIO_OutputPwm" ref="P6:T14" totalsRowShown="0">
   <autoFilter ref="P6:T14" xr:uid="{DE41CD30-BCBD-40FE-B5DD-848DAAA9C25B}"/>
   <tableColumns count="5">
@@ -1148,7 +1171,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B6D8F853-4E95-4D0E-932E-0F3ECC221901}" name="FMKIO_InputAna" displayName="FMKIO_InputAna" ref="E6:H16" totalsRowShown="0">
   <autoFilter ref="E6:H16" xr:uid="{B6D8F853-4E95-4D0E-932E-0F3ECC221901}"/>
   <tableColumns count="4">
@@ -1161,21 +1184,11 @@
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{3EEFA786-828B-422C-9405-D0B0DD120CF4}" name="Tableau17" displayName="Tableau17" ref="AW29:AW45" totalsRowShown="0">
   <autoFilter ref="AW29:AW45" xr:uid="{3EEFA786-828B-422C-9405-D0B0DD120CF4}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{01BF5210-733A-4DB1-A72E-FC1B749F7F18}" name="Pin_Choice"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{06E0084F-32F1-4C7D-A6E0-EE7152DB4CBF}" name="Tableau18" displayName="Tableau18" ref="AY30:AY34" totalsRowShown="0">
-  <autoFilter ref="AY30:AY34" xr:uid="{06E0084F-32F1-4C7D-A6E0-EE7152DB4CBF}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{DD976920-6FFB-4C96-8085-12D970F3A0A7}" name="Channel_Choice"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1193,6 +1206,16 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{06E0084F-32F1-4C7D-A6E0-EE7152DB4CBF}" name="Tableau18" displayName="Tableau18" ref="AY30:AY34" totalsRowShown="0">
+  <autoFilter ref="AY30:AY34" xr:uid="{06E0084F-32F1-4C7D-A6E0-EE7152DB4CBF}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{DD976920-6FFB-4C96-8085-12D970F3A0A7}" name="Channel_Choice"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{9F1C0A09-0E71-42DD-A451-D3B53F431EBF}" name="Tableau1720" displayName="Tableau1720" ref="BA29:BA47" totalsRowShown="0">
   <autoFilter ref="BA29:BA47" xr:uid="{9F1C0A09-0E71-42DD-A451-D3B53F431EBF}"/>
   <tableColumns count="1">
@@ -1202,7 +1225,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B3BFFBC0-5215-4824-AE53-6F0674E6F949}" name="Tableau20" displayName="Tableau20" ref="K74:L77" totalsRowShown="0">
   <autoFilter ref="K74:L77" xr:uid="{B3BFFBC0-5215-4824-AE53-6F0674E6F949}"/>
   <tableColumns count="2">
@@ -1213,7 +1236,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{0C2EE56A-0FA0-4A8F-A981-3DF80A8100DC}" name="Tableau2022" displayName="Tableau2022" ref="O78:Q80" totalsRowShown="0">
   <autoFilter ref="O78:Q80" xr:uid="{0C2EE56A-0FA0-4A8F-A981-3DF80A8100DC}"/>
   <tableColumns count="3">
@@ -1225,7 +1248,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{EB071486-BBE3-47FA-A4DE-38B8C83448BA}" name="Tableau202223" displayName="Tableau202223" ref="S78:U81" totalsRowShown="0">
   <autoFilter ref="S78:U81" xr:uid="{EB071486-BBE3-47FA-A4DE-38B8C83448BA}"/>
   <tableColumns count="3">
@@ -1237,7 +1260,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0413BBED-76B8-4200-A43C-D97EFAA1EA94}" name="FMKIO_CanCfg" displayName="FMKIO_CanCfg" ref="C29:H32" totalsRowShown="0">
   <autoFilter ref="C29:H32" xr:uid="{0413BBED-76B8-4200-A43C-D97EFAA1EA94}"/>
   <tableColumns count="6">
@@ -1252,7 +1275,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{684AB3A4-4693-477C-AADC-64EBB335C3E9}" name="FMKCPU_EvntTimer" displayName="FMKCPU_EvntTimer" ref="B4:C6" totalsRowShown="0">
   <autoFilter ref="B4:C6" xr:uid="{684AB3A4-4693-477C-AADC-64EBB335C3E9}"/>
   <tableColumns count="2">
@@ -1263,7 +1286,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{A4F27ADC-56A6-479B-93EF-D6AA72368D72}" name="FMKCDA_CalibrationOthers" displayName="FMKCDA_CalibrationOthers" ref="I3:L5" totalsRowShown="0">
   <autoFilter ref="I3:L5" xr:uid="{A4F27ADC-56A6-479B-93EF-D6AA72368D72}"/>
   <tableColumns count="4">
@@ -1276,7 +1299,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{99B4503A-67B2-48AD-BE25-2B3425F892A9}" name="FMKCDA_VoltageRef" displayName="FMKCDA_VoltageRef" ref="S3:V4" totalsRowShown="0">
   <autoFilter ref="S3:V4" xr:uid="{99B4503A-67B2-48AD-BE25-2B3425F892A9}"/>
   <tableColumns count="4">
@@ -1303,8 +1326,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5A8C957F-EDE6-44F1-B8F8-2086E255196A}" name="GI_DAC" displayName="GI_DAC" ref="V17:W18" totalsRowShown="0">
-  <autoFilter ref="V17:W18" xr:uid="{5A8C957F-EDE6-44F1-B8F8-2086E255196A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5A8C957F-EDE6-44F1-B8F8-2086E255196A}" name="GI_DAC" displayName="GI_DAC" ref="X36:Y37" totalsRowShown="0">
+  <autoFilter ref="X36:Y37" xr:uid="{5A8C957F-EDE6-44F1-B8F8-2086E255196A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{73150C50-6B2A-4CD8-A7E6-62C171935AF8}" name="DAC_Name"/>
     <tableColumn id="2" xr3:uid="{EF9B5413-9A3C-4163-8063-C74DAB2D51F7}" name="number of channel"/>
@@ -1336,8 +1359,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FC2F87AB-FFF7-4006-99CC-8D938E27338D}" name="GI_DMA" displayName="GI_DMA" ref="Y17:Z19" totalsRowShown="0">
-  <autoFilter ref="Y17:Z19" xr:uid="{FC2F87AB-FFF7-4006-99CC-8D938E27338D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FC2F87AB-FFF7-4006-99CC-8D938E27338D}" name="GI_DMA" displayName="GI_DMA" ref="AA36:AB38" totalsRowShown="0">
+  <autoFilter ref="AA36:AB38" xr:uid="{FC2F87AB-FFF7-4006-99CC-8D938E27338D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00302DEC-D815-47CE-9380-676FE769FF43}" name="DMA_Name"/>
     <tableColumn id="2" xr3:uid="{2654BB85-F763-4BBA-9124-13A3875B62D0}" name="number of channel"/>
@@ -1347,8 +1370,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{13E9277E-229F-41F0-9B99-7D1A0B71D1B3}" name="Tableau16" displayName="Tableau16" ref="AD16:AD19" totalsRowShown="0">
-  <autoFilter ref="AD16:AD19" xr:uid="{13E9277E-229F-41F0-9B99-7D1A0B71D1B3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{13E9277E-229F-41F0-9B99-7D1A0B71D1B3}" name="Tableau16" displayName="Tableau16" ref="AE40:AE43" totalsRowShown="0">
+  <autoFilter ref="AE40:AE43" xr:uid="{13E9277E-229F-41F0-9B99-7D1A0B71D1B3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{84137467-8FB1-43EA-9F20-573D7FE9FADD}" name="_NVIC_Piority_Choice"/>
   </tableColumns>
@@ -1683,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2D6D-43F7-44B1-8255-ECFDDA33AA9C}">
-  <dimension ref="A16:AD119"/>
+  <dimension ref="A18:AE119"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="H13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1715,29 +1738,7 @@
     <col min="30" max="30" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="16" spans="30:30" x14ac:dyDescent="0.3">
-      <c r="AD16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
-      <c r="V17" t="s">
-        <v>19</v>
-      </c>
-      <c r="W17" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>133</v>
       </c>
@@ -1765,23 +1766,11 @@
       <c r="M18" t="s">
         <v>285</v>
       </c>
-      <c r="V18" t="s">
-        <v>20</v>
-      </c>
-      <c r="W18" t="s">
-        <v>20</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z18">
-        <v>8</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="N18" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>134</v>
       </c>
@@ -1806,17 +1795,11 @@
       <c r="M19" t="s">
         <v>287</v>
       </c>
-      <c r="Y19" t="s">
-        <v>241</v>
-      </c>
-      <c r="Z19">
-        <v>8</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="N19" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>241</v>
       </c>
@@ -1838,8 +1821,11 @@
       <c r="M20" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="N20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>245</v>
       </c>
@@ -1861,8 +1847,11 @@
       <c r="M21" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="N21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>246</v>
       </c>
@@ -1884,11 +1873,11 @@
       <c r="M22" t="s">
         <v>287</v>
       </c>
-      <c r="AD22" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="N22" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>247</v>
       </c>
@@ -1910,11 +1899,11 @@
       <c r="M23" t="s">
         <v>287</v>
       </c>
-      <c r="AD23" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="N23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>248</v>
       </c>
@@ -1936,11 +1925,11 @@
       <c r="M24" t="s">
         <v>289</v>
       </c>
-      <c r="AD24" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="N24" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>85</v>
       </c>
@@ -1962,11 +1951,11 @@
       <c r="M25" t="s">
         <v>289</v>
       </c>
-      <c r="AD25" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="N25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>272</v>
       </c>
@@ -1988,8 +1977,11 @@
       <c r="M26" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="N26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>294</v>
       </c>
@@ -2017,8 +2009,11 @@
       <c r="M27" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="N27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>295</v>
       </c>
@@ -2046,8 +2041,11 @@
       <c r="M28" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="N28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>258</v>
       </c>
@@ -2075,8 +2073,11 @@
       <c r="M29" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="N29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>83</v>
       </c>
@@ -2098,8 +2099,11 @@
       <c r="M30" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
+      <c r="N30" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>82</v>
       </c>
@@ -2110,7 +2114,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>81</v>
       </c>
@@ -2121,7 +2125,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>249</v>
       </c>
@@ -2138,7 +2142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>250</v>
       </c>
@@ -2155,7 +2159,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>240</v>
       </c>
@@ -2172,7 +2176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>239</v>
       </c>
@@ -2200,8 +2204,20 @@
       <c r="V36" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="37" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="X36" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA36" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB36" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>251</v>
       </c>
@@ -2229,8 +2245,20 @@
       <c r="V37" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="38" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="X37" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA37" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>252</v>
       </c>
@@ -2258,8 +2286,14 @@
       <c r="V38" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="39" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="AA38" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>226</v>
       </c>
@@ -2288,7 +2322,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="40" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>253</v>
       </c>
@@ -2316,8 +2350,11 @@
       <c r="V40" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="41" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="AE40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>254</v>
       </c>
@@ -2339,8 +2376,11 @@
       <c r="V41" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="42" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="AE41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>238</v>
       </c>
@@ -2350,8 +2390,11 @@
       <c r="H42" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="43" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="AE42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>73</v>
       </c>
@@ -2361,8 +2404,11 @@
       <c r="H43" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="44" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="AE43" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>237</v>
       </c>
@@ -2373,7 +2419,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>255</v>
       </c>
@@ -2384,7 +2430,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="4:22" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>236</v>
       </c>
@@ -2394,8 +2440,11 @@
       <c r="H46" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="47" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="AE46" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="47" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>235</v>
       </c>
@@ -2405,8 +2454,11 @@
       <c r="H47" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="48" spans="4:22" x14ac:dyDescent="0.3">
+      <c r="AE47" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="48" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>256</v>
       </c>
@@ -2416,8 +2468,11 @@
       <c r="H48" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="49" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="AE48" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="49" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>257</v>
       </c>
@@ -2427,8 +2482,11 @@
       <c r="H49" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="AE49" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="50" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>87</v>
       </c>
@@ -2439,7 +2497,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>78</v>
       </c>
@@ -2450,7 +2508,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>231</v>
       </c>
@@ -2460,8 +2518,11 @@
       <c r="H52" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="53" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="AE52" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="53" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>80</v>
       </c>
@@ -2471,8 +2532,11 @@
       <c r="H53" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="54" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="AE53" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="54" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>230</v>
       </c>
@@ -2482,8 +2546,11 @@
       <c r="H54" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="AE54" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>292</v>
       </c>
@@ -2494,7 +2561,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>293</v>
       </c>
@@ -2505,7 +2572,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>229</v>
       </c>
@@ -2516,7 +2583,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>227</v>
       </c>
@@ -2527,7 +2594,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>258</v>
       </c>
@@ -2538,7 +2605,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="60" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>88</v>
       </c>
@@ -2549,7 +2616,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="61" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>228</v>
       </c>
@@ -2560,7 +2627,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>232</v>
       </c>
@@ -2571,7 +2638,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="63" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>259</v>
       </c>
@@ -2582,7 +2649,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>71</v>
       </c>
@@ -3077,17 +3144,20 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H119" xr:uid="{049086B5-6506-4A03-974B-48087CF064BC}">
-      <formula1>$AD$17:$AD$19</formula1>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H119" xr:uid="{3E8F037A-5A22-4138-A36A-F90B67434DDA}">
+      <formula1>$AE$41:$AE$43</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M19:M30" xr:uid="{697CB459-5495-4019-B31C-A222FA50D4B5}">
-      <formula1>$AD$23:$AD$25</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M19:M30" xr:uid="{17DBAA90-8141-4522-B025-71F13961596F}">
+      <formula1>$AE$47:$AE$49</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N19:N30" xr:uid="{C93913E9-44DA-490C-8435-4DAABE3AC990}">
+      <formula1>$AE$53:$AE$54</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="11">
+  <tableParts count="12">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -3099,6 +3169,7 @@
     <tablePart r:id="rId10"/>
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
+    <tablePart r:id="rId13"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3107,7 +3178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7761-01BE-400F-9C40-BE71D85F5C61}">
   <dimension ref="A2:BA81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="C15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\Stm32PrjTpl\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903DDFA1-DA53-48E1-B07F-B153D0106613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF7CB50-3613-4995-B6C5-F36E175A7A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="324">
   <si>
     <t>Colonne1</t>
   </si>
@@ -104,9 +104,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>RCC_ClockName</t>
   </si>
   <si>
@@ -773,9 +770,6 @@
     <t>GPIOD</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>DMAMUX1</t>
   </si>
   <si>
@@ -990,6 +984,33 @@
   </si>
   <si>
     <t xml:space="preserve">Clock Source </t>
+  </si>
+  <si>
+    <t>Clock Soure</t>
+  </si>
+  <si>
+    <t>HSE</t>
+  </si>
+  <si>
+    <t>HSI</t>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+  </si>
+  <si>
+    <t>HCLK1</t>
+  </si>
+  <si>
+    <t>PLLQ</t>
+  </si>
+  <si>
+    <t>PLLP</t>
+  </si>
+  <si>
+    <t>AHB1</t>
+  </si>
+  <si>
+    <t>AHB2</t>
   </si>
 </sst>
 </file>
@@ -1100,8 +1121,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{93312290-37F4-462E-A13D-1DDA737E97BF}" name="Tableau28" displayName="Tableau28" ref="AE52:AE54" totalsRowShown="0">
-  <autoFilter ref="AE52:AE54" xr:uid="{93312290-37F4-462E-A13D-1DDA737E97BF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{93312290-37F4-462E-A13D-1DDA737E97BF}" name="GI_OSCILLATOR" displayName="GI_OSCILLATOR" ref="AE52:AE62" totalsRowShown="0">
+  <autoFilter ref="AE52:AE62" xr:uid="{93312290-37F4-462E-A13D-1DDA737E97BF}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{23F99948-81BD-4C18-8B63-7CCABA76B6A0}" name="Clock Src"/>
   </tableColumns>
@@ -1352,7 +1373,7 @@
   <autoFilter ref="D18:E75" xr:uid="{9B4F1398-0B6D-4B55-A4C3-611E0B66A012}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{402A3AD5-0AFA-40A5-A5A4-0D9CB2EED72D}" name="RCC_ClockName"/>
-    <tableColumn id="2" xr3:uid="{05025EF0-98DC-4B06-8DD6-ABD9D73D50B7}" name="Description"/>
+    <tableColumn id="2" xr3:uid="{05025EF0-98DC-4B06-8DD6-ABD9D73D50B7}" name="Clock Soure"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1708,8 +1729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2D6D-43F7-44B1-8255-ECFDDA33AA9C}">
   <dimension ref="A18:AE119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" topLeftCell="N25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R41" sqref="R41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1717,8 +1738,8 @@
     <col min="1" max="1" width="23.6640625" customWidth="1"/>
     <col min="2" max="2" width="24.77734375" customWidth="1"/>
     <col min="3" max="3" width="37.33203125" customWidth="1"/>
-    <col min="4" max="4" width="81" customWidth="1"/>
-    <col min="5" max="5" width="85.109375" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="25.109375" customWidth="1"/>
     <col min="6" max="6" width="33.109375" customWidth="1"/>
     <col min="7" max="7" width="26.88671875" customWidth="1"/>
     <col min="8" max="8" width="21.44140625" customWidth="1"/>
@@ -1740,19 +1761,19 @@
   <sheetData>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>315</v>
       </c>
       <c r="G18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H18" t="s">
         <v>58</v>
-      </c>
-      <c r="H18" t="s">
-        <v>59</v>
       </c>
       <c r="J18" t="s">
         <v>2</v>
@@ -1761,27 +1782,30 @@
         <v>3</v>
       </c>
       <c r="L18" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M18" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="N18" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
+        <v>322</v>
       </c>
       <c r="G19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J19" t="s">
         <v>4</v>
@@ -1790,50 +1814,56 @@
         <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="M19" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N19" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+      <c r="E20" t="s">
+        <v>322</v>
       </c>
       <c r="G20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K20">
         <v>4</v>
       </c>
       <c r="L20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="M20" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>245</v>
+        <v>243</v>
+      </c>
+      <c r="E21" t="s">
+        <v>322</v>
       </c>
       <c r="G21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J21" t="s">
         <v>5</v>
@@ -1842,160 +1872,178 @@
         <v>4</v>
       </c>
       <c r="L21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M21" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N21" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>246</v>
+        <v>244</v>
+      </c>
+      <c r="E22" t="s">
+        <v>322</v>
       </c>
       <c r="G22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K22">
         <v>4</v>
       </c>
       <c r="L22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="M22" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N22" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>247</v>
+        <v>245</v>
+      </c>
+      <c r="E23" t="s">
+        <v>322</v>
       </c>
       <c r="G23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J23" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K23">
         <v>4</v>
       </c>
       <c r="L23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M23" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N23" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>248</v>
+        <v>246</v>
+      </c>
+      <c r="E24" t="s">
+        <v>322</v>
       </c>
       <c r="G24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="M24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="E25" t="s">
+        <v>322</v>
       </c>
       <c r="G25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J25" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K25">
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="M25" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="N25" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>272</v>
+        <v>270</v>
+      </c>
+      <c r="E26" t="s">
+        <v>323</v>
       </c>
       <c r="G26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K26">
         <v>4</v>
       </c>
       <c r="L26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M26" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N26" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>292</v>
+      </c>
+      <c r="B27" t="s">
         <v>294</v>
       </c>
-      <c r="B27" t="s">
-        <v>296</v>
-      </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="E27" t="s">
+        <v>323</v>
       </c>
       <c r="G27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J27" t="s">
         <v>6</v>
@@ -2004,30 +2052,33 @@
         <v>2</v>
       </c>
       <c r="L27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B28">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>242</v>
+        <v>241</v>
+      </c>
+      <c r="E28" t="s">
+        <v>323</v>
       </c>
       <c r="G28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J28" t="s">
         <v>7</v>
@@ -2036,30 +2087,33 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M28" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B29">
         <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+      <c r="E29" t="s">
+        <v>323</v>
       </c>
       <c r="G29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J29" t="s">
         <v>8</v>
@@ -2068,72 +2122,84 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M29" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="N29" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="E30" t="s">
+        <v>323</v>
       </c>
       <c r="G30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J30" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K30">
         <v>4</v>
       </c>
       <c r="L30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M30" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="N30" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="E31" t="s">
+        <v>323</v>
       </c>
       <c r="G31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
+        <v>323</v>
       </c>
       <c r="G32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>249</v>
+        <v>247</v>
+      </c>
+      <c r="E33" t="s">
+        <v>321</v>
       </c>
       <c r="G33" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O33" t="s">
         <v>9</v>
@@ -2144,13 +2210,16 @@
     </row>
     <row r="34" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>250</v>
+        <v>248</v>
+      </c>
+      <c r="E34" t="s">
+        <v>321</v>
       </c>
       <c r="G34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O34" t="s">
         <v>11</v>
@@ -2161,13 +2230,16 @@
     </row>
     <row r="35" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>240</v>
+        <v>239</v>
+      </c>
+      <c r="E35" t="s">
+        <v>313</v>
       </c>
       <c r="G35" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O35" t="s">
         <v>12</v>
@@ -2178,13 +2250,16 @@
     </row>
     <row r="36" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>239</v>
+        <v>238</v>
+      </c>
+      <c r="E36" t="s">
+        <v>313</v>
       </c>
       <c r="G36" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O36" t="s">
         <v>13</v>
@@ -2199,10 +2274,10 @@
         <v>18</v>
       </c>
       <c r="U36" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="V36" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="X36" t="s">
         <v>19</v>
@@ -2211,7 +2286,7 @@
         <v>18</v>
       </c>
       <c r="AA36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB36" t="s">
         <v>18</v>
@@ -2219,13 +2294,16 @@
     </row>
     <row r="37" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>251</v>
+        <v>249</v>
+      </c>
+      <c r="E37" t="s">
+        <v>313</v>
       </c>
       <c r="G37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O37" t="s">
         <v>14</v>
@@ -2240,10 +2318,10 @@
         <v>18</v>
       </c>
       <c r="U37" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V37" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="X37" t="s">
         <v>20</v>
@@ -2252,7 +2330,7 @@
         <v>20</v>
       </c>
       <c r="AA37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AB37">
         <v>8</v>
@@ -2260,34 +2338,37 @@
     </row>
     <row r="38" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>252</v>
+        <v>250</v>
+      </c>
+      <c r="E38" t="s">
+        <v>313</v>
       </c>
       <c r="G38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O38" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="P38">
         <v>16</v>
       </c>
       <c r="S38" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="T38">
         <v>18</v>
       </c>
       <c r="U38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AA38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AB38">
         <v>8</v>
@@ -2295,13 +2376,16 @@
     </row>
     <row r="39" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>226</v>
+        <v>225</v>
+      </c>
+      <c r="E39" t="s">
+        <v>323</v>
       </c>
       <c r="G39" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O39" t="s">
         <v>15</v>
@@ -2310,836 +2394,959 @@
         <v>16</v>
       </c>
       <c r="S39" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="T39">
         <v>18</v>
       </c>
       <c r="U39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V39" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="40" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>253</v>
+        <v>251</v>
+      </c>
+      <c r="E40" t="s">
+        <v>323</v>
       </c>
       <c r="G40" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="P40">
         <v>11</v>
       </c>
       <c r="S40" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="T40">
         <v>18</v>
       </c>
       <c r="U40" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AE40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>254</v>
+        <v>252</v>
+      </c>
+      <c r="E41" t="s">
+        <v>320</v>
       </c>
       <c r="G41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S41" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="T41">
         <v>18</v>
       </c>
       <c r="U41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V41" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AE41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>238</v>
+        <v>237</v>
+      </c>
+      <c r="E42" t="s">
+        <v>312</v>
       </c>
       <c r="G42" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="E43" t="s">
+        <v>312</v>
       </c>
       <c r="G43" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="44" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>237</v>
+        <v>236</v>
+      </c>
+      <c r="E44" t="s">
+        <v>312</v>
       </c>
       <c r="G44" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>255</v>
+        <v>253</v>
+      </c>
+      <c r="E45" t="s">
+        <v>312</v>
       </c>
       <c r="G45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>236</v>
+        <v>235</v>
+      </c>
+      <c r="E46" t="s">
+        <v>312</v>
       </c>
       <c r="G46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE46" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="47" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="E47" t="s">
+        <v>312</v>
       </c>
       <c r="G47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE47" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>256</v>
+        <v>254</v>
+      </c>
+      <c r="E48" t="s">
+        <v>312</v>
       </c>
       <c r="G48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H48" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE48" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="49" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>257</v>
+        <v>255</v>
+      </c>
+      <c r="E49" t="s">
+        <v>312</v>
       </c>
       <c r="G49" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE49" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="50" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="E50" t="s">
+        <v>312</v>
       </c>
       <c r="G50" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
-        <v>78</v>
+        <v>77</v>
+      </c>
+      <c r="E51" t="s">
+        <v>312</v>
       </c>
       <c r="G51" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>231</v>
+        <v>230</v>
+      </c>
+      <c r="E52" t="s">
+        <v>312</v>
       </c>
       <c r="G52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE52" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="53" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="E53" t="s">
+        <v>312</v>
       </c>
       <c r="G53" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE53" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>230</v>
+        <v>229</v>
+      </c>
+      <c r="E54" t="s">
+        <v>312</v>
       </c>
       <c r="G54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AE54" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>292</v>
+        <v>290</v>
+      </c>
+      <c r="E55" t="s">
+        <v>312</v>
       </c>
       <c r="G55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H55" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>293</v>
+        <v>291</v>
+      </c>
+      <c r="E56" t="s">
+        <v>312</v>
       </c>
       <c r="G56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H56" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="E57" t="s">
+        <v>312</v>
       </c>
       <c r="G57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H57" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>227</v>
+        <v>226</v>
+      </c>
+      <c r="E58" t="s">
+        <v>312</v>
       </c>
       <c r="G58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H58" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>258</v>
+        <v>256</v>
+      </c>
+      <c r="E59" t="s">
+        <v>320</v>
       </c>
       <c r="G59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H59" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="60" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
-        <v>88</v>
+        <v>87</v>
+      </c>
+      <c r="E60" t="s">
+        <v>312</v>
       </c>
       <c r="G60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H60" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="61" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+      <c r="E61" t="s">
+        <v>312</v>
       </c>
       <c r="G61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H61" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="62" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="E62" t="s">
+        <v>312</v>
       </c>
       <c r="G62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H62" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>259</v>
+        <v>257</v>
+      </c>
+      <c r="E63" t="s">
+        <v>312</v>
       </c>
       <c r="G63" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H63" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="E64" t="s">
+        <v>313</v>
       </c>
       <c r="G64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="E65" t="s">
+        <v>313</v>
       </c>
       <c r="G65" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>77</v>
+        <v>76</v>
+      </c>
+      <c r="E66" t="s">
+        <v>313</v>
       </c>
       <c r="G66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E67" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="G67" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H67" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E68" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="G68" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H68" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E69" t="s">
-        <v>244</v>
+        <v>313</v>
       </c>
       <c r="G69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H69" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="70" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="E70" t="s">
+        <v>313</v>
       </c>
       <c r="G70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="71" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="E71" t="s">
+        <v>313</v>
       </c>
       <c r="G71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H71" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="E72" t="s">
+        <v>313</v>
       </c>
       <c r="G72" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="73" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
-        <v>233</v>
+        <v>232</v>
+      </c>
+      <c r="E73" t="s">
+        <v>313</v>
       </c>
       <c r="G73" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="H73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>261</v>
+        <v>259</v>
+      </c>
+      <c r="E74" t="s">
+        <v>313</v>
       </c>
       <c r="G74" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="75" spans="4:8" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>262</v>
+        <v>260</v>
+      </c>
+      <c r="E75" t="s">
+        <v>313</v>
       </c>
       <c r="G75" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H75" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="76" spans="4:8" x14ac:dyDescent="0.3">
       <c r="G76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H76" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="77" spans="4:8" x14ac:dyDescent="0.3">
       <c r="G77" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H77" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="4:8" x14ac:dyDescent="0.3">
       <c r="G78" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="79" spans="4:8" x14ac:dyDescent="0.3">
       <c r="G79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H79" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="80" spans="4:8" x14ac:dyDescent="0.3">
       <c r="G80" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H80" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="81" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G81" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H81" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G82" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H82" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G83" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H83" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="84" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G84" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H84" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G85" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="86" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G86" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H86" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="87" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G87" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H87" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G88" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H89" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="90" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H90" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="91" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G91" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H91" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="92" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G92" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H92" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="93" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G93" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H93" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="94" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G94" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H94" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="95" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G95" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H95" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="96" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G96" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H96" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="97" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G97" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="98" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H98" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="99" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G99" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H99" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="100" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H100" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="101" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="H101" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="102" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G102" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="H102" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="103" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G103" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H103" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="104" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G104" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H104" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G105" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H105" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G106" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H106" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G107" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H107" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G108" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H108" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="109" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G109" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H109" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="110" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G110" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H110" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="111" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G111" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H111" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="112" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G112" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H112" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="113" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G113" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H113" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G114" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H114" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="115" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G115" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H115" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="116" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G116" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H116" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="117" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G117" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H117" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="118" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G118" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H118" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="119" spans="7:8" x14ac:dyDescent="0.3">
       <c r="G119" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H119" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3151,8 +3358,8 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M19:M30" xr:uid="{17DBAA90-8141-4522-B025-71F13961596F}">
       <formula1>$AE$47:$AE$49</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N19:N30" xr:uid="{C93913E9-44DA-490C-8435-4DAABE3AC990}">
-      <formula1>$AE$53:$AE$54</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N19:N30 E19:E75" xr:uid="{C93913E9-44DA-490C-8435-4DAABE3AC990}">
+      <formula1>$AE$53:$AE$62</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3213,92 +3420,92 @@
   <sheetData>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" t="s">
         <v>54</v>
       </c>
-      <c r="E5" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="L5" t="s">
+        <v>295</v>
+      </c>
+      <c r="P5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" t="s">
+        <v>295</v>
+      </c>
+      <c r="V5" t="s">
         <v>55</v>
-      </c>
-      <c r="L5" t="s">
-        <v>297</v>
-      </c>
-      <c r="P5" t="s">
-        <v>57</v>
-      </c>
-      <c r="R5" t="s">
-        <v>297</v>
-      </c>
-      <c r="V5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
       <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
       <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
         <v>49</v>
       </c>
-      <c r="H6" t="s">
-        <v>50</v>
-      </c>
       <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
         <v>24</v>
       </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
       <c r="L6" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" t="s">
         <v>43</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>44</v>
       </c>
-      <c r="N6" t="s">
-        <v>45</v>
-      </c>
       <c r="P6" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" t="s">
         <v>24</v>
       </c>
-      <c r="Q6" t="s">
-        <v>25</v>
-      </c>
       <c r="R6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" t="s">
         <v>43</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>44</v>
       </c>
-      <c r="T6" t="s">
-        <v>45</v>
-      </c>
       <c r="V6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W6" t="s">
         <v>24</v>
       </c>
-      <c r="W6" t="s">
-        <v>25</v>
-      </c>
       <c r="X6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Z6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
@@ -3306,64 +3513,64 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
         <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="M7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="N7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P7" t="s">
         <v>13</v>
       </c>
       <c r="Q7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="S7" t="s">
         <v>5</v>
       </c>
       <c r="T7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V7" t="s">
         <v>12</v>
       </c>
       <c r="W7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Z7" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="s">
         <v>24</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
@@ -3371,64 +3578,64 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
         <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
         <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M8" t="s">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P8" t="s">
         <v>13</v>
       </c>
       <c r="Q8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="S8" t="s">
         <v>5</v>
       </c>
       <c r="T8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V8" t="s">
         <v>11</v>
       </c>
       <c r="W8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="X8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z8" t="s">
         <v>12</v>
       </c>
       <c r="AA8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
@@ -3436,55 +3643,55 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M9" t="s">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P9" t="s">
         <v>15</v>
       </c>
       <c r="Q9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R9" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z9" t="s">
         <v>12</v>
       </c>
       <c r="AA9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
@@ -3492,40 +3699,40 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" t="s">
         <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P10" t="s">
         <v>15</v>
       </c>
       <c r="Q10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z10" t="s">
         <v>13</v>
       </c>
       <c r="AA10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
@@ -3533,40 +3740,40 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P11" t="s">
         <v>15</v>
       </c>
       <c r="Q11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S11" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z11" t="s">
         <v>13</v>
       </c>
       <c r="AA11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
@@ -3574,40 +3781,40 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P12" t="s">
         <v>15</v>
       </c>
       <c r="Q12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="S12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z12" t="s">
         <v>13</v>
       </c>
       <c r="AA12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
@@ -3615,40 +3822,40 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
         <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G13" t="s">
         <v>16</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P13" t="s">
         <v>15</v>
       </c>
       <c r="Q13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R13" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="S13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="T13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Z13" t="s">
         <v>15</v>
       </c>
       <c r="AA13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
@@ -3656,40 +3863,40 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
         <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
         <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P14" t="s">
         <v>15</v>
       </c>
       <c r="Q14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R14" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="S14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="T14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Z14" t="s">
         <v>14</v>
       </c>
       <c r="AA14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
@@ -3697,25 +3904,25 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G15" t="s">
         <v>16</v>
       </c>
       <c r="H15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Z15" t="s">
         <v>14</v>
       </c>
       <c r="AA15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
@@ -3723,19 +3930,19 @@
         <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
         <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Z16" t="s">
         <v>14</v>
       </c>
       <c r="AA16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="3:53" x14ac:dyDescent="0.3">
@@ -3743,38 +3950,38 @@
     </row>
     <row r="23" spans="3:53" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="3:53" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29" spans="3:53" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
+        <v>302</v>
+      </c>
+      <c r="D29" t="s">
+        <v>303</v>
+      </c>
+      <c r="E29" t="s">
         <v>304</v>
       </c>
-      <c r="D29" t="s">
+      <c r="F29" t="s">
         <v>305</v>
       </c>
-      <c r="E29" t="s">
-        <v>306</v>
-      </c>
-      <c r="F29" t="s">
-        <v>307</v>
-      </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H29" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="AW29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BA29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="3:53" x14ac:dyDescent="0.3">
@@ -3782,224 +3989,224 @@
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G30" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H30" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="AW30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY30" t="s">
+        <v>93</v>
+      </c>
+      <c r="BA30" t="s">
         <v>94</v>
-      </c>
-      <c r="BA30" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="31" spans="3:53" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" t="s">
+        <v>269</v>
+      </c>
+      <c r="F31" t="s">
         <v>41</v>
       </c>
-      <c r="E31" t="s">
-        <v>271</v>
-      </c>
-      <c r="F31" t="s">
-        <v>42</v>
-      </c>
       <c r="G31" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H31" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AW31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BA31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="3:53" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H32" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AW32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="49:53" x14ac:dyDescent="0.3">
       <c r="AW33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BA33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34" spans="49:53" x14ac:dyDescent="0.3">
       <c r="AW34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BA34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="49:53" x14ac:dyDescent="0.3">
       <c r="AW35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BA35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="49:53" x14ac:dyDescent="0.3">
       <c r="AW36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BA36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="49:53" x14ac:dyDescent="0.3">
       <c r="AW37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BA37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="49:53" x14ac:dyDescent="0.3">
       <c r="AW38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BA38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="49:53" x14ac:dyDescent="0.3">
       <c r="AW39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BA39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="40" spans="49:53" x14ac:dyDescent="0.3">
       <c r="AW40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="BA40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="49:53" x14ac:dyDescent="0.3">
       <c r="AW41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BA41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="49:53" x14ac:dyDescent="0.3">
       <c r="AW42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BA42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="49:53" x14ac:dyDescent="0.3">
       <c r="AW43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BA43" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="49:53" x14ac:dyDescent="0.3">
       <c r="AW44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BA44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="45" spans="49:53" x14ac:dyDescent="0.3">
       <c r="AW45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BA45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="49:53" x14ac:dyDescent="0.3">
       <c r="BA46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="49:53" x14ac:dyDescent="0.3">
       <c r="BA47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="57" spans="36:36" x14ac:dyDescent="0.3">
       <c r="AJ57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="11:21" x14ac:dyDescent="0.3">
       <c r="K73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="11:21" x14ac:dyDescent="0.3">
       <c r="K74" t="s">
+        <v>23</v>
+      </c>
+      <c r="L74" t="s">
         <v>24</v>
-      </c>
-      <c r="L74" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="75" spans="11:21" x14ac:dyDescent="0.3">
@@ -4007,7 +4214,7 @@
         <v>11</v>
       </c>
       <c r="L75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="11:21" x14ac:dyDescent="0.3">
@@ -4015,7 +4222,7 @@
         <v>11</v>
       </c>
       <c r="L76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="11:21" x14ac:dyDescent="0.3">
@@ -4023,33 +4230,33 @@
         <v>11</v>
       </c>
       <c r="L77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N77" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R77" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="11:21" x14ac:dyDescent="0.3">
       <c r="O78" t="s">
+        <v>23</v>
+      </c>
+      <c r="P78" t="s">
         <v>24</v>
       </c>
-      <c r="P78" t="s">
-        <v>25</v>
-      </c>
       <c r="Q78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S78" t="s">
+        <v>23</v>
+      </c>
+      <c r="T78" t="s">
         <v>24</v>
       </c>
-      <c r="T78" t="s">
-        <v>25</v>
-      </c>
       <c r="U78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" spans="11:21" x14ac:dyDescent="0.3">
@@ -4057,19 +4264,19 @@
         <v>12</v>
       </c>
       <c r="P79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S79" t="s">
         <v>13</v>
       </c>
       <c r="T79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="80" spans="11:21" x14ac:dyDescent="0.3">
@@ -4077,19 +4284,19 @@
         <v>12</v>
       </c>
       <c r="P80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S80" t="s">
         <v>13</v>
       </c>
       <c r="T80" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U80" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81" spans="19:21" x14ac:dyDescent="0.3">
@@ -4097,10 +4304,10 @@
         <v>13</v>
       </c>
       <c r="T81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4172,7 +4379,7 @@
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
@@ -4188,7 +4395,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
@@ -4196,7 +4403,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -4231,76 +4438,76 @@
   <sheetData>
     <row r="2" spans="9:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" t="s">
+        <v>128</v>
+      </c>
+      <c r="L3" t="s">
+        <v>129</v>
+      </c>
+      <c r="S3" t="s">
+        <v>126</v>
+      </c>
+      <c r="T3" t="s">
         <v>131</v>
       </c>
-      <c r="K3" t="s">
+      <c r="U3" t="s">
+        <v>128</v>
+      </c>
+      <c r="V3" t="s">
         <v>129</v>
-      </c>
-      <c r="L3" t="s">
-        <v>130</v>
-      </c>
-      <c r="S3" t="s">
-        <v>127</v>
-      </c>
-      <c r="T3" t="s">
-        <v>132</v>
-      </c>
-      <c r="U3" t="s">
-        <v>129</v>
-      </c>
-      <c r="V3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
       </c>
       <c r="L4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="U4" t="s">
         <v>16</v>
       </c>
       <c r="V4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="9:22" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
+        <v>278</v>
+      </c>
+      <c r="J5" t="s">
         <v>280</v>
       </c>
-      <c r="J5" t="s">
-        <v>282</v>
-      </c>
       <c r="K5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\Stm32PrjTpl\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF7CB50-3613-4995-B6C5-F36E175A7A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635A36B3-35B4-4D1E-A818-D4323FB9DF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
     <sheet name="FMK_IO" sheetId="2" r:id="rId2"/>
     <sheet name="FMK_CPU" sheetId="3" r:id="rId3"/>
     <sheet name="FMK_CDA" sheetId="4" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="349">
   <si>
     <t>Colonne1</t>
   </si>
@@ -1011,13 +1012,88 @@
   </si>
   <si>
     <t>AHB2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescaler </t>
+  </si>
+  <si>
+    <t>ARR</t>
+  </si>
+  <si>
+    <t>FreqClock (Mhz)</t>
+  </si>
+  <si>
+    <t>FreqPwm (Hz)</t>
+  </si>
+  <si>
+    <t>MaxFreqSupported</t>
+  </si>
+  <si>
+    <t>MaxArr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CalculatePrescaler </t>
+  </si>
+  <si>
+    <t>NewFreqPwmWithCalculatePrescaler</t>
+  </si>
+  <si>
+    <t>PrecalerPif</t>
+  </si>
+  <si>
+    <t>FreqPwmPrescalerPif</t>
+  </si>
+  <si>
+    <t>ArrRecalculated</t>
+  </si>
+  <si>
+    <t>DeltaPrescaler</t>
+  </si>
+  <si>
+    <t>PWM</t>
+  </si>
+  <si>
+    <t>EVNT</t>
+  </si>
+  <si>
+    <t>periodMs</t>
+  </si>
+  <si>
+    <t>FreqOsc</t>
+  </si>
+  <si>
+    <t>MHz_To_Hz</t>
+  </si>
+  <si>
+    <t>prescaler</t>
+  </si>
+  <si>
+    <t>Freq_Convert</t>
+  </si>
+  <si>
+    <t>Calculate ARR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BestPrescaler </t>
+  </si>
+  <si>
+    <t>FreqConvert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haut_Prescaler </t>
+  </si>
+  <si>
+    <t xml:space="preserve">basPrescaler </t>
+  </si>
+  <si>
+    <t>FrequenceeTheo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1031,8 +1107,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="72"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1042,6 +1125,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,7 +1147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1068,6 +1157,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1083,6 +1175,2302 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33927120186322141"/>
+          <c:y val="0.15341701534170155"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10374954695118679"/>
+          <c:y val="0.13711073772682181"/>
+          <c:w val="0.86480563521549791"/>
+          <c:h val="0.60121642744447734"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$I$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FreqConvert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$I$31:$I$254</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="224"/>
+                <c:pt idx="0">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>470</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>520</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>570</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>620</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>670</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>770</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>820</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1120</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1170</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1220</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1270</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1320</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1370</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1420</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1570</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1620</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1670</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1720</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1770</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1820</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1870</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2070</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2170</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2270</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2320</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2370</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2420</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2470</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2570</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2620</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2670</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2720</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2770</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2820</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2870</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2920</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2970</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3020</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3070</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3120</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3220</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3270</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3320</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3370</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3420</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3470</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3520</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3570</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3620</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3670</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3720</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3770</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3820</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3870</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3920</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3970</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>4020</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4070</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4120</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4170</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4220</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4270</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4320</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4370</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4420</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4470</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4520</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>4570</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4620</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4670</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4720</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4770</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4820</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4870</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4920</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4970</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5020</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5070</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5120</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5170</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5220</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5270</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5320</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5370</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5420</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5470</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5520</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5570</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5620</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5670</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5720</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5770</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5820</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5870</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5920</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5970</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6020</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6070</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>6120</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6170</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6220</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6270</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>6320</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6370</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6420</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6470</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6520</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6570</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6620</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6670</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6720</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6770</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6820</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6870</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6920</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6970</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>7020</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>7070</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>7120</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>7170</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>7220</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>7270</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>7320</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7370</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>7420</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>7470</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>7520</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>7570</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>7620</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>7670</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>7720</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>7770</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>7820</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>7870</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>7920</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7970</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8020</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>8070</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8120</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>8170</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>8220</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>8270</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>8320</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8370</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>8420</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8470</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8520</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8570</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8620</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8670</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>8720</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>8770</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>8820</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>8870</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>8920</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>8970</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>9020</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9070</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>9120</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>9170</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>9220</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>9270</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>9320</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>9370</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>9420</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>9470</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>9520</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>9570</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>9620</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>9670</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>9720</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>9770</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>9820</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>9870</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>9920</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>9970</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>10020</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>10070</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>10120</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>10170</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>10220</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>10270</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10320</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>10370</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>10420</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>10470</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>10520</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>10570</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>10620</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>10670</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10720</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10770</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10820</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10870</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>10920</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>10970</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>11020</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>11070</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>11120</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-72DA-4F2B-8B45-188877ADBAD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$J$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculate ARR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$J$31:$J$254</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="224"/>
+                <c:pt idx="0">
+                  <c:v>56721.246094875147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56637.16814159292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>55411.255411255413</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56140.350877192985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53781.512605042015</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52892.561983471074</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52674.897119341564</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49420.849420849423</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50793.650793650791</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54468.085106382976</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>49230.769230769234</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56140.350877192985</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51612.903225806454</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>47761.194029850747</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44444.444444444445</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55411.255411255413</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>52032.520325203252</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49042.145593869733</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46376.811594202896</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43986.254295532643</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41830.065359477121</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>39875.389408099691</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38095.238095238092</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>54700.854700854703</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52459.016393442624</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>50393.700787401576</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>48484.848484848488</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46715.328467153282</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>45070.42253521127</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43537.414965986398</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42105.26315789474</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40764.331210191085</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39506.172839506173</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38323.353293413173</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37209.302325581397</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36158.192090395482</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>35164.835164835167</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34224.598930481283</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33333.333333333336</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32487.309644670051</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>31683.168316831685</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30917.874396135267</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>30188.67924528302</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29493.087557603685</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>28828.828828828828</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>56387.665198237883</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>55172.413793103449</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>54008.438818565402</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52892.561983471074</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51821.86234817814</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>50793.650793650791</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>49805.447470817118</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>48854.961832061068</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>47940.074906367045</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>47058.823529411762</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>46209.386281588449</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>45390.070921985818</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44599.303135888498</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>43835.616438356163</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>43097.6430976431</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42384.105960264904</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41693.811074918565</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>41025.641025641024</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>40378.548895899054</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>39751.552795031057</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>39143.73088685015</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>38554.216867469877</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>37982.19584569733</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>37426.900584795323</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>36887.608069164264</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>36363.63636363636</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>35854.341736694681</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>35359.11602209945</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>34877.384196185289</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>34408.602150537634</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>33952.254641909814</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>33507.853403141358</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>33074.935400516799</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>32653.061224489797</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>32241.813602015114</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>31840.796019900499</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>31449.631449631448</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>31067.961165048542</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>30695.443645083931</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>30331.753554502371</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>29976.580796252929</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>29629.629629629631</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>29290.617848970251</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>28959.276018099546</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>28635.346756152125</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>28318.58407079646</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>28008.752735229758</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>27705.627705627707</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>27408.993576017132</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>27118.644067796609</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>26834.381551362683</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>26556.016597510374</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>26283.367556468173</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>26016.260162601626</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>25754.527162977869</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>25498.007968127491</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>25246.548323471401</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>24758.220502901353</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>24521.072796934866</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>24288.42504743833</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>24060.150375939851</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>23836.126629422717</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>23616.236162361623</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>23400.365630712979</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>23188.405797101448</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>22980.251346499103</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>22775.800711743774</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>22574.955908289241</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>22377.622377622378</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>22183.708838821491</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>21993.127147766321</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>21805.79216354344</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>21621.62162162162</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>21440.536013400335</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>21262.458471760798</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>21087.314662273475</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>20915.032679738561</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>20745.542949756888</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>20578.778135048233</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>20414.673046251995</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>20253.164556962027</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>20094.191522762951</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>19937.694704049845</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>19783.616692426585</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>19631.901840490798</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>19482.496194824962</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>19335.347432024169</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>19190.404797601201</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>19047.619047619046</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>18906.942392909896</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>18768.3284457478</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>18631.732168850074</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>18497.109826589596</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>18364.41893830703</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>18233.618233618232</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>18104.667609618104</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>17977.528089887641</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>17852.16178521618</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>17728.53185595568</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>17606.602475928474</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>17486.338797814209</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>17367.706919945726</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>17250.673854447439</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>17135.207496653278</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>17021.276595744679</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>16908.85072655218</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>16797.900262467192</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>16688.396349413299</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>16580.310880829016</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>16473.616473616472</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>16368.286445012787</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>16264.294790343076</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>16161.616161616161</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>16060.225846925972</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>15960.099750623442</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>15861.214374225527</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>15763.546798029556</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>15667.074663402693</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>15571.776155717762</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>15477.629987908102</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>15384.615384615385</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>15292.712066905615</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>15201.900237529691</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>15112.160566706021</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>15023.474178403756</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>14935.822637106185</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>14849.187935034803</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>14763.552479815455</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>14678.899082568807</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>14595.21094640821</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>14512.471655328798</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>14430.665163472378</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>14349.775784753363</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>14269.78818283166</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>14190.687361419068</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>14112.458654906284</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>14035.087719298246</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>13958.56052344602</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>13882.863340563992</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>13807.982740021575</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>13733.905579399141</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>13660.618996798292</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>13588.110403397028</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>13516.367476240761</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>13445.378151260504</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>13375.130616509927</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>13305.613305613306</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>13236.814891416752</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>13168.724279835391</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>13101.330603889457</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>13034.623217922606</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>12968.591691995947</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>12903.225806451614</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>12838.515546639919</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>12774.451097804391</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>12711.022840119165</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>12648.221343873518</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>12586.037364798427</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>12524.461839530333</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>12463.4858812074</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>12403.100775193798</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>12343.297974927676</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>12284.069097888676</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>12225.405921680993</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>12167.300380228136</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>12109.744560075686</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>12052.730696798493</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>11996.251171508904</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>11940.298507462687</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>11884.865366759517</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>11829.944547134935</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>11775.528978840846</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>11721.611721611722</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>11668.185961713765</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>11615.24500907441</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>11562.782294489612</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>11510.791366906475</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-72DA-4F2B-8B45-188877ADBAD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="210568383"/>
+        <c:axId val="210571743"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="210568383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="210571743"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="210571743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="210568383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>393754</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238290</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>178821</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7D5B642-9118-4DDA-9B01-A95A7A7BCCCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1729,8 +4117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2D6D-43F7-44B1-8255-ECFDDA33AA9C}">
   <dimension ref="A18:AE119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView topLeftCell="B47" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3385,8 +5773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7761-01BE-400F-9C40-BE71D85F5C61}">
   <dimension ref="A2:BA81"/>
   <sheetViews>
-    <sheetView topLeftCell="C15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="B12" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3396,7 +5784,7 @@
     <col min="3" max="3" width="19.5546875" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="22.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
+    <col min="7" max="7" width="25" customWidth="1"/>
     <col min="8" max="8" width="22.88671875" customWidth="1"/>
     <col min="9" max="9" width="15.21875" customWidth="1"/>
     <col min="10" max="10" width="24.109375" customWidth="1"/>
@@ -4542,4 +6930,6949 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860CCB6B-9BC8-4B28-B4AE-B22F38F81573}">
+  <dimension ref="B1:P254"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I91" sqref="I91"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="17.5546875" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="10" max="10" width="38.21875" customWidth="1"/>
+    <col min="11" max="11" width="20.5546875" customWidth="1"/>
+    <col min="13" max="13" width="20.5546875" customWidth="1"/>
+    <col min="15" max="15" width="20.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:14" ht="93.6" x14ac:dyDescent="1.75">
+      <c r="D1" s="6" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>329</v>
+      </c>
+      <c r="N4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>30000</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G7" t="s">
+        <v>325</v>
+      </c>
+      <c r="J7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="D8">
+        <v>0.01</v>
+      </c>
+      <c r="E8">
+        <v>128</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>E8*C3/((D8)*(F8+1))</f>
+        <v>12800000000</v>
+      </c>
+      <c r="J8">
+        <f>(E8*1000000)/((L5+1))</f>
+        <v>4266.5244491850272</v>
+      </c>
+      <c r="M8" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <f>J14-ROUND(J14,0)</f>
+        <v>0.44491850270424038</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="L12" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>330</v>
+      </c>
+      <c r="L13">
+        <f>INT((L5+((L5/J15)* M9)))</f>
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <f>E8*C3/(D8*(L5+1))</f>
+        <v>426652.4449185027</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <f>ROUND(J14,0)</f>
+        <v>426652</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="D16">
+        <f>E8*C3/D8</f>
+        <v>12800000000</v>
+      </c>
+      <c r="J16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>331</v>
+      </c>
+      <c r="L17" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <f>E8*C3/D16</f>
+        <v>0.01</v>
+      </c>
+      <c r="J18">
+        <f>(E8*C3)/((L5)*(INT(J14)))</f>
+        <v>1.0000343761816813E-2</v>
+      </c>
+      <c r="L18">
+        <f>(E8*C3)/((J15)*(L13))</f>
+        <v>1.0000343761816813E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="27" spans="2:16" ht="93.6" x14ac:dyDescent="1.75">
+      <c r="D27" s="6" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>340</v>
+      </c>
+      <c r="K28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>1000000</v>
+      </c>
+      <c r="K29">
+        <f>1/(D31/1000)</f>
+        <v>0.05</v>
+      </c>
+      <c r="M29" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>338</v>
+      </c>
+      <c r="E30" t="s">
+        <v>339</v>
+      </c>
+      <c r="F30" t="s">
+        <v>341</v>
+      </c>
+      <c r="G30" t="s">
+        <v>325</v>
+      </c>
+      <c r="I30" t="s">
+        <v>345</v>
+      </c>
+      <c r="J30" t="s">
+        <v>343</v>
+      </c>
+      <c r="K30" t="s">
+        <v>346</v>
+      </c>
+      <c r="L30" t="s">
+        <v>347</v>
+      </c>
+      <c r="M30" t="s">
+        <v>344</v>
+      </c>
+      <c r="O30" t="s">
+        <v>348</v>
+      </c>
+      <c r="P30" t="e">
+        <f>2^#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>20000</v>
+      </c>
+      <c r="E31">
+        <v>128</v>
+      </c>
+      <c r="F31">
+        <v>65534</v>
+      </c>
+      <c r="G31">
+        <f>(E31*D29)/((F31+1)*K29+1)</f>
+        <v>39051.178399816949</v>
+      </c>
+      <c r="I31">
+        <v>0.05</v>
+      </c>
+      <c r="J31">
+        <f>($E$31*$D$29)/(I31*(M31+1))</f>
+        <v>56721.246094875147</v>
+      </c>
+      <c r="K31">
+        <f>($E$31*$D$29)/(50000*I31)</f>
+        <v>51200</v>
+      </c>
+      <c r="L31">
+        <f>($E$31*$D$29)/(65534*I31)</f>
+        <v>39063.692129276402</v>
+      </c>
+      <c r="M31">
+        <f>ROUND((K31+L31)/2,0)</f>
+        <v>45132</v>
+      </c>
+      <c r="O31">
+        <f>($E$31*$D$29)/((J31+1)*(M31+1))</f>
+        <v>4.9999118511634459E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="I32">
+        <v>20</v>
+      </c>
+      <c r="J32">
+        <f t="shared" ref="J32:J95" si="0">($E$31*$D$29)/(I32*(M32+1))</f>
+        <v>56637.16814159292</v>
+      </c>
+      <c r="K32">
+        <f>($E$31*$D$29)/(50000*I32)</f>
+        <v>128</v>
+      </c>
+      <c r="L32">
+        <f>($E$31*$D$29)/(65534*I32)</f>
+        <v>97.659230323191011</v>
+      </c>
+      <c r="M32">
+        <f>INT((K32+L32)/2)</f>
+        <v>112</v>
+      </c>
+      <c r="O32">
+        <f t="shared" ref="O32:O95" si="1">($E$31*$D$29)/((J32+1)*(M32+1))</f>
+        <v>19.999646881234753</v>
+      </c>
+    </row>
+    <row r="33" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I33">
+        <f>50+I32</f>
+        <v>70</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="0"/>
+        <v>55411.255411255413</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ref="K33:K96" si="2">($E$31*$D$29)/(50000*I33)</f>
+        <v>36.571428571428569</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ref="L32:L95" si="3">($E$31*$D$29)/(65534*I33)</f>
+        <v>27.902637235197432</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ref="M33:M96" si="4">INT((K33+L33)/2)</f>
+        <v>32</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>69.998736741547859</v>
+      </c>
+    </row>
+    <row r="34" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I34">
+        <f t="shared" ref="I34:I97" si="5">50+I33</f>
+        <v>120</v>
+      </c>
+      <c r="J34">
+        <f>($E$31*$D$29)/(I34*(M34+1))</f>
+        <v>56140.350877192985</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="2"/>
+        <v>21.333333333333332</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="3"/>
+        <v>16.276538387198503</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>119.99786253807353</v>
+      </c>
+    </row>
+    <row r="35" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I35">
+        <f t="shared" si="5"/>
+        <v>170</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35:J98" si="6">($E$31*$D$29)/(I35*(M35+1))</f>
+        <v>53781.512605042015</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="2"/>
+        <v>15.058823529411764</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="3"/>
+        <v>11.48932121449306</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="N35">
+        <f>(E34*D32)/(64534*K31)</f>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f>($E$31*$D$29)/((J35+1)*(M35+1))</f>
+        <v>169.99683912127259</v>
+      </c>
+    </row>
+    <row r="36" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I36">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="6"/>
+        <v>52892.561983471074</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="2"/>
+        <v>11.636363636363637</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="3"/>
+        <v>8.8781118475628205</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="N36">
+        <f t="shared" ref="N33:N96" si="7">(E35*D33)/(64534*K33)</f>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>219.99584070363673</v>
+      </c>
+    </row>
+    <row r="37" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I37">
+        <f t="shared" si="5"/>
+        <v>270</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="6"/>
+        <v>52674.897119341564</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="2"/>
+        <v>9.481481481481481</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="3"/>
+        <v>7.2340170609771119</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N37">
+        <f>(E36*D34)/(64534*K34)</f>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>269.99487431605792</v>
+      </c>
+    </row>
+    <row r="38" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I38">
+        <f t="shared" si="5"/>
+        <v>320</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="6"/>
+        <v>50000</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="3"/>
+        <v>6.1037018951994382</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>319.99360012799747</v>
+      </c>
+    </row>
+    <row r="39" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I39">
+        <f t="shared" si="5"/>
+        <v>370</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="6"/>
+        <v>49420.849420849423</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="2"/>
+        <v>6.9189189189189193</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="3"/>
+        <v>5.2788773147670822</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>369.99251343273596</v>
+      </c>
+    </row>
+    <row r="40" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I40">
+        <f t="shared" si="5"/>
+        <v>420</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="6"/>
+        <v>50793.650793650791</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="2"/>
+        <v>6.0952380952380949</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="3"/>
+        <v>4.6504395391995725</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>419.99173141278783</v>
+      </c>
+    </row>
+    <row r="41" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I41">
+        <f t="shared" si="5"/>
+        <v>470</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="6"/>
+        <v>54468.085106382976</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="2"/>
+        <v>5.4468085106382977</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="3"/>
+        <v>4.1557119286464266</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="1"/>
+        <v>469.99137125216845</v>
+      </c>
+    </row>
+    <row r="42" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I42">
+        <f t="shared" si="5"/>
+        <v>520</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="6"/>
+        <v>49230.769230769234</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>4.9230769230769234</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="3"/>
+        <v>3.7561242431996544</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="1"/>
+        <v>519.9894377145464</v>
+      </c>
+    </row>
+    <row r="43" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I43">
+        <f t="shared" si="5"/>
+        <v>570</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="6"/>
+        <v>56140.350877192985</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="2"/>
+        <v>4.4912280701754383</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="3"/>
+        <v>3.4266396604628429</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="1"/>
+        <v>569.98984705584928</v>
+      </c>
+    </row>
+    <row r="44" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I44">
+        <f t="shared" si="5"/>
+        <v>620</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="6"/>
+        <v>51612.903225806454</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="2"/>
+        <v>4.129032258064516</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="3"/>
+        <v>3.1502977523610003</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="1"/>
+        <v>619.98798773273768</v>
+      </c>
+    </row>
+    <row r="45" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I45">
+        <f t="shared" si="5"/>
+        <v>670</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="6"/>
+        <v>47761.194029850747</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="2"/>
+        <v>3.8208955223880596</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="3"/>
+        <v>2.9152009051698808</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="1"/>
+        <v>669.98597216870769</v>
+      </c>
+    </row>
+    <row r="46" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I46">
+        <f t="shared" si="5"/>
+        <v>720</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="6"/>
+        <v>44444.444444444445</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="2"/>
+        <v>3.5555555555555554</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="3"/>
+        <v>2.7127563978664173</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="1"/>
+        <v>719.9838003644918</v>
+      </c>
+    </row>
+    <row r="47" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I47">
+        <f t="shared" si="5"/>
+        <v>770</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="6"/>
+        <v>55411.255411255413</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="2"/>
+        <v>3.3246753246753249</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="3"/>
+        <v>2.5366033850179486</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="1"/>
+        <v>769.98610415702649</v>
+      </c>
+    </row>
+    <row r="48" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I48">
+        <f t="shared" si="5"/>
+        <v>820</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="6"/>
+        <v>52032.520325203252</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="2"/>
+        <v>3.1219512195121952</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="3"/>
+        <v>2.3819324469070979</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="1"/>
+        <v>819.98424092786968</v>
+      </c>
+    </row>
+    <row r="49" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I49">
+        <f t="shared" si="5"/>
+        <v>870</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="6"/>
+        <v>49042.145593869733</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="2"/>
+        <v>2.9425287356321839</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="3"/>
+        <v>2.2450397775446209</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="1"/>
+        <v>869.98226051796917</v>
+      </c>
+    </row>
+    <row r="50" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I50">
+        <f t="shared" si="5"/>
+        <v>920</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="6"/>
+        <v>46376.811594202896</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="2"/>
+        <v>2.7826086956521738</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="3"/>
+        <v>2.1230267461563264</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="1"/>
+        <v>919.98016292773684</v>
+      </c>
+    </row>
+    <row r="51" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I51">
+        <f t="shared" si="5"/>
+        <v>970</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="6"/>
+        <v>43986.254295532643</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="2"/>
+        <v>2.6391752577319587</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="3"/>
+        <v>2.0135923777977527</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="1"/>
+        <v>969.97794815758493</v>
+      </c>
+    </row>
+    <row r="52" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I52">
+        <f t="shared" si="5"/>
+        <v>1020</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="6"/>
+        <v>41830.065359477121</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="2"/>
+        <v>2.5098039215686274</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="3"/>
+        <v>1.9148868690821768</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="1"/>
+        <v>1019.9756162079252</v>
+      </c>
+    </row>
+    <row r="53" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I53">
+        <f t="shared" si="5"/>
+        <v>1070</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="6"/>
+        <v>39875.389408099691</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="2"/>
+        <v>2.3925233644859811</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="3"/>
+        <v>1.8254061742652525</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="1"/>
+        <v>1069.9731670791693</v>
+      </c>
+    </row>
+    <row r="54" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I54">
+        <f t="shared" si="5"/>
+        <v>1120</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="6"/>
+        <v>38095.238095238092</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="2"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="3"/>
+        <v>1.7439148271998395</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="1"/>
+        <v>1119.9706007717298</v>
+      </c>
+    </row>
+    <row r="55" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I55">
+        <f t="shared" si="5"/>
+        <v>1170</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="6"/>
+        <v>54700.854700854703</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="2"/>
+        <v>2.1880341880341883</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="3"/>
+        <v>1.6693885525331797</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="1"/>
+        <v>1169.9786113285115</v>
+      </c>
+    </row>
+    <row r="56" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I56">
+        <f t="shared" si="5"/>
+        <v>1220</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="6"/>
+        <v>52459.016393442624</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="2"/>
+        <v>2.098360655737705</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="3"/>
+        <v>1.6009709889047707</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="1"/>
+        <v>1219.9767441933138</v>
+      </c>
+    </row>
+    <row r="57" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I57">
+        <f t="shared" si="5"/>
+        <v>1270</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="6"/>
+        <v>50393.700787401576</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>2.015748031496063</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="3"/>
+        <v>1.5379406350108822</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="1"/>
+        <v>1269.9747989375835</v>
+      </c>
+    </row>
+    <row r="58" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I58">
+        <f t="shared" si="5"/>
+        <v>1320</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="6"/>
+        <v>48484.848484848488</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="2"/>
+        <v>1.9393939393939394</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="3"/>
+        <v>1.4796853079271366</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="1"/>
+        <v>1319.972775561504</v>
+      </c>
+    </row>
+    <row r="59" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I59">
+        <f t="shared" si="5"/>
+        <v>1370</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="6"/>
+        <v>46715.328467153282</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="2"/>
+        <v>1.8686131386861313</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="3"/>
+        <v>1.4256821944991389</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="1"/>
+        <v>1369.9706740652584</v>
+      </c>
+    </row>
+    <row r="60" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I60">
+        <f t="shared" si="5"/>
+        <v>1420</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="6"/>
+        <v>45070.42253521127</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="2"/>
+        <v>1.8028169014084507</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="3"/>
+        <v>1.3754821172280425</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="1"/>
+        <v>1419.9684944490293</v>
+      </c>
+    </row>
+    <row r="61" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I61">
+        <f t="shared" si="5"/>
+        <v>1470</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="6"/>
+        <v>43537.414965986398</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="2"/>
+        <v>1.7414965986394557</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="3"/>
+        <v>1.3286970111998777</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="1"/>
+        <v>1469.9662367130004</v>
+      </c>
+    </row>
+    <row r="62" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I62">
+        <f t="shared" si="5"/>
+        <v>1520</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="6"/>
+        <v>42105.26315789474</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="2"/>
+        <v>1.6842105263157894</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="3"/>
+        <v>1.284989872673566</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="1"/>
+        <v>1519.9639008573545</v>
+      </c>
+    </row>
+    <row r="63" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I63">
+        <f t="shared" si="5"/>
+        <v>1570</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="6"/>
+        <v>40764.331210191085</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="2"/>
+        <v>1.6305732484076434</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="3"/>
+        <v>1.2440666283209048</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="1"/>
+        <v>1569.9614868822748</v>
+      </c>
+    </row>
+    <row r="64" spans="9:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I64" s="7">
+        <f t="shared" si="5"/>
+        <v>1620</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="6"/>
+        <v>39506.172839506173</v>
+      </c>
+      <c r="K64" s="7">
+        <f t="shared" si="2"/>
+        <v>1.5802469135802468</v>
+      </c>
+      <c r="L64" s="7">
+        <f t="shared" si="3"/>
+        <v>1.2056695101628521</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N64" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O64" s="7">
+        <f t="shared" si="1"/>
+        <v>1619.9589947879444</v>
+      </c>
+    </row>
+    <row r="65" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I65">
+        <f t="shared" si="5"/>
+        <v>1670</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="6"/>
+        <v>38323.353293413173</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="2"/>
+        <v>1.532934131736527</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="3"/>
+        <v>1.1695716206370181</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="1"/>
+        <v>1669.9564245745462</v>
+      </c>
+    </row>
+    <row r="66" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I66">
+        <f t="shared" si="5"/>
+        <v>1720</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="6"/>
+        <v>37209.302325581397</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="2"/>
+        <v>1.4883720930232558</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="3"/>
+        <v>1.1355724456185001</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="1"/>
+        <v>1719.9537762422635</v>
+      </c>
+    </row>
+    <row r="67" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <f t="shared" si="5"/>
+        <v>1770</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="6"/>
+        <v>36158.192090395482</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="2"/>
+        <v>1.4463276836158192</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="3"/>
+        <v>1.1034941279456612</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="1"/>
+        <v>1769.951049791279</v>
+      </c>
+    </row>
+    <row r="68" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <f t="shared" si="5"/>
+        <v>1820</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="6"/>
+        <v>35164.835164835167</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="2"/>
+        <v>1.4065934065934067</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="3"/>
+        <v>1.0731783551999012</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="1"/>
+        <v>1819.9482452217765</v>
+      </c>
+    </row>
+    <row r="69" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <f t="shared" si="5"/>
+        <v>1870</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="6"/>
+        <v>34224.598930481283</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="2"/>
+        <v>1.3689839572192513</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="3"/>
+        <v>1.0444837467720964</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="1"/>
+        <v>1869.9453625339386</v>
+      </c>
+    </row>
+    <row r="70" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <f t="shared" si="5"/>
+        <v>1920</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="6"/>
+        <v>33333.333333333336</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="2"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="3"/>
+        <v>1.0172836491999064</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="1"/>
+        <v>1919.942401727948</v>
+      </c>
+    </row>
+    <row r="71" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <f t="shared" si="5"/>
+        <v>1970</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="6"/>
+        <v>32487.309644670051</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="2"/>
+        <v>1.2994923857868019</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="3"/>
+        <v>0.99146426724051795</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="1"/>
+        <v>1969.9393628039886</v>
+      </c>
+    </row>
+    <row r="72" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <f t="shared" si="5"/>
+        <v>2020</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="6"/>
+        <v>31683.168316831685</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="2"/>
+        <v>1.2673267326732673</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="3"/>
+        <v>0.96692307250684173</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="1"/>
+        <v>2019.9362457622431</v>
+      </c>
+    </row>
+    <row r="73" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I73">
+        <f t="shared" si="5"/>
+        <v>2070</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="6"/>
+        <v>30917.874396135267</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="2"/>
+        <v>1.2367149758454106</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="3"/>
+        <v>0.94356744273614512</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="1"/>
+        <v>2069.9330506028946</v>
+      </c>
+    </row>
+    <row r="74" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I74">
+        <f t="shared" si="5"/>
+        <v>2120</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="6"/>
+        <v>30188.67924528302</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="2"/>
+        <v>1.2075471698113207</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="3"/>
+        <v>0.92131349361500958</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="1"/>
+        <v>2119.929777326126</v>
+      </c>
+    </row>
+    <row r="75" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I75">
+        <f t="shared" si="5"/>
+        <v>2170</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="6"/>
+        <v>29493.087557603685</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="2"/>
+        <v>1.1797235023041475</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="3"/>
+        <v>0.90008507210314304</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="1"/>
+        <v>2169.9264259321208</v>
+      </c>
+    </row>
+    <row r="76" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I76">
+        <f t="shared" si="5"/>
+        <v>2220</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="6"/>
+        <v>28828.828828828828</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="2"/>
+        <v>1.1531531531531531</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="3"/>
+        <v>0.87981288579451367</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="1"/>
+        <v>2219.9229964210617</v>
+      </c>
+    </row>
+    <row r="77" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I77">
+        <f t="shared" si="5"/>
+        <v>2270</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="6"/>
+        <v>56387.665198237883</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="2"/>
+        <v>1.1277533039647578</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="3"/>
+        <v>0.86043374734088995</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="1"/>
+        <v>2269.9597436826707</v>
+      </c>
+    </row>
+    <row r="78" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I78">
+        <f t="shared" si="5"/>
+        <v>2320</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="6"/>
+        <v>55172.413793103449</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="2"/>
+        <v>1.103448275862069</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="3"/>
+        <v>0.84188991657923284</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="1"/>
+        <v>2319.9579507621424</v>
+      </c>
+    </row>
+    <row r="79" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I79">
+        <f t="shared" si="5"/>
+        <v>2370</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="6"/>
+        <v>54008.438818565402</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="2"/>
+        <v>1.0801687763713079</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="3"/>
+        <v>0.82412852593410135</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="1"/>
+        <v>2369.9561187812383</v>
+      </c>
+    </row>
+    <row r="80" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I80">
+        <f t="shared" si="5"/>
+        <v>2420</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="6"/>
+        <v>52892.561983471074</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="2"/>
+        <v>1.0578512396694215</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="3"/>
+        <v>0.80710107705116541</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="1"/>
+        <v>2419.9542477400037</v>
+      </c>
+    </row>
+    <row r="81" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I81">
+        <f t="shared" si="5"/>
+        <v>2470</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="6"/>
+        <v>51821.86234817814</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="2"/>
+        <v>1.0364372469635628</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="3"/>
+        <v>0.79076299856834831</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="1"/>
+        <v>2469.9523376384846</v>
+      </c>
+    </row>
+    <row r="82" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I82">
+        <f t="shared" si="5"/>
+        <v>2520</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="6"/>
+        <v>50793.650793650791</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="2"/>
+        <v>1.0158730158730158</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="3"/>
+        <v>0.77507325653326198</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="1"/>
+        <v>2519.9503884767269</v>
+      </c>
+    </row>
+    <row r="83" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I83">
+        <f t="shared" si="5"/>
+        <v>2570</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="6"/>
+        <v>49805.447470817118</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="2"/>
+        <v>0.99610894941634243</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="3"/>
+        <v>0.75999401029720637</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="1"/>
+        <v>2569.9484002547761</v>
+      </c>
+    </row>
+    <row r="84" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I84">
+        <f t="shared" si="5"/>
+        <v>2620</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="6"/>
+        <v>48854.961832061068</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="2"/>
+        <v>0.97709923664122134</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="3"/>
+        <v>0.74549030781061842</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="1"/>
+        <v>2619.9463729726781</v>
+      </c>
+    </row>
+    <row r="85" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I85">
+        <f t="shared" si="5"/>
+        <v>2670</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="6"/>
+        <v>47940.074906367045</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="2"/>
+        <v>0.95880149812734083</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="3"/>
+        <v>0.73152981515498883</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="1"/>
+        <v>2669.9443066304789</v>
+      </c>
+    </row>
+    <row r="86" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I86">
+        <f t="shared" si="5"/>
+        <v>2720</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="6"/>
+        <v>47058.823529411762</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="2"/>
+        <v>0.94117647058823528</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="3"/>
+        <v>0.71808257590581626</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="1"/>
+        <v>2719.9422012282239</v>
+      </c>
+    </row>
+    <row r="87" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I87">
+        <f t="shared" si="5"/>
+        <v>2770</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="6"/>
+        <v>46209.386281588449</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="2"/>
+        <v>0.92418772563176899</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="3"/>
+        <v>0.70512079655733584</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="1"/>
+        <v>2769.9400567659591</v>
+      </c>
+    </row>
+    <row r="88" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I88">
+        <f t="shared" si="5"/>
+        <v>2820</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="6"/>
+        <v>45390.070921985818</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="2"/>
+        <v>0.90780141843971629</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="3"/>
+        <v>0.69261865477440432</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="1"/>
+        <v>2819.9378732437299</v>
+      </c>
+    </row>
+    <row r="89" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I89">
+        <f t="shared" si="5"/>
+        <v>2870</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="6"/>
+        <v>44599.303135888498</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="2"/>
+        <v>0.89198606271777003</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="3"/>
+        <v>0.68055212768774231</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="1"/>
+        <v>2869.9356506615832</v>
+      </c>
+    </row>
+    <row r="90" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I90">
+        <f t="shared" si="5"/>
+        <v>2920</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="6"/>
+        <v>43835.616438356163</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="2"/>
+        <v>0.87671232876712324</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="3"/>
+        <v>0.66889883783007542</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="1"/>
+        <v>2919.933389019563</v>
+      </c>
+    </row>
+    <row r="91" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I91">
+        <f t="shared" si="5"/>
+        <v>2970</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="6"/>
+        <v>43097.6430976431</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="2"/>
+        <v>0.86195286195286192</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="3"/>
+        <v>0.65763791463428289</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="1"/>
+        <v>2969.9310883177163</v>
+      </c>
+    </row>
+    <row r="92" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I92">
+        <f t="shared" si="5"/>
+        <v>3020</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="6"/>
+        <v>42384.105960264904</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="2"/>
+        <v>0.84768211920529801</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="3"/>
+        <v>0.6467498696900067</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="1"/>
+        <v>3019.9287485560885</v>
+      </c>
+    </row>
+    <row r="93" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I93">
+        <f t="shared" si="5"/>
+        <v>3070</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="6"/>
+        <v>41693.811074918565</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="2"/>
+        <v>0.83387622149837137</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="3"/>
+        <v>0.63621648419016952</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="1"/>
+        <v>3069.926369734726</v>
+      </c>
+    </row>
+    <row r="94" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I94">
+        <f t="shared" si="5"/>
+        <v>3120</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="6"/>
+        <v>41025.641025641024</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="2"/>
+        <v>0.82051282051282048</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="3"/>
+        <v>0.62602070719994241</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="1"/>
+        <v>3119.9239518536738</v>
+      </c>
+    </row>
+    <row r="95" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I95">
+        <f t="shared" si="5"/>
+        <v>3170</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="6"/>
+        <v>40378.548895899054</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="2"/>
+        <v>0.80757097791798105</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="3"/>
+        <v>0.61614656355325559</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="1"/>
+        <v>3169.9214949129773</v>
+      </c>
+    </row>
+    <row r="96" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I96">
+        <f t="shared" si="5"/>
+        <v>3220</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="6"/>
+        <v>39751.552795031057</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="2"/>
+        <v>0.79503105590062106</v>
+      </c>
+      <c r="L96">
+        <f t="shared" ref="L96:L159" si="8">($E$31*$D$29)/(65534*I96)</f>
+        <v>0.60657907033037894</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O96">
+        <f t="shared" ref="O96:O159" si="9">($E$31*$D$29)/((J96+1)*(M96+1))</f>
+        <v>3219.9189989126835</v>
+      </c>
+    </row>
+    <row r="97" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I97">
+        <f t="shared" si="5"/>
+        <v>3270</v>
+      </c>
+      <c r="J97">
+        <f t="shared" si="6"/>
+        <v>39143.73088685015</v>
+      </c>
+      <c r="K97">
+        <f t="shared" ref="K97:K160" si="10">($E$31*$D$29)/(50000*I97)</f>
+        <v>0.78287461773700306</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="8"/>
+        <v>0.59730416099811023</v>
+      </c>
+      <c r="M97">
+        <f t="shared" ref="M97:M160" si="11">INT((K97+L97)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <f t="shared" ref="N97:N160" si="12">(E96*D94)/(64534*K94)</f>
+        <v>0</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="9"/>
+        <v>3269.9164638528378</v>
+      </c>
+    </row>
+    <row r="98" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I98">
+        <f t="shared" ref="I98:I161" si="13">50+I97</f>
+        <v>3320</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="6"/>
+        <v>38554.216867469877</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="10"/>
+        <v>0.77108433734939763</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="8"/>
+        <v>0.58830861640476517</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="9"/>
+        <v>3319.9138897334851</v>
+      </c>
+    </row>
+    <row r="99" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I99">
+        <f t="shared" si="13"/>
+        <v>3370</v>
+      </c>
+      <c r="J99">
+        <f t="shared" ref="J99:J162" si="14">($E$31*$D$29)/(I99*(M99+1))</f>
+        <v>37982.19584569733</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="10"/>
+        <v>0.75964391691394662</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="8"/>
+        <v>0.57958000191804759</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="9"/>
+        <v>3369.911276554672</v>
+      </c>
+    </row>
+    <row r="100" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I100">
+        <f t="shared" si="13"/>
+        <v>3420</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="14"/>
+        <v>37426.900584795323</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="10"/>
+        <v>0.74853801169590639</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="8"/>
+        <v>0.57110661007714048</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="9"/>
+        <v>3419.9086243164438</v>
+      </c>
+    </row>
+    <row r="101" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I101">
+        <f t="shared" si="13"/>
+        <v>3470</v>
+      </c>
+      <c r="J101">
+        <f t="shared" si="14"/>
+        <v>36887.608069164264</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="10"/>
+        <v>0.73775216138328525</v>
+      </c>
+      <c r="L101">
+        <f t="shared" si="8"/>
+        <v>0.56287740820283005</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="9"/>
+        <v>3469.905933018847</v>
+      </c>
+    </row>
+    <row r="102" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I102">
+        <f t="shared" si="13"/>
+        <v>3520</v>
+      </c>
+      <c r="J102">
+        <f t="shared" si="14"/>
+        <v>36363.63636363636</v>
+      </c>
+      <c r="K102">
+        <f t="shared" si="10"/>
+        <v>0.72727272727272729</v>
+      </c>
+      <c r="L102">
+        <f t="shared" si="8"/>
+        <v>0.55488199047267628</v>
+      </c>
+      <c r="M102">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="9"/>
+        <v>3519.903202661927</v>
+      </c>
+    </row>
+    <row r="103" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I103">
+        <f t="shared" si="13"/>
+        <v>3570</v>
+      </c>
+      <c r="J103">
+        <f t="shared" si="14"/>
+        <v>35854.341736694681</v>
+      </c>
+      <c r="K103">
+        <f t="shared" si="10"/>
+        <v>0.71708683473389356</v>
+      </c>
+      <c r="L103">
+        <f t="shared" si="8"/>
+        <v>0.54711053402347909</v>
+      </c>
+      <c r="M103">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="9"/>
+        <v>3569.9004332457284</v>
+      </c>
+    </row>
+    <row r="104" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I104">
+        <f t="shared" si="13"/>
+        <v>3620</v>
+      </c>
+      <c r="J104">
+        <f t="shared" si="14"/>
+        <v>35359.11602209945</v>
+      </c>
+      <c r="K104">
+        <f t="shared" si="10"/>
+        <v>0.70718232044198892</v>
+      </c>
+      <c r="L104">
+        <f t="shared" si="8"/>
+        <v>0.53955375869166311</v>
+      </c>
+      <c r="M104">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="9"/>
+        <v>3619.8976247702994</v>
+      </c>
+    </row>
+    <row r="105" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I105">
+        <f t="shared" si="13"/>
+        <v>3670</v>
+      </c>
+      <c r="J105">
+        <f t="shared" si="14"/>
+        <v>34877.384196185289</v>
+      </c>
+      <c r="K105">
+        <f t="shared" si="10"/>
+        <v>0.6975476839237057</v>
+      </c>
+      <c r="L105">
+        <f t="shared" si="8"/>
+        <v>0.53220289004463772</v>
+      </c>
+      <c r="M105">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="9"/>
+        <v>3669.8947772356837</v>
+      </c>
+    </row>
+    <row r="106" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I106">
+        <f t="shared" si="13"/>
+        <v>3720</v>
+      </c>
+      <c r="J106">
+        <f t="shared" si="14"/>
+        <v>34408.602150537634</v>
+      </c>
+      <c r="K106">
+        <f t="shared" si="10"/>
+        <v>0.68817204301075274</v>
+      </c>
+      <c r="L106">
+        <f t="shared" si="8"/>
+        <v>0.52504962539350009</v>
+      </c>
+      <c r="M106">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="9"/>
+        <v>3719.8918906419281</v>
+      </c>
+    </row>
+    <row r="107" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I107">
+        <f t="shared" si="13"/>
+        <v>3770</v>
+      </c>
+      <c r="J107">
+        <f t="shared" si="14"/>
+        <v>33952.254641909814</v>
+      </c>
+      <c r="K107">
+        <f t="shared" si="10"/>
+        <v>0.67904509283819625</v>
+      </c>
+      <c r="L107">
+        <f t="shared" si="8"/>
+        <v>0.51808610251029719</v>
+      </c>
+      <c r="M107">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="9"/>
+        <v>3769.888964989078</v>
+      </c>
+    </row>
+    <row r="108" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I108">
+        <f t="shared" si="13"/>
+        <v>3820</v>
+      </c>
+      <c r="J108">
+        <f t="shared" si="14"/>
+        <v>33507.853403141358</v>
+      </c>
+      <c r="K108">
+        <f t="shared" si="10"/>
+        <v>0.67015706806282727</v>
+      </c>
+      <c r="L108">
+        <f t="shared" si="8"/>
+        <v>0.51130487080204723</v>
+      </c>
+      <c r="M108">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="9"/>
+        <v>3819.8860002771794</v>
+      </c>
+    </row>
+    <row r="109" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I109">
+        <f t="shared" si="13"/>
+        <v>3870</v>
+      </c>
+      <c r="J109">
+        <f t="shared" si="14"/>
+        <v>33074.935400516799</v>
+      </c>
+      <c r="K109">
+        <f t="shared" si="10"/>
+        <v>0.66149870801033595</v>
+      </c>
+      <c r="L109">
+        <f t="shared" si="8"/>
+        <v>0.50469886471933345</v>
+      </c>
+      <c r="M109">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="9"/>
+        <v>3869.8829965062773</v>
+      </c>
+    </row>
+    <row r="110" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I110">
+        <f t="shared" si="13"/>
+        <v>3920</v>
+      </c>
+      <c r="J110">
+        <f t="shared" si="14"/>
+        <v>32653.061224489797</v>
+      </c>
+      <c r="K110">
+        <f t="shared" si="10"/>
+        <v>0.65306122448979587</v>
+      </c>
+      <c r="L110">
+        <f t="shared" si="8"/>
+        <v>0.49826137919995417</v>
+      </c>
+      <c r="M110">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="9"/>
+        <v>3919.8799536764186</v>
+      </c>
+    </row>
+    <row r="111" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I111">
+        <f t="shared" si="13"/>
+        <v>3970</v>
+      </c>
+      <c r="J111">
+        <f t="shared" si="14"/>
+        <v>32241.813602015114</v>
+      </c>
+      <c r="K111">
+        <f t="shared" si="10"/>
+        <v>0.64483627204030225</v>
+      </c>
+      <c r="L111">
+        <f t="shared" si="8"/>
+        <v>0.49198604696821668</v>
+      </c>
+      <c r="M111">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="9"/>
+        <v>3969.8768717876483</v>
+      </c>
+    </row>
+    <row r="112" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I112">
+        <f t="shared" si="13"/>
+        <v>4020</v>
+      </c>
+      <c r="J112">
+        <f t="shared" si="14"/>
+        <v>31840.796019900499</v>
+      </c>
+      <c r="K112">
+        <f t="shared" si="10"/>
+        <v>0.63681592039800994</v>
+      </c>
+      <c r="L112">
+        <f t="shared" si="8"/>
+        <v>0.48586681752831351</v>
+      </c>
+      <c r="M112">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="9"/>
+        <v>4019.8737508400127</v>
+      </c>
+    </row>
+    <row r="113" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I113">
+        <f t="shared" si="13"/>
+        <v>4070</v>
+      </c>
+      <c r="J113">
+        <f t="shared" si="14"/>
+        <v>31449.631449631448</v>
+      </c>
+      <c r="K113">
+        <f t="shared" si="10"/>
+        <v>0.62899262899262898</v>
+      </c>
+      <c r="L113">
+        <f t="shared" si="8"/>
+        <v>0.47989793770609834</v>
+      </c>
+      <c r="M113">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="9"/>
+        <v>4069.8705908335573</v>
+      </c>
+    </row>
+    <row r="114" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I114">
+        <f t="shared" si="13"/>
+        <v>4120</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="14"/>
+        <v>31067.961165048542</v>
+      </c>
+      <c r="K114">
+        <f t="shared" si="10"/>
+        <v>0.62135922330097082</v>
+      </c>
+      <c r="L114">
+        <f t="shared" si="8"/>
+        <v>0.47407393360772337</v>
+      </c>
+      <c r="M114">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="9"/>
+        <v>4119.8673917683273</v>
+      </c>
+    </row>
+    <row r="115" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I115">
+        <f t="shared" si="13"/>
+        <v>4170</v>
+      </c>
+      <c r="J115">
+        <f t="shared" si="14"/>
+        <v>30695.443645083931</v>
+      </c>
+      <c r="K115">
+        <f t="shared" si="10"/>
+        <v>0.61390887290167862</v>
+      </c>
+      <c r="L115">
+        <f t="shared" si="8"/>
+        <v>0.46838959387621593</v>
+      </c>
+      <c r="M115">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="9"/>
+        <v>4169.8641536443702</v>
+      </c>
+    </row>
+    <row r="116" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I116">
+        <f t="shared" si="13"/>
+        <v>4220</v>
+      </c>
+      <c r="J116">
+        <f t="shared" si="14"/>
+        <v>30331.753554502371</v>
+      </c>
+      <c r="K116">
+        <f t="shared" si="10"/>
+        <v>0.60663507109004744</v>
+      </c>
+      <c r="L116">
+        <f t="shared" si="8"/>
+        <v>0.46283995413834605</v>
+      </c>
+      <c r="M116">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="9"/>
+        <v>4219.8608764617293</v>
+      </c>
+    </row>
+    <row r="117" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I117">
+        <f t="shared" si="13"/>
+        <v>4270</v>
+      </c>
+      <c r="J117">
+        <f t="shared" si="14"/>
+        <v>29976.580796252929</v>
+      </c>
+      <c r="K117">
+        <f t="shared" si="10"/>
+        <v>0.59953161592505855</v>
+      </c>
+      <c r="L117">
+        <f t="shared" si="8"/>
+        <v>0.45742028254422024</v>
+      </c>
+      <c r="M117">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="9"/>
+        <v>4269.8575602204519</v>
+      </c>
+    </row>
+    <row r="118" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I118">
+        <f t="shared" si="13"/>
+        <v>4320</v>
+      </c>
+      <c r="J118">
+        <f t="shared" si="14"/>
+        <v>29629.629629629631</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="10"/>
+        <v>0.59259259259259256</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="8"/>
+        <v>0.4521260663110695</v>
+      </c>
+      <c r="M118">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="9"/>
+        <v>4319.8542049205835</v>
+      </c>
+    </row>
+    <row r="119" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I119">
+        <f t="shared" si="13"/>
+        <v>4370</v>
+      </c>
+      <c r="J119">
+        <f t="shared" si="14"/>
+        <v>29290.617848970251</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="10"/>
+        <v>0.58581235697940504</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="8"/>
+        <v>0.44695299919080556</v>
+      </c>
+      <c r="M119">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="9"/>
+        <v>4369.8508105621704</v>
+      </c>
+    </row>
+    <row r="120" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I120">
+        <f t="shared" si="13"/>
+        <v>4420</v>
+      </c>
+      <c r="J120">
+        <f t="shared" si="14"/>
+        <v>28959.276018099546</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="10"/>
+        <v>0.579185520361991</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="8"/>
+        <v>0.44189696978819465</v>
+      </c>
+      <c r="M120">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="9"/>
+        <v>4419.8473771452582</v>
+      </c>
+    </row>
+    <row r="121" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I121">
+        <f t="shared" si="13"/>
+        <v>4470</v>
+      </c>
+      <c r="J121">
+        <f t="shared" si="14"/>
+        <v>28635.346756152125</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="10"/>
+        <v>0.57270693512304249</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="8"/>
+        <v>0.43695405066304704</v>
+      </c>
+      <c r="M121">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="9"/>
+        <v>4469.8439046698913</v>
+      </c>
+    </row>
+    <row r="122" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I122">
+        <f t="shared" si="13"/>
+        <v>4520</v>
+      </c>
+      <c r="J122">
+        <f t="shared" si="14"/>
+        <v>28318.58407079646</v>
+      </c>
+      <c r="K122">
+        <f t="shared" si="10"/>
+        <v>0.5663716814159292</v>
+      </c>
+      <c r="L122">
+        <f t="shared" si="8"/>
+        <v>0.43212048815571247</v>
+      </c>
+      <c r="M122">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="9"/>
+        <v>4519.8403931361172</v>
+      </c>
+    </row>
+    <row r="123" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I123">
+        <f t="shared" si="13"/>
+        <v>4570</v>
+      </c>
+      <c r="J123">
+        <f t="shared" si="14"/>
+        <v>28008.752735229758</v>
+      </c>
+      <c r="K123">
+        <f t="shared" si="10"/>
+        <v>0.56017505470459517</v>
+      </c>
+      <c r="L123">
+        <f t="shared" si="8"/>
+        <v>0.42739269288048587</v>
+      </c>
+      <c r="M123">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="9"/>
+        <v>4569.8368425439812</v>
+      </c>
+    </row>
+    <row r="124" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I124">
+        <f t="shared" si="13"/>
+        <v>4620</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="14"/>
+        <v>27705.627705627707</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="10"/>
+        <v>0.55411255411255411</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="8"/>
+        <v>0.42276723083632473</v>
+      </c>
+      <c r="M124">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="9"/>
+        <v>4619.833252893528</v>
+      </c>
+    </row>
+    <row r="125" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I125">
+        <f t="shared" si="13"/>
+        <v>4670</v>
+      </c>
+      <c r="J125">
+        <f t="shared" si="14"/>
+        <v>27408.993576017132</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="10"/>
+        <v>0.54817987152034264</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="8"/>
+        <v>0.41824081508861249</v>
+      </c>
+      <c r="M125">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="9"/>
+        <v>4669.8296241848047</v>
+      </c>
+    </row>
+    <row r="126" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I126">
+        <f t="shared" si="13"/>
+        <v>4720</v>
+      </c>
+      <c r="J126">
+        <f t="shared" si="14"/>
+        <v>27118.644067796609</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="10"/>
+        <v>0.5423728813559322</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="8"/>
+        <v>0.41381029797962293</v>
+      </c>
+      <c r="M126">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O126">
+        <f t="shared" si="9"/>
+        <v>4719.825956417857</v>
+      </c>
+    </row>
+    <row r="127" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I127">
+        <f t="shared" si="13"/>
+        <v>4770</v>
+      </c>
+      <c r="J127">
+        <f t="shared" si="14"/>
+        <v>26834.381551362683</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="10"/>
+        <v>0.5366876310272537</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="8"/>
+        <v>0.40947266382889314</v>
+      </c>
+      <c r="M127">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="9"/>
+        <v>4769.8222495927303</v>
+      </c>
+    </row>
+    <row r="128" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I128">
+        <f t="shared" si="13"/>
+        <v>4820</v>
+      </c>
+      <c r="J128">
+        <f t="shared" si="14"/>
+        <v>26556.016597510374</v>
+      </c>
+      <c r="K128">
+        <f t="shared" si="10"/>
+        <v>0.53112033195020747</v>
+      </c>
+      <c r="L128">
+        <f t="shared" si="8"/>
+        <v>0.40522502208792954</v>
+      </c>
+      <c r="M128">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="9"/>
+        <v>4819.81850370947</v>
+      </c>
+    </row>
+    <row r="129" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I129">
+        <f t="shared" si="13"/>
+        <v>4870</v>
+      </c>
+      <c r="J129">
+        <f t="shared" si="14"/>
+        <v>26283.367556468173</v>
+      </c>
+      <c r="K129">
+        <f t="shared" si="10"/>
+        <v>0.52566735112936347</v>
+      </c>
+      <c r="L129">
+        <f t="shared" si="8"/>
+        <v>0.40106460091659557</v>
+      </c>
+      <c r="M129">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="9"/>
+        <v>4869.8147187681216</v>
+      </c>
+    </row>
+    <row r="130" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I130">
+        <f t="shared" si="13"/>
+        <v>4920</v>
+      </c>
+      <c r="J130">
+        <f t="shared" si="14"/>
+        <v>26016.260162601626</v>
+      </c>
+      <c r="K130">
+        <f t="shared" si="10"/>
+        <v>0.52032520325203258</v>
+      </c>
+      <c r="L130">
+        <f t="shared" si="8"/>
+        <v>0.39698874115118299</v>
+      </c>
+      <c r="M130">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="9"/>
+        <v>4919.8108947687324</v>
+      </c>
+    </row>
+    <row r="131" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I131">
+        <f t="shared" si="13"/>
+        <v>4970</v>
+      </c>
+      <c r="J131">
+        <f t="shared" si="14"/>
+        <v>25754.527162977869</v>
+      </c>
+      <c r="K131">
+        <f t="shared" si="10"/>
+        <v>0.51509054325955739</v>
+      </c>
+      <c r="L131">
+        <f t="shared" si="8"/>
+        <v>0.39299489063658355</v>
+      </c>
+      <c r="M131">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O131">
+        <f t="shared" si="9"/>
+        <v>4969.8070317113461</v>
+      </c>
+    </row>
+    <row r="132" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I132">
+        <f t="shared" si="13"/>
+        <v>5020</v>
+      </c>
+      <c r="J132">
+        <f t="shared" si="14"/>
+        <v>25498.007968127491</v>
+      </c>
+      <c r="K132">
+        <f t="shared" si="10"/>
+        <v>0.50996015936254979</v>
+      </c>
+      <c r="L132">
+        <f t="shared" si="8"/>
+        <v>0.38908059889717533</v>
+      </c>
+      <c r="M132">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O132">
+        <f t="shared" si="9"/>
+        <v>5019.8031295960109</v>
+      </c>
+    </row>
+    <row r="133" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I133">
+        <f t="shared" si="13"/>
+        <v>5070</v>
+      </c>
+      <c r="J133">
+        <f t="shared" si="14"/>
+        <v>25246.548323471401</v>
+      </c>
+      <c r="K133">
+        <f t="shared" si="10"/>
+        <v>0.50493096646942803</v>
+      </c>
+      <c r="L133">
+        <f t="shared" si="8"/>
+        <v>0.38524351212304148</v>
+      </c>
+      <c r="M133">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O133">
+        <f t="shared" si="9"/>
+        <v>5069.7991884227713</v>
+      </c>
+    </row>
+    <row r="134" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I134">
+        <f t="shared" si="13"/>
+        <v>5120</v>
+      </c>
+      <c r="J134">
+        <f t="shared" si="14"/>
+        <v>25000</v>
+      </c>
+      <c r="K134">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="L134">
+        <f t="shared" si="8"/>
+        <v>0.38148136844996489</v>
+      </c>
+      <c r="M134">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O134">
+        <f t="shared" si="9"/>
+        <v>5119.7952081916719</v>
+      </c>
+    </row>
+    <row r="135" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I135">
+        <f t="shared" si="13"/>
+        <v>5170</v>
+      </c>
+      <c r="J135">
+        <f t="shared" si="14"/>
+        <v>24758.220502901353</v>
+      </c>
+      <c r="K135">
+        <f t="shared" si="10"/>
+        <v>0.49516441005802708</v>
+      </c>
+      <c r="L135">
+        <f t="shared" si="8"/>
+        <v>0.3777919935133115</v>
+      </c>
+      <c r="M135">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O135">
+        <f t="shared" si="9"/>
+        <v>5169.791188902761</v>
+      </c>
+    </row>
+    <row r="136" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I136">
+        <f t="shared" si="13"/>
+        <v>5220</v>
+      </c>
+      <c r="J136">
+        <f t="shared" si="14"/>
+        <v>24521.072796934866</v>
+      </c>
+      <c r="K136">
+        <f t="shared" si="10"/>
+        <v>0.49042145593869729</v>
+      </c>
+      <c r="L136">
+        <f t="shared" si="8"/>
+        <v>0.37417329625743684</v>
+      </c>
+      <c r="M136">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O136">
+        <f t="shared" si="9"/>
+        <v>5219.787130556082</v>
+      </c>
+    </row>
+    <row r="137" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I137">
+        <f t="shared" si="13"/>
+        <v>5270</v>
+      </c>
+      <c r="J137">
+        <f t="shared" si="14"/>
+        <v>24288.42504743833</v>
+      </c>
+      <c r="K137">
+        <f t="shared" si="10"/>
+        <v>0.48576850094876661</v>
+      </c>
+      <c r="L137">
+        <f t="shared" si="8"/>
+        <v>0.37062326498364712</v>
+      </c>
+      <c r="M137">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O137">
+        <f t="shared" si="9"/>
+        <v>5269.7830331516816</v>
+      </c>
+    </row>
+    <row r="138" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I138">
+        <f t="shared" si="13"/>
+        <v>5320</v>
+      </c>
+      <c r="J138">
+        <f t="shared" si="14"/>
+        <v>24060.150375939851</v>
+      </c>
+      <c r="K138">
+        <f t="shared" si="10"/>
+        <v>0.48120300751879697</v>
+      </c>
+      <c r="L138">
+        <f t="shared" si="8"/>
+        <v>0.36713996362101886</v>
+      </c>
+      <c r="M138">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O138">
+        <f t="shared" si="9"/>
+        <v>5319.778896689606</v>
+      </c>
+    </row>
+    <row r="139" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I139">
+        <f t="shared" si="13"/>
+        <v>5370</v>
+      </c>
+      <c r="J139">
+        <f t="shared" si="14"/>
+        <v>23836.126629422717</v>
+      </c>
+      <c r="K139">
+        <f t="shared" si="10"/>
+        <v>0.47672253258845437</v>
+      </c>
+      <c r="L139">
+        <f t="shared" si="8"/>
+        <v>0.36372152820555315</v>
+      </c>
+      <c r="M139">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O139">
+        <f t="shared" si="9"/>
+        <v>5369.7747211699016</v>
+      </c>
+    </row>
+    <row r="140" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I140">
+        <f t="shared" si="13"/>
+        <v>5420</v>
+      </c>
+      <c r="J140">
+        <f t="shared" si="14"/>
+        <v>23616.236162361623</v>
+      </c>
+      <c r="K140">
+        <f t="shared" si="10"/>
+        <v>0.47232472324723246</v>
+      </c>
+      <c r="L140">
+        <f t="shared" si="8"/>
+        <v>0.36036616355421036</v>
+      </c>
+      <c r="M140">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O140">
+        <f t="shared" si="9"/>
+        <v>5419.7705065926111</v>
+      </c>
+    </row>
+    <row r="141" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I141">
+        <f t="shared" si="13"/>
+        <v>5470</v>
+      </c>
+      <c r="J141">
+        <f t="shared" si="14"/>
+        <v>23400.365630712979</v>
+      </c>
+      <c r="K141">
+        <f t="shared" si="10"/>
+        <v>0.4680073126142596</v>
+      </c>
+      <c r="L141">
+        <f t="shared" si="8"/>
+        <v>0.35707214012135657</v>
+      </c>
+      <c r="M141">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O141">
+        <f t="shared" si="9"/>
+        <v>5469.7662529577838</v>
+      </c>
+    </row>
+    <row r="142" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I142">
+        <f t="shared" si="13"/>
+        <v>5520</v>
+      </c>
+      <c r="J142">
+        <f t="shared" si="14"/>
+        <v>23188.405797101448</v>
+      </c>
+      <c r="K142">
+        <f t="shared" si="10"/>
+        <v>0.46376811594202899</v>
+      </c>
+      <c r="L142">
+        <f t="shared" si="8"/>
+        <v>0.35383779102605439</v>
+      </c>
+      <c r="M142">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O142">
+        <f t="shared" si="9"/>
+        <v>5519.761960265464</v>
+      </c>
+    </row>
+    <row r="143" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I143">
+        <f t="shared" si="13"/>
+        <v>5570</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="14"/>
+        <v>22980.251346499103</v>
+      </c>
+      <c r="K143">
+        <f t="shared" si="10"/>
+        <v>0.45960502692998206</v>
+      </c>
+      <c r="L143">
+        <f t="shared" si="8"/>
+        <v>0.35066150923946504</v>
+      </c>
+      <c r="M143">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O143">
+        <f t="shared" si="9"/>
+        <v>5569.7576285156965</v>
+      </c>
+    </row>
+    <row r="144" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I144">
+        <f t="shared" si="13"/>
+        <v>5620</v>
+      </c>
+      <c r="J144">
+        <f t="shared" si="14"/>
+        <v>22775.800711743774</v>
+      </c>
+      <c r="K144">
+        <f t="shared" si="10"/>
+        <v>0.45551601423487542</v>
+      </c>
+      <c r="L144">
+        <f t="shared" si="8"/>
+        <v>0.34754174492238793</v>
+      </c>
+      <c r="M144">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O144">
+        <f t="shared" si="9"/>
+        <v>5619.7532577085285</v>
+      </c>
+    </row>
+    <row r="145" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I145">
+        <f t="shared" si="13"/>
+        <v>5670</v>
+      </c>
+      <c r="J145">
+        <f t="shared" si="14"/>
+        <v>22574.955908289241</v>
+      </c>
+      <c r="K145">
+        <f t="shared" si="10"/>
+        <v>0.45149911816578481</v>
+      </c>
+      <c r="L145">
+        <f t="shared" si="8"/>
+        <v>0.344477002903672</v>
+      </c>
+      <c r="M145">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O145">
+        <f t="shared" si="9"/>
+        <v>5669.7488478440055</v>
+      </c>
+    </row>
+    <row r="146" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I146">
+        <f t="shared" si="13"/>
+        <v>5720</v>
+      </c>
+      <c r="J146">
+        <f t="shared" si="14"/>
+        <v>22377.622377622378</v>
+      </c>
+      <c r="K146">
+        <f t="shared" si="10"/>
+        <v>0.44755244755244755</v>
+      </c>
+      <c r="L146">
+        <f t="shared" si="8"/>
+        <v>0.34146584029087768</v>
+      </c>
+      <c r="M146">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O146">
+        <f t="shared" si="9"/>
+        <v>5719.7443989221729</v>
+      </c>
+    </row>
+    <row r="147" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I147">
+        <f t="shared" si="13"/>
+        <v>5770</v>
+      </c>
+      <c r="J147">
+        <f t="shared" si="14"/>
+        <v>22183.708838821491</v>
+      </c>
+      <c r="K147">
+        <f t="shared" si="10"/>
+        <v>0.44367417677642979</v>
+      </c>
+      <c r="L147">
+        <f t="shared" si="8"/>
+        <v>0.33850686420516818</v>
+      </c>
+      <c r="M147">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O147">
+        <f t="shared" si="9"/>
+        <v>5769.7399109430771</v>
+      </c>
+    </row>
+    <row r="148" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I148">
+        <f t="shared" si="13"/>
+        <v>5820</v>
+      </c>
+      <c r="J148">
+        <f t="shared" si="14"/>
+        <v>21993.127147766321</v>
+      </c>
+      <c r="K148">
+        <f t="shared" si="10"/>
+        <v>0.43986254295532645</v>
+      </c>
+      <c r="L148">
+        <f t="shared" si="8"/>
+        <v>0.33559872963295884</v>
+      </c>
+      <c r="M148">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O148">
+        <f t="shared" si="9"/>
+        <v>5819.7353839067637</v>
+      </c>
+    </row>
+    <row r="149" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I149">
+        <f t="shared" si="13"/>
+        <v>5870</v>
+      </c>
+      <c r="J149">
+        <f t="shared" si="14"/>
+        <v>21805.79216354344</v>
+      </c>
+      <c r="K149">
+        <f t="shared" si="10"/>
+        <v>0.43611584327086883</v>
+      </c>
+      <c r="L149">
+        <f t="shared" si="8"/>
+        <v>0.33274013738736291</v>
+      </c>
+      <c r="M149">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O149">
+        <f t="shared" si="9"/>
+        <v>5869.7308178132771</v>
+      </c>
+    </row>
+    <row r="150" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I150">
+        <f t="shared" si="13"/>
+        <v>5920</v>
+      </c>
+      <c r="J150">
+        <f t="shared" si="14"/>
+        <v>21621.62162162162</v>
+      </c>
+      <c r="K150">
+        <f t="shared" si="10"/>
+        <v>0.43243243243243246</v>
+      </c>
+      <c r="L150">
+        <f t="shared" si="8"/>
+        <v>0.32992983217294264</v>
+      </c>
+      <c r="M150">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O150">
+        <f t="shared" si="9"/>
+        <v>5919.7262126626647</v>
+      </c>
+    </row>
+    <row r="151" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I151">
+        <f t="shared" si="13"/>
+        <v>5970</v>
+      </c>
+      <c r="J151">
+        <f t="shared" si="14"/>
+        <v>21440.536013400335</v>
+      </c>
+      <c r="K151">
+        <f t="shared" si="10"/>
+        <v>0.42881072026800671</v>
+      </c>
+      <c r="L151">
+        <f t="shared" si="8"/>
+        <v>0.32716660074770859</v>
+      </c>
+      <c r="M151">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O151">
+        <f t="shared" si="9"/>
+        <v>5969.721568454971</v>
+      </c>
+    </row>
+    <row r="152" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I152">
+        <f t="shared" si="13"/>
+        <v>6020</v>
+      </c>
+      <c r="J152">
+        <f t="shared" si="14"/>
+        <v>21262.458471760798</v>
+      </c>
+      <c r="K152">
+        <f t="shared" si="10"/>
+        <v>0.42524916943521596</v>
+      </c>
+      <c r="L152">
+        <f t="shared" si="8"/>
+        <v>0.32444927017671432</v>
+      </c>
+      <c r="M152">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O152">
+        <f t="shared" si="9"/>
+        <v>6019.7168851902434</v>
+      </c>
+    </row>
+    <row r="153" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I153">
+        <f t="shared" si="13"/>
+        <v>6070</v>
+      </c>
+      <c r="J153">
+        <f t="shared" si="14"/>
+        <v>21087.314662273475</v>
+      </c>
+      <c r="K153">
+        <f t="shared" si="10"/>
+        <v>0.42174629324546953</v>
+      </c>
+      <c r="L153">
+        <f t="shared" si="8"/>
+        <v>0.3217767061719638</v>
+      </c>
+      <c r="M153">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O153">
+        <f t="shared" si="9"/>
+        <v>6069.7121628685272</v>
+      </c>
+    </row>
+    <row r="154" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I154">
+        <f t="shared" si="13"/>
+        <v>6120</v>
+      </c>
+      <c r="J154">
+        <f t="shared" si="14"/>
+        <v>20915.032679738561</v>
+      </c>
+      <c r="K154">
+        <f t="shared" si="10"/>
+        <v>0.41830065359477125</v>
+      </c>
+      <c r="L154">
+        <f t="shared" si="8"/>
+        <v>0.31914781151369614</v>
+      </c>
+      <c r="M154">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O154">
+        <f t="shared" si="9"/>
+        <v>6119.7074014898672</v>
+      </c>
+    </row>
+    <row r="155" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I155">
+        <f t="shared" si="13"/>
+        <v>6170</v>
+      </c>
+      <c r="J155">
+        <f t="shared" si="14"/>
+        <v>20745.542949756888</v>
+      </c>
+      <c r="K155">
+        <f t="shared" si="10"/>
+        <v>0.41491085899513774</v>
+      </c>
+      <c r="L155">
+        <f t="shared" si="8"/>
+        <v>0.31656152454843117</v>
+      </c>
+      <c r="M155">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O155">
+        <f t="shared" si="9"/>
+        <v>6169.7026010543086</v>
+      </c>
+    </row>
+    <row r="156" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I156">
+        <f t="shared" si="13"/>
+        <v>6220</v>
+      </c>
+      <c r="J156">
+        <f t="shared" si="14"/>
+        <v>20578.778135048233</v>
+      </c>
+      <c r="K156">
+        <f t="shared" si="10"/>
+        <v>0.41157556270096463</v>
+      </c>
+      <c r="L156">
+        <f t="shared" si="8"/>
+        <v>0.31401681775945667</v>
+      </c>
+      <c r="M156">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O156">
+        <f t="shared" si="9"/>
+        <v>6219.6977615618989</v>
+      </c>
+    </row>
+    <row r="157" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I157">
+        <f t="shared" si="13"/>
+        <v>6270</v>
+      </c>
+      <c r="J157">
+        <f t="shared" si="14"/>
+        <v>20414.673046251995</v>
+      </c>
+      <c r="K157">
+        <f t="shared" si="10"/>
+        <v>0.40829346092503987</v>
+      </c>
+      <c r="L157">
+        <f t="shared" si="8"/>
+        <v>0.31151269640571294</v>
+      </c>
+      <c r="M157">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O157">
+        <f t="shared" si="9"/>
+        <v>6269.6928830126835</v>
+      </c>
+    </row>
+    <row r="158" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I158">
+        <f t="shared" si="13"/>
+        <v>6320</v>
+      </c>
+      <c r="J158">
+        <f t="shared" si="14"/>
+        <v>20253.164556962027</v>
+      </c>
+      <c r="K158">
+        <f t="shared" si="10"/>
+        <v>0.4050632911392405</v>
+      </c>
+      <c r="L158">
+        <f t="shared" si="8"/>
+        <v>0.30904819722528803</v>
+      </c>
+      <c r="M158">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O158">
+        <f t="shared" si="9"/>
+        <v>6319.6879654067079</v>
+      </c>
+    </row>
+    <row r="159" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I159">
+        <f t="shared" si="13"/>
+        <v>6370</v>
+      </c>
+      <c r="J159">
+        <f t="shared" si="14"/>
+        <v>20094.191522762951</v>
+      </c>
+      <c r="K159">
+        <f t="shared" si="10"/>
+        <v>0.40188383045525905</v>
+      </c>
+      <c r="L159">
+        <f t="shared" si="8"/>
+        <v>0.30662238719997181</v>
+      </c>
+      <c r="M159">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O159">
+        <f t="shared" si="9"/>
+        <v>6369.6830087440185</v>
+      </c>
+    </row>
+    <row r="160" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I160">
+        <f t="shared" si="13"/>
+        <v>6420</v>
+      </c>
+      <c r="J160">
+        <f t="shared" si="14"/>
+        <v>19937.694704049845</v>
+      </c>
+      <c r="K160">
+        <f t="shared" si="10"/>
+        <v>0.39875389408099687</v>
+      </c>
+      <c r="L160">
+        <f t="shared" ref="L160:L223" si="15">($E$31*$D$29)/(65534*I160)</f>
+        <v>0.30423436237754209</v>
+      </c>
+      <c r="M160">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O160">
+        <f t="shared" ref="O160:O223" si="16">($E$31*$D$29)/((J160+1)*(M160+1))</f>
+        <v>6419.6780130246589</v>
+      </c>
+    </row>
+    <row r="161" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I161">
+        <f t="shared" si="13"/>
+        <v>6470</v>
+      </c>
+      <c r="J161">
+        <f t="shared" si="14"/>
+        <v>19783.616692426585</v>
+      </c>
+      <c r="K161">
+        <f t="shared" ref="K161:K224" si="17">($E$31*$D$29)/(50000*I161)</f>
+        <v>0.39567233384853168</v>
+      </c>
+      <c r="L161">
+        <f t="shared" si="15"/>
+        <v>0.30188324674865846</v>
+      </c>
+      <c r="M161">
+        <f t="shared" ref="M161:M224" si="18">INT((K161+L161)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <f t="shared" ref="N161:N224" si="19">(E160*D158)/(64534*K158)</f>
+        <v>0</v>
+      </c>
+      <c r="O161">
+        <f t="shared" si="16"/>
+        <v>6469.6729782486773</v>
+      </c>
+    </row>
+    <row r="162" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I162">
+        <f t="shared" ref="I162:I225" si="20">50+I161</f>
+        <v>6520</v>
+      </c>
+      <c r="J162">
+        <f t="shared" si="14"/>
+        <v>19631.901840490798</v>
+      </c>
+      <c r="K162">
+        <f t="shared" si="17"/>
+        <v>0.39263803680981596</v>
+      </c>
+      <c r="L162">
+        <f t="shared" si="15"/>
+        <v>0.29956819117543254</v>
+      </c>
+      <c r="M162">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O162">
+        <f t="shared" si="16"/>
+        <v>6519.6679044161183</v>
+      </c>
+    </row>
+    <row r="163" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I163">
+        <f t="shared" si="20"/>
+        <v>6570</v>
+      </c>
+      <c r="J163">
+        <f t="shared" ref="J163:J226" si="21">($E$31*$D$29)/(I163*(M163+1))</f>
+        <v>19482.496194824962</v>
+      </c>
+      <c r="K163">
+        <f t="shared" si="17"/>
+        <v>0.38964992389649922</v>
+      </c>
+      <c r="L163">
+        <f t="shared" si="15"/>
+        <v>0.29728837236892242</v>
+      </c>
+      <c r="M163">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O163">
+        <f t="shared" si="16"/>
+        <v>6569.6627915270283</v>
+      </c>
+    </row>
+    <row r="164" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I164">
+        <f t="shared" si="20"/>
+        <v>6620</v>
+      </c>
+      <c r="J164">
+        <f t="shared" si="21"/>
+        <v>19335.347432024169</v>
+      </c>
+      <c r="K164">
+        <f t="shared" si="17"/>
+        <v>0.38670694864048338</v>
+      </c>
+      <c r="L164">
+        <f t="shared" si="15"/>
+        <v>0.29504299191296379</v>
+      </c>
+      <c r="M164">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O164">
+        <f t="shared" si="16"/>
+        <v>6619.6576395814527</v>
+      </c>
+    </row>
+    <row r="165" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I165">
+        <f t="shared" si="20"/>
+        <v>6670</v>
+      </c>
+      <c r="J165">
+        <f t="shared" si="21"/>
+        <v>19190.404797601201</v>
+      </c>
+      <c r="K165">
+        <f t="shared" si="17"/>
+        <v>0.38380809595202398</v>
+      </c>
+      <c r="L165">
+        <f t="shared" si="15"/>
+        <v>0.29283127533190711</v>
+      </c>
+      <c r="M165">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O165">
+        <f t="shared" si="16"/>
+        <v>6669.6524485794371</v>
+      </c>
+    </row>
+    <row r="166" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I166">
+        <f t="shared" si="20"/>
+        <v>6720</v>
+      </c>
+      <c r="J166">
+        <f t="shared" si="21"/>
+        <v>19047.619047619046</v>
+      </c>
+      <c r="K166">
+        <f t="shared" si="17"/>
+        <v>0.38095238095238093</v>
+      </c>
+      <c r="L166">
+        <f t="shared" si="15"/>
+        <v>0.29065247119997328</v>
+      </c>
+      <c r="M166">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O166">
+        <f t="shared" si="16"/>
+        <v>6719.6472185210287</v>
+      </c>
+    </row>
+    <row r="167" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I167">
+        <f t="shared" si="20"/>
+        <v>6770</v>
+      </c>
+      <c r="J167">
+        <f t="shared" si="21"/>
+        <v>18906.942392909896</v>
+      </c>
+      <c r="K167">
+        <f t="shared" si="17"/>
+        <v>0.37813884785819796</v>
+      </c>
+      <c r="L167">
+        <f t="shared" si="15"/>
+        <v>0.28850585029007686</v>
+      </c>
+      <c r="M167">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O167">
+        <f t="shared" si="16"/>
+        <v>6769.6419494062702</v>
+      </c>
+    </row>
+    <row r="168" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I168">
+        <f t="shared" si="20"/>
+        <v>6820</v>
+      </c>
+      <c r="J168">
+        <f t="shared" si="21"/>
+        <v>18768.3284457478</v>
+      </c>
+      <c r="K168">
+        <f t="shared" si="17"/>
+        <v>0.37536656891495601</v>
+      </c>
+      <c r="L168">
+        <f t="shared" si="15"/>
+        <v>0.28639070476009093</v>
+      </c>
+      <c r="M168">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O168">
+        <f t="shared" si="16"/>
+        <v>6819.636641235209</v>
+      </c>
+    </row>
+    <row r="169" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I169">
+        <f t="shared" si="20"/>
+        <v>6870</v>
+      </c>
+      <c r="J169">
+        <f t="shared" si="21"/>
+        <v>18631.732168850074</v>
+      </c>
+      <c r="K169">
+        <f t="shared" si="17"/>
+        <v>0.37263464337700147</v>
+      </c>
+      <c r="L169">
+        <f t="shared" si="15"/>
+        <v>0.28430634737464633</v>
+      </c>
+      <c r="M169">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O169">
+        <f t="shared" si="16"/>
+        <v>6869.6312940078915</v>
+      </c>
+    </row>
+    <row r="170" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I170">
+        <f t="shared" si="20"/>
+        <v>6920</v>
+      </c>
+      <c r="J170">
+        <f t="shared" si="21"/>
+        <v>18497.109826589596</v>
+      </c>
+      <c r="K170">
+        <f t="shared" si="17"/>
+        <v>0.36994219653179189</v>
+      </c>
+      <c r="L170">
+        <f t="shared" si="15"/>
+        <v>0.2822521107606677</v>
+      </c>
+      <c r="M170">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O170">
+        <f t="shared" si="16"/>
+        <v>6919.6259077243631</v>
+      </c>
+    </row>
+    <row r="171" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I171">
+        <f t="shared" si="20"/>
+        <v>6970</v>
+      </c>
+      <c r="J171">
+        <f t="shared" si="21"/>
+        <v>18364.41893830703</v>
+      </c>
+      <c r="K171">
+        <f t="shared" si="17"/>
+        <v>0.36728837876614062</v>
+      </c>
+      <c r="L171">
+        <f t="shared" si="15"/>
+        <v>0.28022734669495269</v>
+      </c>
+      <c r="M171">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O171">
+        <f t="shared" si="16"/>
+        <v>6969.6204823846701</v>
+      </c>
+    </row>
+    <row r="172" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I172">
+        <f t="shared" si="20"/>
+        <v>7020</v>
+      </c>
+      <c r="J172">
+        <f t="shared" si="21"/>
+        <v>18233.618233618232</v>
+      </c>
+      <c r="K172">
+        <f t="shared" si="17"/>
+        <v>0.36467236467236469</v>
+      </c>
+      <c r="L172">
+        <f t="shared" si="15"/>
+        <v>0.27823142542219664</v>
+      </c>
+      <c r="M172">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O172">
+        <f t="shared" si="16"/>
+        <v>7019.6150179888582</v>
+      </c>
+    </row>
+    <row r="173" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I173">
+        <f t="shared" si="20"/>
+        <v>7070</v>
+      </c>
+      <c r="J173">
+        <f t="shared" si="21"/>
+        <v>18104.667609618104</v>
+      </c>
+      <c r="K173">
+        <f t="shared" si="17"/>
+        <v>0.36209335219236211</v>
+      </c>
+      <c r="L173">
+        <f t="shared" si="15"/>
+        <v>0.27626373500195478</v>
+      </c>
+      <c r="M173">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O173">
+        <f t="shared" si="16"/>
+        <v>7069.6095145369709</v>
+      </c>
+    </row>
+    <row r="174" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I174">
+        <f t="shared" si="20"/>
+        <v>7120</v>
+      </c>
+      <c r="J174">
+        <f t="shared" si="21"/>
+        <v>17977.528089887641</v>
+      </c>
+      <c r="K174">
+        <f t="shared" si="17"/>
+        <v>0.3595505617977528</v>
+      </c>
+      <c r="L174">
+        <f t="shared" si="15"/>
+        <v>0.27432368068312085</v>
+      </c>
+      <c r="M174">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O174">
+        <f t="shared" si="16"/>
+        <v>7119.6039720290555</v>
+      </c>
+    </row>
+    <row r="175" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I175">
+        <f t="shared" si="20"/>
+        <v>7170</v>
+      </c>
+      <c r="J175">
+        <f t="shared" si="21"/>
+        <v>17852.16178521618</v>
+      </c>
+      <c r="K175">
+        <f t="shared" si="17"/>
+        <v>0.35704323570432356</v>
+      </c>
+      <c r="L175">
+        <f t="shared" si="15"/>
+        <v>0.27241068430457743</v>
+      </c>
+      <c r="M175">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O175">
+        <f t="shared" si="16"/>
+        <v>7169.5983904651584</v>
+      </c>
+    </row>
+    <row r="176" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I176">
+        <f t="shared" si="20"/>
+        <v>7220</v>
+      </c>
+      <c r="J176">
+        <f t="shared" si="21"/>
+        <v>17728.53185595568</v>
+      </c>
+      <c r="K176">
+        <f t="shared" si="17"/>
+        <v>0.35457063711911357</v>
+      </c>
+      <c r="L176">
+        <f t="shared" si="15"/>
+        <v>0.27052418372075071</v>
+      </c>
+      <c r="M176">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O176">
+        <f t="shared" si="16"/>
+        <v>7219.5927698453252</v>
+      </c>
+    </row>
+    <row r="177" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I177">
+        <f t="shared" si="20"/>
+        <v>7270</v>
+      </c>
+      <c r="J177">
+        <f t="shared" si="21"/>
+        <v>17606.602475928474</v>
+      </c>
+      <c r="K177">
+        <f t="shared" si="17"/>
+        <v>0.35213204951856947</v>
+      </c>
+      <c r="L177">
+        <f t="shared" si="15"/>
+        <v>0.26866363225086937</v>
+      </c>
+      <c r="M177">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O177">
+        <f t="shared" si="16"/>
+        <v>7269.5871101696021</v>
+      </c>
+    </row>
+    <row r="178" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I178">
+        <f t="shared" si="20"/>
+        <v>7320</v>
+      </c>
+      <c r="J178">
+        <f t="shared" si="21"/>
+        <v>17486.338797814209</v>
+      </c>
+      <c r="K178">
+        <f t="shared" si="17"/>
+        <v>0.34972677595628415</v>
+      </c>
+      <c r="L178">
+        <f t="shared" si="15"/>
+        <v>0.26682849815079512</v>
+      </c>
+      <c r="M178">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O178">
+        <f t="shared" si="16"/>
+        <v>7319.5814114380328</v>
+      </c>
+    </row>
+    <row r="179" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I179">
+        <f t="shared" si="20"/>
+        <v>7370</v>
+      </c>
+      <c r="J179">
+        <f t="shared" si="21"/>
+        <v>17367.706919945726</v>
+      </c>
+      <c r="K179">
+        <f t="shared" si="17"/>
+        <v>0.34735413839891449</v>
+      </c>
+      <c r="L179">
+        <f t="shared" si="15"/>
+        <v>0.26501826410635282</v>
+      </c>
+      <c r="M179">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O179">
+        <f t="shared" si="16"/>
+        <v>7369.5756736506655</v>
+      </c>
+    </row>
+    <row r="180" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I180">
+        <f t="shared" si="20"/>
+        <v>7420</v>
+      </c>
+      <c r="J180">
+        <f t="shared" si="21"/>
+        <v>17250.673854447439</v>
+      </c>
+      <c r="K180">
+        <f t="shared" si="17"/>
+        <v>0.34501347708894881</v>
+      </c>
+      <c r="L180">
+        <f t="shared" si="15"/>
+        <v>0.26323242674714559</v>
+      </c>
+      <c r="M180">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O180">
+        <f t="shared" si="16"/>
+        <v>7419.5698968075449</v>
+      </c>
+    </row>
+    <row r="181" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I181">
+        <f t="shared" si="20"/>
+        <v>7470</v>
+      </c>
+      <c r="J181">
+        <f t="shared" si="21"/>
+        <v>17135.207496653278</v>
+      </c>
+      <c r="K181">
+        <f t="shared" si="17"/>
+        <v>0.34270414993306558</v>
+      </c>
+      <c r="L181">
+        <f t="shared" si="15"/>
+        <v>0.26147049617989565</v>
+      </c>
+      <c r="M181">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O181">
+        <f t="shared" si="16"/>
+        <v>7469.5640809087163</v>
+      </c>
+    </row>
+    <row r="182" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I182">
+        <f t="shared" si="20"/>
+        <v>7520</v>
+      </c>
+      <c r="J182">
+        <f t="shared" si="21"/>
+        <v>17021.276595744679</v>
+      </c>
+      <c r="K182">
+        <f t="shared" si="17"/>
+        <v>0.34042553191489361</v>
+      </c>
+      <c r="L182">
+        <f t="shared" si="15"/>
+        <v>0.25973199554040166</v>
+      </c>
+      <c r="M182">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O182">
+        <f t="shared" si="16"/>
+        <v>7519.5582259542261</v>
+      </c>
+    </row>
+    <row r="183" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I183">
+        <f t="shared" si="20"/>
+        <v>7570</v>
+      </c>
+      <c r="J183">
+        <f t="shared" si="21"/>
+        <v>16908.85072655218</v>
+      </c>
+      <c r="K183">
+        <f t="shared" si="17"/>
+        <v>0.3381770145310436</v>
+      </c>
+      <c r="L183">
+        <f t="shared" si="15"/>
+        <v>0.25801646056325234</v>
+      </c>
+      <c r="M183">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O183">
+        <f t="shared" si="16"/>
+        <v>7569.5523319441181</v>
+      </c>
+    </row>
+    <row r="184" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I184">
+        <f t="shared" si="20"/>
+        <v>7620</v>
+      </c>
+      <c r="J184">
+        <f t="shared" si="21"/>
+        <v>16797.900262467192</v>
+      </c>
+      <c r="K184">
+        <f t="shared" si="17"/>
+        <v>0.33595800524934383</v>
+      </c>
+      <c r="L184">
+        <f t="shared" si="15"/>
+        <v>0.25632343916848038</v>
+      </c>
+      <c r="M184">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O184">
+        <f t="shared" si="16"/>
+        <v>7619.5463988784413</v>
+      </c>
+    </row>
+    <row r="185" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I185">
+        <f t="shared" si="20"/>
+        <v>7670</v>
+      </c>
+      <c r="J185">
+        <f t="shared" si="21"/>
+        <v>16688.396349413299</v>
+      </c>
+      <c r="K185">
+        <f t="shared" si="17"/>
+        <v>0.33376792698826596</v>
+      </c>
+      <c r="L185">
+        <f t="shared" si="15"/>
+        <v>0.25465249106438337</v>
+      </c>
+      <c r="M185">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O185">
+        <f t="shared" si="16"/>
+        <v>7669.5404267572403</v>
+      </c>
+    </row>
+    <row r="186" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I186">
+        <f t="shared" si="20"/>
+        <v>7720</v>
+      </c>
+      <c r="J186">
+        <f t="shared" si="21"/>
+        <v>16580.310880829016</v>
+      </c>
+      <c r="K186">
+        <f t="shared" si="17"/>
+        <v>0.33160621761658032</v>
+      </c>
+      <c r="L186">
+        <f t="shared" si="15"/>
+        <v>0.25300318736577981</v>
+      </c>
+      <c r="M186">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O186">
+        <f t="shared" si="16"/>
+        <v>7719.5344155805597</v>
+      </c>
+    </row>
+    <row r="187" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I187">
+        <f t="shared" si="20"/>
+        <v>7770</v>
+      </c>
+      <c r="J187">
+        <f t="shared" si="21"/>
+        <v>16473.616473616472</v>
+      </c>
+      <c r="K187">
+        <f t="shared" si="17"/>
+        <v>0.32947232947232946</v>
+      </c>
+      <c r="L187">
+        <f t="shared" si="15"/>
+        <v>0.25137511022700387</v>
+      </c>
+      <c r="M187">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O187">
+        <f t="shared" si="16"/>
+        <v>7769.5283653484485</v>
+      </c>
+    </row>
+    <row r="188" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I188">
+        <f t="shared" si="20"/>
+        <v>7820</v>
+      </c>
+      <c r="J188">
+        <f t="shared" si="21"/>
+        <v>16368.286445012787</v>
+      </c>
+      <c r="K188">
+        <f t="shared" si="17"/>
+        <v>0.32736572890025578</v>
+      </c>
+      <c r="L188">
+        <f t="shared" si="15"/>
+        <v>0.24976785248897959</v>
+      </c>
+      <c r="M188">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O188">
+        <f t="shared" si="16"/>
+        <v>7819.5222760609468</v>
+      </c>
+    </row>
+    <row r="189" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I189">
+        <f t="shared" si="20"/>
+        <v>7870</v>
+      </c>
+      <c r="J189">
+        <f t="shared" si="21"/>
+        <v>16264.294790343076</v>
+      </c>
+      <c r="K189">
+        <f t="shared" si="17"/>
+        <v>0.32528589580686151</v>
+      </c>
+      <c r="L189">
+        <f t="shared" si="15"/>
+        <v>0.24818101733974846</v>
+      </c>
+      <c r="M189">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O189">
+        <f t="shared" si="16"/>
+        <v>7869.5161477181045</v>
+      </c>
+    </row>
+    <row r="190" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I190">
+        <f t="shared" si="20"/>
+        <v>7920</v>
+      </c>
+      <c r="J190">
+        <f t="shared" si="21"/>
+        <v>16161.616161616161</v>
+      </c>
+      <c r="K190">
+        <f t="shared" si="17"/>
+        <v>0.32323232323232326</v>
+      </c>
+      <c r="L190">
+        <f t="shared" si="15"/>
+        <v>0.2466142179878561</v>
+      </c>
+      <c r="M190">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O190">
+        <f t="shared" si="16"/>
+        <v>7919.5099803199682</v>
+      </c>
+    </row>
+    <row r="191" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I191">
+        <f t="shared" si="20"/>
+        <v>7970</v>
+      </c>
+      <c r="J191">
+        <f t="shared" si="21"/>
+        <v>16060.225846925972</v>
+      </c>
+      <c r="K191">
+        <f t="shared" si="17"/>
+        <v>0.32120451693851942</v>
+      </c>
+      <c r="L191">
+        <f t="shared" si="15"/>
+        <v>0.24506707734803265</v>
+      </c>
+      <c r="M191">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O191">
+        <f t="shared" si="16"/>
+        <v>7969.5037738665806</v>
+      </c>
+    </row>
+    <row r="192" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I192">
+        <f t="shared" si="20"/>
+        <v>8020</v>
+      </c>
+      <c r="J192">
+        <f t="shared" si="21"/>
+        <v>15960.099750623442</v>
+      </c>
+      <c r="K192">
+        <f t="shared" si="17"/>
+        <v>0.31920199501246882</v>
+      </c>
+      <c r="L192">
+        <f t="shared" si="15"/>
+        <v>0.24353922773863096</v>
+      </c>
+      <c r="M192">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N192">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O192">
+        <f t="shared" si="16"/>
+        <v>8019.4975283579888</v>
+      </c>
+    </row>
+    <row r="193" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I193">
+        <f t="shared" si="20"/>
+        <v>8070</v>
+      </c>
+      <c r="J193">
+        <f t="shared" si="21"/>
+        <v>15861.214374225527</v>
+      </c>
+      <c r="K193">
+        <f t="shared" si="17"/>
+        <v>0.31722428748451054</v>
+      </c>
+      <c r="L193">
+        <f t="shared" si="15"/>
+        <v>0.2420303105903123</v>
+      </c>
+      <c r="M193">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O193">
+        <f t="shared" si="16"/>
+        <v>8069.4912437942385</v>
+      </c>
+    </row>
+    <row r="194" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I194">
+        <f t="shared" si="20"/>
+        <v>8120</v>
+      </c>
+      <c r="J194">
+        <f t="shared" si="21"/>
+        <v>15763.546798029556</v>
+      </c>
+      <c r="K194">
+        <f t="shared" si="17"/>
+        <v>0.31527093596059114</v>
+      </c>
+      <c r="L194">
+        <f t="shared" si="15"/>
+        <v>0.24053997616549511</v>
+      </c>
+      <c r="M194">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O194">
+        <f t="shared" si="16"/>
+        <v>8119.4849201753768</v>
+      </c>
+    </row>
+    <row r="195" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I195">
+        <f t="shared" si="20"/>
+        <v>8170</v>
+      </c>
+      <c r="J195">
+        <f t="shared" si="21"/>
+        <v>15667.074663402693</v>
+      </c>
+      <c r="K195">
+        <f t="shared" si="17"/>
+        <v>0.31334149326805383</v>
+      </c>
+      <c r="L195">
+        <f t="shared" si="15"/>
+        <v>0.2390678832881053</v>
+      </c>
+      <c r="M195">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N195">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O195">
+        <f t="shared" si="16"/>
+        <v>8169.4785575014466</v>
+      </c>
+    </row>
+    <row r="196" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I196">
+        <f t="shared" si="20"/>
+        <v>8220</v>
+      </c>
+      <c r="J196">
+        <f t="shared" si="21"/>
+        <v>15571.776155717762</v>
+      </c>
+      <c r="K196">
+        <f t="shared" si="17"/>
+        <v>0.31143552311435524</v>
+      </c>
+      <c r="L196">
+        <f t="shared" si="15"/>
+        <v>0.23761369908318983</v>
+      </c>
+      <c r="M196">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O196">
+        <f t="shared" si="16"/>
+        <v>8219.472155772497</v>
+      </c>
+    </row>
+    <row r="197" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I197">
+        <f t="shared" si="20"/>
+        <v>8270</v>
+      </c>
+      <c r="J197">
+        <f t="shared" si="21"/>
+        <v>15477.629987908102</v>
+      </c>
+      <c r="K197">
+        <f t="shared" si="17"/>
+        <v>0.30955259975816202</v>
+      </c>
+      <c r="L197">
+        <f t="shared" si="15"/>
+        <v>0.23617709872597586</v>
+      </c>
+      <c r="M197">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N197">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O197">
+        <f t="shared" si="16"/>
+        <v>8269.4657149885697</v>
+      </c>
+    </row>
+    <row r="198" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I198">
+        <f t="shared" si="20"/>
+        <v>8320</v>
+      </c>
+      <c r="J198">
+        <f t="shared" si="21"/>
+        <v>15384.615384615385</v>
+      </c>
+      <c r="K198">
+        <f t="shared" si="17"/>
+        <v>0.30769230769230771</v>
+      </c>
+      <c r="L198">
+        <f t="shared" si="15"/>
+        <v>0.2347577651999784</v>
+      </c>
+      <c r="M198">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O198">
+        <f t="shared" si="16"/>
+        <v>8319.4592351497158</v>
+      </c>
+    </row>
+    <row r="199" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I199">
+        <f t="shared" si="20"/>
+        <v>8370</v>
+      </c>
+      <c r="J199">
+        <f t="shared" si="21"/>
+        <v>15292.712066905615</v>
+      </c>
+      <c r="K199">
+        <f t="shared" si="17"/>
+        <v>0.30585424133811229</v>
+      </c>
+      <c r="L199">
+        <f t="shared" si="15"/>
+        <v>0.23335538906377781</v>
+      </c>
+      <c r="M199">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O199">
+        <f t="shared" si="16"/>
+        <v>8369.4527162559771</v>
+      </c>
+    </row>
+    <row r="200" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I200">
+        <f t="shared" si="20"/>
+        <v>8420</v>
+      </c>
+      <c r="J200">
+        <f t="shared" si="21"/>
+        <v>15201.900237529691</v>
+      </c>
+      <c r="K200">
+        <f t="shared" si="17"/>
+        <v>0.30403800475059384</v>
+      </c>
+      <c r="L200">
+        <f t="shared" si="15"/>
+        <v>0.23196966822610693</v>
+      </c>
+      <c r="M200">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N200">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O200">
+        <f t="shared" si="16"/>
+        <v>8419.4461583073989</v>
+      </c>
+    </row>
+    <row r="201" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I201">
+        <f t="shared" si="20"/>
+        <v>8470</v>
+      </c>
+      <c r="J201">
+        <f t="shared" si="21"/>
+        <v>15112.160566706021</v>
+      </c>
+      <c r="K201">
+        <f t="shared" si="17"/>
+        <v>0.30224321133412041</v>
+      </c>
+      <c r="L201">
+        <f t="shared" si="15"/>
+        <v>0.23060030772890441</v>
+      </c>
+      <c r="M201">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O201">
+        <f t="shared" si="16"/>
+        <v>8469.4395613040288</v>
+      </c>
+    </row>
+    <row r="202" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I202">
+        <f t="shared" si="20"/>
+        <v>8520</v>
+      </c>
+      <c r="J202">
+        <f t="shared" si="21"/>
+        <v>15023.474178403756</v>
+      </c>
+      <c r="K202">
+        <f t="shared" si="17"/>
+        <v>0.30046948356807512</v>
+      </c>
+      <c r="L202">
+        <f t="shared" si="15"/>
+        <v>0.22924701953800708</v>
+      </c>
+      <c r="M202">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N202">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O202">
+        <f t="shared" si="16"/>
+        <v>8519.4329252459138</v>
+      </c>
+    </row>
+    <row r="203" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I203">
+        <f t="shared" si="20"/>
+        <v>8570</v>
+      </c>
+      <c r="J203">
+        <f t="shared" si="21"/>
+        <v>14935.822637106185</v>
+      </c>
+      <c r="K203">
+        <f t="shared" si="17"/>
+        <v>0.29871645274212366</v>
+      </c>
+      <c r="L203">
+        <f t="shared" si="15"/>
+        <v>0.22790952234116924</v>
+      </c>
+      <c r="M203">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N203">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O203">
+        <f t="shared" si="16"/>
+        <v>8569.4262501330959</v>
+      </c>
+    </row>
+    <row r="204" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I204">
+        <f t="shared" si="20"/>
+        <v>8620</v>
+      </c>
+      <c r="J204">
+        <f t="shared" si="21"/>
+        <v>14849.187935034803</v>
+      </c>
+      <c r="K204">
+        <f t="shared" si="17"/>
+        <v>0.29698375870069604</v>
+      </c>
+      <c r="L204">
+        <f t="shared" si="15"/>
+        <v>0.2265875413531114</v>
+      </c>
+      <c r="M204">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N204">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O204">
+        <f t="shared" si="16"/>
+        <v>8619.4195359656242</v>
+      </c>
+    </row>
+    <row r="205" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I205">
+        <f t="shared" si="20"/>
+        <v>8670</v>
+      </c>
+      <c r="J205">
+        <f t="shared" si="21"/>
+        <v>14763.552479815455</v>
+      </c>
+      <c r="K205">
+        <f t="shared" si="17"/>
+        <v>0.29527104959630912</v>
+      </c>
+      <c r="L205">
+        <f t="shared" si="15"/>
+        <v>0.22528080812731491</v>
+      </c>
+      <c r="M205">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N205">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O205">
+        <f t="shared" si="16"/>
+        <v>8669.4127827435441</v>
+      </c>
+    </row>
+    <row r="206" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I206">
+        <f t="shared" si="20"/>
+        <v>8720</v>
+      </c>
+      <c r="J206">
+        <f t="shared" si="21"/>
+        <v>14678.899082568807</v>
+      </c>
+      <c r="K206">
+        <f t="shared" si="17"/>
+        <v>0.29357798165137616</v>
+      </c>
+      <c r="L206">
+        <f t="shared" si="15"/>
+        <v>0.22398906037429131</v>
+      </c>
+      <c r="M206">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N206">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O206">
+        <f t="shared" si="16"/>
+        <v>8719.4059904668993</v>
+      </c>
+    </row>
+    <row r="207" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I207">
+        <f t="shared" si="20"/>
+        <v>8770</v>
+      </c>
+      <c r="J207">
+        <f t="shared" si="21"/>
+        <v>14595.21094640821</v>
+      </c>
+      <c r="K207">
+        <f t="shared" si="17"/>
+        <v>0.29190421892816421</v>
+      </c>
+      <c r="L207">
+        <f t="shared" si="15"/>
+        <v>0.22271204178606846</v>
+      </c>
+      <c r="M207">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N207">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O207">
+        <f t="shared" si="16"/>
+        <v>8769.3991591357371</v>
+      </c>
+    </row>
+    <row r="208" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I208">
+        <f t="shared" si="20"/>
+        <v>8820</v>
+      </c>
+      <c r="J208">
+        <f t="shared" si="21"/>
+        <v>14512.471655328798</v>
+      </c>
+      <c r="K208">
+        <f t="shared" si="17"/>
+        <v>0.29024943310657597</v>
+      </c>
+      <c r="L208">
+        <f t="shared" si="15"/>
+        <v>0.2214495018666463</v>
+      </c>
+      <c r="M208">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N208">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O208">
+        <f t="shared" si="16"/>
+        <v>8819.392288750103</v>
+      </c>
+    </row>
+    <row r="209" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I209">
+        <f t="shared" si="20"/>
+        <v>8870</v>
+      </c>
+      <c r="J209">
+        <f t="shared" si="21"/>
+        <v>14430.665163472378</v>
+      </c>
+      <c r="K209">
+        <f t="shared" si="17"/>
+        <v>0.28861330326944756</v>
+      </c>
+      <c r="L209">
+        <f t="shared" si="15"/>
+        <v>0.22020119576818717</v>
+      </c>
+      <c r="M209">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N209">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O209">
+        <f t="shared" si="16"/>
+        <v>8869.3853793100425</v>
+      </c>
+    </row>
+    <row r="210" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I210">
+        <f t="shared" si="20"/>
+        <v>8920</v>
+      </c>
+      <c r="J210">
+        <f t="shared" si="21"/>
+        <v>14349.775784753363</v>
+      </c>
+      <c r="K210">
+        <f t="shared" si="17"/>
+        <v>0.28699551569506726</v>
+      </c>
+      <c r="L210">
+        <f t="shared" si="15"/>
+        <v>0.21896688413271528</v>
+      </c>
+      <c r="M210">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N210">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O210">
+        <f t="shared" si="16"/>
+        <v>8919.3784308156028</v>
+      </c>
+    </row>
+    <row r="211" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I211">
+        <f t="shared" si="20"/>
+        <v>8970</v>
+      </c>
+      <c r="J211">
+        <f t="shared" si="21"/>
+        <v>14269.78818283166</v>
+      </c>
+      <c r="K211">
+        <f t="shared" si="17"/>
+        <v>0.28539576365663322</v>
+      </c>
+      <c r="L211">
+        <f t="shared" si="15"/>
+        <v>0.21774633293911042</v>
+      </c>
+      <c r="M211">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N211">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O211">
+        <f t="shared" si="16"/>
+        <v>8969.3714432668276</v>
+      </c>
+    </row>
+    <row r="212" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I212">
+        <f t="shared" si="20"/>
+        <v>9020</v>
+      </c>
+      <c r="J212">
+        <f t="shared" si="21"/>
+        <v>14190.687361419068</v>
+      </c>
+      <c r="K212">
+        <f t="shared" si="17"/>
+        <v>0.28381374722838137</v>
+      </c>
+      <c r="L212">
+        <f t="shared" si="15"/>
+        <v>0.21653931335519072</v>
+      </c>
+      <c r="M212">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N212">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O212">
+        <f t="shared" si="16"/>
+        <v>9019.3644166637641</v>
+      </c>
+    </row>
+    <row r="213" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I213">
+        <f t="shared" si="20"/>
+        <v>9070</v>
+      </c>
+      <c r="J213">
+        <f t="shared" si="21"/>
+        <v>14112.458654906284</v>
+      </c>
+      <c r="K213">
+        <f t="shared" si="17"/>
+        <v>0.28224917309812569</v>
+      </c>
+      <c r="L213">
+        <f t="shared" si="15"/>
+        <v>0.21534560159468802</v>
+      </c>
+      <c r="M213">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N213">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O213">
+        <f t="shared" si="16"/>
+        <v>9069.3573510064562</v>
+      </c>
+    </row>
+    <row r="214" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I214">
+        <f t="shared" si="20"/>
+        <v>9120</v>
+      </c>
+      <c r="J214">
+        <f t="shared" si="21"/>
+        <v>14035.087719298246</v>
+      </c>
+      <c r="K214">
+        <f t="shared" si="17"/>
+        <v>0.2807017543859649</v>
+      </c>
+      <c r="L214">
+        <f t="shared" si="15"/>
+        <v>0.21416497877892768</v>
+      </c>
+      <c r="M214">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N214">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O214">
+        <f t="shared" si="16"/>
+        <v>9119.3502462949509</v>
+      </c>
+    </row>
+    <row r="215" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I215">
+        <f t="shared" si="20"/>
+        <v>9170</v>
+      </c>
+      <c r="J215">
+        <f t="shared" si="21"/>
+        <v>13958.56052344602</v>
+      </c>
+      <c r="K215">
+        <f t="shared" si="17"/>
+        <v>0.27917121046892041</v>
+      </c>
+      <c r="L215">
+        <f t="shared" si="15"/>
+        <v>0.21299723080303384</v>
+      </c>
+      <c r="M215">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N215">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O215">
+        <f t="shared" si="16"/>
+        <v>9169.3431025292957</v>
+      </c>
+    </row>
+    <row r="216" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I216">
+        <f t="shared" si="20"/>
+        <v>9220</v>
+      </c>
+      <c r="J216">
+        <f t="shared" si="21"/>
+        <v>13882.863340563992</v>
+      </c>
+      <c r="K216">
+        <f t="shared" si="17"/>
+        <v>0.27765726681127983</v>
+      </c>
+      <c r="L216">
+        <f t="shared" si="15"/>
+        <v>0.21184214820648811</v>
+      </c>
+      <c r="M216">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N216">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O216">
+        <f t="shared" si="16"/>
+        <v>9219.3359197095324</v>
+      </c>
+    </row>
+    <row r="217" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I217">
+        <f t="shared" si="20"/>
+        <v>9270</v>
+      </c>
+      <c r="J217">
+        <f t="shared" si="21"/>
+        <v>13807.982740021575</v>
+      </c>
+      <c r="K217">
+        <f t="shared" si="17"/>
+        <v>0.27615965480043148</v>
+      </c>
+      <c r="L217">
+        <f t="shared" si="15"/>
+        <v>0.21069952604787706</v>
+      </c>
+      <c r="M217">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N217">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O217">
+        <f t="shared" si="16"/>
+        <v>9269.3286978357119</v>
+      </c>
+    </row>
+    <row r="218" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I218">
+        <f t="shared" si="20"/>
+        <v>9320</v>
+      </c>
+      <c r="J218">
+        <f t="shared" si="21"/>
+        <v>13733.905579399141</v>
+      </c>
+      <c r="K218">
+        <f t="shared" si="17"/>
+        <v>0.27467811158798283</v>
+      </c>
+      <c r="L218">
+        <f t="shared" si="15"/>
+        <v>0.20956916378367171</v>
+      </c>
+      <c r="M218">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N218">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O218">
+        <f t="shared" si="16"/>
+        <v>9319.321436907876</v>
+      </c>
+    </row>
+    <row r="219" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I219">
+        <f t="shared" si="20"/>
+        <v>9370</v>
+      </c>
+      <c r="J219">
+        <f t="shared" si="21"/>
+        <v>13660.618996798292</v>
+      </c>
+      <c r="K219">
+        <f t="shared" si="17"/>
+        <v>0.27321237993596587</v>
+      </c>
+      <c r="L219">
+        <f t="shared" si="15"/>
+        <v>0.20845086515088798</v>
+      </c>
+      <c r="M219">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N219">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O219">
+        <f t="shared" si="16"/>
+        <v>9369.3141369260702</v>
+      </c>
+    </row>
+    <row r="220" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I220">
+        <f t="shared" si="20"/>
+        <v>9420</v>
+      </c>
+      <c r="J220">
+        <f t="shared" si="21"/>
+        <v>13588.110403397028</v>
+      </c>
+      <c r="K220">
+        <f t="shared" si="17"/>
+        <v>0.27176220806794055</v>
+      </c>
+      <c r="L220">
+        <f t="shared" si="15"/>
+        <v>0.2073444380534841</v>
+      </c>
+      <c r="M220">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N220">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O220">
+        <f t="shared" si="16"/>
+        <v>9419.3067978903418</v>
+      </c>
+    </row>
+    <row r="221" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I221">
+        <f t="shared" si="20"/>
+        <v>9470</v>
+      </c>
+      <c r="J221">
+        <f t="shared" si="21"/>
+        <v>13516.367476240761</v>
+      </c>
+      <c r="K221">
+        <f t="shared" si="17"/>
+        <v>0.27032734952481519</v>
+      </c>
+      <c r="L221">
+        <f t="shared" si="15"/>
+        <v>0.20624969445235694</v>
+      </c>
+      <c r="M221">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N221">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O221">
+        <f t="shared" si="16"/>
+        <v>9469.2994198007382</v>
+      </c>
+    </row>
+    <row r="222" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I222">
+        <f t="shared" si="20"/>
+        <v>9520</v>
+      </c>
+      <c r="J222">
+        <f t="shared" si="21"/>
+        <v>13445.378151260504</v>
+      </c>
+      <c r="K222">
+        <f t="shared" si="17"/>
+        <v>0.26890756302521007</v>
+      </c>
+      <c r="L222">
+        <f t="shared" si="15"/>
+        <v>0.20516645025880464</v>
+      </c>
+      <c r="M222">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <f t="shared" si="16"/>
+        <v>9519.2920026573029</v>
+      </c>
+    </row>
+    <row r="223" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I223">
+        <f t="shared" si="20"/>
+        <v>9570</v>
+      </c>
+      <c r="J223">
+        <f t="shared" si="21"/>
+        <v>13375.130616509927</v>
+      </c>
+      <c r="K223">
+        <f t="shared" si="17"/>
+        <v>0.26750261233019856</v>
+      </c>
+      <c r="L223">
+        <f t="shared" si="15"/>
+        <v>0.20409452523132918</v>
+      </c>
+      <c r="M223">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <f t="shared" si="16"/>
+        <v>9569.2845464600814</v>
+      </c>
+    </row>
+    <row r="224" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I224">
+        <f t="shared" si="20"/>
+        <v>9620</v>
+      </c>
+      <c r="J224">
+        <f t="shared" si="21"/>
+        <v>13305.613305613306</v>
+      </c>
+      <c r="K224">
+        <f t="shared" si="17"/>
+        <v>0.26611226611226613</v>
+      </c>
+      <c r="L224">
+        <f t="shared" ref="L224:L254" si="22">($E$31*$D$29)/(65534*I224)</f>
+        <v>0.20303374287565701</v>
+      </c>
+      <c r="M224">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <f t="shared" ref="O224:O254" si="23">($E$31*$D$29)/((J224+1)*(M224+1))</f>
+        <v>9619.2770512091192</v>
+      </c>
+    </row>
+    <row r="225" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I225">
+        <f t="shared" si="20"/>
+        <v>9670</v>
+      </c>
+      <c r="J225">
+        <f t="shared" si="21"/>
+        <v>13236.814891416752</v>
+      </c>
+      <c r="K225">
+        <f t="shared" ref="K225:K254" si="24">($E$31*$D$29)/(50000*I225)</f>
+        <v>0.26473629782833508</v>
+      </c>
+      <c r="L225">
+        <f t="shared" si="22"/>
+        <v>0.20198393034786147</v>
+      </c>
+      <c r="M225">
+        <f t="shared" ref="M225:M254" si="25">INT((K225+L225)/2)</f>
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <f t="shared" ref="N225:N254" si="26">(E224*D222)/(64534*K222)</f>
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <f t="shared" si="23"/>
+        <v>9669.2695169044655</v>
+      </c>
+    </row>
+    <row r="226" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I226">
+        <f t="shared" ref="I226:I231" si="27">50+I225</f>
+        <v>9720</v>
+      </c>
+      <c r="J226">
+        <f t="shared" si="21"/>
+        <v>13168.724279835391</v>
+      </c>
+      <c r="K226">
+        <f t="shared" si="24"/>
+        <v>0.26337448559670784</v>
+      </c>
+      <c r="L226">
+        <f t="shared" si="22"/>
+        <v>0.20094491836047534</v>
+      </c>
+      <c r="M226">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <f t="shared" si="23"/>
+        <v>9719.261943546162</v>
+      </c>
+    </row>
+    <row r="227" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I227">
+        <f t="shared" si="27"/>
+        <v>9770</v>
+      </c>
+      <c r="J227">
+        <f t="shared" ref="J227:J254" si="28">($E$31*$D$29)/(I227*(M227+1))</f>
+        <v>13101.330603889457</v>
+      </c>
+      <c r="K227">
+        <f t="shared" si="24"/>
+        <v>0.26202661207778916</v>
+      </c>
+      <c r="L227">
+        <f t="shared" si="22"/>
+        <v>0.19991654109148621</v>
+      </c>
+      <c r="M227">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <f t="shared" si="23"/>
+        <v>9769.2543311342561</v>
+      </c>
+    </row>
+    <row r="228" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I228">
+        <f t="shared" si="27"/>
+        <v>9820</v>
+      </c>
+      <c r="J228">
+        <f t="shared" si="28"/>
+        <v>13034.623217922606</v>
+      </c>
+      <c r="K228">
+        <f t="shared" si="24"/>
+        <v>0.26069246435845211</v>
+      </c>
+      <c r="L228">
+        <f t="shared" si="22"/>
+        <v>0.19889863609611205</v>
+      </c>
+      <c r="M228">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <f t="shared" si="23"/>
+        <v>9819.246679668795</v>
+      </c>
+    </row>
+    <row r="229" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I229">
+        <f t="shared" si="27"/>
+        <v>9870</v>
+      </c>
+      <c r="J229">
+        <f t="shared" si="28"/>
+        <v>12968.591691995947</v>
+      </c>
+      <c r="K229">
+        <f t="shared" si="24"/>
+        <v>0.25937183383991896</v>
+      </c>
+      <c r="L229">
+        <f t="shared" si="22"/>
+        <v>0.19789104422125839</v>
+      </c>
+      <c r="M229">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <f t="shared" si="23"/>
+        <v>9869.2389891498206</v>
+      </c>
+    </row>
+    <row r="230" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I230">
+        <f t="shared" si="27"/>
+        <v>9920</v>
+      </c>
+      <c r="J230">
+        <f t="shared" si="28"/>
+        <v>12903.225806451614</v>
+      </c>
+      <c r="K230">
+        <f t="shared" si="24"/>
+        <v>0.25806451612903225</v>
+      </c>
+      <c r="L230">
+        <f t="shared" si="22"/>
+        <v>0.19689360952256252</v>
+      </c>
+      <c r="M230">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <f t="shared" si="23"/>
+        <v>9919.2312595773819</v>
+      </c>
+    </row>
+    <row r="231" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I231">
+        <f t="shared" si="27"/>
+        <v>9970</v>
+      </c>
+      <c r="J231">
+        <f t="shared" si="28"/>
+        <v>12838.515546639919</v>
+      </c>
+      <c r="K231">
+        <f t="shared" si="24"/>
+        <v>0.2567703109327984</v>
+      </c>
+      <c r="L231">
+        <f t="shared" si="22"/>
+        <v>0.19590617918393383</v>
+      </c>
+      <c r="M231">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <f t="shared" si="23"/>
+        <v>9969.2234909515264</v>
+      </c>
+    </row>
+    <row r="232" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I232">
+        <f>50+I231</f>
+        <v>10020</v>
+      </c>
+      <c r="J232">
+        <f t="shared" si="28"/>
+        <v>12774.451097804391</v>
+      </c>
+      <c r="K232">
+        <f t="shared" si="24"/>
+        <v>0.2554890219560878</v>
+      </c>
+      <c r="L232">
+        <f t="shared" si="22"/>
+        <v>0.19492860343950302</v>
+      </c>
+      <c r="M232">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <f t="shared" si="23"/>
+        <v>10019.215683272294</v>
+      </c>
+    </row>
+    <row r="233" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I233">
+        <f t="shared" ref="I233:I254" si="29">50+I232</f>
+        <v>10070</v>
+      </c>
+      <c r="J233">
+        <f t="shared" si="28"/>
+        <v>12711.022840119165</v>
+      </c>
+      <c r="K233">
+        <f t="shared" si="24"/>
+        <v>0.25422045680238331</v>
+      </c>
+      <c r="L233">
+        <f t="shared" si="22"/>
+        <v>0.19396073549789675</v>
+      </c>
+      <c r="M233">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <f t="shared" si="23"/>
+        <v>10069.207836539736</v>
+      </c>
+    </row>
+    <row r="234" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I234">
+        <f t="shared" si="29"/>
+        <v>10120</v>
+      </c>
+      <c r="J234">
+        <f t="shared" si="28"/>
+        <v>12648.221343873518</v>
+      </c>
+      <c r="K234">
+        <f t="shared" si="24"/>
+        <v>0.25296442687747034</v>
+      </c>
+      <c r="L234">
+        <f t="shared" si="22"/>
+        <v>0.19300243146875695</v>
+      </c>
+      <c r="M234">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N234">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O234">
+        <f t="shared" si="23"/>
+        <v>10119.199950753893</v>
+      </c>
+    </row>
+    <row r="235" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I235">
+        <f t="shared" si="29"/>
+        <v>10170</v>
+      </c>
+      <c r="J235">
+        <f t="shared" si="28"/>
+        <v>12586.037364798427</v>
+      </c>
+      <c r="K235">
+        <f t="shared" si="24"/>
+        <v>0.25172074729596855</v>
+      </c>
+      <c r="L235">
+        <f t="shared" si="22"/>
+        <v>0.19205355029142776</v>
+      </c>
+      <c r="M235">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N235">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O235">
+        <f t="shared" si="23"/>
+        <v>10169.192025914816</v>
+      </c>
+    </row>
+    <row r="236" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I236">
+        <f t="shared" si="29"/>
+        <v>10220</v>
+      </c>
+      <c r="J236">
+        <f t="shared" si="28"/>
+        <v>12524.461839530333</v>
+      </c>
+      <c r="K236">
+        <f t="shared" si="24"/>
+        <v>0.25048923679060664</v>
+      </c>
+      <c r="L236">
+        <f t="shared" si="22"/>
+        <v>0.19111395366573583</v>
+      </c>
+      <c r="M236">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N236">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O236">
+        <f t="shared" si="23"/>
+        <v>10219.184062022547</v>
+      </c>
+    </row>
+    <row r="237" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I237">
+        <f t="shared" si="29"/>
+        <v>10270</v>
+      </c>
+      <c r="J237">
+        <f t="shared" si="28"/>
+        <v>12463.4858812074</v>
+      </c>
+      <c r="K237">
+        <f t="shared" si="24"/>
+        <v>0.24926971762414801</v>
+      </c>
+      <c r="L237">
+        <f t="shared" si="22"/>
+        <v>0.19018350598479264</v>
+      </c>
+      <c r="M237">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N237">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O237">
+        <f t="shared" si="23"/>
+        <v>10269.176059077136</v>
+      </c>
+    </row>
+    <row r="238" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I238">
+        <f t="shared" si="29"/>
+        <v>10320</v>
+      </c>
+      <c r="J238">
+        <f t="shared" si="28"/>
+        <v>12403.100775193798</v>
+      </c>
+      <c r="K238">
+        <f t="shared" si="24"/>
+        <v>0.24806201550387597</v>
+      </c>
+      <c r="L238">
+        <f t="shared" si="22"/>
+        <v>0.18926207426975003</v>
+      </c>
+      <c r="M238">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N238">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O238">
+        <f t="shared" si="23"/>
+        <v>10319.168017078624</v>
+      </c>
+    </row>
+    <row r="239" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I239">
+        <f t="shared" si="29"/>
+        <v>10370</v>
+      </c>
+      <c r="J239">
+        <f t="shared" si="28"/>
+        <v>12343.297974927676</v>
+      </c>
+      <c r="K239">
+        <f t="shared" si="24"/>
+        <v>0.24686595949855353</v>
+      </c>
+      <c r="L239">
+        <f t="shared" si="22"/>
+        <v>0.18834952810644362</v>
+      </c>
+      <c r="M239">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N239">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O239">
+        <f t="shared" si="23"/>
+        <v>10369.159936027057</v>
+      </c>
+    </row>
+    <row r="240" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I240">
+        <f t="shared" si="29"/>
+        <v>10420</v>
+      </c>
+      <c r="J240">
+        <f t="shared" si="28"/>
+        <v>12284.069097888676</v>
+      </c>
+      <c r="K240">
+        <f t="shared" si="24"/>
+        <v>0.2456813819577735</v>
+      </c>
+      <c r="L240">
+        <f t="shared" si="22"/>
+        <v>0.1874457395838599</v>
+      </c>
+      <c r="M240">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N240">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O240">
+        <f t="shared" si="23"/>
+        <v>10419.151815922485</v>
+      </c>
+    </row>
+    <row r="241" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I241">
+        <f t="shared" si="29"/>
+        <v>10470</v>
+      </c>
+      <c r="J241">
+        <f t="shared" si="28"/>
+        <v>12225.405921680993</v>
+      </c>
+      <c r="K241">
+        <f t="shared" si="24"/>
+        <v>0.24450811843361986</v>
+      </c>
+      <c r="L241">
+        <f t="shared" si="22"/>
+        <v>0.1865505832343668</v>
+      </c>
+      <c r="M241">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N241">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O241">
+        <f t="shared" si="23"/>
+        <v>10469.143656764951</v>
+      </c>
+    </row>
+    <row r="242" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I242">
+        <f t="shared" si="29"/>
+        <v>10520</v>
+      </c>
+      <c r="J242">
+        <f t="shared" si="28"/>
+        <v>12167.300380228136</v>
+      </c>
+      <c r="K242">
+        <f t="shared" si="24"/>
+        <v>0.24334600760456274</v>
+      </c>
+      <c r="L242">
+        <f t="shared" si="22"/>
+        <v>0.18566393597564831</v>
+      </c>
+      <c r="M242">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O242">
+        <f t="shared" si="23"/>
+        <v>10519.1354585545</v>
+      </c>
+    </row>
+    <row r="243" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I243">
+        <f t="shared" si="29"/>
+        <v>10570</v>
+      </c>
+      <c r="J243">
+        <f t="shared" si="28"/>
+        <v>12109.744560075686</v>
+      </c>
+      <c r="K243">
+        <f t="shared" si="24"/>
+        <v>0.24219489120151372</v>
+      </c>
+      <c r="L243">
+        <f t="shared" si="22"/>
+        <v>0.18478567705428764</v>
+      </c>
+      <c r="M243">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O243">
+        <f t="shared" si="23"/>
+        <v>10569.127221291179</v>
+      </c>
+    </row>
+    <row r="244" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I244">
+        <f t="shared" si="29"/>
+        <v>10620</v>
+      </c>
+      <c r="J244">
+        <f t="shared" si="28"/>
+        <v>12052.730696798493</v>
+      </c>
+      <c r="K244">
+        <f t="shared" si="24"/>
+        <v>0.24105461393596986</v>
+      </c>
+      <c r="L244">
+        <f t="shared" si="22"/>
+        <v>0.18391568799094354</v>
+      </c>
+      <c r="M244">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O244">
+        <f t="shared" si="23"/>
+        <v>10619.118944975035</v>
+      </c>
+    </row>
+    <row r="245" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I245">
+        <f t="shared" si="29"/>
+        <v>10670</v>
+      </c>
+      <c r="J245">
+        <f t="shared" si="28"/>
+        <v>11996.251171508904</v>
+      </c>
+      <c r="K245">
+        <f t="shared" si="24"/>
+        <v>0.23992502343017807</v>
+      </c>
+      <c r="L245">
+        <f t="shared" si="22"/>
+        <v>0.18305385252706843</v>
+      </c>
+      <c r="M245">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O245">
+        <f t="shared" si="23"/>
+        <v>10669.11062960611</v>
+      </c>
+    </row>
+    <row r="246" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I246">
+        <f t="shared" si="29"/>
+        <v>10720</v>
+      </c>
+      <c r="J246">
+        <f t="shared" si="28"/>
+        <v>11940.298507462687</v>
+      </c>
+      <c r="K246">
+        <f t="shared" si="24"/>
+        <v>0.23880597014925373</v>
+      </c>
+      <c r="L246">
+        <f t="shared" si="22"/>
+        <v>0.18220005657311755</v>
+      </c>
+      <c r="M246">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O246">
+        <f t="shared" si="23"/>
+        <v>10719.102275184454</v>
+      </c>
+    </row>
+    <row r="247" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I247">
+        <f t="shared" si="29"/>
+        <v>10770</v>
+      </c>
+      <c r="J247">
+        <f t="shared" si="28"/>
+        <v>11884.865366759517</v>
+      </c>
+      <c r="K247">
+        <f t="shared" si="24"/>
+        <v>0.23769730733519034</v>
+      </c>
+      <c r="L247">
+        <f t="shared" si="22"/>
+        <v>0.18135418815820059</v>
+      </c>
+      <c r="M247">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O247">
+        <f t="shared" si="23"/>
+        <v>10769.093881710109</v>
+      </c>
+    </row>
+    <row r="248" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I248">
+        <f t="shared" si="29"/>
+        <v>10820</v>
+      </c>
+      <c r="J248">
+        <f t="shared" si="28"/>
+        <v>11829.944547134935</v>
+      </c>
+      <c r="K248">
+        <f t="shared" si="24"/>
+        <v>0.2365988909426987</v>
+      </c>
+      <c r="L248">
+        <f t="shared" si="22"/>
+        <v>0.18051613738112943</v>
+      </c>
+      <c r="M248">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O248">
+        <f t="shared" si="23"/>
+        <v>10819.085449183123</v>
+      </c>
+    </row>
+    <row r="249" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I249">
+        <f t="shared" si="29"/>
+        <v>10870</v>
+      </c>
+      <c r="J249">
+        <f t="shared" si="28"/>
+        <v>11775.528978840846</v>
+      </c>
+      <c r="K249">
+        <f t="shared" si="24"/>
+        <v>0.23551057957681693</v>
+      </c>
+      <c r="L249">
+        <f t="shared" si="22"/>
+        <v>0.17968579636281695</v>
+      </c>
+      <c r="M249">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O249">
+        <f t="shared" si="23"/>
+        <v>10869.076977603543</v>
+      </c>
+    </row>
+    <row r="250" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I250">
+        <f t="shared" si="29"/>
+        <v>10920</v>
+      </c>
+      <c r="J250">
+        <f t="shared" si="28"/>
+        <v>11721.611721611722</v>
+      </c>
+      <c r="K250">
+        <f t="shared" si="24"/>
+        <v>0.23443223443223443</v>
+      </c>
+      <c r="L250">
+        <f t="shared" si="22"/>
+        <v>0.17886305919998355</v>
+      </c>
+      <c r="M250">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O250">
+        <f t="shared" si="23"/>
+        <v>10919.068466971412</v>
+      </c>
+    </row>
+    <row r="251" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I251">
+        <f t="shared" si="29"/>
+        <v>10970</v>
+      </c>
+      <c r="J251">
+        <f t="shared" si="28"/>
+        <v>11668.185961713765</v>
+      </c>
+      <c r="K251">
+        <f t="shared" si="24"/>
+        <v>0.23336371923427529</v>
+      </c>
+      <c r="L251">
+        <f t="shared" si="22"/>
+        <v>0.17804782192012947</v>
+      </c>
+      <c r="M251">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O251">
+        <f t="shared" si="23"/>
+        <v>10969.059917286775</v>
+      </c>
+    </row>
+    <row r="252" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I252">
+        <f t="shared" si="29"/>
+        <v>11020</v>
+      </c>
+      <c r="J252">
+        <f t="shared" si="28"/>
+        <v>11615.24500907441</v>
+      </c>
+      <c r="K252">
+        <f t="shared" si="24"/>
+        <v>0.23230490018148819</v>
+      </c>
+      <c r="L252">
+        <f t="shared" si="22"/>
+        <v>0.17723998243773323</v>
+      </c>
+      <c r="M252">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N252">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O252">
+        <f t="shared" si="23"/>
+        <v>11019.051328549684</v>
+      </c>
+    </row>
+    <row r="253" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I253">
+        <f t="shared" si="29"/>
+        <v>11070</v>
+      </c>
+      <c r="J253">
+        <f t="shared" si="28"/>
+        <v>11562.782294489612</v>
+      </c>
+      <c r="K253">
+        <f t="shared" si="24"/>
+        <v>0.23125564588979222</v>
+      </c>
+      <c r="L253">
+        <f t="shared" si="22"/>
+        <v>0.17643944051163687</v>
+      </c>
+      <c r="M253">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N253">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O253">
+        <f t="shared" si="23"/>
+        <v>11069.042700760176</v>
+      </c>
+    </row>
+    <row r="254" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I254">
+        <f t="shared" si="29"/>
+        <v>11120</v>
+      </c>
+      <c r="J254">
+        <f t="shared" si="28"/>
+        <v>11510.791366906475</v>
+      </c>
+      <c r="K254">
+        <f t="shared" si="24"/>
+        <v>0.23021582733812951</v>
+      </c>
+      <c r="L254">
+        <f t="shared" si="22"/>
+        <v>0.17564609770358097</v>
+      </c>
+      <c r="M254">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N254">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O254">
+        <f t="shared" si="23"/>
+        <v>11119.034033918304</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\Stm32PrjTpl\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{635A36B3-35B4-4D1E-A818-D4323FB9DF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDB8D5E-08AE-4916-8A3B-F287C114C457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
@@ -1147,7 +1147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1159,7 +1159,6 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1278,7 +1277,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="224"/>
                 <c:pt idx="0">
-                  <c:v>0.05</c:v>
+                  <c:v>0.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>20</c:v>
@@ -1992,40 +1991,40 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="224"/>
                 <c:pt idx="0">
-                  <c:v>56721.246094875147</c:v>
+                  <c:v>56713.455267262165</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56637.16814159292</c:v>
+                  <c:v>56338.028169014084</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55411.255411255413</c:v>
+                  <c:v>55749.128919860625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56140.350877192985</c:v>
+                  <c:v>55555.555555555555</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>53781.512605042015</c:v>
+                  <c:v>55363.32179930796</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>52892.561983471074</c:v>
+                  <c:v>55944.055944055945</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52674.897119341564</c:v>
+                  <c:v>53872.053872053875</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50000</c:v>
+                  <c:v>55555.555555555555</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49420.849420849423</c:v>
+                  <c:v>54054.054054054053</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50793.650793650791</c:v>
+                  <c:v>54421.768707482996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>54468.085106382976</c:v>
+                  <c:v>48632.218844984804</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49230.769230769234</c:v>
+                  <c:v>51282.051282051281</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>56140.350877192985</c:v>
@@ -2037,631 +2036,631 @@
                   <c:v>47761.194029850747</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44444.444444444445</c:v>
+                  <c:v>55555.555555555555</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>55411.255411255413</c:v>
+                  <c:v>51948.051948051951</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52032.520325203252</c:v>
+                  <c:v>48780.487804878052</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>49042.145593869733</c:v>
+                  <c:v>45977.011494252874</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>46376.811594202896</c:v>
+                  <c:v>43478.260869565216</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43986.254295532643</c:v>
+                  <c:v>54982.817869415805</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>41830.065359477121</c:v>
+                  <c:v>52287.581699346403</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>39875.389408099691</c:v>
+                  <c:v>49844.236760124608</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>38095.238095238092</c:v>
+                  <c:v>47619.047619047618</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>54700.854700854703</c:v>
+                  <c:v>45584.045584045583</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52459.016393442624</c:v>
+                  <c:v>43715.846994535517</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>50393.700787401576</c:v>
+                  <c:v>41994.750656167977</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>48484.848484848488</c:v>
+                  <c:v>40404.040404040403</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>46715.328467153282</c:v>
+                  <c:v>38929.440389294403</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>45070.42253521127</c:v>
+                  <c:v>56338.028169014084</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43537.414965986398</c:v>
+                  <c:v>54421.768707482996</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>42105.26315789474</c:v>
+                  <c:v>52631.57894736842</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>40764.331210191085</c:v>
+                  <c:v>50955.414012738853</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>39506.172839506173</c:v>
+                  <c:v>49382.716049382718</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>38323.353293413173</c:v>
+                  <c:v>47904.191616766468</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>37209.302325581397</c:v>
+                  <c:v>46511.627906976741</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36158.192090395482</c:v>
+                  <c:v>45197.740112994354</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>35164.835164835167</c:v>
+                  <c:v>43956.043956043955</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>34224.598930481283</c:v>
+                  <c:v>42780.748663101607</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>33333.333333333336</c:v>
+                  <c:v>41666.666666666664</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>32487.309644670051</c:v>
+                  <c:v>40609.137055837564</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>31683.168316831685</c:v>
+                  <c:v>39603.960396039605</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>30917.874396135267</c:v>
+                  <c:v>38647.342995169085</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>30188.67924528302</c:v>
+                  <c:v>37735.849056603773</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>29493.087557603685</c:v>
+                  <c:v>36866.359447004608</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>28828.828828828828</c:v>
+                  <c:v>36036.036036036036</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>56387.665198237883</c:v>
+                  <c:v>35242.290748898675</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>55172.413793103449</c:v>
+                  <c:v>34482.758620689652</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>54008.438818565402</c:v>
+                  <c:v>33755.274261603372</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>52892.561983471074</c:v>
+                  <c:v>33057.85123966942</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>51821.86234817814</c:v>
+                  <c:v>32388.663967611337</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>50793.650793650791</c:v>
+                  <c:v>31746.031746031746</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>49805.447470817118</c:v>
+                  <c:v>31128.404669260701</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>48854.961832061068</c:v>
+                  <c:v>30534.351145038167</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>47940.074906367045</c:v>
+                  <c:v>29962.5468164794</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>47058.823529411762</c:v>
+                  <c:v>29411.764705882353</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>46209.386281588449</c:v>
+                  <c:v>28880.866425992779</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>45390.070921985818</c:v>
+                  <c:v>28368.794326241135</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>44599.303135888498</c:v>
+                  <c:v>55749.128919860625</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>43835.616438356163</c:v>
+                  <c:v>54794.520547945205</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43097.6430976431</c:v>
+                  <c:v>53872.053872053875</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>42384.105960264904</c:v>
+                  <c:v>52980.132450331126</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>41693.811074918565</c:v>
+                  <c:v>52117.263843648208</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>41025.641025641024</c:v>
+                  <c:v>51282.051282051281</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>40378.548895899054</c:v>
+                  <c:v>50473.186119873819</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>39751.552795031057</c:v>
+                  <c:v>49689.440993788819</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>39143.73088685015</c:v>
+                  <c:v>48929.663608562689</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>38554.216867469877</c:v>
+                  <c:v>48192.77108433735</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>37982.19584569733</c:v>
+                  <c:v>47477.744807121664</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>37426.900584795323</c:v>
+                  <c:v>46783.62573099415</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>36887.608069164264</c:v>
+                  <c:v>46109.510086455331</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>36363.63636363636</c:v>
+                  <c:v>45454.545454545456</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>35854.341736694681</c:v>
+                  <c:v>44817.927170868345</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>35359.11602209945</c:v>
+                  <c:v>44198.895027624312</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>34877.384196185289</c:v>
+                  <c:v>43596.730245231607</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>34408.602150537634</c:v>
+                  <c:v>43010.752688172041</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>33952.254641909814</c:v>
+                  <c:v>42440.31830238727</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>33507.853403141358</c:v>
+                  <c:v>41884.816753926701</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>33074.935400516799</c:v>
+                  <c:v>41343.669250645995</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>32653.061224489797</c:v>
+                  <c:v>40816.326530612248</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>32241.813602015114</c:v>
+                  <c:v>40302.267002518893</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>31840.796019900499</c:v>
+                  <c:v>39800.995024875621</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>31449.631449631448</c:v>
+                  <c:v>39312.039312039313</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>31067.961165048542</c:v>
+                  <c:v>38834.951456310679</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>30695.443645083931</c:v>
+                  <c:v>38369.304556354917</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>30331.753554502371</c:v>
+                  <c:v>37914.69194312796</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>29976.580796252929</c:v>
+                  <c:v>37470.725995316163</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>29629.629629629631</c:v>
+                  <c:v>37037.037037037036</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>29290.617848970251</c:v>
+                  <c:v>36613.272311212815</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>28959.276018099546</c:v>
+                  <c:v>36199.095022624431</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>28635.346756152125</c:v>
+                  <c:v>35794.18344519016</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>28318.58407079646</c:v>
+                  <c:v>35398.230088495577</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>28008.752735229758</c:v>
+                  <c:v>35010.940919037203</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>27705.627705627707</c:v>
+                  <c:v>34632.034632034629</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>27408.993576017132</c:v>
+                  <c:v>34261.241970021416</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>27118.644067796609</c:v>
+                  <c:v>33898.305084745763</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>26834.381551362683</c:v>
+                  <c:v>33542.976939203356</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>26556.016597510374</c:v>
+                  <c:v>33195.020746887967</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>26283.367556468173</c:v>
+                  <c:v>32854.209445585213</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>26016.260162601626</c:v>
+                  <c:v>32520.325203252032</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>25754.527162977869</c:v>
+                  <c:v>32193.158953722334</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>25498.007968127491</c:v>
+                  <c:v>31872.509960159361</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>25246.548323471401</c:v>
+                  <c:v>31558.185404339252</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>25000</c:v>
+                  <c:v>31250</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>24758.220502901353</c:v>
+                  <c:v>30947.775628626692</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>24521.072796934866</c:v>
+                  <c:v>30651.340996168583</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>24288.42504743833</c:v>
+                  <c:v>30360.531309297912</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>24060.150375939851</c:v>
+                  <c:v>30075.187969924813</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>23836.126629422717</c:v>
+                  <c:v>29795.158286778398</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>23616.236162361623</c:v>
+                  <c:v>29520.295202952031</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>23400.365630712979</c:v>
+                  <c:v>29250.457038391225</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>23188.405797101448</c:v>
+                  <c:v>28985.507246376812</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>22980.251346499103</c:v>
+                  <c:v>28725.314183123879</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>22775.800711743774</c:v>
+                  <c:v>28469.750889679715</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>22574.955908289241</c:v>
+                  <c:v>28218.69488536155</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>22377.622377622378</c:v>
+                  <c:v>27972.027972027972</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>22183.708838821491</c:v>
+                  <c:v>27729.636048526863</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>21993.127147766321</c:v>
+                  <c:v>27491.408934707903</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>21805.79216354344</c:v>
+                  <c:v>27257.240204429301</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>21621.62162162162</c:v>
+                  <c:v>27027.027027027027</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>21440.536013400335</c:v>
+                  <c:v>26800.67001675042</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>21262.458471760798</c:v>
+                  <c:v>26578.073089700996</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>21087.314662273475</c:v>
+                  <c:v>26359.143327841844</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>20915.032679738561</c:v>
+                  <c:v>26143.790849673202</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>20745.542949756888</c:v>
+                  <c:v>25931.928687196109</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>20578.778135048233</c:v>
+                  <c:v>25723.472668810289</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>20414.673046251995</c:v>
+                  <c:v>25518.341307814993</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>20253.164556962027</c:v>
+                  <c:v>25316.455696202531</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>20094.191522762951</c:v>
+                  <c:v>25117.739403453688</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>19937.694704049845</c:v>
+                  <c:v>24922.118380062304</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>19783.616692426585</c:v>
+                  <c:v>24729.520865533232</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>19631.901840490798</c:v>
+                  <c:v>24539.877300613498</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>19482.496194824962</c:v>
+                  <c:v>24353.120243531201</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>19335.347432024169</c:v>
+                  <c:v>24169.184290030211</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>19190.404797601201</c:v>
+                  <c:v>23988.005997001499</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>19047.619047619046</c:v>
+                  <c:v>23809.523809523809</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>18906.942392909896</c:v>
+                  <c:v>23633.677991137371</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>18768.3284457478</c:v>
+                  <c:v>23460.41055718475</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>18631.732168850074</c:v>
+                  <c:v>23289.665211062591</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>18497.109826589596</c:v>
+                  <c:v>23121.387283236993</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>18364.41893830703</c:v>
+                  <c:v>22955.523672883788</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>18233.618233618232</c:v>
+                  <c:v>22792.022792022792</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>18104.667609618104</c:v>
+                  <c:v>22630.834512022629</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>17977.528089887641</c:v>
+                  <c:v>22471.91011235955</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>17852.16178521618</c:v>
+                  <c:v>22315.202231520223</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>17728.53185595568</c:v>
+                  <c:v>22160.664819944599</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>17606.602475928474</c:v>
+                  <c:v>22008.253094910593</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>17486.338797814209</c:v>
+                  <c:v>21857.923497267759</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>17367.706919945726</c:v>
+                  <c:v>21709.633649932159</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>17250.673854447439</c:v>
+                  <c:v>21563.342318059298</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>17135.207496653278</c:v>
+                  <c:v>21419.009370816599</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>17021.276595744679</c:v>
+                  <c:v>21276.59574468085</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>16908.85072655218</c:v>
+                  <c:v>21136.063408190224</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>16797.900262467192</c:v>
+                  <c:v>20997.375328083988</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>16688.396349413299</c:v>
+                  <c:v>20860.495436766621</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>16580.310880829016</c:v>
+                  <c:v>20725.388601036269</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>16473.616473616472</c:v>
+                  <c:v>20592.020592020592</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>16368.286445012787</c:v>
+                  <c:v>20460.358056265984</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>16264.294790343076</c:v>
+                  <c:v>20330.368487928845</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>16161.616161616161</c:v>
+                  <c:v>20202.020202020201</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>16060.225846925972</c:v>
+                  <c:v>20075.282308657464</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>15960.099750623442</c:v>
+                  <c:v>19950.124688279302</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>15861.214374225527</c:v>
+                  <c:v>19826.517967781907</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>15763.546798029556</c:v>
+                  <c:v>19704.433497536946</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>15667.074663402693</c:v>
+                  <c:v>19583.843329253366</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>15571.776155717762</c:v>
+                  <c:v>19464.720194647201</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>15477.629987908102</c:v>
+                  <c:v>19347.037484885128</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>15384.615384615385</c:v>
+                  <c:v>19230.76923076923</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>15292.712066905615</c:v>
+                  <c:v>19115.890083632021</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>15201.900237529691</c:v>
+                  <c:v>19002.375296912112</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>15112.160566706021</c:v>
+                  <c:v>18890.200708382526</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>15023.474178403756</c:v>
+                  <c:v>18779.342723004695</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>14935.822637106185</c:v>
+                  <c:v>18669.77829638273</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>14849.187935034803</c:v>
+                  <c:v>18561.484918793503</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>14763.552479815455</c:v>
+                  <c:v>18454.440599769321</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>14678.899082568807</c:v>
+                  <c:v>18348.623853211007</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>14595.21094640821</c:v>
+                  <c:v>18244.013683010264</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>14512.471655328798</c:v>
+                  <c:v>18140.589569160999</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>14430.665163472378</c:v>
+                  <c:v>18038.331454340474</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>14349.775784753363</c:v>
+                  <c:v>17937.219730941702</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>14269.78818283166</c:v>
+                  <c:v>17837.235228539575</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>14190.687361419068</c:v>
+                  <c:v>17738.359201773837</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>14112.458654906284</c:v>
+                  <c:v>17640.573318632854</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>14035.087719298246</c:v>
+                  <c:v>17543.859649122805</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>13958.56052344602</c:v>
+                  <c:v>17448.200654307526</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>13882.863340563992</c:v>
+                  <c:v>17353.579175704988</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>13807.982740021575</c:v>
+                  <c:v>17259.978425026969</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>13733.905579399141</c:v>
+                  <c:v>17167.381974248929</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>13660.618996798292</c:v>
+                  <c:v>17075.773745997867</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>13588.110403397028</c:v>
+                  <c:v>16985.138004246284</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>13516.367476240761</c:v>
+                  <c:v>16895.459345300951</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>13445.378151260504</c:v>
+                  <c:v>16806.722689075632</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>13375.130616509927</c:v>
+                  <c:v>16718.913270637408</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>13305.613305613306</c:v>
+                  <c:v>16632.016632016632</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>13236.814891416752</c:v>
+                  <c:v>16546.018614270943</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>13168.724279835391</c:v>
+                  <c:v>16460.90534979424</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>13101.330603889457</c:v>
+                  <c:v>16376.663254861822</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>13034.623217922606</c:v>
+                  <c:v>16293.279022403258</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>12968.591691995947</c:v>
+                  <c:v>16210.739614994935</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>12903.225806451614</c:v>
+                  <c:v>16129.032258064517</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>12838.515546639919</c:v>
+                  <c:v>16048.1444332999</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>12774.451097804391</c:v>
+                  <c:v>15968.063872255489</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>12711.022840119165</c:v>
+                  <c:v>15888.778550148958</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>12648.221343873518</c:v>
+                  <c:v>15810.276679841898</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>12586.037364798427</c:v>
+                  <c:v>15732.546705998033</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>12524.461839530333</c:v>
+                  <c:v>15655.577299412917</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>12463.4858812074</c:v>
+                  <c:v>15579.35735150925</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>12403.100775193798</c:v>
+                  <c:v>15503.875968992248</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>12343.297974927676</c:v>
+                  <c:v>15429.122468659594</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>12284.069097888676</c:v>
+                  <c:v>15355.086372360845</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>12225.405921680993</c:v>
+                  <c:v>15281.757402101242</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>12167.300380228136</c:v>
+                  <c:v>15209.125475285171</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>12109.744560075686</c:v>
+                  <c:v>15137.180700094608</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>12052.730696798493</c:v>
+                  <c:v>15065.913370998116</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>11996.251171508904</c:v>
+                  <c:v>14995.313964386129</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>11940.298507462687</c:v>
+                  <c:v>14925.373134328358</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>11884.865366759517</c:v>
+                  <c:v>14856.081708449396</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>11829.944547134935</c:v>
+                  <c:v>14787.430683918668</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>11775.528978840846</c:v>
+                  <c:v>14719.411223551058</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>11721.611721611722</c:v>
+                  <c:v>14652.014652014652</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>11668.185961713765</c:v>
+                  <c:v>14585.232452142205</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>11615.24500907441</c:v>
+                  <c:v>14519.056261343012</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>11562.782294489612</c:v>
+                  <c:v>14453.477868112015</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>11510.791366906475</c:v>
+                  <c:v>14388.489208633093</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4117,8 +4116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2D6D-43F7-44B1-8255-ECFDDA33AA9C}">
   <dimension ref="A18:AE119"/>
   <sheetViews>
-    <sheetView topLeftCell="B47" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView topLeftCell="G14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27:L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4440,7 +4439,7 @@
         <v>2</v>
       </c>
       <c r="L27" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="M27" t="s">
         <v>286</v>
@@ -6936,8 +6935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860CCB6B-9BC8-4B28-B4AE-B22F38F81573}">
   <dimension ref="B1:P254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D77" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView tabSelected="1" topLeftCell="E27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6970,7 +6969,7 @@
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="L5">
-        <v>30000</v>
+        <v>63500</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -6995,21 +6994,21 @@
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D8">
-        <v>0.01</v>
+        <v>200</v>
       </c>
       <c r="E8">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
         <f>E8*C3/((D8)*(F8+1))</f>
-        <v>12800000000</v>
+        <v>800000</v>
       </c>
       <c r="J8">
         <f>(E8*1000000)/((L5+1))</f>
-        <v>4266.5244491850272</v>
+        <v>2519.6453599155921</v>
       </c>
       <c r="M8" t="s">
         <v>335</v>
@@ -7018,7 +7017,7 @@
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="M9">
         <f>J14-ROUND(J14,0)</f>
-        <v>0.44491850270424038</v>
+        <v>-0.40177320042204023</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
@@ -7031,26 +7030,24 @@
         <v>330</v>
       </c>
       <c r="L13">
-        <f>INT((L5+((L5/J15)* M9)))</f>
-        <v>30000</v>
+        <v>63997</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="J14">
         <f>E8*C3/(D8*(L5+1))</f>
-        <v>426652.4449185027</v>
+        <v>12.59822679957796</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="J15">
-        <f>ROUND(J14,0)</f>
-        <v>426652</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D16">
         <f>E8*C3/D8</f>
-        <v>12800000000</v>
+        <v>800000</v>
       </c>
       <c r="J16" t="s">
         <v>112</v>
@@ -7067,15 +7064,15 @@
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D18">
         <f>E8*C3/D16</f>
-        <v>0.01</v>
+        <v>200</v>
       </c>
       <c r="J18">
         <f>(E8*C3)/((L5)*(INT(J14)))</f>
-        <v>1.0000343761816813E-2</v>
+        <v>209.9737532808399</v>
       </c>
       <c r="L18">
         <f>(E8*C3)/((J15)*(L13))</f>
-        <v>1.0000343761816813E-2</v>
+        <v>277.79079922149128</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">
@@ -7113,7 +7110,7 @@
       </c>
       <c r="K29">
         <f>1/(D31/1000)</f>
-        <v>0.05</v>
+        <v>0.5</v>
       </c>
       <c r="M29" t="s">
         <v>324</v>
@@ -7157,40 +7154,40 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D31">
-        <v>20000</v>
+        <v>2000</v>
       </c>
       <c r="E31">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="F31">
         <v>65534</v>
       </c>
       <c r="G31">
         <f>(E31*D29)/((F31+1)*K29+1)</f>
-        <v>39051.178399816949</v>
+        <v>4882.7379953308819</v>
       </c>
       <c r="I31">
-        <v>0.05</v>
+        <v>0.6</v>
       </c>
       <c r="J31">
         <f>($E$31*$D$29)/(I31*(M31+1))</f>
-        <v>56721.246094875147</v>
+        <v>56713.455267262165</v>
       </c>
       <c r="K31">
         <f>($E$31*$D$29)/(50000*I31)</f>
-        <v>51200</v>
+        <v>5333.333333333333</v>
       </c>
       <c r="L31">
         <f>($E$31*$D$29)/(65534*I31)</f>
-        <v>39063.692129276402</v>
+        <v>4069.1345967996253</v>
       </c>
       <c r="M31">
         <f>ROUND((K31+L31)/2,0)</f>
-        <v>45132</v>
+        <v>4701</v>
       </c>
       <c r="O31">
         <f>($E$31*$D$29)/((J31+1)*(M31+1))</f>
-        <v>4.9999118511634459E-2</v>
+        <v>0.59998942068653971</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.3">
@@ -7198,24 +7195,24 @@
         <v>20</v>
       </c>
       <c r="J32">
-        <f t="shared" ref="J32:J95" si="0">($E$31*$D$29)/(I32*(M32+1))</f>
-        <v>56637.16814159292</v>
+        <f t="shared" ref="J32:J33" si="0">($E$31*$D$29)/(I32*(M32+1))</f>
+        <v>56338.028169014084</v>
       </c>
       <c r="K32">
         <f>($E$31*$D$29)/(50000*I32)</f>
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="L32">
         <f>($E$31*$D$29)/(65534*I32)</f>
-        <v>97.659230323191011</v>
+        <v>122.07403790398877</v>
       </c>
       <c r="M32">
         <f>INT((K32+L32)/2)</f>
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="O32">
         <f t="shared" ref="O32:O95" si="1">($E$31*$D$29)/((J32+1)*(M32+1))</f>
-        <v>19.999646881234753</v>
+        <v>19.999645006301137</v>
       </c>
     </row>
     <row r="33" spans="9:15" x14ac:dyDescent="0.3">
@@ -7225,23 +7222,23 @@
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
-        <v>55411.255411255413</v>
+        <v>55749.128919860625</v>
       </c>
       <c r="K33">
         <f t="shared" ref="K33:K96" si="2">($E$31*$D$29)/(50000*I33)</f>
-        <v>36.571428571428569</v>
+        <v>45.714285714285715</v>
       </c>
       <c r="L33">
-        <f t="shared" ref="L32:L95" si="3">($E$31*$D$29)/(65534*I33)</f>
-        <v>27.902637235197432</v>
+        <f t="shared" ref="L33:L95" si="3">($E$31*$D$29)/(65534*I33)</f>
+        <v>34.87829654399679</v>
       </c>
       <c r="M33">
         <f t="shared" ref="M33:M96" si="4">INT((K33+L33)/2)</f>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O33">
         <f t="shared" si="1"/>
-        <v>69.998736741547859</v>
+        <v>69.998744397522373</v>
       </c>
     </row>
     <row r="34" spans="9:15" x14ac:dyDescent="0.3">
@@ -7251,23 +7248,23 @@
       </c>
       <c r="J34">
         <f>($E$31*$D$29)/(I34*(M34+1))</f>
-        <v>56140.350877192985</v>
+        <v>55555.555555555555</v>
       </c>
       <c r="K34">
         <f t="shared" si="2"/>
-        <v>21.333333333333332</v>
+        <v>26.666666666666668</v>
       </c>
       <c r="L34">
         <f t="shared" si="3"/>
-        <v>16.276538387198503</v>
+        <v>20.345672983998128</v>
       </c>
       <c r="M34">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O34">
         <f t="shared" si="1"/>
-        <v>119.99786253807353</v>
+        <v>119.9978400388793</v>
       </c>
     </row>
     <row r="35" spans="9:15" x14ac:dyDescent="0.3">
@@ -7277,19 +7274,19 @@
       </c>
       <c r="J35">
         <f t="shared" ref="J35:J98" si="6">($E$31*$D$29)/(I35*(M35+1))</f>
-        <v>53781.512605042015</v>
+        <v>55363.32179930796</v>
       </c>
       <c r="K35">
         <f t="shared" si="2"/>
-        <v>15.058823529411764</v>
+        <v>18.823529411764707</v>
       </c>
       <c r="L35">
         <f t="shared" si="3"/>
-        <v>11.48932121449306</v>
+        <v>14.361651518116325</v>
       </c>
       <c r="M35">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N35">
         <f>(E34*D32)/(64534*K31)</f>
@@ -7297,7 +7294,7 @@
       </c>
       <c r="O35">
         <f>($E$31*$D$29)/((J35+1)*(M35+1))</f>
-        <v>169.99683912127259</v>
+        <v>169.99692943046216</v>
       </c>
     </row>
     <row r="36" spans="9:15" x14ac:dyDescent="0.3">
@@ -7307,27 +7304,27 @@
       </c>
       <c r="J36">
         <f t="shared" si="6"/>
-        <v>52892.561983471074</v>
+        <v>55944.055944055945</v>
       </c>
       <c r="K36">
         <f t="shared" si="2"/>
-        <v>11.636363636363637</v>
+        <v>14.545454545454545</v>
       </c>
       <c r="L36">
         <f t="shared" si="3"/>
-        <v>8.8781118475628205</v>
+        <v>11.097639809453524</v>
       </c>
       <c r="M36">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N36">
-        <f t="shared" ref="N33:N96" si="7">(E35*D33)/(64534*K33)</f>
+        <f t="shared" ref="N36:N96" si="7">(E35*D33)/(64534*K33)</f>
         <v>0</v>
       </c>
       <c r="O36">
         <f t="shared" si="1"/>
-        <v>219.99584070363673</v>
+        <v>219.99606757029218</v>
       </c>
     </row>
     <row r="37" spans="9:15" x14ac:dyDescent="0.3">
@@ -7337,19 +7334,19 @@
       </c>
       <c r="J37">
         <f t="shared" si="6"/>
-        <v>52674.897119341564</v>
+        <v>53872.053872053875</v>
       </c>
       <c r="K37">
         <f t="shared" si="2"/>
-        <v>9.481481481481481</v>
+        <v>11.851851851851851</v>
       </c>
       <c r="L37">
         <f t="shared" si="3"/>
-        <v>7.2340170609771119</v>
+        <v>9.0425213262213902</v>
       </c>
       <c r="M37">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N37">
         <f>(E36*D34)/(64534*K34)</f>
@@ -7357,7 +7354,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="1"/>
-        <v>269.99487431605792</v>
+        <v>269.99498821803121</v>
       </c>
     </row>
     <row r="38" spans="9:15" x14ac:dyDescent="0.3">
@@ -7367,19 +7364,19 @@
       </c>
       <c r="J38">
         <f t="shared" si="6"/>
-        <v>50000</v>
+        <v>55555.555555555555</v>
       </c>
       <c r="K38">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L38">
         <f t="shared" si="3"/>
-        <v>6.1037018951994382</v>
+        <v>7.6296273689992979</v>
       </c>
       <c r="M38">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N38">
         <f t="shared" si="7"/>
@@ -7387,7 +7384,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="1"/>
-        <v>319.99360012799747</v>
+        <v>319.99424010367812</v>
       </c>
     </row>
     <row r="39" spans="9:15" x14ac:dyDescent="0.3">
@@ -7397,19 +7394,19 @@
       </c>
       <c r="J39">
         <f t="shared" si="6"/>
-        <v>49420.849420849423</v>
+        <v>54054.054054054053</v>
       </c>
       <c r="K39">
         <f t="shared" si="2"/>
-        <v>6.9189189189189193</v>
+        <v>8.6486486486486491</v>
       </c>
       <c r="L39">
         <f t="shared" si="3"/>
-        <v>5.2788773147670822</v>
+        <v>6.5985966434588521</v>
       </c>
       <c r="M39">
         <f t="shared" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N39">
         <f t="shared" si="7"/>
@@ -7417,7 +7414,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="1"/>
-        <v>369.99251343273596</v>
+        <v>369.99315512663014</v>
       </c>
     </row>
     <row r="40" spans="9:15" x14ac:dyDescent="0.3">
@@ -7427,19 +7424,19 @@
       </c>
       <c r="J40">
         <f t="shared" si="6"/>
-        <v>50793.650793650791</v>
+        <v>54421.768707482996</v>
       </c>
       <c r="K40">
         <f t="shared" si="2"/>
-        <v>6.0952380952380949</v>
+        <v>7.6190476190476186</v>
       </c>
       <c r="L40">
         <f t="shared" si="3"/>
-        <v>4.6504395391995725</v>
+        <v>5.8130494239994652</v>
       </c>
       <c r="M40">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N40">
         <f t="shared" si="7"/>
@@ -7447,7 +7444,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="1"/>
-        <v>419.99173141278783</v>
+        <v>419.99228264180647</v>
       </c>
     </row>
     <row r="41" spans="9:15" x14ac:dyDescent="0.3">
@@ -7457,19 +7454,19 @@
       </c>
       <c r="J41">
         <f t="shared" si="6"/>
-        <v>54468.085106382976</v>
+        <v>48632.218844984804</v>
       </c>
       <c r="K41">
         <f t="shared" si="2"/>
-        <v>5.4468085106382977</v>
+        <v>6.8085106382978724</v>
       </c>
       <c r="L41">
         <f t="shared" si="3"/>
-        <v>4.1557119286464266</v>
+        <v>5.194639910808033</v>
       </c>
       <c r="M41">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N41">
         <f t="shared" si="7"/>
@@ -7477,7 +7474,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="1"/>
-        <v>469.99137125216845</v>
+        <v>469.99033582371959</v>
       </c>
     </row>
     <row r="42" spans="9:15" x14ac:dyDescent="0.3">
@@ -7487,19 +7484,19 @@
       </c>
       <c r="J42">
         <f t="shared" si="6"/>
-        <v>49230.769230769234</v>
+        <v>51282.051282051281</v>
       </c>
       <c r="K42">
         <f t="shared" si="2"/>
-        <v>4.9230769230769234</v>
+        <v>6.1538461538461542</v>
       </c>
       <c r="L42">
         <f t="shared" si="3"/>
-        <v>3.7561242431996544</v>
+        <v>4.6951553039995684</v>
       </c>
       <c r="M42">
         <f t="shared" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N42">
         <f t="shared" si="7"/>
@@ -7507,7 +7504,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="1"/>
-        <v>519.9894377145464</v>
+        <v>519.9898601977261</v>
       </c>
     </row>
     <row r="43" spans="9:15" x14ac:dyDescent="0.3">
@@ -7521,15 +7518,15 @@
       </c>
       <c r="K43">
         <f t="shared" si="2"/>
-        <v>4.4912280701754383</v>
+        <v>5.6140350877192979</v>
       </c>
       <c r="L43">
         <f t="shared" si="3"/>
-        <v>3.4266396604628429</v>
+        <v>4.2832995755785532</v>
       </c>
       <c r="M43">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N43">
         <f t="shared" si="7"/>
@@ -7551,15 +7548,15 @@
       </c>
       <c r="K44">
         <f t="shared" si="2"/>
-        <v>4.129032258064516</v>
+        <v>5.161290322580645</v>
       </c>
       <c r="L44">
         <f t="shared" si="3"/>
-        <v>3.1502977523610003</v>
+        <v>3.9378721904512508</v>
       </c>
       <c r="M44">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N44">
         <f t="shared" si="7"/>
@@ -7581,15 +7578,15 @@
       </c>
       <c r="K45">
         <f t="shared" si="2"/>
-        <v>3.8208955223880596</v>
+        <v>4.7761194029850742</v>
       </c>
       <c r="L45">
         <f t="shared" si="3"/>
-        <v>2.9152009051698808</v>
+        <v>3.6440011314623515</v>
       </c>
       <c r="M45">
         <f t="shared" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N45">
         <f t="shared" si="7"/>
@@ -7607,15 +7604,15 @@
       </c>
       <c r="J46">
         <f t="shared" si="6"/>
-        <v>44444.444444444445</v>
+        <v>55555.555555555555</v>
       </c>
       <c r="K46">
         <f t="shared" si="2"/>
-        <v>3.5555555555555554</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="L46">
         <f t="shared" si="3"/>
-        <v>2.7127563978664173</v>
+        <v>3.3909454973330213</v>
       </c>
       <c r="M46">
         <f t="shared" si="4"/>
@@ -7627,7 +7624,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="1"/>
-        <v>719.9838003644918</v>
+        <v>719.98704023327582</v>
       </c>
     </row>
     <row r="47" spans="9:15" x14ac:dyDescent="0.3">
@@ -7637,19 +7634,19 @@
       </c>
       <c r="J47">
         <f t="shared" si="6"/>
-        <v>55411.255411255413</v>
+        <v>51948.051948051951</v>
       </c>
       <c r="K47">
         <f t="shared" si="2"/>
-        <v>3.3246753246753249</v>
+        <v>4.1558441558441555</v>
       </c>
       <c r="L47">
         <f t="shared" si="3"/>
-        <v>2.5366033850179486</v>
+        <v>3.1707542312724355</v>
       </c>
       <c r="M47">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N47">
         <f t="shared" si="7"/>
@@ -7657,7 +7654,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="1"/>
-        <v>769.98610415702649</v>
+        <v>769.98517778532755</v>
       </c>
     </row>
     <row r="48" spans="9:15" x14ac:dyDescent="0.3">
@@ -7667,19 +7664,19 @@
       </c>
       <c r="J48">
         <f t="shared" si="6"/>
-        <v>52032.520325203252</v>
+        <v>48780.487804878052</v>
       </c>
       <c r="K48">
         <f t="shared" si="2"/>
-        <v>3.1219512195121952</v>
+        <v>3.9024390243902438</v>
       </c>
       <c r="L48">
         <f t="shared" si="3"/>
-        <v>2.3819324469070979</v>
+        <v>2.9774155586338726</v>
       </c>
       <c r="M48">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N48">
         <f t="shared" si="7"/>
@@ -7687,7 +7684,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="1"/>
-        <v>819.98424092786968</v>
+        <v>819.98319034459792</v>
       </c>
     </row>
     <row r="49" spans="9:15" x14ac:dyDescent="0.3">
@@ -7697,19 +7694,19 @@
       </c>
       <c r="J49">
         <f t="shared" si="6"/>
-        <v>49042.145593869733</v>
+        <v>45977.011494252874</v>
       </c>
       <c r="K49">
         <f t="shared" si="2"/>
-        <v>2.9425287356321839</v>
+        <v>3.6781609195402298</v>
       </c>
       <c r="L49">
         <f t="shared" si="3"/>
-        <v>2.2450397775446209</v>
+        <v>2.8062997219307761</v>
       </c>
       <c r="M49">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N49">
         <f t="shared" si="7"/>
@@ -7717,7 +7714,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="1"/>
-        <v>869.98226051796917</v>
+        <v>869.98107791155542</v>
       </c>
     </row>
     <row r="50" spans="9:15" x14ac:dyDescent="0.3">
@@ -7727,19 +7724,19 @@
       </c>
       <c r="J50">
         <f t="shared" si="6"/>
-        <v>46376.811594202896</v>
+        <v>43478.260869565216</v>
       </c>
       <c r="K50">
         <f t="shared" si="2"/>
-        <v>2.7826086956521738</v>
+        <v>3.4782608695652173</v>
       </c>
       <c r="L50">
         <f t="shared" si="3"/>
-        <v>2.1230267461563264</v>
+        <v>2.6537834326954082</v>
       </c>
       <c r="M50">
         <f t="shared" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N50">
         <f t="shared" si="7"/>
@@ -7747,7 +7744,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="1"/>
-        <v>919.98016292773684</v>
+        <v>919.97884048666879</v>
       </c>
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.3">
@@ -7757,15 +7754,15 @@
       </c>
       <c r="J51">
         <f t="shared" si="6"/>
-        <v>43986.254295532643</v>
+        <v>54982.817869415805</v>
       </c>
       <c r="K51">
         <f t="shared" si="2"/>
-        <v>2.6391752577319587</v>
+        <v>3.2989690721649483</v>
       </c>
       <c r="L51">
         <f t="shared" si="3"/>
-        <v>2.0135923777977527</v>
+        <v>2.516990472247191</v>
       </c>
       <c r="M51">
         <f t="shared" si="4"/>
@@ -7777,7 +7774,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="1"/>
-        <v>969.97794815758493</v>
+        <v>969.98235844585577</v>
       </c>
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.3">
@@ -7787,15 +7784,15 @@
       </c>
       <c r="J52">
         <f t="shared" si="6"/>
-        <v>41830.065359477121</v>
+        <v>52287.581699346403</v>
       </c>
       <c r="K52">
         <f t="shared" si="2"/>
-        <v>2.5098039215686274</v>
+        <v>3.1372549019607843</v>
       </c>
       <c r="L52">
         <f t="shared" si="3"/>
-        <v>1.9148868690821768</v>
+        <v>2.393608586352721</v>
       </c>
       <c r="M52">
         <f t="shared" si="4"/>
@@ -7807,7 +7804,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="1"/>
-        <v>1019.9756162079252</v>
+        <v>1019.9804928730738</v>
       </c>
     </row>
     <row r="53" spans="9:15" x14ac:dyDescent="0.3">
@@ -7817,15 +7814,15 @@
       </c>
       <c r="J53">
         <f t="shared" si="6"/>
-        <v>39875.389408099691</v>
+        <v>49844.236760124608</v>
       </c>
       <c r="K53">
         <f t="shared" si="2"/>
-        <v>2.3925233644859811</v>
+        <v>2.9906542056074765</v>
       </c>
       <c r="L53">
         <f t="shared" si="3"/>
-        <v>1.8254061742652525</v>
+        <v>2.2817577178315656</v>
       </c>
       <c r="M53">
         <f t="shared" si="4"/>
@@ -7837,7 +7834,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="1"/>
-        <v>1069.9731670791693</v>
+        <v>1069.9785335556708</v>
       </c>
     </row>
     <row r="54" spans="9:15" x14ac:dyDescent="0.3">
@@ -7847,15 +7844,15 @@
       </c>
       <c r="J54">
         <f t="shared" si="6"/>
-        <v>38095.238095238092</v>
+        <v>47619.047619047618</v>
       </c>
       <c r="K54">
         <f t="shared" si="2"/>
-        <v>2.2857142857142856</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="L54">
         <f t="shared" si="3"/>
-        <v>1.7439148271998395</v>
+        <v>2.1798935339997993</v>
       </c>
       <c r="M54">
         <f t="shared" si="4"/>
@@ -7867,7 +7864,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="1"/>
-        <v>1119.9706007717298</v>
+        <v>1119.9764804939098</v>
       </c>
     </row>
     <row r="55" spans="9:15" x14ac:dyDescent="0.3">
@@ -7877,19 +7874,19 @@
       </c>
       <c r="J55">
         <f t="shared" si="6"/>
-        <v>54700.854700854703</v>
+        <v>45584.045584045583</v>
       </c>
       <c r="K55">
         <f t="shared" si="2"/>
-        <v>2.1880341880341883</v>
+        <v>2.7350427350427351</v>
       </c>
       <c r="L55">
         <f t="shared" si="3"/>
-        <v>1.6693885525331797</v>
+        <v>2.0867356906664747</v>
       </c>
       <c r="M55">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N55">
         <f t="shared" si="7"/>
@@ -7897,7 +7894,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="1"/>
-        <v>1169.9786113285115</v>
+        <v>1169.9743336880547</v>
       </c>
     </row>
     <row r="56" spans="9:15" x14ac:dyDescent="0.3">
@@ -7907,19 +7904,19 @@
       </c>
       <c r="J56">
         <f t="shared" si="6"/>
-        <v>52459.016393442624</v>
+        <v>43715.846994535517</v>
       </c>
       <c r="K56">
         <f t="shared" si="2"/>
-        <v>2.098360655737705</v>
+        <v>2.622950819672131</v>
       </c>
       <c r="L56">
         <f t="shared" si="3"/>
-        <v>1.6009709889047707</v>
+        <v>2.0012137361309636</v>
       </c>
       <c r="M56">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N56">
         <f t="shared" si="7"/>
@@ -7927,7 +7924,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="1"/>
-        <v>1219.9767441933138</v>
+        <v>1219.9720931383697</v>
       </c>
     </row>
     <row r="57" spans="9:15" x14ac:dyDescent="0.3">
@@ -7937,19 +7934,19 @@
       </c>
       <c r="J57">
         <f t="shared" si="6"/>
-        <v>50393.700787401576</v>
+        <v>41994.750656167977</v>
       </c>
       <c r="K57">
         <f t="shared" si="2"/>
-        <v>2.015748031496063</v>
+        <v>2.5196850393700787</v>
       </c>
       <c r="L57">
         <f t="shared" si="3"/>
-        <v>1.5379406350108822</v>
+        <v>1.9224257937636027</v>
       </c>
       <c r="M57">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N57">
         <f t="shared" si="7"/>
@@ -7957,7 +7954,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="1"/>
-        <v>1269.9747989375835</v>
+        <v>1269.9697588451177</v>
       </c>
     </row>
     <row r="58" spans="9:15" x14ac:dyDescent="0.3">
@@ -7967,19 +7964,19 @@
       </c>
       <c r="J58">
         <f t="shared" si="6"/>
-        <v>48484.848484848488</v>
+        <v>40404.040404040403</v>
       </c>
       <c r="K58">
         <f t="shared" si="2"/>
-        <v>1.9393939393939394</v>
+        <v>2.4242424242424243</v>
       </c>
       <c r="L58">
         <f t="shared" si="3"/>
-        <v>1.4796853079271366</v>
+        <v>1.8496066349089209</v>
       </c>
       <c r="M58">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N58">
         <f t="shared" si="7"/>
@@ -7987,7 +7984,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="1"/>
-        <v>1319.972775561504</v>
+        <v>1319.9673308085623</v>
       </c>
     </row>
     <row r="59" spans="9:15" x14ac:dyDescent="0.3">
@@ -7997,19 +7994,19 @@
       </c>
       <c r="J59">
         <f t="shared" si="6"/>
-        <v>46715.328467153282</v>
+        <v>38929.440389294403</v>
       </c>
       <c r="K59">
         <f t="shared" si="2"/>
-        <v>1.8686131386861313</v>
+        <v>2.335766423357664</v>
       </c>
       <c r="L59">
         <f t="shared" si="3"/>
-        <v>1.4256821944991389</v>
+        <v>1.7821027431239236</v>
       </c>
       <c r="M59">
         <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N59">
         <f t="shared" si="7"/>
@@ -8017,7 +8014,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="1"/>
-        <v>1369.9706740652584</v>
+        <v>1369.9648090289681</v>
       </c>
     </row>
     <row r="60" spans="9:15" x14ac:dyDescent="0.3">
@@ -8027,15 +8024,15 @@
       </c>
       <c r="J60">
         <f t="shared" si="6"/>
-        <v>45070.42253521127</v>
+        <v>56338.028169014084</v>
       </c>
       <c r="K60">
         <f t="shared" si="2"/>
-        <v>1.8028169014084507</v>
+        <v>2.2535211267605635</v>
       </c>
       <c r="L60">
         <f t="shared" si="3"/>
-        <v>1.3754821172280425</v>
+        <v>1.719352646535053</v>
       </c>
       <c r="M60">
         <f t="shared" si="4"/>
@@ -8047,7 +8044,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="1"/>
-        <v>1419.9684944490293</v>
+        <v>1419.9747954473808</v>
       </c>
     </row>
     <row r="61" spans="9:15" x14ac:dyDescent="0.3">
@@ -8057,15 +8054,15 @@
       </c>
       <c r="J61">
         <f t="shared" si="6"/>
-        <v>43537.414965986398</v>
+        <v>54421.768707482996</v>
       </c>
       <c r="K61">
         <f t="shared" si="2"/>
-        <v>1.7414965986394557</v>
+        <v>2.1768707482993199</v>
       </c>
       <c r="L61">
         <f t="shared" si="3"/>
-        <v>1.3286970111998777</v>
+        <v>1.6608712639998473</v>
       </c>
       <c r="M61">
         <f t="shared" si="4"/>
@@ -8077,7 +8074,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="1"/>
-        <v>1469.9662367130004</v>
+        <v>1469.9729892463226</v>
       </c>
     </row>
     <row r="62" spans="9:15" x14ac:dyDescent="0.3">
@@ -8087,15 +8084,15 @@
       </c>
       <c r="J62">
         <f t="shared" si="6"/>
-        <v>42105.26315789474</v>
+        <v>52631.57894736842</v>
       </c>
       <c r="K62">
         <f t="shared" si="2"/>
-        <v>1.6842105263157894</v>
+        <v>2.1052631578947367</v>
       </c>
       <c r="L62">
         <f t="shared" si="3"/>
-        <v>1.284989872673566</v>
+        <v>1.6062373408419575</v>
       </c>
       <c r="M62">
         <f t="shared" si="4"/>
@@ -8107,7 +8104,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="1"/>
-        <v>1519.9639008573545</v>
+        <v>1519.9711205487097</v>
       </c>
     </row>
     <row r="63" spans="9:15" x14ac:dyDescent="0.3">
@@ -8117,15 +8114,15 @@
       </c>
       <c r="J63">
         <f t="shared" si="6"/>
-        <v>40764.331210191085</v>
+        <v>50955.414012738853</v>
       </c>
       <c r="K63">
         <f t="shared" si="2"/>
-        <v>1.6305732484076434</v>
+        <v>2.0382165605095541</v>
       </c>
       <c r="L63">
         <f t="shared" si="3"/>
-        <v>1.2440666283209048</v>
+        <v>1.5550832854011307</v>
       </c>
       <c r="M63">
         <f t="shared" si="4"/>
@@ -8137,37 +8134,37 @@
       </c>
       <c r="O63">
         <f t="shared" si="1"/>
-        <v>1569.9614868822748</v>
-      </c>
-    </row>
-    <row r="64" spans="9:15" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="I64" s="7">
+        <v>1569.969189354659</v>
+      </c>
+    </row>
+    <row r="64" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I64">
         <f t="shared" si="5"/>
         <v>1620</v>
       </c>
       <c r="J64">
         <f t="shared" si="6"/>
-        <v>39506.172839506173</v>
-      </c>
-      <c r="K64" s="7">
+        <v>49382.716049382718</v>
+      </c>
+      <c r="K64">
         <f t="shared" si="2"/>
-        <v>1.5802469135802468</v>
-      </c>
-      <c r="L64" s="7">
+        <v>1.9753086419753085</v>
+      </c>
+      <c r="L64">
         <f t="shared" si="3"/>
-        <v>1.2056695101628521</v>
+        <v>1.507086887703565</v>
       </c>
       <c r="M64">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="N64" s="7">
+      <c r="N64">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="O64" s="7">
+      <c r="O64">
         <f t="shared" si="1"/>
-        <v>1619.9589947879444</v>
+        <v>1619.9671956642878</v>
       </c>
     </row>
     <row r="65" spans="9:15" x14ac:dyDescent="0.3">
@@ -8177,15 +8174,15 @@
       </c>
       <c r="J65">
         <f t="shared" si="6"/>
-        <v>38323.353293413173</v>
+        <v>47904.191616766468</v>
       </c>
       <c r="K65">
         <f t="shared" si="2"/>
-        <v>1.532934131736527</v>
+        <v>1.9161676646706587</v>
       </c>
       <c r="L65">
         <f t="shared" si="3"/>
-        <v>1.1695716206370181</v>
+        <v>1.4619645257962728</v>
       </c>
       <c r="M65">
         <f t="shared" si="4"/>
@@ -8197,7 +8194,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="1"/>
-        <v>1669.9564245745462</v>
+        <v>1669.9651394777134</v>
       </c>
     </row>
     <row r="66" spans="9:15" x14ac:dyDescent="0.3">
@@ -8207,15 +8204,15 @@
       </c>
       <c r="J66">
         <f t="shared" si="6"/>
-        <v>37209.302325581397</v>
+        <v>46511.627906976741</v>
       </c>
       <c r="K66">
         <f t="shared" si="2"/>
-        <v>1.4883720930232558</v>
+        <v>1.8604651162790697</v>
       </c>
       <c r="L66">
         <f t="shared" si="3"/>
-        <v>1.1355724456185001</v>
+        <v>1.4194655570231252</v>
       </c>
       <c r="M66">
         <f t="shared" si="4"/>
@@ -8227,7 +8224,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="1"/>
-        <v>1719.9537762422635</v>
+        <v>1719.9630207950531</v>
       </c>
     </row>
     <row r="67" spans="9:15" x14ac:dyDescent="0.3">
@@ -8237,15 +8234,15 @@
       </c>
       <c r="J67">
         <f t="shared" si="6"/>
-        <v>36158.192090395482</v>
+        <v>45197.740112994354</v>
       </c>
       <c r="K67">
         <f t="shared" si="2"/>
-        <v>1.4463276836158192</v>
+        <v>1.807909604519774</v>
       </c>
       <c r="L67">
         <f t="shared" si="3"/>
-        <v>1.1034941279456612</v>
+        <v>1.3793676599320766</v>
       </c>
       <c r="M67">
         <f t="shared" si="4"/>
@@ -8257,7 +8254,7 @@
       </c>
       <c r="O67">
         <f t="shared" si="1"/>
-        <v>1769.951049791279</v>
+        <v>1769.9608396164233</v>
       </c>
     </row>
     <row r="68" spans="9:15" x14ac:dyDescent="0.3">
@@ -8267,15 +8264,15 @@
       </c>
       <c r="J68">
         <f t="shared" si="6"/>
-        <v>35164.835164835167</v>
+        <v>43956.043956043955</v>
       </c>
       <c r="K68">
         <f t="shared" si="2"/>
-        <v>1.4065934065934067</v>
+        <v>1.7582417582417582</v>
       </c>
       <c r="L68">
         <f t="shared" si="3"/>
-        <v>1.0731783551999012</v>
+        <v>1.3414729439998765</v>
       </c>
       <c r="M68">
         <f t="shared" si="4"/>
@@ -8287,7 +8284,7 @@
       </c>
       <c r="O68">
         <f t="shared" si="1"/>
-        <v>1819.9482452217765</v>
+        <v>1819.9585959419423</v>
       </c>
     </row>
     <row r="69" spans="9:15" x14ac:dyDescent="0.3">
@@ -8297,15 +8294,15 @@
       </c>
       <c r="J69">
         <f t="shared" si="6"/>
-        <v>34224.598930481283</v>
+        <v>42780.748663101607</v>
       </c>
       <c r="K69">
         <f t="shared" si="2"/>
-        <v>1.3689839572192513</v>
+        <v>1.7112299465240641</v>
       </c>
       <c r="L69">
         <f t="shared" si="3"/>
-        <v>1.0444837467720964</v>
+        <v>1.3056046834651205</v>
       </c>
       <c r="M69">
         <f t="shared" si="4"/>
@@ -8317,7 +8314,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="1"/>
-        <v>1869.9453625339386</v>
+        <v>1869.9562897717265</v>
       </c>
     </row>
     <row r="70" spans="9:15" x14ac:dyDescent="0.3">
@@ -8327,15 +8324,15 @@
       </c>
       <c r="J70">
         <f t="shared" si="6"/>
-        <v>33333.333333333336</v>
+        <v>41666.666666666664</v>
       </c>
       <c r="K70">
         <f t="shared" si="2"/>
-        <v>1.3333333333333333</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="L70">
         <f t="shared" si="3"/>
-        <v>1.0172836491999064</v>
+        <v>1.271604561499883</v>
       </c>
       <c r="M70">
         <f t="shared" si="4"/>
@@ -8347,7 +8344,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="1"/>
-        <v>1919.942401727948</v>
+        <v>1919.9539211058936</v>
       </c>
     </row>
     <row r="71" spans="9:15" x14ac:dyDescent="0.3">
@@ -8357,15 +8354,15 @@
       </c>
       <c r="J71">
         <f t="shared" si="6"/>
-        <v>32487.309644670051</v>
+        <v>40609.137055837564</v>
       </c>
       <c r="K71">
         <f t="shared" si="2"/>
-        <v>1.2994923857868019</v>
+        <v>1.6243654822335025</v>
       </c>
       <c r="L71">
         <f t="shared" si="3"/>
-        <v>0.99146426724051795</v>
+        <v>1.2393303340506474</v>
       </c>
       <c r="M71">
         <f t="shared" si="4"/>
@@ -8377,7 +8374,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="1"/>
-        <v>1969.9393628039886</v>
+        <v>1969.9514899445601</v>
       </c>
     </row>
     <row r="72" spans="9:15" x14ac:dyDescent="0.3">
@@ -8387,15 +8384,15 @@
       </c>
       <c r="J72">
         <f t="shared" si="6"/>
-        <v>31683.168316831685</v>
+        <v>39603.960396039605</v>
       </c>
       <c r="K72">
         <f t="shared" si="2"/>
-        <v>1.2673267326732673</v>
+        <v>1.5841584158415842</v>
       </c>
       <c r="L72">
         <f t="shared" si="3"/>
-        <v>0.96692307250684173</v>
+        <v>1.2086538406335521</v>
       </c>
       <c r="M72">
         <f t="shared" si="4"/>
@@ -8407,7 +8404,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="1"/>
-        <v>2019.9362457622431</v>
+        <v>2019.9489962878436</v>
       </c>
     </row>
     <row r="73" spans="9:15" x14ac:dyDescent="0.3">
@@ -8417,15 +8414,15 @@
       </c>
       <c r="J73">
         <f t="shared" si="6"/>
-        <v>30917.874396135267</v>
+        <v>38647.342995169085</v>
       </c>
       <c r="K73">
         <f t="shared" si="2"/>
-        <v>1.2367149758454106</v>
+        <v>1.5458937198067633</v>
       </c>
       <c r="L73">
         <f t="shared" si="3"/>
-        <v>0.94356744273614512</v>
+        <v>1.1794593034201812</v>
       </c>
       <c r="M73">
         <f t="shared" si="4"/>
@@ -8437,7 +8434,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="1"/>
-        <v>2069.9330506028946</v>
+        <v>2069.9464401358614</v>
       </c>
     </row>
     <row r="74" spans="9:15" x14ac:dyDescent="0.3">
@@ -8447,15 +8444,15 @@
       </c>
       <c r="J74">
         <f t="shared" si="6"/>
-        <v>30188.67924528302</v>
+        <v>37735.849056603773</v>
       </c>
       <c r="K74">
         <f t="shared" si="2"/>
-        <v>1.2075471698113207</v>
+        <v>1.5094339622641511</v>
       </c>
       <c r="L74">
         <f t="shared" si="3"/>
-        <v>0.92131349361500958</v>
+        <v>1.151641867018762</v>
       </c>
       <c r="M74">
         <f t="shared" si="4"/>
@@ -8467,7 +8464,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="1"/>
-        <v>2119.929777326126</v>
+        <v>2119.9438214887305</v>
       </c>
     </row>
     <row r="75" spans="9:15" x14ac:dyDescent="0.3">
@@ -8477,15 +8474,15 @@
       </c>
       <c r="J75">
         <f t="shared" si="6"/>
-        <v>29493.087557603685</v>
+        <v>36866.359447004608</v>
       </c>
       <c r="K75">
         <f t="shared" si="2"/>
-        <v>1.1797235023041475</v>
+        <v>1.4746543778801844</v>
       </c>
       <c r="L75">
         <f t="shared" si="3"/>
-        <v>0.90008507210314304</v>
+        <v>1.1251063401289287</v>
       </c>
       <c r="M75">
         <f t="shared" si="4"/>
@@ -8497,7 +8494,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="1"/>
-        <v>2169.9264259321208</v>
+        <v>2169.9411403465683</v>
       </c>
     </row>
     <row r="76" spans="9:15" x14ac:dyDescent="0.3">
@@ -8507,15 +8504,15 @@
       </c>
       <c r="J76">
         <f t="shared" si="6"/>
-        <v>28828.828828828828</v>
+        <v>36036.036036036036</v>
       </c>
       <c r="K76">
         <f t="shared" si="2"/>
-        <v>1.1531531531531531</v>
+        <v>1.4414414414414414</v>
       </c>
       <c r="L76">
         <f t="shared" si="3"/>
-        <v>0.87981288579451367</v>
+        <v>1.0997661072431422</v>
       </c>
       <c r="M76">
         <f t="shared" si="4"/>
@@ -8527,7 +8524,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="1"/>
-        <v>2219.9229964210617</v>
+        <v>2219.9383967094914</v>
       </c>
     </row>
     <row r="77" spans="9:15" x14ac:dyDescent="0.3">
@@ -8537,19 +8534,19 @@
       </c>
       <c r="J77">
         <f t="shared" si="6"/>
-        <v>56387.665198237883</v>
+        <v>35242.290748898675</v>
       </c>
       <c r="K77">
         <f t="shared" si="2"/>
-        <v>1.1277533039647578</v>
+        <v>1.4096916299559472</v>
       </c>
       <c r="L77">
         <f t="shared" si="3"/>
-        <v>0.86043374734088995</v>
+        <v>1.0755421841761126</v>
       </c>
       <c r="M77">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77">
         <f t="shared" si="7"/>
@@ -8557,7 +8554,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="1"/>
-        <v>2269.9597436826707</v>
+        <v>2269.9355905776174</v>
       </c>
     </row>
     <row r="78" spans="9:15" x14ac:dyDescent="0.3">
@@ -8567,19 +8564,19 @@
       </c>
       <c r="J78">
         <f t="shared" si="6"/>
-        <v>55172.413793103449</v>
+        <v>34482.758620689652</v>
       </c>
       <c r="K78">
         <f t="shared" si="2"/>
-        <v>1.103448275862069</v>
+        <v>1.3793103448275863</v>
       </c>
       <c r="L78">
         <f t="shared" si="3"/>
-        <v>0.84188991657923284</v>
+        <v>1.0523623957240411</v>
       </c>
       <c r="M78">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N78">
         <f t="shared" si="7"/>
@@ -8587,7 +8584,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="1"/>
-        <v>2319.9579507621424</v>
+        <v>2319.9327219510637</v>
       </c>
     </row>
     <row r="79" spans="9:15" x14ac:dyDescent="0.3">
@@ -8597,19 +8594,19 @@
       </c>
       <c r="J79">
         <f t="shared" si="6"/>
-        <v>54008.438818565402</v>
+        <v>33755.274261603372</v>
       </c>
       <c r="K79">
         <f t="shared" si="2"/>
-        <v>1.0801687763713079</v>
+        <v>1.350210970464135</v>
       </c>
       <c r="L79">
         <f t="shared" si="3"/>
-        <v>0.82412852593410135</v>
+        <v>1.0301606574176267</v>
       </c>
       <c r="M79">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N79">
         <f t="shared" si="7"/>
@@ -8617,7 +8614,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="1"/>
-        <v>2369.9561187812383</v>
+        <v>2369.9297908299468</v>
       </c>
     </row>
     <row r="80" spans="9:15" x14ac:dyDescent="0.3">
@@ -8627,19 +8624,19 @@
       </c>
       <c r="J80">
         <f t="shared" si="6"/>
-        <v>52892.561983471074</v>
+        <v>33057.85123966942</v>
       </c>
       <c r="K80">
         <f t="shared" si="2"/>
-        <v>1.0578512396694215</v>
+        <v>1.3223140495867769</v>
       </c>
       <c r="L80">
         <f t="shared" si="3"/>
-        <v>0.80710107705116541</v>
+        <v>1.0088763463139567</v>
       </c>
       <c r="M80">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80">
         <f t="shared" si="7"/>
@@ -8647,7 +8644,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="1"/>
-        <v>2419.9542477400037</v>
+        <v>2419.9267972143844</v>
       </c>
     </row>
     <row r="81" spans="9:15" x14ac:dyDescent="0.3">
@@ -8657,19 +8654,19 @@
       </c>
       <c r="J81">
         <f t="shared" si="6"/>
-        <v>51821.86234817814</v>
+        <v>32388.663967611337</v>
       </c>
       <c r="K81">
         <f t="shared" si="2"/>
-        <v>1.0364372469635628</v>
+        <v>1.2955465587044535</v>
       </c>
       <c r="L81">
         <f t="shared" si="3"/>
-        <v>0.79076299856834831</v>
+        <v>0.98845374821043541</v>
       </c>
       <c r="M81">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N81">
         <f t="shared" si="7"/>
@@ -8677,7 +8674,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="1"/>
-        <v>2469.9523376384846</v>
+        <v>2469.9237411044933</v>
       </c>
     </row>
     <row r="82" spans="9:15" x14ac:dyDescent="0.3">
@@ -8687,19 +8684,19 @@
       </c>
       <c r="J82">
         <f t="shared" si="6"/>
-        <v>50793.650793650791</v>
+        <v>31746.031746031746</v>
       </c>
       <c r="K82">
         <f t="shared" si="2"/>
-        <v>1.0158730158730158</v>
+        <v>1.2698412698412698</v>
       </c>
       <c r="L82">
         <f t="shared" si="3"/>
-        <v>0.77507325653326198</v>
+        <v>0.9688415706665775</v>
       </c>
       <c r="M82">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82">
         <f t="shared" si="7"/>
@@ -8707,7 +8704,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="1"/>
-        <v>2519.9503884767269</v>
+        <v>2519.9206225003913</v>
       </c>
     </row>
     <row r="83" spans="9:15" x14ac:dyDescent="0.3">
@@ -8717,19 +8714,19 @@
       </c>
       <c r="J83">
         <f t="shared" si="6"/>
-        <v>49805.447470817118</v>
+        <v>31128.404669260701</v>
       </c>
       <c r="K83">
         <f t="shared" si="2"/>
-        <v>0.99610894941634243</v>
+        <v>1.245136186770428</v>
       </c>
       <c r="L83">
         <f t="shared" si="3"/>
-        <v>0.75999401029720637</v>
+        <v>0.94999251287150788</v>
       </c>
       <c r="M83">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N83">
         <f t="shared" si="7"/>
@@ -8737,7 +8734,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="1"/>
-        <v>2569.9484002547761</v>
+        <v>2569.917441402195</v>
       </c>
     </row>
     <row r="84" spans="9:15" x14ac:dyDescent="0.3">
@@ -8747,19 +8744,19 @@
       </c>
       <c r="J84">
         <f t="shared" si="6"/>
-        <v>48854.961832061068</v>
+        <v>30534.351145038167</v>
       </c>
       <c r="K84">
         <f t="shared" si="2"/>
-        <v>0.97709923664122134</v>
+        <v>1.2213740458015268</v>
       </c>
       <c r="L84">
         <f t="shared" si="3"/>
-        <v>0.74549030781061842</v>
+        <v>0.93186288476327306</v>
       </c>
       <c r="M84">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84">
         <f t="shared" si="7"/>
@@ -8767,7 +8764,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="1"/>
-        <v>2619.9463729726781</v>
+        <v>2619.914197810022</v>
       </c>
     </row>
     <row r="85" spans="9:15" x14ac:dyDescent="0.3">
@@ -8777,19 +8774,19 @@
       </c>
       <c r="J85">
         <f t="shared" si="6"/>
-        <v>47940.074906367045</v>
+        <v>29962.5468164794</v>
       </c>
       <c r="K85">
         <f t="shared" si="2"/>
-        <v>0.95880149812734083</v>
+        <v>1.1985018726591761</v>
       </c>
       <c r="L85">
         <f t="shared" si="3"/>
-        <v>0.73152981515498883</v>
+        <v>0.91441226894373606</v>
       </c>
       <c r="M85">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85">
         <f t="shared" si="7"/>
@@ -8797,7 +8794,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="1"/>
-        <v>2669.9443066304789</v>
+        <v>2669.9108917239887</v>
       </c>
     </row>
     <row r="86" spans="9:15" x14ac:dyDescent="0.3">
@@ -8807,19 +8804,19 @@
       </c>
       <c r="J86">
         <f t="shared" si="6"/>
-        <v>47058.823529411762</v>
+        <v>29411.764705882353</v>
       </c>
       <c r="K86">
         <f t="shared" si="2"/>
-        <v>0.94117647058823528</v>
+        <v>1.1764705882352942</v>
       </c>
       <c r="L86">
         <f t="shared" si="3"/>
-        <v>0.71808257590581626</v>
+        <v>0.89760321988227032</v>
       </c>
       <c r="M86">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N86">
         <f t="shared" si="7"/>
@@ -8827,7 +8824,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="1"/>
-        <v>2719.9422012282239</v>
+        <v>2719.907523144213</v>
       </c>
     </row>
     <row r="87" spans="9:15" x14ac:dyDescent="0.3">
@@ -8837,19 +8834,19 @@
       </c>
       <c r="J87">
         <f t="shared" si="6"/>
-        <v>46209.386281588449</v>
+        <v>28880.866425992779</v>
       </c>
       <c r="K87">
         <f t="shared" si="2"/>
-        <v>0.92418772563176899</v>
+        <v>1.1552346570397112</v>
       </c>
       <c r="L87">
         <f t="shared" si="3"/>
-        <v>0.70512079655733584</v>
+        <v>0.88140099569666985</v>
       </c>
       <c r="M87">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N87">
         <f t="shared" si="7"/>
@@ -8857,7 +8854,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="1"/>
-        <v>2769.9400567659591</v>
+        <v>2769.9040920708121</v>
       </c>
     </row>
     <row r="88" spans="9:15" x14ac:dyDescent="0.3">
@@ -8867,19 +8864,19 @@
       </c>
       <c r="J88">
         <f t="shared" si="6"/>
-        <v>45390.070921985818</v>
+        <v>28368.794326241135</v>
       </c>
       <c r="K88">
         <f t="shared" si="2"/>
-        <v>0.90780141843971629</v>
+        <v>1.1347517730496455</v>
       </c>
       <c r="L88">
         <f t="shared" si="3"/>
-        <v>0.69261865477440432</v>
+        <v>0.86577331846800543</v>
       </c>
       <c r="M88">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N88">
         <f t="shared" si="7"/>
@@ -8887,7 +8884,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="1"/>
-        <v>2819.9378732437299</v>
+        <v>2819.9005985039025</v>
       </c>
     </row>
     <row r="89" spans="9:15" x14ac:dyDescent="0.3">
@@ -8897,15 +8894,15 @@
       </c>
       <c r="J89">
         <f t="shared" si="6"/>
-        <v>44599.303135888498</v>
+        <v>55749.128919860625</v>
       </c>
       <c r="K89">
         <f t="shared" si="2"/>
-        <v>0.89198606271777003</v>
+        <v>1.1149825783972125</v>
       </c>
       <c r="L89">
         <f t="shared" si="3"/>
-        <v>0.68055212768774231</v>
+        <v>0.85069015960967787</v>
       </c>
       <c r="M89">
         <f t="shared" si="4"/>
@@ -8917,7 +8914,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="1"/>
-        <v>2869.9356506615832</v>
+        <v>2869.9485202984174</v>
       </c>
     </row>
     <row r="90" spans="9:15" x14ac:dyDescent="0.3">
@@ -8927,15 +8924,15 @@
       </c>
       <c r="J90">
         <f t="shared" si="6"/>
-        <v>43835.616438356163</v>
+        <v>54794.520547945205</v>
       </c>
       <c r="K90">
         <f t="shared" si="2"/>
-        <v>0.87671232876712324</v>
+        <v>1.095890410958904</v>
       </c>
       <c r="L90">
         <f t="shared" si="3"/>
-        <v>0.66889883783007542</v>
+        <v>0.8361235472875943</v>
       </c>
       <c r="M90">
         <f t="shared" si="4"/>
@@ -8947,7 +8944,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="1"/>
-        <v>2919.933389019563</v>
+        <v>2919.9467109725247</v>
       </c>
     </row>
     <row r="91" spans="9:15" x14ac:dyDescent="0.3">
@@ -8957,15 +8954,15 @@
       </c>
       <c r="J91">
         <f t="shared" si="6"/>
-        <v>43097.6430976431</v>
+        <v>53872.053872053875</v>
       </c>
       <c r="K91">
         <f t="shared" si="2"/>
-        <v>0.86195286195286192</v>
+        <v>1.0774410774410774</v>
       </c>
       <c r="L91">
         <f t="shared" si="3"/>
-        <v>0.65763791463428289</v>
+        <v>0.8220473932928537</v>
       </c>
       <c r="M91">
         <f t="shared" si="4"/>
@@ -8977,7 +8974,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="1"/>
-        <v>2969.9310883177163</v>
+        <v>2969.944870398343</v>
       </c>
     </row>
     <row r="92" spans="9:15" x14ac:dyDescent="0.3">
@@ -8987,15 +8984,15 @@
       </c>
       <c r="J92">
         <f t="shared" si="6"/>
-        <v>42384.105960264904</v>
+        <v>52980.132450331126</v>
       </c>
       <c r="K92">
         <f t="shared" si="2"/>
-        <v>0.84768211920529801</v>
+        <v>1.0596026490066226</v>
       </c>
       <c r="L92">
         <f t="shared" si="3"/>
-        <v>0.6467498696900067</v>
+        <v>0.80843733711250843</v>
       </c>
       <c r="M92">
         <f t="shared" si="4"/>
@@ -9007,7 +9004,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="1"/>
-        <v>3019.9287485560885</v>
+        <v>3019.942998575902</v>
       </c>
     </row>
     <row r="93" spans="9:15" x14ac:dyDescent="0.3">
@@ -9017,15 +9014,15 @@
       </c>
       <c r="J93">
         <f t="shared" si="6"/>
-        <v>41693.811074918565</v>
+        <v>52117.263843648208</v>
       </c>
       <c r="K93">
         <f t="shared" si="2"/>
-        <v>0.83387622149837137</v>
+        <v>1.0423452768729642</v>
       </c>
       <c r="L93">
         <f t="shared" si="3"/>
-        <v>0.63621648419016952</v>
+        <v>0.79527060523771187</v>
       </c>
       <c r="M93">
         <f t="shared" si="4"/>
@@ -9037,7 +9034,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="1"/>
-        <v>3069.926369734726</v>
+        <v>3069.9410955052299</v>
       </c>
     </row>
     <row r="94" spans="9:15" x14ac:dyDescent="0.3">
@@ -9047,15 +9044,15 @@
       </c>
       <c r="J94">
         <f t="shared" si="6"/>
-        <v>41025.641025641024</v>
+        <v>51282.051282051281</v>
       </c>
       <c r="K94">
         <f t="shared" si="2"/>
-        <v>0.82051282051282048</v>
+        <v>1.0256410256410255</v>
       </c>
       <c r="L94">
         <f t="shared" si="3"/>
-        <v>0.62602070719994241</v>
+        <v>0.78252588399992806</v>
       </c>
       <c r="M94">
         <f t="shared" si="4"/>
@@ -9067,7 +9064,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="1"/>
-        <v>3119.9239518536738</v>
+        <v>3119.9391611863571</v>
       </c>
     </row>
     <row r="95" spans="9:15" x14ac:dyDescent="0.3">
@@ -9077,15 +9074,15 @@
       </c>
       <c r="J95">
         <f t="shared" si="6"/>
-        <v>40378.548895899054</v>
+        <v>50473.186119873819</v>
       </c>
       <c r="K95">
         <f t="shared" si="2"/>
-        <v>0.80757097791798105</v>
+        <v>1.0094637223974763</v>
       </c>
       <c r="L95">
         <f t="shared" si="3"/>
-        <v>0.61614656355325559</v>
+        <v>0.77018320444156951</v>
       </c>
       <c r="M95">
         <f t="shared" si="4"/>
@@ -9097,7 +9094,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="1"/>
-        <v>3169.9214949129773</v>
+        <v>3169.9371956193118</v>
       </c>
     </row>
     <row r="96" spans="9:15" x14ac:dyDescent="0.3">
@@ -9107,15 +9104,15 @@
       </c>
       <c r="J96">
         <f t="shared" si="6"/>
-        <v>39751.552795031057</v>
+        <v>49689.440993788819</v>
       </c>
       <c r="K96">
         <f t="shared" si="2"/>
-        <v>0.79503105590062106</v>
+        <v>0.99378881987577639</v>
       </c>
       <c r="L96">
         <f t="shared" ref="L96:L159" si="8">($E$31*$D$29)/(65534*I96)</f>
-        <v>0.60657907033037894</v>
+        <v>0.75822383791297376</v>
       </c>
       <c r="M96">
         <f t="shared" si="4"/>
@@ -9127,7 +9124,7 @@
       </c>
       <c r="O96">
         <f t="shared" ref="O96:O159" si="9">($E$31*$D$29)/((J96+1)*(M96+1))</f>
-        <v>3219.9189989126835</v>
+        <v>3219.935198804124</v>
       </c>
     </row>
     <row r="97" spans="9:15" x14ac:dyDescent="0.3">
@@ -9137,15 +9134,15 @@
       </c>
       <c r="J97">
         <f t="shared" si="6"/>
-        <v>39143.73088685015</v>
+        <v>48929.663608562689</v>
       </c>
       <c r="K97">
         <f t="shared" ref="K97:K160" si="10">($E$31*$D$29)/(50000*I97)</f>
-        <v>0.78287461773700306</v>
+        <v>0.9785932721712538</v>
       </c>
       <c r="L97">
         <f t="shared" si="8"/>
-        <v>0.59730416099811023</v>
+        <v>0.74663020124763768</v>
       </c>
       <c r="M97">
         <f t="shared" ref="M97:M160" si="11">INT((K97+L97)/2)</f>
@@ -9157,7 +9154,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="9"/>
-        <v>3269.9164638528378</v>
+        <v>3269.9331707408232</v>
       </c>
     </row>
     <row r="98" spans="9:15" x14ac:dyDescent="0.3">
@@ -9167,15 +9164,15 @@
       </c>
       <c r="J98">
         <f t="shared" si="6"/>
-        <v>38554.216867469877</v>
+        <v>48192.77108433735</v>
       </c>
       <c r="K98">
         <f t="shared" si="10"/>
-        <v>0.77108433734939763</v>
+        <v>0.96385542168674698</v>
       </c>
       <c r="L98">
         <f t="shared" si="8"/>
-        <v>0.58830861640476517</v>
+        <v>0.73538577050595644</v>
       </c>
       <c r="M98">
         <f t="shared" si="11"/>
@@ -9187,7 +9184,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="9"/>
-        <v>3319.9138897334851</v>
+        <v>3319.9311114294378</v>
       </c>
     </row>
     <row r="99" spans="9:15" x14ac:dyDescent="0.3">
@@ -9197,15 +9194,15 @@
       </c>
       <c r="J99">
         <f t="shared" ref="J99:J162" si="14">($E$31*$D$29)/(I99*(M99+1))</f>
-        <v>37982.19584569733</v>
+        <v>47477.744807121664</v>
       </c>
       <c r="K99">
         <f t="shared" si="10"/>
-        <v>0.75964391691394662</v>
+        <v>0.94955489614243327</v>
       </c>
       <c r="L99">
         <f t="shared" si="8"/>
-        <v>0.57958000191804759</v>
+        <v>0.72447500239755946</v>
       </c>
       <c r="M99">
         <f t="shared" si="11"/>
@@ -9217,7 +9214,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="9"/>
-        <v>3369.911276554672</v>
+        <v>3369.9290208699977</v>
       </c>
     </row>
     <row r="100" spans="9:15" x14ac:dyDescent="0.3">
@@ -9227,15 +9224,15 @@
       </c>
       <c r="J100">
         <f t="shared" si="14"/>
-        <v>37426.900584795323</v>
+        <v>46783.62573099415</v>
       </c>
       <c r="K100">
         <f t="shared" si="10"/>
-        <v>0.74853801169590639</v>
+        <v>0.93567251461988299</v>
       </c>
       <c r="L100">
         <f t="shared" si="8"/>
-        <v>0.57110661007714048</v>
+        <v>0.71388326259642554</v>
       </c>
       <c r="M100">
         <f t="shared" si="11"/>
@@ -9247,7 +9244,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="9"/>
-        <v>3419.9086243164438</v>
+        <v>3419.9268990625328</v>
       </c>
     </row>
     <row r="101" spans="9:15" x14ac:dyDescent="0.3">
@@ -9257,15 +9254,15 @@
       </c>
       <c r="J101">
         <f t="shared" si="14"/>
-        <v>36887.608069164264</v>
+        <v>46109.510086455331</v>
       </c>
       <c r="K101">
         <f t="shared" si="10"/>
-        <v>0.73775216138328525</v>
+        <v>0.9221902017291066</v>
       </c>
       <c r="L101">
         <f t="shared" si="8"/>
-        <v>0.56287740820283005</v>
+        <v>0.70359676025353757</v>
       </c>
       <c r="M101">
         <f t="shared" si="11"/>
@@ -9277,7 +9274,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="9"/>
-        <v>3469.905933018847</v>
+        <v>3469.924746007071</v>
       </c>
     </row>
     <row r="102" spans="9:15" x14ac:dyDescent="0.3">
@@ -9287,15 +9284,15 @@
       </c>
       <c r="J102">
         <f t="shared" si="14"/>
-        <v>36363.63636363636</v>
+        <v>45454.545454545456</v>
       </c>
       <c r="K102">
         <f t="shared" si="10"/>
-        <v>0.72727272727272729</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="L102">
         <f t="shared" si="8"/>
-        <v>0.55488199047267628</v>
+        <v>0.69360248809084524</v>
       </c>
       <c r="M102">
         <f t="shared" si="11"/>
@@ -9307,7 +9304,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="9"/>
-        <v>3519.903202661927</v>
+        <v>3519.9225617036423</v>
       </c>
     </row>
     <row r="103" spans="9:15" x14ac:dyDescent="0.3">
@@ -9317,15 +9314,15 @@
       </c>
       <c r="J103">
         <f t="shared" si="14"/>
-        <v>35854.341736694681</v>
+        <v>44817.927170868345</v>
       </c>
       <c r="K103">
         <f t="shared" si="10"/>
-        <v>0.71708683473389356</v>
+        <v>0.89635854341736698</v>
       </c>
       <c r="L103">
         <f t="shared" si="8"/>
-        <v>0.54711053402347909</v>
+        <v>0.68388816752934889</v>
       </c>
       <c r="M103">
         <f t="shared" si="11"/>
@@ -9337,7 +9334,7 @@
       </c>
       <c r="O103">
         <f t="shared" si="9"/>
-        <v>3569.9004332457284</v>
+        <v>3569.9203461522766</v>
       </c>
     </row>
     <row r="104" spans="9:15" x14ac:dyDescent="0.3">
@@ -9347,15 +9344,15 @@
       </c>
       <c r="J104">
         <f t="shared" si="14"/>
-        <v>35359.11602209945</v>
+        <v>44198.895027624312</v>
       </c>
       <c r="K104">
         <f t="shared" si="10"/>
-        <v>0.70718232044198892</v>
+        <v>0.88397790055248615</v>
       </c>
       <c r="L104">
         <f t="shared" si="8"/>
-        <v>0.53955375869166311</v>
+        <v>0.67444219836457886</v>
       </c>
       <c r="M104">
         <f t="shared" si="11"/>
@@ -9367,7 +9364,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="9"/>
-        <v>3619.8976247702994</v>
+        <v>3619.9180993530017</v>
       </c>
     </row>
     <row r="105" spans="9:15" x14ac:dyDescent="0.3">
@@ -9377,15 +9374,15 @@
       </c>
       <c r="J105">
         <f t="shared" si="14"/>
-        <v>34877.384196185289</v>
+        <v>43596.730245231607</v>
       </c>
       <c r="K105">
         <f t="shared" si="10"/>
-        <v>0.6975476839237057</v>
+        <v>0.87193460490463215</v>
       </c>
       <c r="L105">
         <f t="shared" si="8"/>
-        <v>0.53220289004463772</v>
+        <v>0.66525361255579707</v>
       </c>
       <c r="M105">
         <f t="shared" si="11"/>
@@ -9397,7 +9394,7 @@
       </c>
       <c r="O105">
         <f t="shared" si="9"/>
-        <v>3669.8947772356837</v>
+        <v>3669.915821305849</v>
       </c>
     </row>
     <row r="106" spans="9:15" x14ac:dyDescent="0.3">
@@ -9407,15 +9404,15 @@
       </c>
       <c r="J106">
         <f t="shared" si="14"/>
-        <v>34408.602150537634</v>
+        <v>43010.752688172041</v>
       </c>
       <c r="K106">
         <f t="shared" si="10"/>
-        <v>0.68817204301075274</v>
+        <v>0.86021505376344087</v>
       </c>
       <c r="L106">
         <f t="shared" si="8"/>
-        <v>0.52504962539350009</v>
+        <v>0.65631203174187513</v>
       </c>
       <c r="M106">
         <f t="shared" si="11"/>
@@ -9427,7 +9424,7 @@
       </c>
       <c r="O106">
         <f t="shared" si="9"/>
-        <v>3719.8918906419281</v>
+        <v>3719.9135120108458</v>
       </c>
     </row>
     <row r="107" spans="9:15" x14ac:dyDescent="0.3">
@@ -9437,15 +9434,15 @@
       </c>
       <c r="J107">
         <f t="shared" si="14"/>
-        <v>33952.254641909814</v>
+        <v>42440.31830238727</v>
       </c>
       <c r="K107">
         <f t="shared" si="10"/>
-        <v>0.67904509283819625</v>
+        <v>0.8488063660477454</v>
       </c>
       <c r="L107">
         <f t="shared" si="8"/>
-        <v>0.51808610251029719</v>
+        <v>0.64760762813787143</v>
       </c>
       <c r="M107">
         <f t="shared" si="11"/>
@@ -9457,7 +9454,7 @@
       </c>
       <c r="O107">
         <f t="shared" si="9"/>
-        <v>3769.888964989078</v>
+        <v>3769.9111714680221</v>
       </c>
     </row>
     <row r="108" spans="9:15" x14ac:dyDescent="0.3">
@@ -9467,15 +9464,15 @@
       </c>
       <c r="J108">
         <f t="shared" si="14"/>
-        <v>33507.853403141358</v>
+        <v>41884.816753926701</v>
       </c>
       <c r="K108">
         <f t="shared" si="10"/>
-        <v>0.67015706806282727</v>
+        <v>0.83769633507853403</v>
       </c>
       <c r="L108">
         <f t="shared" si="8"/>
-        <v>0.51130487080204723</v>
+        <v>0.63913108850255895</v>
       </c>
       <c r="M108">
         <f t="shared" si="11"/>
@@ -9487,7 +9484,7 @@
       </c>
       <c r="O108">
         <f t="shared" si="9"/>
-        <v>3819.8860002771794</v>
+        <v>3819.9087996774078</v>
       </c>
     </row>
     <row r="109" spans="9:15" x14ac:dyDescent="0.3">
@@ -9497,15 +9494,15 @@
       </c>
       <c r="J109">
         <f t="shared" si="14"/>
-        <v>33074.935400516799</v>
+        <v>41343.669250645995</v>
       </c>
       <c r="K109">
         <f t="shared" si="10"/>
-        <v>0.66149870801033595</v>
+        <v>0.82687338501291985</v>
       </c>
       <c r="L109">
         <f t="shared" si="8"/>
-        <v>0.50469886471933345</v>
+        <v>0.63087358089916679</v>
       </c>
       <c r="M109">
         <f t="shared" si="11"/>
@@ -9517,7 +9514,7 @@
       </c>
       <c r="O109">
         <f t="shared" si="9"/>
-        <v>3869.8829965062773</v>
+        <v>3869.9063966390313</v>
       </c>
     </row>
     <row r="110" spans="9:15" x14ac:dyDescent="0.3">
@@ -9527,15 +9524,15 @@
       </c>
       <c r="J110">
         <f t="shared" si="14"/>
-        <v>32653.061224489797</v>
+        <v>40816.326530612248</v>
       </c>
       <c r="K110">
         <f t="shared" si="10"/>
-        <v>0.65306122448979587</v>
+        <v>0.81632653061224492</v>
       </c>
       <c r="L110">
         <f t="shared" si="8"/>
-        <v>0.49826137919995417</v>
+        <v>0.62282672399994266</v>
       </c>
       <c r="M110">
         <f t="shared" si="11"/>
@@ -9547,7 +9544,7 @@
       </c>
       <c r="O110">
         <f t="shared" si="9"/>
-        <v>3919.8799536764186</v>
+        <v>3919.903962352922</v>
       </c>
     </row>
     <row r="111" spans="9:15" x14ac:dyDescent="0.3">
@@ -9557,15 +9554,15 @@
       </c>
       <c r="J111">
         <f t="shared" si="14"/>
-        <v>32241.813602015114</v>
+        <v>40302.267002518893</v>
       </c>
       <c r="K111">
         <f t="shared" si="10"/>
-        <v>0.64483627204030225</v>
+        <v>0.80604534005037787</v>
       </c>
       <c r="L111">
         <f t="shared" si="8"/>
-        <v>0.49198604696821668</v>
+        <v>0.61498255871027085</v>
       </c>
       <c r="M111">
         <f t="shared" si="11"/>
@@ -9577,7 +9574,7 @@
       </c>
       <c r="O111">
         <f t="shared" si="9"/>
-        <v>3969.8768717876483</v>
+        <v>3969.90149681911</v>
       </c>
     </row>
     <row r="112" spans="9:15" x14ac:dyDescent="0.3">
@@ -9587,15 +9584,15 @@
       </c>
       <c r="J112">
         <f t="shared" si="14"/>
-        <v>31840.796019900499</v>
+        <v>39800.995024875621</v>
       </c>
       <c r="K112">
         <f t="shared" si="10"/>
-        <v>0.63681592039800994</v>
+        <v>0.79601990049751248</v>
       </c>
       <c r="L112">
         <f t="shared" si="8"/>
-        <v>0.48586681752831351</v>
+        <v>0.60733352191039192</v>
       </c>
       <c r="M112">
         <f t="shared" si="11"/>
@@ -9607,7 +9604,7 @@
       </c>
       <c r="O112">
         <f t="shared" si="9"/>
-        <v>4019.8737508400127</v>
+        <v>4019.8990000376243</v>
       </c>
     </row>
     <row r="113" spans="9:15" x14ac:dyDescent="0.3">
@@ -9617,15 +9614,15 @@
       </c>
       <c r="J113">
         <f t="shared" si="14"/>
-        <v>31449.631449631448</v>
+        <v>39312.039312039313</v>
       </c>
       <c r="K113">
         <f t="shared" si="10"/>
-        <v>0.62899262899262898</v>
+        <v>0.78624078624078619</v>
       </c>
       <c r="L113">
         <f t="shared" si="8"/>
-        <v>0.47989793770609834</v>
+        <v>0.59987242213262293</v>
       </c>
       <c r="M113">
         <f t="shared" si="11"/>
@@ -9637,7 +9634,7 @@
       </c>
       <c r="O113">
         <f t="shared" si="9"/>
-        <v>4069.8705908335573</v>
+        <v>4069.8964720084932</v>
       </c>
     </row>
     <row r="114" spans="9:15" x14ac:dyDescent="0.3">
@@ -9647,15 +9644,15 @@
       </c>
       <c r="J114">
         <f t="shared" si="14"/>
-        <v>31067.961165048542</v>
+        <v>38834.951456310679</v>
       </c>
       <c r="K114">
         <f t="shared" si="10"/>
-        <v>0.62135922330097082</v>
+        <v>0.77669902912621358</v>
       </c>
       <c r="L114">
         <f t="shared" si="8"/>
-        <v>0.47407393360772337</v>
+        <v>0.59259241700965426</v>
       </c>
       <c r="M114">
         <f t="shared" si="11"/>
@@ -9667,7 +9664,7 @@
       </c>
       <c r="O114">
         <f t="shared" si="9"/>
-        <v>4119.8673917683273</v>
+        <v>4119.8939127317472</v>
       </c>
     </row>
     <row r="115" spans="9:15" x14ac:dyDescent="0.3">
@@ -9677,15 +9674,15 @@
       </c>
       <c r="J115">
         <f t="shared" si="14"/>
-        <v>30695.443645083931</v>
+        <v>38369.304556354917</v>
       </c>
       <c r="K115">
         <f t="shared" si="10"/>
-        <v>0.61390887290167862</v>
+        <v>0.76738609112709832</v>
       </c>
       <c r="L115">
         <f t="shared" si="8"/>
-        <v>0.46838959387621593</v>
+        <v>0.58548699234526991</v>
       </c>
       <c r="M115">
         <f t="shared" si="11"/>
@@ -9697,7 +9694,7 @@
       </c>
       <c r="O115">
         <f t="shared" si="9"/>
-        <v>4169.8641536443702</v>
+        <v>4169.8913222074152</v>
       </c>
     </row>
     <row r="116" spans="9:15" x14ac:dyDescent="0.3">
@@ -9707,15 +9704,15 @@
       </c>
       <c r="J116">
         <f t="shared" si="14"/>
-        <v>30331.753554502371</v>
+        <v>37914.69194312796</v>
       </c>
       <c r="K116">
         <f t="shared" si="10"/>
-        <v>0.60663507109004744</v>
+        <v>0.75829383886255919</v>
       </c>
       <c r="L116">
         <f t="shared" si="8"/>
-        <v>0.46283995413834605</v>
+        <v>0.57854994267293258</v>
       </c>
       <c r="M116">
         <f t="shared" si="11"/>
@@ -9727,7 +9724,7 @@
       </c>
       <c r="O116">
         <f t="shared" si="9"/>
-        <v>4219.8608764617293</v>
+        <v>4219.8887004355265</v>
       </c>
     </row>
     <row r="117" spans="9:15" x14ac:dyDescent="0.3">
@@ -9737,15 +9734,15 @@
       </c>
       <c r="J117">
         <f t="shared" si="14"/>
-        <v>29976.580796252929</v>
+        <v>37470.725995316163</v>
       </c>
       <c r="K117">
         <f t="shared" si="10"/>
-        <v>0.59953161592505855</v>
+        <v>0.74941451990632324</v>
       </c>
       <c r="L117">
         <f t="shared" si="8"/>
-        <v>0.45742028254422024</v>
+        <v>0.57177535318027528</v>
       </c>
       <c r="M117">
         <f t="shared" si="11"/>
@@ -9757,7 +9754,7 @@
       </c>
       <c r="O117">
         <f t="shared" si="9"/>
-        <v>4269.8575602204519</v>
+        <v>4269.8860474161092</v>
       </c>
     </row>
     <row r="118" spans="9:15" x14ac:dyDescent="0.3">
@@ -9767,15 +9764,15 @@
       </c>
       <c r="J118">
         <f t="shared" si="14"/>
-        <v>29629.629629629631</v>
+        <v>37037.037037037036</v>
       </c>
       <c r="K118">
         <f t="shared" si="10"/>
-        <v>0.59259259259259256</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L118">
         <f t="shared" si="8"/>
-        <v>0.4521260663110695</v>
+        <v>0.56515758288883688</v>
       </c>
       <c r="M118">
         <f t="shared" si="11"/>
@@ -9787,7 +9784,7 @@
       </c>
       <c r="O118">
         <f t="shared" si="9"/>
-        <v>4319.8542049205835</v>
+        <v>4319.8833631491952</v>
       </c>
     </row>
     <row r="119" spans="9:15" x14ac:dyDescent="0.3">
@@ -9797,15 +9794,15 @@
       </c>
       <c r="J119">
         <f t="shared" si="14"/>
-        <v>29290.617848970251</v>
+        <v>36613.272311212815</v>
       </c>
       <c r="K119">
         <f t="shared" si="10"/>
-        <v>0.58581235697940504</v>
+        <v>0.73226544622425627</v>
       </c>
       <c r="L119">
         <f t="shared" si="8"/>
-        <v>0.44695299919080556</v>
+        <v>0.55869124898850697</v>
       </c>
       <c r="M119">
         <f t="shared" si="11"/>
@@ -9817,7 +9814,7 @@
       </c>
       <c r="O119">
         <f t="shared" si="9"/>
-        <v>4369.8508105621704</v>
+        <v>4369.8806476348118</v>
       </c>
     </row>
     <row r="120" spans="9:15" x14ac:dyDescent="0.3">
@@ -9827,15 +9824,15 @@
       </c>
       <c r="J120">
         <f t="shared" si="14"/>
-        <v>28959.276018099546</v>
+        <v>36199.095022624431</v>
       </c>
       <c r="K120">
         <f t="shared" si="10"/>
-        <v>0.579185520361991</v>
+        <v>0.72398190045248867</v>
       </c>
       <c r="L120">
         <f t="shared" si="8"/>
-        <v>0.44189696978819465</v>
+        <v>0.55237121223524333</v>
       </c>
       <c r="M120">
         <f t="shared" si="11"/>
@@ -9847,7 +9844,7 @@
       </c>
       <c r="O120">
         <f t="shared" si="9"/>
-        <v>4419.8473771452582</v>
+        <v>4419.8779008729889</v>
       </c>
     </row>
     <row r="121" spans="9:15" x14ac:dyDescent="0.3">
@@ -9857,15 +9854,15 @@
       </c>
       <c r="J121">
         <f t="shared" si="14"/>
-        <v>28635.346756152125</v>
+        <v>35794.18344519016</v>
       </c>
       <c r="K121">
         <f t="shared" si="10"/>
-        <v>0.57270693512304249</v>
+        <v>0.71588366890380317</v>
       </c>
       <c r="L121">
         <f t="shared" si="8"/>
-        <v>0.43695405066304704</v>
+        <v>0.54619256332880883</v>
       </c>
       <c r="M121">
         <f t="shared" si="11"/>
@@ -9877,7 +9874,7 @@
       </c>
       <c r="O121">
         <f t="shared" si="9"/>
-        <v>4469.8439046698913</v>
+        <v>4469.8751228637548</v>
       </c>
     </row>
     <row r="122" spans="9:15" x14ac:dyDescent="0.3">
@@ -9887,15 +9884,15 @@
       </c>
       <c r="J122">
         <f t="shared" si="14"/>
-        <v>28318.58407079646</v>
+        <v>35398.230088495577</v>
       </c>
       <c r="K122">
         <f t="shared" si="10"/>
-        <v>0.5663716814159292</v>
+        <v>0.70796460176991149</v>
       </c>
       <c r="L122">
         <f t="shared" si="8"/>
-        <v>0.43212048815571247</v>
+        <v>0.54015061019464061</v>
       </c>
       <c r="M122">
         <f t="shared" si="11"/>
@@ -9907,7 +9904,7 @@
       </c>
       <c r="O122">
         <f t="shared" si="9"/>
-        <v>4519.8403931361172</v>
+        <v>4519.8723136071403</v>
       </c>
     </row>
     <row r="123" spans="9:15" x14ac:dyDescent="0.3">
@@ -9917,15 +9914,15 @@
       </c>
       <c r="J123">
         <f t="shared" si="14"/>
-        <v>28008.752735229758</v>
+        <v>35010.940919037203</v>
       </c>
       <c r="K123">
         <f t="shared" si="10"/>
-        <v>0.56017505470459517</v>
+        <v>0.70021881838074396</v>
       </c>
       <c r="L123">
         <f t="shared" si="8"/>
-        <v>0.42739269288048587</v>
+        <v>0.53424086610060728</v>
       </c>
       <c r="M123">
         <f t="shared" si="11"/>
@@ -9937,7 +9934,7 @@
       </c>
       <c r="O123">
         <f t="shared" si="9"/>
-        <v>4569.8368425439812</v>
+        <v>4569.8694731031737</v>
       </c>
     </row>
     <row r="124" spans="9:15" x14ac:dyDescent="0.3">
@@ -9947,15 +9944,15 @@
       </c>
       <c r="J124">
         <f t="shared" si="14"/>
-        <v>27705.627705627707</v>
+        <v>34632.034632034629</v>
       </c>
       <c r="K124">
         <f t="shared" si="10"/>
-        <v>0.55411255411255411</v>
+        <v>0.69264069264069261</v>
       </c>
       <c r="L124">
         <f t="shared" si="8"/>
-        <v>0.42276723083632473</v>
+        <v>0.52845903854540588</v>
       </c>
       <c r="M124">
         <f t="shared" si="11"/>
@@ -9967,7 +9964,7 @@
       </c>
       <c r="O124">
         <f t="shared" si="9"/>
-        <v>4619.833252893528</v>
+        <v>4619.8666013518859</v>
       </c>
     </row>
     <row r="125" spans="9:15" x14ac:dyDescent="0.3">
@@ -9977,15 +9974,15 @@
       </c>
       <c r="J125">
         <f t="shared" si="14"/>
-        <v>27408.993576017132</v>
+        <v>34261.241970021416</v>
       </c>
       <c r="K125">
         <f t="shared" si="10"/>
-        <v>0.54817987152034264</v>
+        <v>0.68522483940042822</v>
       </c>
       <c r="L125">
         <f t="shared" si="8"/>
-        <v>0.41824081508861249</v>
+        <v>0.52280101886076558</v>
       </c>
       <c r="M125">
         <f t="shared" si="11"/>
@@ -9997,7 +9994,7 @@
       </c>
       <c r="O125">
         <f t="shared" si="9"/>
-        <v>4669.8296241848047</v>
+        <v>4669.8636983533042</v>
       </c>
     </row>
     <row r="126" spans="9:15" x14ac:dyDescent="0.3">
@@ -10007,15 +10004,15 @@
       </c>
       <c r="J126">
         <f t="shared" si="14"/>
-        <v>27118.644067796609</v>
+        <v>33898.305084745763</v>
       </c>
       <c r="K126">
         <f t="shared" si="10"/>
-        <v>0.5423728813559322</v>
+        <v>0.67796610169491522</v>
       </c>
       <c r="L126">
         <f t="shared" si="8"/>
-        <v>0.41381029797962293</v>
+        <v>0.51726287247452873</v>
       </c>
       <c r="M126">
         <f t="shared" si="11"/>
@@ -10027,7 +10024,7 @@
       </c>
       <c r="O126">
         <f t="shared" si="9"/>
-        <v>4719.825956417857</v>
+        <v>4719.8607641074586</v>
       </c>
     </row>
     <row r="127" spans="9:15" x14ac:dyDescent="0.3">
@@ -10037,15 +10034,15 @@
       </c>
       <c r="J127">
         <f t="shared" si="14"/>
-        <v>26834.381551362683</v>
+        <v>33542.976939203356</v>
       </c>
       <c r="K127">
         <f t="shared" si="10"/>
-        <v>0.5366876310272537</v>
+        <v>0.67085953878406712</v>
       </c>
       <c r="L127">
         <f t="shared" si="8"/>
-        <v>0.40947266382889314</v>
+        <v>0.51184082978611645</v>
       </c>
       <c r="M127">
         <f t="shared" si="11"/>
@@ -10057,7 +10054,7 @@
       </c>
       <c r="O127">
         <f t="shared" si="9"/>
-        <v>4769.8222495927303</v>
+        <v>4769.8577986143782</v>
       </c>
     </row>
     <row r="128" spans="9:15" x14ac:dyDescent="0.3">
@@ -10067,15 +10064,15 @@
       </c>
       <c r="J128">
         <f t="shared" si="14"/>
-        <v>26556.016597510374</v>
+        <v>33195.020746887967</v>
       </c>
       <c r="K128">
         <f t="shared" si="10"/>
-        <v>0.53112033195020747</v>
+        <v>0.66390041493775931</v>
       </c>
       <c r="L128">
         <f t="shared" si="8"/>
-        <v>0.40522502208792954</v>
+        <v>0.5065312776099119</v>
       </c>
       <c r="M128">
         <f t="shared" si="11"/>
@@ -10087,7 +10084,7 @@
       </c>
       <c r="O128">
         <f t="shared" si="9"/>
-        <v>4819.81850370947</v>
+        <v>4819.8548018740939</v>
       </c>
     </row>
     <row r="129" spans="9:15" x14ac:dyDescent="0.3">
@@ -10097,15 +10094,15 @@
       </c>
       <c r="J129">
         <f t="shared" si="14"/>
-        <v>26283.367556468173</v>
+        <v>32854.209445585213</v>
       </c>
       <c r="K129">
         <f t="shared" si="10"/>
-        <v>0.52566735112936347</v>
+        <v>0.65708418891170428</v>
       </c>
       <c r="L129">
         <f t="shared" si="8"/>
-        <v>0.40106460091659557</v>
+        <v>0.50133075114574444</v>
       </c>
       <c r="M129">
         <f t="shared" si="11"/>
@@ -10117,7 +10114,7 @@
       </c>
       <c r="O129">
         <f t="shared" si="9"/>
-        <v>4869.8147187681216</v>
+        <v>4869.8517738866331</v>
       </c>
     </row>
     <row r="130" spans="9:15" x14ac:dyDescent="0.3">
@@ -10127,15 +10124,15 @@
       </c>
       <c r="J130">
         <f t="shared" si="14"/>
-        <v>26016.260162601626</v>
+        <v>32520.325203252032</v>
       </c>
       <c r="K130">
         <f t="shared" si="10"/>
-        <v>0.52032520325203258</v>
+        <v>0.65040650406504064</v>
       </c>
       <c r="L130">
         <f t="shared" si="8"/>
-        <v>0.39698874115118299</v>
+        <v>0.49623592643897874</v>
       </c>
       <c r="M130">
         <f t="shared" si="11"/>
@@ -10147,7 +10144,7 @@
       </c>
       <c r="O130">
         <f t="shared" si="9"/>
-        <v>4919.8108947687324</v>
+        <v>4919.8487146520247</v>
       </c>
     </row>
     <row r="131" spans="9:15" x14ac:dyDescent="0.3">
@@ -10157,15 +10154,15 @@
       </c>
       <c r="J131">
         <f t="shared" si="14"/>
-        <v>25754.527162977869</v>
+        <v>32193.158953722334</v>
       </c>
       <c r="K131">
         <f t="shared" si="10"/>
-        <v>0.51509054325955739</v>
+        <v>0.64386317907444668</v>
       </c>
       <c r="L131">
         <f t="shared" si="8"/>
-        <v>0.39299489063658355</v>
+        <v>0.49124361329572946</v>
       </c>
       <c r="M131">
         <f t="shared" si="11"/>
@@ -10177,7 +10174,7 @@
       </c>
       <c r="O131">
         <f t="shared" si="9"/>
-        <v>4969.8070317113461</v>
+        <v>4969.8456241702988</v>
       </c>
     </row>
     <row r="132" spans="9:15" x14ac:dyDescent="0.3">
@@ -10187,15 +10184,15 @@
       </c>
       <c r="J132">
         <f t="shared" si="14"/>
-        <v>25498.007968127491</v>
+        <v>31872.509960159361</v>
       </c>
       <c r="K132">
         <f t="shared" si="10"/>
-        <v>0.50996015936254979</v>
+        <v>0.63745019920318724</v>
       </c>
       <c r="L132">
         <f t="shared" si="8"/>
-        <v>0.38908059889717533</v>
+        <v>0.48635074862146921</v>
       </c>
       <c r="M132">
         <f t="shared" si="11"/>
@@ -10207,7 +10204,7 @@
       </c>
       <c r="O132">
         <f t="shared" si="9"/>
-        <v>5019.8031295960109</v>
+        <v>5019.8425024414864</v>
       </c>
     </row>
     <row r="133" spans="9:15" x14ac:dyDescent="0.3">
@@ -10217,15 +10214,15 @@
       </c>
       <c r="J133">
         <f t="shared" si="14"/>
-        <v>25246.548323471401</v>
+        <v>31558.185404339252</v>
       </c>
       <c r="K133">
         <f t="shared" si="10"/>
-        <v>0.50493096646942803</v>
+        <v>0.63116370808678501</v>
       </c>
       <c r="L133">
         <f t="shared" si="8"/>
-        <v>0.38524351212304148</v>
+        <v>0.48155439015380186</v>
       </c>
       <c r="M133">
         <f t="shared" si="11"/>
@@ -10237,7 +10234,7 @@
       </c>
       <c r="O133">
         <f t="shared" si="9"/>
-        <v>5069.7991884227713</v>
+        <v>5069.8393494656139</v>
       </c>
     </row>
     <row r="134" spans="9:15" x14ac:dyDescent="0.3">
@@ -10247,15 +10244,15 @@
       </c>
       <c r="J134">
         <f t="shared" si="14"/>
-        <v>25000</v>
+        <v>31250</v>
       </c>
       <c r="K134">
         <f t="shared" si="10"/>
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="L134">
         <f t="shared" si="8"/>
-        <v>0.38148136844996489</v>
+        <v>0.47685171056245612</v>
       </c>
       <c r="M134">
         <f t="shared" si="11"/>
@@ -10267,7 +10264,7 @@
       </c>
       <c r="O134">
         <f t="shared" si="9"/>
-        <v>5119.7952081916719</v>
+        <v>5119.836165242712</v>
       </c>
     </row>
     <row r="135" spans="9:15" x14ac:dyDescent="0.3">
@@ -10277,15 +10274,15 @@
       </c>
       <c r="J135">
         <f t="shared" si="14"/>
-        <v>24758.220502901353</v>
+        <v>30947.775628626692</v>
       </c>
       <c r="K135">
         <f t="shared" si="10"/>
-        <v>0.49516441005802708</v>
+        <v>0.61895551257253389</v>
       </c>
       <c r="L135">
         <f t="shared" si="8"/>
-        <v>0.3777919935133115</v>
+        <v>0.47223999189163934</v>
       </c>
       <c r="M135">
         <f t="shared" si="11"/>
@@ -10297,7 +10294,7 @@
       </c>
       <c r="O135">
         <f t="shared" si="9"/>
-        <v>5169.791188902761</v>
+        <v>5169.8329497728109</v>
       </c>
     </row>
     <row r="136" spans="9:15" x14ac:dyDescent="0.3">
@@ -10307,15 +10304,15 @@
       </c>
       <c r="J136">
         <f t="shared" si="14"/>
-        <v>24521.072796934866</v>
+        <v>30651.340996168583</v>
       </c>
       <c r="K136">
         <f t="shared" si="10"/>
-        <v>0.49042145593869729</v>
+        <v>0.6130268199233716</v>
       </c>
       <c r="L136">
         <f t="shared" si="8"/>
-        <v>0.37417329625743684</v>
+        <v>0.46771662032179606</v>
       </c>
       <c r="M136">
         <f t="shared" si="11"/>
@@ -10327,7 +10324,7 @@
       </c>
       <c r="O136">
         <f t="shared" si="9"/>
-        <v>5219.787130556082</v>
+        <v>5219.8297030559379</v>
       </c>
     </row>
     <row r="137" spans="9:15" x14ac:dyDescent="0.3">
@@ -10337,15 +10334,15 @@
       </c>
       <c r="J137">
         <f t="shared" si="14"/>
-        <v>24288.42504743833</v>
+        <v>30360.531309297912</v>
       </c>
       <c r="K137">
         <f t="shared" si="10"/>
-        <v>0.48576850094876661</v>
+        <v>0.60721062618595822</v>
       </c>
       <c r="L137">
         <f t="shared" si="8"/>
-        <v>0.37062326498364712</v>
+        <v>0.46327908122955891</v>
       </c>
       <c r="M137">
         <f t="shared" si="11"/>
@@ -10357,7 +10354,7 @@
       </c>
       <c r="O137">
         <f t="shared" si="9"/>
-        <v>5269.7830331516816</v>
+        <v>5269.8264250921238</v>
       </c>
     </row>
     <row r="138" spans="9:15" x14ac:dyDescent="0.3">
@@ -10367,15 +10364,15 @@
       </c>
       <c r="J138">
         <f t="shared" si="14"/>
-        <v>24060.150375939851</v>
+        <v>30075.187969924813</v>
       </c>
       <c r="K138">
         <f t="shared" si="10"/>
-        <v>0.48120300751879697</v>
+        <v>0.60150375939849621</v>
       </c>
       <c r="L138">
         <f t="shared" si="8"/>
-        <v>0.36713996362101886</v>
+        <v>0.45892495452627358</v>
       </c>
       <c r="M138">
         <f t="shared" si="11"/>
@@ -10387,7 +10384,7 @@
       </c>
       <c r="O138">
         <f t="shared" si="9"/>
-        <v>5319.778896689606</v>
+        <v>5319.8231158813969</v>
       </c>
     </row>
     <row r="139" spans="9:15" x14ac:dyDescent="0.3">
@@ -10397,15 +10394,15 @@
       </c>
       <c r="J139">
         <f t="shared" si="14"/>
-        <v>23836.126629422717</v>
+        <v>29795.158286778398</v>
       </c>
       <c r="K139">
         <f t="shared" si="10"/>
-        <v>0.47672253258845437</v>
+        <v>0.59590316573556801</v>
       </c>
       <c r="L139">
         <f t="shared" si="8"/>
-        <v>0.36372152820555315</v>
+        <v>0.45465191025694141</v>
       </c>
       <c r="M139">
         <f t="shared" si="11"/>
@@ -10417,7 +10414,7 @@
       </c>
       <c r="O139">
         <f t="shared" si="9"/>
-        <v>5369.7747211699016</v>
+        <v>5369.8197754237872</v>
       </c>
     </row>
     <row r="140" spans="9:15" x14ac:dyDescent="0.3">
@@ -10427,15 +10424,15 @@
       </c>
       <c r="J140">
         <f t="shared" si="14"/>
-        <v>23616.236162361623</v>
+        <v>29520.295202952031</v>
       </c>
       <c r="K140">
         <f t="shared" si="10"/>
-        <v>0.47232472324723246</v>
+        <v>0.59040590405904059</v>
       </c>
       <c r="L140">
         <f t="shared" si="8"/>
-        <v>0.36036616355421036</v>
+        <v>0.45045770444276301</v>
       </c>
       <c r="M140">
         <f t="shared" si="11"/>
@@ -10447,7 +10444,7 @@
       </c>
       <c r="O140">
         <f t="shared" si="9"/>
-        <v>5419.7705065926111</v>
+        <v>5419.8164037193237</v>
       </c>
     </row>
     <row r="141" spans="9:15" x14ac:dyDescent="0.3">
@@ -10457,15 +10454,15 @@
       </c>
       <c r="J141">
         <f t="shared" si="14"/>
-        <v>23400.365630712979</v>
+        <v>29250.457038391225</v>
       </c>
       <c r="K141">
         <f t="shared" si="10"/>
-        <v>0.4680073126142596</v>
+        <v>0.58500914076782451</v>
       </c>
       <c r="L141">
         <f t="shared" si="8"/>
-        <v>0.35707214012135657</v>
+        <v>0.44634017515169566</v>
       </c>
       <c r="M141">
         <f t="shared" si="11"/>
@@ -10477,7 +10474,7 @@
       </c>
       <c r="O141">
         <f t="shared" si="9"/>
-        <v>5469.7662529577838</v>
+        <v>5469.8130007680365</v>
       </c>
     </row>
     <row r="142" spans="9:15" x14ac:dyDescent="0.3">
@@ -10487,15 +10484,15 @@
       </c>
       <c r="J142">
         <f t="shared" si="14"/>
-        <v>23188.405797101448</v>
+        <v>28985.507246376812</v>
       </c>
       <c r="K142">
         <f t="shared" si="10"/>
-        <v>0.46376811594202899</v>
+        <v>0.57971014492753625</v>
       </c>
       <c r="L142">
         <f t="shared" si="8"/>
-        <v>0.35383779102605439</v>
+        <v>0.44229723878256799</v>
       </c>
       <c r="M142">
         <f t="shared" si="11"/>
@@ -10507,7 +10504,7 @@
       </c>
       <c r="O142">
         <f t="shared" si="9"/>
-        <v>5519.761960265464</v>
+        <v>5519.8095665699529</v>
       </c>
     </row>
     <row r="143" spans="9:15" x14ac:dyDescent="0.3">
@@ -10517,15 +10514,15 @@
       </c>
       <c r="J143">
         <f t="shared" si="14"/>
-        <v>22980.251346499103</v>
+        <v>28725.314183123879</v>
       </c>
       <c r="K143">
         <f t="shared" si="10"/>
-        <v>0.45960502692998206</v>
+        <v>0.57450628366247758</v>
       </c>
       <c r="L143">
         <f t="shared" si="8"/>
-        <v>0.35066150923946504</v>
+        <v>0.43832688654933133</v>
       </c>
       <c r="M143">
         <f t="shared" si="11"/>
@@ -10537,7 +10534,7 @@
       </c>
       <c r="O143">
         <f t="shared" si="9"/>
-        <v>5569.7576285156965</v>
+        <v>5569.8061011251048</v>
       </c>
     </row>
     <row r="144" spans="9:15" x14ac:dyDescent="0.3">
@@ -10547,15 +10544,15 @@
       </c>
       <c r="J144">
         <f t="shared" si="14"/>
-        <v>22775.800711743774</v>
+        <v>28469.750889679715</v>
       </c>
       <c r="K144">
         <f t="shared" si="10"/>
-        <v>0.45551601423487542</v>
+        <v>0.56939501779359436</v>
       </c>
       <c r="L144">
         <f t="shared" si="8"/>
-        <v>0.34754174492238793</v>
+        <v>0.43442718115298495</v>
       </c>
       <c r="M144">
         <f t="shared" si="11"/>
@@ -10567,7 +10564,7 @@
       </c>
       <c r="O144">
         <f t="shared" si="9"/>
-        <v>5619.7532577085285</v>
+        <v>5619.8026044335193</v>
       </c>
     </row>
     <row r="145" spans="9:15" x14ac:dyDescent="0.3">
@@ -10577,15 +10574,15 @@
       </c>
       <c r="J145">
         <f t="shared" si="14"/>
-        <v>22574.955908289241</v>
+        <v>28218.69488536155</v>
       </c>
       <c r="K145">
         <f t="shared" si="10"/>
-        <v>0.45149911816578481</v>
+        <v>0.56437389770723101</v>
       </c>
       <c r="L145">
         <f t="shared" si="8"/>
-        <v>0.344477002903672</v>
+        <v>0.43059625362959003</v>
       </c>
       <c r="M145">
         <f t="shared" si="11"/>
@@ -10597,7 +10594,7 @@
       </c>
       <c r="O145">
         <f t="shared" si="9"/>
-        <v>5669.7488478440055</v>
+        <v>5669.7990764952274</v>
       </c>
     </row>
     <row r="146" spans="9:15" x14ac:dyDescent="0.3">
@@ -10607,15 +10604,15 @@
       </c>
       <c r="J146">
         <f t="shared" si="14"/>
-        <v>22377.622377622378</v>
+        <v>27972.027972027972</v>
       </c>
       <c r="K146">
         <f t="shared" si="10"/>
-        <v>0.44755244755244755</v>
+        <v>0.55944055944055948</v>
       </c>
       <c r="L146">
         <f t="shared" si="8"/>
-        <v>0.34146584029087768</v>
+        <v>0.42683230036359709</v>
       </c>
       <c r="M146">
         <f t="shared" si="11"/>
@@ -10627,7 +10624,7 @@
       </c>
       <c r="O146">
         <f t="shared" si="9"/>
-        <v>5719.7443989221729</v>
+        <v>5719.7955173102564</v>
       </c>
     </row>
     <row r="147" spans="9:15" x14ac:dyDescent="0.3">
@@ -10637,15 +10634,15 @@
       </c>
       <c r="J147">
         <f t="shared" si="14"/>
-        <v>22183.708838821491</v>
+        <v>27729.636048526863</v>
       </c>
       <c r="K147">
         <f t="shared" si="10"/>
-        <v>0.44367417677642979</v>
+        <v>0.55459272097053725</v>
       </c>
       <c r="L147">
         <f t="shared" si="8"/>
-        <v>0.33850686420516818</v>
+        <v>0.4231335802564602</v>
       </c>
       <c r="M147">
         <f t="shared" si="11"/>
@@ -10657,7 +10654,7 @@
       </c>
       <c r="O147">
         <f t="shared" si="9"/>
-        <v>5769.7399109430771</v>
+        <v>5769.7919268786372</v>
       </c>
     </row>
     <row r="148" spans="9:15" x14ac:dyDescent="0.3">
@@ -10667,15 +10664,15 @@
       </c>
       <c r="J148">
         <f t="shared" si="14"/>
-        <v>21993.127147766321</v>
+        <v>27491.408934707903</v>
       </c>
       <c r="K148">
         <f t="shared" si="10"/>
-        <v>0.43986254295532645</v>
+        <v>0.54982817869415812</v>
       </c>
       <c r="L148">
         <f t="shared" si="8"/>
-        <v>0.33559872963295884</v>
+        <v>0.41949841204119853</v>
       </c>
       <c r="M148">
         <f t="shared" si="11"/>
@@ -10687,7 +10684,7 @@
       </c>
       <c r="O148">
         <f t="shared" si="9"/>
-        <v>5819.7353839067637</v>
+        <v>5819.788305200399</v>
       </c>
     </row>
     <row r="149" spans="9:15" x14ac:dyDescent="0.3">
@@ -10697,15 +10694,15 @@
       </c>
       <c r="J149">
         <f t="shared" si="14"/>
-        <v>21805.79216354344</v>
+        <v>27257.240204429301</v>
       </c>
       <c r="K149">
         <f t="shared" si="10"/>
-        <v>0.43611584327086883</v>
+        <v>0.54514480408858601</v>
       </c>
       <c r="L149">
         <f t="shared" si="8"/>
-        <v>0.33274013738736291</v>
+        <v>0.41592517173420362</v>
       </c>
       <c r="M149">
         <f t="shared" si="11"/>
@@ -10717,7 +10714,7 @@
       </c>
       <c r="O149">
         <f t="shared" si="9"/>
-        <v>5869.7308178132771</v>
+        <v>5869.7846522755699</v>
       </c>
     </row>
     <row r="150" spans="9:15" x14ac:dyDescent="0.3">
@@ -10727,15 +10724,15 @@
       </c>
       <c r="J150">
         <f t="shared" si="14"/>
-        <v>21621.62162162162</v>
+        <v>27027.027027027027</v>
       </c>
       <c r="K150">
         <f t="shared" si="10"/>
-        <v>0.43243243243243246</v>
+        <v>0.54054054054054057</v>
       </c>
       <c r="L150">
         <f t="shared" si="8"/>
-        <v>0.32992983217294264</v>
+        <v>0.41241229021617826</v>
       </c>
       <c r="M150">
         <f t="shared" si="11"/>
@@ -10747,7 +10744,7 @@
       </c>
       <c r="O150">
         <f t="shared" si="9"/>
-        <v>5919.7262126626647</v>
+        <v>5919.7809681041799</v>
       </c>
     </row>
     <row r="151" spans="9:15" x14ac:dyDescent="0.3">
@@ -10757,15 +10754,15 @@
       </c>
       <c r="J151">
         <f t="shared" si="14"/>
-        <v>21440.536013400335</v>
+        <v>26800.67001675042</v>
       </c>
       <c r="K151">
         <f t="shared" si="10"/>
-        <v>0.42881072026800671</v>
+        <v>0.53601340033500833</v>
       </c>
       <c r="L151">
         <f t="shared" si="8"/>
-        <v>0.32716660074770859</v>
+        <v>0.40895825093463573</v>
       </c>
       <c r="M151">
         <f t="shared" si="11"/>
@@ -10777,7 +10774,7 @@
       </c>
       <c r="O151">
         <f t="shared" si="9"/>
-        <v>5969.721568454971</v>
+        <v>5969.7772526862591</v>
       </c>
     </row>
     <row r="152" spans="9:15" x14ac:dyDescent="0.3">
@@ -10787,15 +10784,15 @@
       </c>
       <c r="J152">
         <f t="shared" si="14"/>
-        <v>21262.458471760798</v>
+        <v>26578.073089700996</v>
       </c>
       <c r="K152">
         <f t="shared" si="10"/>
-        <v>0.42524916943521596</v>
+        <v>0.53156146179401997</v>
       </c>
       <c r="L152">
         <f t="shared" si="8"/>
-        <v>0.32444927017671432</v>
+        <v>0.4055615877208929</v>
       </c>
       <c r="M152">
         <f t="shared" si="11"/>
@@ -10807,7 +10804,7 @@
       </c>
       <c r="O152">
         <f t="shared" si="9"/>
-        <v>6019.7168851902434</v>
+        <v>6019.7735060218356</v>
       </c>
     </row>
     <row r="153" spans="9:15" x14ac:dyDescent="0.3">
@@ -10817,15 +10814,15 @@
       </c>
       <c r="J153">
         <f t="shared" si="14"/>
-        <v>21087.314662273475</v>
+        <v>26359.143327841844</v>
       </c>
       <c r="K153">
         <f t="shared" si="10"/>
-        <v>0.42174629324546953</v>
+        <v>0.52718286655683688</v>
       </c>
       <c r="L153">
         <f t="shared" si="8"/>
-        <v>0.3217767061719638</v>
+        <v>0.40222088271495476</v>
       </c>
       <c r="M153">
         <f t="shared" si="11"/>
@@ -10837,7 +10834,7 @@
       </c>
       <c r="O153">
         <f t="shared" si="9"/>
-        <v>6069.7121628685272</v>
+        <v>6069.7697281109404</v>
       </c>
     </row>
     <row r="154" spans="9:15" x14ac:dyDescent="0.3">
@@ -10847,15 +10844,15 @@
       </c>
       <c r="J154">
         <f t="shared" si="14"/>
-        <v>20915.032679738561</v>
+        <v>26143.790849673202</v>
       </c>
       <c r="K154">
         <f t="shared" si="10"/>
-        <v>0.41830065359477125</v>
+        <v>0.52287581699346408</v>
       </c>
       <c r="L154">
         <f t="shared" si="8"/>
-        <v>0.31914781151369614</v>
+        <v>0.39893476439212017</v>
       </c>
       <c r="M154">
         <f t="shared" si="11"/>
@@ -10867,7 +10864,7 @@
       </c>
       <c r="O154">
         <f t="shared" si="9"/>
-        <v>6119.7074014898672</v>
+        <v>6119.7659189536007</v>
       </c>
     </row>
     <row r="155" spans="9:15" x14ac:dyDescent="0.3">
@@ -10877,15 +10874,15 @@
       </c>
       <c r="J155">
         <f t="shared" si="14"/>
-        <v>20745.542949756888</v>
+        <v>25931.928687196109</v>
       </c>
       <c r="K155">
         <f t="shared" si="10"/>
-        <v>0.41491085899513774</v>
+        <v>0.51863857374392219</v>
       </c>
       <c r="L155">
         <f t="shared" si="8"/>
-        <v>0.31656152454843117</v>
+        <v>0.39570190568553898</v>
       </c>
       <c r="M155">
         <f t="shared" si="11"/>
@@ -10897,7 +10894,7 @@
       </c>
       <c r="O155">
         <f t="shared" si="9"/>
-        <v>6169.7026010543086</v>
+        <v>6169.7620785498466</v>
       </c>
     </row>
     <row r="156" spans="9:15" x14ac:dyDescent="0.3">
@@ -10907,15 +10904,15 @@
       </c>
       <c r="J156">
         <f t="shared" si="14"/>
-        <v>20578.778135048233</v>
+        <v>25723.472668810289</v>
       </c>
       <c r="K156">
         <f t="shared" si="10"/>
-        <v>0.41157556270096463</v>
+        <v>0.51446945337620575</v>
       </c>
       <c r="L156">
         <f t="shared" si="8"/>
-        <v>0.31401681775945667</v>
+        <v>0.39252102219932078</v>
       </c>
       <c r="M156">
         <f t="shared" si="11"/>
@@ -10927,7 +10924,7 @@
       </c>
       <c r="O156">
         <f t="shared" si="9"/>
-        <v>6219.6977615618989</v>
+        <v>6219.7582068997071</v>
       </c>
     </row>
     <row r="157" spans="9:15" x14ac:dyDescent="0.3">
@@ -10937,15 +10934,15 @@
       </c>
       <c r="J157">
         <f t="shared" si="14"/>
-        <v>20414.673046251995</v>
+        <v>25518.341307814993</v>
       </c>
       <c r="K157">
         <f t="shared" si="10"/>
-        <v>0.40829346092503987</v>
+        <v>0.5103668261562998</v>
       </c>
       <c r="L157">
         <f t="shared" si="8"/>
-        <v>0.31151269640571294</v>
+        <v>0.38939087050714122</v>
       </c>
       <c r="M157">
         <f t="shared" si="11"/>
@@ -10957,7 +10954,7 @@
       </c>
       <c r="O157">
         <f t="shared" si="9"/>
-        <v>6269.6928830126835</v>
+        <v>6269.7543040032115</v>
       </c>
     </row>
     <row r="158" spans="9:15" x14ac:dyDescent="0.3">
@@ -10967,15 +10964,15 @@
       </c>
       <c r="J158">
         <f t="shared" si="14"/>
-        <v>20253.164556962027</v>
+        <v>25316.455696202531</v>
       </c>
       <c r="K158">
         <f t="shared" si="10"/>
-        <v>0.4050632911392405</v>
+        <v>0.50632911392405067</v>
       </c>
       <c r="L158">
         <f t="shared" si="8"/>
-        <v>0.30904819722528803</v>
+        <v>0.38631024653161</v>
       </c>
       <c r="M158">
         <f t="shared" si="11"/>
@@ -10987,7 +10984,7 @@
       </c>
       <c r="O158">
         <f t="shared" si="9"/>
-        <v>6319.6879654067079</v>
+        <v>6319.7503698603905</v>
       </c>
     </row>
     <row r="159" spans="9:15" x14ac:dyDescent="0.3">
@@ -10997,15 +10994,15 @@
       </c>
       <c r="J159">
         <f t="shared" si="14"/>
-        <v>20094.191522762951</v>
+        <v>25117.739403453688</v>
       </c>
       <c r="K159">
         <f t="shared" si="10"/>
-        <v>0.40188383045525905</v>
+        <v>0.50235478806907374</v>
       </c>
       <c r="L159">
         <f t="shared" si="8"/>
-        <v>0.30662238719997181</v>
+        <v>0.38327798399996471</v>
       </c>
       <c r="M159">
         <f t="shared" si="11"/>
@@ -11017,7 +11014,7 @@
       </c>
       <c r="O159">
         <f t="shared" si="9"/>
-        <v>6369.6830087440185</v>
+        <v>6369.7464044712724</v>
       </c>
     </row>
     <row r="160" spans="9:15" x14ac:dyDescent="0.3">
@@ -11027,15 +11024,15 @@
       </c>
       <c r="J160">
         <f t="shared" si="14"/>
-        <v>19937.694704049845</v>
+        <v>24922.118380062304</v>
       </c>
       <c r="K160">
         <f t="shared" si="10"/>
-        <v>0.39875389408099687</v>
+        <v>0.49844236760124611</v>
       </c>
       <c r="L160">
         <f t="shared" ref="L160:L223" si="15">($E$31*$D$29)/(65534*I160)</f>
-        <v>0.30423436237754209</v>
+        <v>0.38029295297192761</v>
       </c>
       <c r="M160">
         <f t="shared" si="11"/>
@@ -11047,7 +11044,7 @@
       </c>
       <c r="O160">
         <f t="shared" ref="O160:O223" si="16">($E$31*$D$29)/((J160+1)*(M160+1))</f>
-        <v>6419.6780130246589</v>
+        <v>6419.7424078358863</v>
       </c>
     </row>
     <row r="161" spans="9:15" x14ac:dyDescent="0.3">
@@ -11057,15 +11054,15 @@
       </c>
       <c r="J161">
         <f t="shared" si="14"/>
-        <v>19783.616692426585</v>
+        <v>24729.520865533232</v>
       </c>
       <c r="K161">
         <f t="shared" ref="K161:K224" si="17">($E$31*$D$29)/(50000*I161)</f>
-        <v>0.39567233384853168</v>
+        <v>0.49459041731066461</v>
       </c>
       <c r="L161">
         <f t="shared" si="15"/>
-        <v>0.30188324674865846</v>
+        <v>0.37735405843582309</v>
       </c>
       <c r="M161">
         <f t="shared" ref="M161:M224" si="18">INT((K161+L161)/2)</f>
@@ -11077,7 +11074,7 @@
       </c>
       <c r="O161">
         <f t="shared" si="16"/>
-        <v>6469.6729782486773</v>
+        <v>6469.7383799542604</v>
       </c>
     </row>
     <row r="162" spans="9:15" x14ac:dyDescent="0.3">
@@ -11087,15 +11084,15 @@
       </c>
       <c r="J162">
         <f t="shared" si="14"/>
-        <v>19631.901840490798</v>
+        <v>24539.877300613498</v>
       </c>
       <c r="K162">
         <f t="shared" si="17"/>
-        <v>0.39263803680981596</v>
+        <v>0.49079754601226994</v>
       </c>
       <c r="L162">
         <f t="shared" si="15"/>
-        <v>0.29956819117543254</v>
+        <v>0.3744602389692907</v>
       </c>
       <c r="M162">
         <f t="shared" si="18"/>
@@ -11107,7 +11104,7 @@
       </c>
       <c r="O162">
         <f t="shared" si="16"/>
-        <v>6519.6679044161183</v>
+        <v>6519.7343208264265</v>
       </c>
     </row>
     <row r="163" spans="9:15" x14ac:dyDescent="0.3">
@@ -11117,15 +11114,15 @@
       </c>
       <c r="J163">
         <f t="shared" ref="J163:J226" si="21">($E$31*$D$29)/(I163*(M163+1))</f>
-        <v>19482.496194824962</v>
+        <v>24353.120243531201</v>
       </c>
       <c r="K163">
         <f t="shared" si="17"/>
-        <v>0.38964992389649922</v>
+        <v>0.48706240487062402</v>
       </c>
       <c r="L163">
         <f t="shared" si="15"/>
-        <v>0.29728837236892242</v>
+        <v>0.37161046546115301</v>
       </c>
       <c r="M163">
         <f t="shared" si="18"/>
@@ -11137,7 +11134,7 @@
       </c>
       <c r="O163">
         <f t="shared" si="16"/>
-        <v>6569.6627915270283</v>
+        <v>6569.7302304524128</v>
       </c>
     </row>
     <row r="164" spans="9:15" x14ac:dyDescent="0.3">
@@ -11147,15 +11144,15 @@
       </c>
       <c r="J164">
         <f t="shared" si="21"/>
-        <v>19335.347432024169</v>
+        <v>24169.184290030211</v>
       </c>
       <c r="K164">
         <f t="shared" si="17"/>
-        <v>0.38670694864048338</v>
+        <v>0.48338368580060426</v>
       </c>
       <c r="L164">
         <f t="shared" si="15"/>
-        <v>0.29504299191296379</v>
+        <v>0.36880373989120474</v>
       </c>
       <c r="M164">
         <f t="shared" si="18"/>
@@ -11167,7 +11164,7 @@
       </c>
       <c r="O164">
         <f t="shared" si="16"/>
-        <v>6619.6576395814527</v>
+        <v>6619.7261088322475</v>
       </c>
     </row>
     <row r="165" spans="9:15" x14ac:dyDescent="0.3">
@@ -11177,15 +11174,15 @@
       </c>
       <c r="J165">
         <f t="shared" si="21"/>
-        <v>19190.404797601201</v>
+        <v>23988.005997001499</v>
       </c>
       <c r="K165">
         <f t="shared" si="17"/>
-        <v>0.38380809595202398</v>
+        <v>0.47976011994002998</v>
       </c>
       <c r="L165">
         <f t="shared" si="15"/>
-        <v>0.29283127533190711</v>
+        <v>0.36603909416488384</v>
       </c>
       <c r="M165">
         <f t="shared" si="18"/>
@@ -11197,7 +11194,7 @@
       </c>
       <c r="O165">
         <f t="shared" si="16"/>
-        <v>6669.6524485794371</v>
+        <v>6669.7219559659607</v>
       </c>
     </row>
     <row r="166" spans="9:15" x14ac:dyDescent="0.3">
@@ -11207,15 +11204,15 @@
       </c>
       <c r="J166">
         <f t="shared" si="21"/>
-        <v>19047.619047619046</v>
+        <v>23809.523809523809</v>
       </c>
       <c r="K166">
         <f t="shared" si="17"/>
-        <v>0.38095238095238093</v>
+        <v>0.47619047619047616</v>
       </c>
       <c r="L166">
         <f t="shared" si="15"/>
-        <v>0.29065247119997328</v>
+        <v>0.36331558899996658</v>
       </c>
       <c r="M166">
         <f t="shared" si="18"/>
@@ -11227,7 +11224,7 @@
       </c>
       <c r="O166">
         <f t="shared" si="16"/>
-        <v>6719.6472185210287</v>
+        <v>6719.7177718535822</v>
       </c>
     </row>
     <row r="167" spans="9:15" x14ac:dyDescent="0.3">
@@ -11237,15 +11234,15 @@
       </c>
       <c r="J167">
         <f t="shared" si="21"/>
-        <v>18906.942392909896</v>
+        <v>23633.677991137371</v>
       </c>
       <c r="K167">
         <f t="shared" si="17"/>
-        <v>0.37813884785819796</v>
+        <v>0.47267355982274739</v>
       </c>
       <c r="L167">
         <f t="shared" si="15"/>
-        <v>0.28850585029007686</v>
+        <v>0.36063231286259606</v>
       </c>
       <c r="M167">
         <f t="shared" si="18"/>
@@ -11257,7 +11254,7 @@
       </c>
       <c r="O167">
         <f t="shared" si="16"/>
-        <v>6769.6419494062702</v>
+        <v>6769.7135564951404</v>
       </c>
     </row>
     <row r="168" spans="9:15" x14ac:dyDescent="0.3">
@@ -11267,15 +11264,15 @@
       </c>
       <c r="J168">
         <f t="shared" si="21"/>
-        <v>18768.3284457478</v>
+        <v>23460.41055718475</v>
       </c>
       <c r="K168">
         <f t="shared" si="17"/>
-        <v>0.37536656891495601</v>
+        <v>0.46920821114369504</v>
       </c>
       <c r="L168">
         <f t="shared" si="15"/>
-        <v>0.28639070476009093</v>
+        <v>0.3579883809501137</v>
       </c>
       <c r="M168">
         <f t="shared" si="18"/>
@@ -11287,7 +11284,7 @@
       </c>
       <c r="O168">
         <f t="shared" si="16"/>
-        <v>6819.636641235209</v>
+        <v>6819.7093098906662</v>
       </c>
     </row>
     <row r="169" spans="9:15" x14ac:dyDescent="0.3">
@@ -11297,15 +11294,15 @@
       </c>
       <c r="J169">
         <f t="shared" si="21"/>
-        <v>18631.732168850074</v>
+        <v>23289.665211062591</v>
       </c>
       <c r="K169">
         <f t="shared" si="17"/>
-        <v>0.37263464337700147</v>
+        <v>0.46579330422125181</v>
       </c>
       <c r="L169">
         <f t="shared" si="15"/>
-        <v>0.28430634737464633</v>
+        <v>0.35538293421830791</v>
       </c>
       <c r="M169">
         <f t="shared" si="18"/>
@@ -11317,7 +11314,7 @@
       </c>
       <c r="O169">
         <f t="shared" si="16"/>
-        <v>6869.6312940078915</v>
+        <v>6869.7050320401868</v>
       </c>
     </row>
     <row r="170" spans="9:15" x14ac:dyDescent="0.3">
@@ -11327,15 +11324,15 @@
       </c>
       <c r="J170">
         <f t="shared" si="21"/>
-        <v>18497.109826589596</v>
+        <v>23121.387283236993</v>
       </c>
       <c r="K170">
         <f t="shared" si="17"/>
-        <v>0.36994219653179189</v>
+        <v>0.46242774566473988</v>
       </c>
       <c r="L170">
         <f t="shared" si="15"/>
-        <v>0.2822521107606677</v>
+        <v>0.35281513845083462</v>
       </c>
       <c r="M170">
         <f t="shared" si="18"/>
@@ -11347,7 +11344,7 @@
       </c>
       <c r="O170">
         <f t="shared" si="16"/>
-        <v>6919.6259077243631</v>
+        <v>6919.7007229437331</v>
       </c>
     </row>
     <row r="171" spans="9:15" x14ac:dyDescent="0.3">
@@ -11357,15 +11354,15 @@
       </c>
       <c r="J171">
         <f t="shared" si="21"/>
-        <v>18364.41893830703</v>
+        <v>22955.523672883788</v>
       </c>
       <c r="K171">
         <f t="shared" si="17"/>
-        <v>0.36728837876614062</v>
+        <v>0.45911047345767575</v>
       </c>
       <c r="L171">
         <f t="shared" si="15"/>
-        <v>0.28022734669495269</v>
+        <v>0.35028418336869088</v>
       </c>
       <c r="M171">
         <f t="shared" si="18"/>
@@ -11377,7 +11374,7 @@
       </c>
       <c r="O171">
         <f t="shared" si="16"/>
-        <v>6969.6204823846701</v>
+        <v>6969.6963826013325</v>
       </c>
     </row>
     <row r="172" spans="9:15" x14ac:dyDescent="0.3">
@@ -11387,15 +11384,15 @@
       </c>
       <c r="J172">
         <f t="shared" si="21"/>
-        <v>18233.618233618232</v>
+        <v>22792.022792022792</v>
       </c>
       <c r="K172">
         <f t="shared" si="17"/>
-        <v>0.36467236467236469</v>
+        <v>0.45584045584045585</v>
       </c>
       <c r="L172">
         <f t="shared" si="15"/>
-        <v>0.27823142542219664</v>
+        <v>0.34778928177774576</v>
       </c>
       <c r="M172">
         <f t="shared" si="18"/>
@@ -11407,7 +11404,7 @@
       </c>
       <c r="O172">
         <f t="shared" si="16"/>
-        <v>7019.6150179888582</v>
+        <v>7019.6920110130168</v>
       </c>
     </row>
     <row r="173" spans="9:15" x14ac:dyDescent="0.3">
@@ -11417,15 +11414,15 @@
       </c>
       <c r="J173">
         <f t="shared" si="21"/>
-        <v>18104.667609618104</v>
+        <v>22630.834512022629</v>
       </c>
       <c r="K173">
         <f t="shared" si="17"/>
-        <v>0.36209335219236211</v>
+        <v>0.45261669024045259</v>
       </c>
       <c r="L173">
         <f t="shared" si="15"/>
-        <v>0.27626373500195478</v>
+        <v>0.34532966875244347</v>
       </c>
       <c r="M173">
         <f t="shared" si="18"/>
@@ -11437,7 +11434,7 @@
       </c>
       <c r="O173">
         <f t="shared" si="16"/>
-        <v>7069.6095145369709</v>
+        <v>7069.6876081788141</v>
       </c>
     </row>
     <row r="174" spans="9:15" x14ac:dyDescent="0.3">
@@ -11447,15 +11444,15 @@
       </c>
       <c r="J174">
         <f t="shared" si="21"/>
-        <v>17977.528089887641</v>
+        <v>22471.91011235955</v>
       </c>
       <c r="K174">
         <f t="shared" si="17"/>
-        <v>0.3595505617977528</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L174">
         <f t="shared" si="15"/>
-        <v>0.27432368068312085</v>
+        <v>0.34290460085390101</v>
       </c>
       <c r="M174">
         <f t="shared" si="18"/>
@@ -11467,7 +11464,7 @@
       </c>
       <c r="O174">
         <f t="shared" si="16"/>
-        <v>7119.6039720290555</v>
+        <v>7119.6831740987527</v>
       </c>
     </row>
     <row r="175" spans="9:15" x14ac:dyDescent="0.3">
@@ -11477,15 +11474,15 @@
       </c>
       <c r="J175">
         <f t="shared" si="21"/>
-        <v>17852.16178521618</v>
+        <v>22315.202231520223</v>
       </c>
       <c r="K175">
         <f t="shared" si="17"/>
-        <v>0.35704323570432356</v>
+        <v>0.44630404463040446</v>
       </c>
       <c r="L175">
         <f t="shared" si="15"/>
-        <v>0.27241068430457743</v>
+        <v>0.3405133553807218</v>
       </c>
       <c r="M175">
         <f t="shared" si="18"/>
@@ -11497,7 +11494,7 @@
       </c>
       <c r="O175">
         <f t="shared" si="16"/>
-        <v>7169.5983904651584</v>
+        <v>7169.6787087728635</v>
       </c>
     </row>
     <row r="176" spans="9:15" x14ac:dyDescent="0.3">
@@ -11507,15 +11504,15 @@
       </c>
       <c r="J176">
         <f t="shared" si="21"/>
-        <v>17728.53185595568</v>
+        <v>22160.664819944599</v>
       </c>
       <c r="K176">
         <f t="shared" si="17"/>
-        <v>0.35457063711911357</v>
+        <v>0.44321329639889195</v>
       </c>
       <c r="L176">
         <f t="shared" si="15"/>
-        <v>0.27052418372075071</v>
+        <v>0.33815522965093842</v>
       </c>
       <c r="M176">
         <f t="shared" si="18"/>
@@ -11527,7 +11524,7 @@
       </c>
       <c r="O176">
         <f t="shared" si="16"/>
-        <v>7219.5927698453252</v>
+        <v>7219.6742122011738</v>
       </c>
     </row>
     <row r="177" spans="9:15" x14ac:dyDescent="0.3">
@@ -11537,15 +11534,15 @@
       </c>
       <c r="J177">
         <f t="shared" si="21"/>
-        <v>17606.602475928474</v>
+        <v>22008.253094910593</v>
       </c>
       <c r="K177">
         <f t="shared" si="17"/>
-        <v>0.35213204951856947</v>
+        <v>0.44016506189821181</v>
       </c>
       <c r="L177">
         <f t="shared" si="15"/>
-        <v>0.26866363225086937</v>
+        <v>0.33582954031358669</v>
       </c>
       <c r="M177">
         <f t="shared" si="18"/>
@@ -11557,7 +11554,7 @@
       </c>
       <c r="O177">
         <f t="shared" si="16"/>
-        <v>7269.5871101696021</v>
+        <v>7269.6696843837153</v>
       </c>
     </row>
     <row r="178" spans="9:15" x14ac:dyDescent="0.3">
@@ -11567,15 +11564,15 @@
       </c>
       <c r="J178">
         <f t="shared" si="21"/>
-        <v>17486.338797814209</v>
+        <v>21857.923497267759</v>
       </c>
       <c r="K178">
         <f t="shared" si="17"/>
-        <v>0.34972677595628415</v>
+        <v>0.43715846994535518</v>
       </c>
       <c r="L178">
         <f t="shared" si="15"/>
-        <v>0.26682849815079512</v>
+        <v>0.3335356226884939</v>
       </c>
       <c r="M178">
         <f t="shared" si="18"/>
@@ -11587,7 +11584,7 @@
       </c>
       <c r="O178">
         <f t="shared" si="16"/>
-        <v>7319.5814114380328</v>
+        <v>7319.6651253205173</v>
       </c>
     </row>
     <row r="179" spans="9:15" x14ac:dyDescent="0.3">
@@ -11597,15 +11594,15 @@
       </c>
       <c r="J179">
         <f t="shared" si="21"/>
-        <v>17367.706919945726</v>
+        <v>21709.633649932159</v>
       </c>
       <c r="K179">
         <f t="shared" si="17"/>
-        <v>0.34735413839891449</v>
+        <v>0.43419267299864317</v>
       </c>
       <c r="L179">
         <f t="shared" si="15"/>
-        <v>0.26501826410635282</v>
+        <v>0.33127283013294101</v>
       </c>
       <c r="M179">
         <f t="shared" si="18"/>
@@ -11617,7 +11614,7 @@
       </c>
       <c r="O179">
         <f t="shared" si="16"/>
-        <v>7369.5756736506655</v>
+        <v>7369.6605350116051</v>
       </c>
     </row>
     <row r="180" spans="9:15" x14ac:dyDescent="0.3">
@@ -11627,15 +11624,15 @@
       </c>
       <c r="J180">
         <f t="shared" si="21"/>
-        <v>17250.673854447439</v>
+        <v>21563.342318059298</v>
       </c>
       <c r="K180">
         <f t="shared" si="17"/>
-        <v>0.34501347708894881</v>
+        <v>0.43126684636118601</v>
       </c>
       <c r="L180">
         <f t="shared" si="15"/>
-        <v>0.26323242674714559</v>
+        <v>0.32904053343393197</v>
       </c>
       <c r="M180">
         <f t="shared" si="18"/>
@@ -11647,7 +11644,7 @@
       </c>
       <c r="O180">
         <f t="shared" si="16"/>
-        <v>7419.5698968075449</v>
+        <v>7419.6559134570134</v>
       </c>
     </row>
     <row r="181" spans="9:15" x14ac:dyDescent="0.3">
@@ -11657,15 +11654,15 @@
       </c>
       <c r="J181">
         <f t="shared" si="21"/>
-        <v>17135.207496653278</v>
+        <v>21419.009370816599</v>
       </c>
       <c r="K181">
         <f t="shared" si="17"/>
-        <v>0.34270414993306558</v>
+        <v>0.42838018741633199</v>
       </c>
       <c r="L181">
         <f t="shared" si="15"/>
-        <v>0.26147049617989565</v>
+        <v>0.32683812022486952</v>
       </c>
       <c r="M181">
         <f t="shared" si="18"/>
@@ -11677,7 +11674,7 @@
       </c>
       <c r="O181">
         <f t="shared" si="16"/>
-        <v>7469.5640809087163</v>
+        <v>7469.6512606567685</v>
       </c>
     </row>
     <row r="182" spans="9:15" x14ac:dyDescent="0.3">
@@ -11687,15 +11684,15 @@
       </c>
       <c r="J182">
         <f t="shared" si="21"/>
-        <v>17021.276595744679</v>
+        <v>21276.59574468085</v>
       </c>
       <c r="K182">
         <f t="shared" si="17"/>
-        <v>0.34042553191489361</v>
+        <v>0.42553191489361702</v>
       </c>
       <c r="L182">
         <f t="shared" si="15"/>
-        <v>0.25973199554040166</v>
+        <v>0.32466499442550206</v>
       </c>
       <c r="M182">
         <f t="shared" si="18"/>
@@ -11707,7 +11704,7 @@
       </c>
       <c r="O182">
         <f t="shared" si="16"/>
-        <v>7519.5582259542261</v>
+        <v>7519.6465766108995</v>
       </c>
     </row>
     <row r="183" spans="9:15" x14ac:dyDescent="0.3">
@@ -11717,15 +11714,15 @@
       </c>
       <c r="J183">
         <f t="shared" si="21"/>
-        <v>16908.85072655218</v>
+        <v>21136.063408190224</v>
       </c>
       <c r="K183">
         <f t="shared" si="17"/>
-        <v>0.3381770145310436</v>
+        <v>0.42272126816380451</v>
       </c>
       <c r="L183">
         <f t="shared" si="15"/>
-        <v>0.25801646056325234</v>
+        <v>0.32252057570406545</v>
       </c>
       <c r="M183">
         <f t="shared" si="18"/>
@@ -11737,7 +11734,7 @@
       </c>
       <c r="O183">
         <f t="shared" si="16"/>
-        <v>7569.5523319441181</v>
+        <v>7569.6418613194364</v>
       </c>
     </row>
     <row r="184" spans="9:15" x14ac:dyDescent="0.3">
@@ -11747,15 +11744,15 @@
       </c>
       <c r="J184">
         <f t="shared" si="21"/>
-        <v>16797.900262467192</v>
+        <v>20997.375328083988</v>
       </c>
       <c r="K184">
         <f t="shared" si="17"/>
-        <v>0.33595800524934383</v>
+        <v>0.41994750656167978</v>
       </c>
       <c r="L184">
         <f t="shared" si="15"/>
-        <v>0.25632343916848038</v>
+        <v>0.32040429896060046</v>
       </c>
       <c r="M184">
         <f t="shared" si="18"/>
@@ -11767,7 +11764,7 @@
       </c>
       <c r="O184">
         <f t="shared" si="16"/>
-        <v>7619.5463988784413</v>
+        <v>7619.6371147824093</v>
       </c>
     </row>
     <row r="185" spans="9:15" x14ac:dyDescent="0.3">
@@ -11777,15 +11774,15 @@
       </c>
       <c r="J185">
         <f t="shared" si="21"/>
-        <v>16688.396349413299</v>
+        <v>20860.495436766621</v>
       </c>
       <c r="K185">
         <f t="shared" si="17"/>
-        <v>0.33376792698826596</v>
+        <v>0.41720990873533248</v>
       </c>
       <c r="L185">
         <f t="shared" si="15"/>
-        <v>0.25465249106438337</v>
+        <v>0.31831561383047918</v>
       </c>
       <c r="M185">
         <f t="shared" si="18"/>
@@ -11797,7 +11794,7 @@
       </c>
       <c r="O185">
         <f t="shared" si="16"/>
-        <v>7669.5404267572403</v>
+        <v>7669.6323369998454</v>
       </c>
     </row>
     <row r="186" spans="9:15" x14ac:dyDescent="0.3">
@@ -11807,15 +11804,15 @@
       </c>
       <c r="J186">
         <f t="shared" si="21"/>
-        <v>16580.310880829016</v>
+        <v>20725.388601036269</v>
       </c>
       <c r="K186">
         <f t="shared" si="17"/>
-        <v>0.33160621761658032</v>
+        <v>0.41450777202072536</v>
       </c>
       <c r="L186">
         <f t="shared" si="15"/>
-        <v>0.25300318736577981</v>
+        <v>0.31625398420722478</v>
       </c>
       <c r="M186">
         <f t="shared" si="18"/>
@@ -11827,7 +11824,7 @@
       </c>
       <c r="O186">
         <f t="shared" si="16"/>
-        <v>7719.5344155805597</v>
+        <v>7719.6275279717756</v>
       </c>
     </row>
     <row r="187" spans="9:15" x14ac:dyDescent="0.3">
@@ -11837,15 +11834,15 @@
       </c>
       <c r="J187">
         <f t="shared" si="21"/>
-        <v>16473.616473616472</v>
+        <v>20592.020592020592</v>
       </c>
       <c r="K187">
         <f t="shared" si="17"/>
-        <v>0.32947232947232946</v>
+        <v>0.41184041184041181</v>
       </c>
       <c r="L187">
         <f t="shared" si="15"/>
-        <v>0.25137511022700387</v>
+        <v>0.3142188877837549</v>
       </c>
       <c r="M187">
         <f t="shared" si="18"/>
@@ -11857,7 +11854,7 @@
       </c>
       <c r="O187">
         <f t="shared" si="16"/>
-        <v>7769.5283653484485</v>
+        <v>7769.6226876982291</v>
       </c>
     </row>
     <row r="188" spans="9:15" x14ac:dyDescent="0.3">
@@ -11867,15 +11864,15 @@
       </c>
       <c r="J188">
         <f t="shared" si="21"/>
-        <v>16368.286445012787</v>
+        <v>20460.358056265984</v>
       </c>
       <c r="K188">
         <f t="shared" si="17"/>
-        <v>0.32736572890025578</v>
+        <v>0.40920716112531969</v>
       </c>
       <c r="L188">
         <f t="shared" si="15"/>
-        <v>0.24976785248897959</v>
+        <v>0.31220981561122446</v>
       </c>
       <c r="M188">
         <f t="shared" si="18"/>
@@ -11887,7 +11884,7 @@
       </c>
       <c r="O188">
         <f t="shared" si="16"/>
-        <v>7819.5222760609468</v>
+        <v>7819.6178161792341</v>
       </c>
     </row>
     <row r="189" spans="9:15" x14ac:dyDescent="0.3">
@@ -11897,15 +11894,15 @@
       </c>
       <c r="J189">
         <f t="shared" si="21"/>
-        <v>16264.294790343076</v>
+        <v>20330.368487928845</v>
       </c>
       <c r="K189">
         <f t="shared" si="17"/>
-        <v>0.32528589580686151</v>
+        <v>0.40660736975857686</v>
       </c>
       <c r="L189">
         <f t="shared" si="15"/>
-        <v>0.24818101733974846</v>
+        <v>0.31022627167468558</v>
       </c>
       <c r="M189">
         <f t="shared" si="18"/>
@@ -11917,7 +11914,7 @@
       </c>
       <c r="O189">
         <f t="shared" si="16"/>
-        <v>7869.5161477181045</v>
+        <v>7869.6129134148214</v>
       </c>
     </row>
     <row r="190" spans="9:15" x14ac:dyDescent="0.3">
@@ -11927,15 +11924,15 @@
       </c>
       <c r="J190">
         <f t="shared" si="21"/>
-        <v>16161.616161616161</v>
+        <v>20202.020202020201</v>
       </c>
       <c r="K190">
         <f t="shared" si="17"/>
-        <v>0.32323232323232326</v>
+        <v>0.40404040404040403</v>
       </c>
       <c r="L190">
         <f t="shared" si="15"/>
-        <v>0.2466142179878561</v>
+        <v>0.30826777248482012</v>
       </c>
       <c r="M190">
         <f t="shared" si="18"/>
@@ -11947,7 +11944,7 @@
       </c>
       <c r="O190">
         <f t="shared" si="16"/>
-        <v>7919.5099803199682</v>
+        <v>7919.6079794050193</v>
       </c>
     </row>
     <row r="191" spans="9:15" x14ac:dyDescent="0.3">
@@ -11957,15 +11954,15 @@
       </c>
       <c r="J191">
         <f t="shared" si="21"/>
-        <v>16060.225846925972</v>
+        <v>20075.282308657464</v>
       </c>
       <c r="K191">
         <f t="shared" si="17"/>
-        <v>0.32120451693851942</v>
+        <v>0.40150564617314932</v>
       </c>
       <c r="L191">
         <f t="shared" si="15"/>
-        <v>0.24506707734803265</v>
+        <v>0.30633384668504082</v>
       </c>
       <c r="M191">
         <f t="shared" si="18"/>
@@ -11977,7 +11974,7 @@
       </c>
       <c r="O191">
         <f t="shared" si="16"/>
-        <v>7969.5037738665806</v>
+        <v>7969.6030141498577</v>
       </c>
     </row>
     <row r="192" spans="9:15" x14ac:dyDescent="0.3">
@@ -11987,15 +11984,15 @@
       </c>
       <c r="J192">
         <f t="shared" si="21"/>
-        <v>15960.099750623442</v>
+        <v>19950.124688279302</v>
       </c>
       <c r="K192">
         <f t="shared" si="17"/>
-        <v>0.31920199501246882</v>
+        <v>0.39900249376558605</v>
       </c>
       <c r="L192">
         <f t="shared" si="15"/>
-        <v>0.24353922773863096</v>
+        <v>0.30442403467328871</v>
       </c>
       <c r="M192">
         <f t="shared" si="18"/>
@@ -12007,7 +12004,7 @@
       </c>
       <c r="O192">
         <f t="shared" si="16"/>
-        <v>8019.4975283579888</v>
+        <v>8019.5980176493649</v>
       </c>
     </row>
     <row r="193" spans="9:15" x14ac:dyDescent="0.3">
@@ -12017,15 +12014,15 @@
       </c>
       <c r="J193">
         <f t="shared" si="21"/>
-        <v>15861.214374225527</v>
+        <v>19826.517967781907</v>
       </c>
       <c r="K193">
         <f t="shared" si="17"/>
-        <v>0.31722428748451054</v>
+        <v>0.39653035935563818</v>
       </c>
       <c r="L193">
         <f t="shared" si="15"/>
-        <v>0.2420303105903123</v>
+        <v>0.30253788823789041</v>
       </c>
       <c r="M193">
         <f t="shared" si="18"/>
@@ -12037,7 +12034,7 @@
       </c>
       <c r="O193">
         <f t="shared" si="16"/>
-        <v>8069.4912437942385</v>
+        <v>8069.5929899035727</v>
       </c>
     </row>
     <row r="194" spans="9:15" x14ac:dyDescent="0.3">
@@ -12047,15 +12044,15 @@
       </c>
       <c r="J194">
         <f t="shared" si="21"/>
-        <v>15763.546798029556</v>
+        <v>19704.433497536946</v>
       </c>
       <c r="K194">
         <f t="shared" si="17"/>
-        <v>0.31527093596059114</v>
+        <v>0.39408866995073893</v>
       </c>
       <c r="L194">
         <f t="shared" si="15"/>
-        <v>0.24053997616549511</v>
+        <v>0.3006749702068689</v>
       </c>
       <c r="M194">
         <f t="shared" si="18"/>
@@ -12067,7 +12064,7 @@
       </c>
       <c r="O194">
         <f t="shared" si="16"/>
-        <v>8119.4849201753768</v>
+        <v>8119.5879309125066</v>
       </c>
     </row>
     <row r="195" spans="9:15" x14ac:dyDescent="0.3">
@@ -12077,15 +12074,15 @@
       </c>
       <c r="J195">
         <f t="shared" si="21"/>
-        <v>15667.074663402693</v>
+        <v>19583.843329253366</v>
       </c>
       <c r="K195">
         <f t="shared" si="17"/>
-        <v>0.31334149326805383</v>
+        <v>0.39167686658506734</v>
       </c>
       <c r="L195">
         <f t="shared" si="15"/>
-        <v>0.2390678832881053</v>
+        <v>0.29883485411013161</v>
       </c>
       <c r="M195">
         <f t="shared" si="18"/>
@@ -12097,7 +12094,7 @@
       </c>
       <c r="O195">
         <f t="shared" si="16"/>
-        <v>8169.4785575014466</v>
+        <v>8169.5828406761975</v>
       </c>
     </row>
     <row r="196" spans="9:15" x14ac:dyDescent="0.3">
@@ -12107,15 +12104,15 @@
       </c>
       <c r="J196">
         <f t="shared" si="21"/>
-        <v>15571.776155717762</v>
+        <v>19464.720194647201</v>
       </c>
       <c r="K196">
         <f t="shared" si="17"/>
-        <v>0.31143552311435524</v>
+        <v>0.38929440389294406</v>
       </c>
       <c r="L196">
         <f t="shared" si="15"/>
-        <v>0.23761369908318983</v>
+        <v>0.29701712385398726</v>
       </c>
       <c r="M196">
         <f t="shared" si="18"/>
@@ -12127,7 +12124,7 @@
       </c>
       <c r="O196">
         <f t="shared" si="16"/>
-        <v>8219.472155772497</v>
+        <v>8219.5777191946763</v>
       </c>
     </row>
     <row r="197" spans="9:15" x14ac:dyDescent="0.3">
@@ -12137,15 +12134,15 @@
       </c>
       <c r="J197">
         <f t="shared" si="21"/>
-        <v>15477.629987908102</v>
+        <v>19347.037484885128</v>
       </c>
       <c r="K197">
         <f t="shared" si="17"/>
-        <v>0.30955259975816202</v>
+        <v>0.38694074969770254</v>
       </c>
       <c r="L197">
         <f t="shared" si="15"/>
-        <v>0.23617709872597586</v>
+        <v>0.29522137340746979</v>
       </c>
       <c r="M197">
         <f t="shared" si="18"/>
@@ -12157,7 +12154,7 @@
       </c>
       <c r="O197">
         <f t="shared" si="16"/>
-        <v>8269.4657149885697</v>
+        <v>8269.5725664679703</v>
       </c>
     </row>
     <row r="198" spans="9:15" x14ac:dyDescent="0.3">
@@ -12167,15 +12164,15 @@
       </c>
       <c r="J198">
         <f t="shared" si="21"/>
-        <v>15384.615384615385</v>
+        <v>19230.76923076923</v>
       </c>
       <c r="K198">
         <f t="shared" si="17"/>
-        <v>0.30769230769230771</v>
+        <v>0.38461538461538464</v>
       </c>
       <c r="L198">
         <f t="shared" si="15"/>
-        <v>0.2347577651999784</v>
+        <v>0.29344720649997302</v>
       </c>
       <c r="M198">
         <f t="shared" si="18"/>
@@ -12187,7 +12184,7 @@
       </c>
       <c r="O198">
         <f t="shared" si="16"/>
-        <v>8319.4592351497158</v>
+        <v>8319.5673824961104</v>
       </c>
     </row>
     <row r="199" spans="9:15" x14ac:dyDescent="0.3">
@@ -12197,15 +12194,15 @@
       </c>
       <c r="J199">
         <f t="shared" si="21"/>
-        <v>15292.712066905615</v>
+        <v>19115.890083632021</v>
       </c>
       <c r="K199">
         <f t="shared" si="17"/>
-        <v>0.30585424133811229</v>
+        <v>0.3823178016726404</v>
       </c>
       <c r="L199">
         <f t="shared" si="15"/>
-        <v>0.23335538906377781</v>
+        <v>0.29169423632972225</v>
       </c>
       <c r="M199">
         <f t="shared" si="18"/>
@@ -12217,7 +12214,7 @@
       </c>
       <c r="O199">
         <f t="shared" si="16"/>
-        <v>8369.4527162559771</v>
+        <v>8369.562167279124</v>
       </c>
     </row>
     <row r="200" spans="9:15" x14ac:dyDescent="0.3">
@@ -12227,15 +12224,15 @@
       </c>
       <c r="J200">
         <f t="shared" si="21"/>
-        <v>15201.900237529691</v>
+        <v>19002.375296912112</v>
       </c>
       <c r="K200">
         <f t="shared" si="17"/>
-        <v>0.30403800475059384</v>
+        <v>0.38004750593824227</v>
       </c>
       <c r="L200">
         <f t="shared" si="15"/>
-        <v>0.23196966822610693</v>
+        <v>0.28996208528263367</v>
       </c>
       <c r="M200">
         <f t="shared" si="18"/>
@@ -12247,7 +12244,7 @@
       </c>
       <c r="O200">
         <f t="shared" si="16"/>
-        <v>8419.4461583073989</v>
+        <v>8419.5569208170418</v>
       </c>
     </row>
     <row r="201" spans="9:15" x14ac:dyDescent="0.3">
@@ -12257,15 +12254,15 @@
       </c>
       <c r="J201">
         <f t="shared" si="21"/>
-        <v>15112.160566706021</v>
+        <v>18890.200708382526</v>
       </c>
       <c r="K201">
         <f t="shared" si="17"/>
-        <v>0.30224321133412041</v>
+        <v>0.37780401416765053</v>
       </c>
       <c r="L201">
         <f t="shared" si="15"/>
-        <v>0.23060030772890441</v>
+        <v>0.28825038466113051</v>
       </c>
       <c r="M201">
         <f t="shared" si="18"/>
@@ -12277,7 +12274,7 @@
       </c>
       <c r="O201">
         <f t="shared" si="16"/>
-        <v>8469.4395613040288</v>
+        <v>8469.5516431098931</v>
       </c>
     </row>
     <row r="202" spans="9:15" x14ac:dyDescent="0.3">
@@ -12287,15 +12284,15 @@
       </c>
       <c r="J202">
         <f t="shared" si="21"/>
-        <v>15023.474178403756</v>
+        <v>18779.342723004695</v>
       </c>
       <c r="K202">
         <f t="shared" si="17"/>
-        <v>0.30046948356807512</v>
+        <v>0.37558685446009388</v>
       </c>
       <c r="L202">
         <f t="shared" si="15"/>
-        <v>0.22924701953800708</v>
+        <v>0.28655877442250882</v>
       </c>
       <c r="M202">
         <f t="shared" si="18"/>
@@ -12307,7 +12304,7 @@
       </c>
       <c r="O202">
         <f t="shared" si="16"/>
-        <v>8519.4329252459138</v>
+        <v>8519.546334157707</v>
       </c>
     </row>
     <row r="203" spans="9:15" x14ac:dyDescent="0.3">
@@ -12317,15 +12314,15 @@
       </c>
       <c r="J203">
         <f t="shared" si="21"/>
-        <v>14935.822637106185</v>
+        <v>18669.77829638273</v>
       </c>
       <c r="K203">
         <f t="shared" si="17"/>
-        <v>0.29871645274212366</v>
+        <v>0.3733955659276546</v>
       </c>
       <c r="L203">
         <f t="shared" si="15"/>
-        <v>0.22790952234116924</v>
+        <v>0.28488690292646152</v>
       </c>
       <c r="M203">
         <f t="shared" si="18"/>
@@ -12337,7 +12334,7 @@
       </c>
       <c r="O203">
         <f t="shared" si="16"/>
-        <v>8569.4262501330959</v>
+        <v>8569.5409939605106</v>
       </c>
     </row>
     <row r="204" spans="9:15" x14ac:dyDescent="0.3">
@@ -12347,15 +12344,15 @@
       </c>
       <c r="J204">
         <f t="shared" si="21"/>
-        <v>14849.187935034803</v>
+        <v>18561.484918793503</v>
       </c>
       <c r="K204">
         <f t="shared" si="17"/>
-        <v>0.29698375870069604</v>
+        <v>0.37122969837587005</v>
       </c>
       <c r="L204">
         <f t="shared" si="15"/>
-        <v>0.2265875413531114</v>
+        <v>0.28323442669138926</v>
       </c>
       <c r="M204">
         <f t="shared" si="18"/>
@@ -12367,7 +12364,7 @@
       </c>
       <c r="O204">
         <f t="shared" si="16"/>
-        <v>8619.4195359656242</v>
+        <v>8619.5356225183368</v>
       </c>
     </row>
     <row r="205" spans="9:15" x14ac:dyDescent="0.3">
@@ -12377,15 +12374,15 @@
       </c>
       <c r="J205">
         <f t="shared" si="21"/>
-        <v>14763.552479815455</v>
+        <v>18454.440599769321</v>
       </c>
       <c r="K205">
         <f t="shared" si="17"/>
-        <v>0.29527104959630912</v>
+        <v>0.3690888119953864</v>
       </c>
       <c r="L205">
         <f t="shared" si="15"/>
-        <v>0.22528080812731491</v>
+        <v>0.28160101015914363</v>
       </c>
       <c r="M205">
         <f t="shared" si="18"/>
@@ -12397,7 +12394,7 @@
       </c>
       <c r="O205">
         <f t="shared" si="16"/>
-        <v>8669.4127827435441</v>
+        <v>8669.5302198312129</v>
       </c>
     </row>
     <row r="206" spans="9:15" x14ac:dyDescent="0.3">
@@ -12407,15 +12404,15 @@
       </c>
       <c r="J206">
         <f t="shared" si="21"/>
-        <v>14678.899082568807</v>
+        <v>18348.623853211007</v>
       </c>
       <c r="K206">
         <f t="shared" si="17"/>
-        <v>0.29357798165137616</v>
+        <v>0.3669724770642202</v>
       </c>
       <c r="L206">
         <f t="shared" si="15"/>
-        <v>0.22398906037429131</v>
+        <v>0.27998632546786417</v>
       </c>
       <c r="M206">
         <f t="shared" si="18"/>
@@ -12427,7 +12424,7 @@
       </c>
       <c r="O206">
         <f t="shared" si="16"/>
-        <v>8719.4059904668993</v>
+        <v>8719.5247858991697</v>
       </c>
     </row>
     <row r="207" spans="9:15" x14ac:dyDescent="0.3">
@@ -12437,15 +12434,15 @@
       </c>
       <c r="J207">
         <f t="shared" si="21"/>
-        <v>14595.21094640821</v>
+        <v>18244.013683010264</v>
       </c>
       <c r="K207">
         <f t="shared" si="17"/>
-        <v>0.29190421892816421</v>
+        <v>0.36488027366020526</v>
       </c>
       <c r="L207">
         <f t="shared" si="15"/>
-        <v>0.22271204178606846</v>
+        <v>0.27839005223258556</v>
       </c>
       <c r="M207">
         <f t="shared" si="18"/>
@@ -12457,7 +12454,7 @@
       </c>
       <c r="O207">
         <f t="shared" si="16"/>
-        <v>8769.3991591357371</v>
+        <v>8769.5193207222328</v>
       </c>
     </row>
     <row r="208" spans="9:15" x14ac:dyDescent="0.3">
@@ -12467,15 +12464,15 @@
       </c>
       <c r="J208">
         <f t="shared" si="21"/>
-        <v>14512.471655328798</v>
+        <v>18140.589569160999</v>
       </c>
       <c r="K208">
         <f t="shared" si="17"/>
-        <v>0.29024943310657597</v>
+        <v>0.36281179138321995</v>
       </c>
       <c r="L208">
         <f t="shared" si="15"/>
-        <v>0.2214495018666463</v>
+        <v>0.27681187733330787</v>
       </c>
       <c r="M208">
         <f t="shared" si="18"/>
@@ -12487,7 +12484,7 @@
       </c>
       <c r="O208">
         <f t="shared" si="16"/>
-        <v>8819.392288750103</v>
+        <v>8819.5138243004349</v>
       </c>
     </row>
     <row r="209" spans="9:15" x14ac:dyDescent="0.3">
@@ -12497,15 +12494,15 @@
       </c>
       <c r="J209">
         <f t="shared" si="21"/>
-        <v>14430.665163472378</v>
+        <v>18038.331454340474</v>
       </c>
       <c r="K209">
         <f t="shared" si="17"/>
-        <v>0.28861330326944756</v>
+        <v>0.36076662908680945</v>
       </c>
       <c r="L209">
         <f t="shared" si="15"/>
-        <v>0.22020119576818717</v>
+        <v>0.27525149471023397</v>
       </c>
       <c r="M209">
         <f t="shared" si="18"/>
@@ -12517,7 +12514,7 @@
       </c>
       <c r="O209">
         <f t="shared" si="16"/>
-        <v>8869.3853793100425</v>
+        <v>8869.508296633805</v>
       </c>
     </row>
     <row r="210" spans="9:15" x14ac:dyDescent="0.3">
@@ -12527,15 +12524,15 @@
       </c>
       <c r="J210">
         <f t="shared" si="21"/>
-        <v>14349.775784753363</v>
+        <v>17937.219730941702</v>
       </c>
       <c r="K210">
         <f t="shared" si="17"/>
-        <v>0.28699551569506726</v>
+        <v>0.35874439461883406</v>
       </c>
       <c r="L210">
         <f t="shared" si="15"/>
-        <v>0.21896688413271528</v>
+        <v>0.27370860516589413</v>
       </c>
       <c r="M210">
         <f t="shared" si="18"/>
@@ -12547,7 +12544,7 @@
       </c>
       <c r="O210">
         <f t="shared" si="16"/>
-        <v>8919.3784308156028</v>
+        <v>8919.5027377223723</v>
       </c>
     </row>
     <row r="211" spans="9:15" x14ac:dyDescent="0.3">
@@ -12557,15 +12554,15 @@
       </c>
       <c r="J211">
         <f t="shared" si="21"/>
-        <v>14269.78818283166</v>
+        <v>17837.235228539575</v>
       </c>
       <c r="K211">
         <f t="shared" si="17"/>
-        <v>0.28539576365663322</v>
+        <v>0.35674470457079155</v>
       </c>
       <c r="L211">
         <f t="shared" si="15"/>
-        <v>0.21774633293911042</v>
+        <v>0.27218291617388801</v>
       </c>
       <c r="M211">
         <f t="shared" si="18"/>
@@ -12577,7 +12574,7 @@
       </c>
       <c r="O211">
         <f t="shared" si="16"/>
-        <v>8969.3714432668276</v>
+        <v>8969.4971475661641</v>
       </c>
     </row>
     <row r="212" spans="9:15" x14ac:dyDescent="0.3">
@@ -12587,15 +12584,15 @@
       </c>
       <c r="J212">
         <f t="shared" si="21"/>
-        <v>14190.687361419068</v>
+        <v>17738.359201773837</v>
       </c>
       <c r="K212">
         <f t="shared" si="17"/>
-        <v>0.28381374722838137</v>
+        <v>0.35476718403547675</v>
       </c>
       <c r="L212">
         <f t="shared" si="15"/>
-        <v>0.21653931335519072</v>
+        <v>0.2706741416939884</v>
       </c>
       <c r="M212">
         <f t="shared" si="18"/>
@@ -12607,7 +12604,7 @@
       </c>
       <c r="O212">
         <f t="shared" si="16"/>
-        <v>9019.3644166637641</v>
+        <v>9019.4915261652113</v>
       </c>
     </row>
     <row r="213" spans="9:15" x14ac:dyDescent="0.3">
@@ -12617,15 +12614,15 @@
       </c>
       <c r="J213">
         <f t="shared" si="21"/>
-        <v>14112.458654906284</v>
+        <v>17640.573318632854</v>
       </c>
       <c r="K213">
         <f t="shared" si="17"/>
-        <v>0.28224917309812569</v>
+        <v>0.35281146637265709</v>
       </c>
       <c r="L213">
         <f t="shared" si="15"/>
-        <v>0.21534560159468802</v>
+        <v>0.26918200199336001</v>
       </c>
       <c r="M213">
         <f t="shared" si="18"/>
@@ -12637,7 +12634,7 @@
       </c>
       <c r="O213">
         <f t="shared" si="16"/>
-        <v>9069.3573510064562</v>
+        <v>9069.4858735195448</v>
       </c>
     </row>
     <row r="214" spans="9:15" x14ac:dyDescent="0.3">
@@ -12647,15 +12644,15 @@
       </c>
       <c r="J214">
         <f t="shared" si="21"/>
-        <v>14035.087719298246</v>
+        <v>17543.859649122805</v>
       </c>
       <c r="K214">
         <f t="shared" si="17"/>
-        <v>0.2807017543859649</v>
+        <v>0.35087719298245612</v>
       </c>
       <c r="L214">
         <f t="shared" si="15"/>
-        <v>0.21416497877892768</v>
+        <v>0.26770622347365958</v>
       </c>
       <c r="M214">
         <f t="shared" si="18"/>
@@ -12667,7 +12664,7 @@
       </c>
       <c r="O214">
         <f t="shared" si="16"/>
-        <v>9119.3502462949509</v>
+        <v>9119.480189629192</v>
       </c>
     </row>
     <row r="215" spans="9:15" x14ac:dyDescent="0.3">
@@ -12677,15 +12674,15 @@
       </c>
       <c r="J215">
         <f t="shared" si="21"/>
-        <v>13958.56052344602</v>
+        <v>17448.200654307526</v>
       </c>
       <c r="K215">
         <f t="shared" si="17"/>
-        <v>0.27917121046892041</v>
+        <v>0.34896401308615049</v>
       </c>
       <c r="L215">
         <f t="shared" si="15"/>
-        <v>0.21299723080303384</v>
+        <v>0.26624653850379232</v>
       </c>
       <c r="M215">
         <f t="shared" si="18"/>
@@ -12697,7 +12694,7 @@
       </c>
       <c r="O215">
         <f t="shared" si="16"/>
-        <v>9169.3431025292957</v>
+        <v>9169.47447449418</v>
       </c>
     </row>
     <row r="216" spans="9:15" x14ac:dyDescent="0.3">
@@ -12707,15 +12704,15 @@
       </c>
       <c r="J216">
         <f t="shared" si="21"/>
-        <v>13882.863340563992</v>
+        <v>17353.579175704988</v>
       </c>
       <c r="K216">
         <f t="shared" si="17"/>
-        <v>0.27765726681127983</v>
+        <v>0.34707158351409978</v>
       </c>
       <c r="L216">
         <f t="shared" si="15"/>
-        <v>0.21184214820648811</v>
+        <v>0.26480268525811013</v>
       </c>
       <c r="M216">
         <f t="shared" si="18"/>
@@ -12727,7 +12724,7 @@
       </c>
       <c r="O216">
         <f t="shared" si="16"/>
-        <v>9219.3359197095324</v>
+        <v>9219.4687281145434</v>
       </c>
     </row>
     <row r="217" spans="9:15" x14ac:dyDescent="0.3">
@@ -12737,15 +12734,15 @@
       </c>
       <c r="J217">
         <f t="shared" si="21"/>
-        <v>13807.982740021575</v>
+        <v>17259.978425026969</v>
       </c>
       <c r="K217">
         <f t="shared" si="17"/>
-        <v>0.27615965480043148</v>
+        <v>0.3451995685005394</v>
       </c>
       <c r="L217">
         <f t="shared" si="15"/>
-        <v>0.21069952604787706</v>
+        <v>0.26337440755984631</v>
       </c>
       <c r="M217">
         <f t="shared" si="18"/>
@@ -12757,7 +12754,7 @@
       </c>
       <c r="O217">
         <f t="shared" si="16"/>
-        <v>9269.3286978357119</v>
+        <v>9269.462950490306</v>
       </c>
     </row>
     <row r="218" spans="9:15" x14ac:dyDescent="0.3">
@@ -12767,15 +12764,15 @@
       </c>
       <c r="J218">
         <f t="shared" si="21"/>
-        <v>13733.905579399141</v>
+        <v>17167.381974248929</v>
       </c>
       <c r="K218">
         <f t="shared" si="17"/>
-        <v>0.27467811158798283</v>
+        <v>0.34334763948497854</v>
       </c>
       <c r="L218">
         <f t="shared" si="15"/>
-        <v>0.20956916378367171</v>
+        <v>0.26196145472958965</v>
       </c>
       <c r="M218">
         <f t="shared" si="18"/>
@@ -12787,7 +12784,7 @@
       </c>
       <c r="O218">
         <f t="shared" si="16"/>
-        <v>9319.321436907876</v>
+        <v>9319.4571416215003</v>
       </c>
     </row>
     <row r="219" spans="9:15" x14ac:dyDescent="0.3">
@@ -12797,15 +12794,15 @@
       </c>
       <c r="J219">
         <f t="shared" si="21"/>
-        <v>13660.618996798292</v>
+        <v>17075.773745997867</v>
       </c>
       <c r="K219">
         <f t="shared" si="17"/>
-        <v>0.27321237993596587</v>
+        <v>0.34151547491995732</v>
       </c>
       <c r="L219">
         <f t="shared" si="15"/>
-        <v>0.20845086515088798</v>
+        <v>0.26056358143860997</v>
       </c>
       <c r="M219">
         <f t="shared" si="18"/>
@@ -12817,7 +12814,7 @@
       </c>
       <c r="O219">
         <f t="shared" si="16"/>
-        <v>9369.3141369260702</v>
+        <v>9369.4513015081538</v>
       </c>
     </row>
     <row r="220" spans="9:15" x14ac:dyDescent="0.3">
@@ -12827,15 +12824,15 @@
       </c>
       <c r="J220">
         <f t="shared" si="21"/>
-        <v>13588.110403397028</v>
+        <v>16985.138004246284</v>
       </c>
       <c r="K220">
         <f t="shared" si="17"/>
-        <v>0.27176220806794055</v>
+        <v>0.33970276008492567</v>
       </c>
       <c r="L220">
         <f t="shared" si="15"/>
-        <v>0.2073444380534841</v>
+        <v>0.25918054756685516</v>
       </c>
       <c r="M220">
         <f t="shared" si="18"/>
@@ -12847,7 +12844,7 @@
       </c>
       <c r="O220">
         <f t="shared" si="16"/>
-        <v>9419.3067978903418</v>
+        <v>9419.4454301502992</v>
       </c>
     </row>
     <row r="221" spans="9:15" x14ac:dyDescent="0.3">
@@ -12857,15 +12854,15 @@
       </c>
       <c r="J221">
         <f t="shared" si="21"/>
-        <v>13516.367476240761</v>
+        <v>16895.459345300951</v>
       </c>
       <c r="K221">
         <f t="shared" si="17"/>
-        <v>0.27032734952481519</v>
+        <v>0.33790918690601901</v>
       </c>
       <c r="L221">
         <f t="shared" si="15"/>
-        <v>0.20624969445235694</v>
+        <v>0.25781211806544618</v>
       </c>
       <c r="M221">
         <f t="shared" si="18"/>
@@ -12877,7 +12874,7 @@
       </c>
       <c r="O221">
         <f t="shared" si="16"/>
-        <v>9469.2994198007382</v>
+        <v>9469.4395275479637</v>
       </c>
     </row>
     <row r="222" spans="9:15" x14ac:dyDescent="0.3">
@@ -12887,15 +12884,15 @@
       </c>
       <c r="J222">
         <f t="shared" si="21"/>
-        <v>13445.378151260504</v>
+        <v>16806.722689075632</v>
       </c>
       <c r="K222">
         <f t="shared" si="17"/>
-        <v>0.26890756302521007</v>
+        <v>0.33613445378151263</v>
       </c>
       <c r="L222">
         <f t="shared" si="15"/>
-        <v>0.20516645025880464</v>
+        <v>0.25645806282350581</v>
       </c>
       <c r="M222">
         <f t="shared" si="18"/>
@@ -12907,7 +12904,7 @@
       </c>
       <c r="O222">
         <f t="shared" si="16"/>
-        <v>9519.2920026573029</v>
+        <v>9519.4335937011747</v>
       </c>
     </row>
     <row r="223" spans="9:15" x14ac:dyDescent="0.3">
@@ -12917,15 +12914,15 @@
       </c>
       <c r="J223">
         <f t="shared" si="21"/>
-        <v>13375.130616509927</v>
+        <v>16718.913270637408</v>
       </c>
       <c r="K223">
         <f t="shared" si="17"/>
-        <v>0.26750261233019856</v>
+        <v>0.33437826541274818</v>
       </c>
       <c r="L223">
         <f t="shared" si="15"/>
-        <v>0.20409452523132918</v>
+        <v>0.25511815653916148</v>
       </c>
       <c r="M223">
         <f t="shared" si="18"/>
@@ -12937,7 +12934,7 @@
       </c>
       <c r="O223">
         <f t="shared" si="16"/>
-        <v>9569.2845464600814</v>
+        <v>9569.4276286099648</v>
       </c>
     </row>
     <row r="224" spans="9:15" x14ac:dyDescent="0.3">
@@ -12947,15 +12944,15 @@
       </c>
       <c r="J224">
         <f t="shared" si="21"/>
-        <v>13305.613305613306</v>
+        <v>16632.016632016632</v>
       </c>
       <c r="K224">
         <f t="shared" si="17"/>
-        <v>0.26611226611226613</v>
+        <v>0.33264033264033266</v>
       </c>
       <c r="L224">
         <f t="shared" ref="L224:L254" si="22">($E$31*$D$29)/(65534*I224)</f>
-        <v>0.20303374287565701</v>
+        <v>0.25379217859457126</v>
       </c>
       <c r="M224">
         <f t="shared" si="18"/>
@@ -12967,7 +12964,7 @@
       </c>
       <c r="O224">
         <f t="shared" ref="O224:O254" si="23">($E$31*$D$29)/((J224+1)*(M224+1))</f>
-        <v>9619.2770512091192</v>
+        <v>9619.4216322743596</v>
       </c>
     </row>
     <row r="225" spans="9:15" x14ac:dyDescent="0.3">
@@ -12977,15 +12974,15 @@
       </c>
       <c r="J225">
         <f t="shared" si="21"/>
-        <v>13236.814891416752</v>
+        <v>16546.018614270943</v>
       </c>
       <c r="K225">
         <f t="shared" ref="K225:K254" si="24">($E$31*$D$29)/(50000*I225)</f>
-        <v>0.26473629782833508</v>
+        <v>0.33092037228541882</v>
       </c>
       <c r="L225">
         <f t="shared" si="22"/>
-        <v>0.20198393034786147</v>
+        <v>0.2524799129348268</v>
       </c>
       <c r="M225">
         <f t="shared" ref="M225:M254" si="25">INT((K225+L225)/2)</f>
@@ -12997,7 +12994,7 @@
       </c>
       <c r="O225">
         <f t="shared" si="23"/>
-        <v>9669.2695169044655</v>
+        <v>9669.4156046943899</v>
       </c>
     </row>
     <row r="226" spans="9:15" x14ac:dyDescent="0.3">
@@ -13007,15 +13004,15 @@
       </c>
       <c r="J226">
         <f t="shared" si="21"/>
-        <v>13168.724279835391</v>
+        <v>16460.90534979424</v>
       </c>
       <c r="K226">
         <f t="shared" si="24"/>
-        <v>0.26337448559670784</v>
+        <v>0.32921810699588477</v>
       </c>
       <c r="L226">
         <f t="shared" si="22"/>
-        <v>0.20094491836047534</v>
+        <v>0.25118114795059415</v>
       </c>
       <c r="M226">
         <f t="shared" si="25"/>
@@ -13027,7 +13024,7 @@
       </c>
       <c r="O226">
         <f t="shared" si="23"/>
-        <v>9719.261943546162</v>
+        <v>9719.4095458700867</v>
       </c>
     </row>
     <row r="227" spans="9:15" x14ac:dyDescent="0.3">
@@ -13037,15 +13034,15 @@
       </c>
       <c r="J227">
         <f t="shared" ref="J227:J254" si="28">($E$31*$D$29)/(I227*(M227+1))</f>
-        <v>13101.330603889457</v>
+        <v>16376.663254861822</v>
       </c>
       <c r="K227">
         <f t="shared" si="24"/>
-        <v>0.26202661207778916</v>
+        <v>0.32753326509723646</v>
       </c>
       <c r="L227">
         <f t="shared" si="22"/>
-        <v>0.19991654109148621</v>
+        <v>0.24989567636435778</v>
       </c>
       <c r="M227">
         <f t="shared" si="25"/>
@@ -13057,7 +13054,7 @@
       </c>
       <c r="O227">
         <f t="shared" si="23"/>
-        <v>9769.2543311342561</v>
+        <v>9769.403455801481</v>
       </c>
     </row>
     <row r="228" spans="9:15" x14ac:dyDescent="0.3">
@@ -13067,15 +13064,15 @@
       </c>
       <c r="J228">
         <f t="shared" si="28"/>
-        <v>13034.623217922606</v>
+        <v>16293.279022403258</v>
       </c>
       <c r="K228">
         <f t="shared" si="24"/>
-        <v>0.26069246435845211</v>
+        <v>0.32586558044806518</v>
       </c>
       <c r="L228">
         <f t="shared" si="22"/>
-        <v>0.19889863609611205</v>
+        <v>0.24862329512014006</v>
       </c>
       <c r="M228">
         <f t="shared" si="25"/>
@@ -13087,7 +13084,7 @@
       </c>
       <c r="O228">
         <f t="shared" si="23"/>
-        <v>9819.246679668795</v>
+        <v>9819.3973344885962</v>
       </c>
     </row>
     <row r="229" spans="9:15" x14ac:dyDescent="0.3">
@@ -13097,15 +13094,15 @@
       </c>
       <c r="J229">
         <f t="shared" si="28"/>
-        <v>12968.591691995947</v>
+        <v>16210.739614994935</v>
       </c>
       <c r="K229">
         <f t="shared" si="24"/>
-        <v>0.25937183383991896</v>
+        <v>0.32421479229989869</v>
       </c>
       <c r="L229">
         <f t="shared" si="22"/>
-        <v>0.19789104422125839</v>
+        <v>0.24736380527657298</v>
       </c>
       <c r="M229">
         <f t="shared" si="25"/>
@@ -13117,7 +13114,7 @@
       </c>
       <c r="O229">
         <f t="shared" si="23"/>
-        <v>9869.2389891498206</v>
+        <v>9869.3911819314635</v>
       </c>
     </row>
     <row r="230" spans="9:15" x14ac:dyDescent="0.3">
@@ -13127,15 +13124,15 @@
       </c>
       <c r="J230">
         <f t="shared" si="28"/>
-        <v>12903.225806451614</v>
+        <v>16129.032258064517</v>
       </c>
       <c r="K230">
         <f t="shared" si="24"/>
-        <v>0.25806451612903225</v>
+        <v>0.32258064516129031</v>
       </c>
       <c r="L230">
         <f t="shared" si="22"/>
-        <v>0.19689360952256252</v>
+        <v>0.24611701190320318</v>
       </c>
       <c r="M230">
         <f t="shared" si="25"/>
@@ -13147,7 +13144,7 @@
       </c>
       <c r="O230">
         <f t="shared" si="23"/>
-        <v>9919.2312595773819</v>
+        <v>9919.3849981301155</v>
       </c>
     </row>
     <row r="231" spans="9:15" x14ac:dyDescent="0.3">
@@ -13157,15 +13154,15 @@
       </c>
       <c r="J231">
         <f t="shared" si="28"/>
-        <v>12838.515546639919</v>
+        <v>16048.1444332999</v>
       </c>
       <c r="K231">
         <f t="shared" si="24"/>
-        <v>0.2567703109327984</v>
+        <v>0.32096288866599798</v>
       </c>
       <c r="L231">
         <f t="shared" si="22"/>
-        <v>0.19590617918393383</v>
+        <v>0.24488272397991728</v>
       </c>
       <c r="M231">
         <f t="shared" si="25"/>
@@ -13177,7 +13174,7 @@
       </c>
       <c r="O231">
         <f t="shared" si="23"/>
-        <v>9969.2234909515264</v>
+        <v>9969.3787830845795</v>
       </c>
     </row>
     <row r="232" spans="9:15" x14ac:dyDescent="0.3">
@@ -13187,15 +13184,15 @@
       </c>
       <c r="J232">
         <f t="shared" si="28"/>
-        <v>12774.451097804391</v>
+        <v>15968.063872255489</v>
       </c>
       <c r="K232">
         <f t="shared" si="24"/>
-        <v>0.2554890219560878</v>
+        <v>0.31936127744510978</v>
       </c>
       <c r="L232">
         <f t="shared" si="22"/>
-        <v>0.19492860343950302</v>
+        <v>0.24366075429937878</v>
       </c>
       <c r="M232">
         <f t="shared" si="25"/>
@@ -13207,7 +13204,7 @@
       </c>
       <c r="O232">
         <f t="shared" si="23"/>
-        <v>10019.215683272294</v>
+        <v>10019.372536794883</v>
       </c>
     </row>
     <row r="233" spans="9:15" x14ac:dyDescent="0.3">
@@ -13217,15 +13214,15 @@
       </c>
       <c r="J233">
         <f t="shared" si="28"/>
-        <v>12711.022840119165</v>
+        <v>15888.778550148958</v>
       </c>
       <c r="K233">
         <f t="shared" si="24"/>
-        <v>0.25422045680238331</v>
+        <v>0.31777557100297915</v>
       </c>
       <c r="L233">
         <f t="shared" si="22"/>
-        <v>0.19396073549789675</v>
+        <v>0.24245091937237095</v>
       </c>
       <c r="M233">
         <f t="shared" si="25"/>
@@ -13237,7 +13234,7 @@
       </c>
       <c r="O233">
         <f t="shared" si="23"/>
-        <v>10069.207836539736</v>
+        <v>10069.366259261058</v>
       </c>
     </row>
     <row r="234" spans="9:15" x14ac:dyDescent="0.3">
@@ -13247,15 +13244,15 @@
       </c>
       <c r="J234">
         <f t="shared" si="28"/>
-        <v>12648.221343873518</v>
+        <v>15810.276679841898</v>
       </c>
       <c r="K234">
         <f t="shared" si="24"/>
-        <v>0.25296442687747034</v>
+        <v>0.31620553359683795</v>
       </c>
       <c r="L234">
         <f t="shared" si="22"/>
-        <v>0.19300243146875695</v>
+        <v>0.24125303933594619</v>
       </c>
       <c r="M234">
         <f t="shared" si="25"/>
@@ -13267,7 +13264,7 @@
       </c>
       <c r="O234">
         <f t="shared" si="23"/>
-        <v>10119.199950753893</v>
+        <v>10119.359950483131</v>
       </c>
     </row>
     <row r="235" spans="9:15" x14ac:dyDescent="0.3">
@@ -13277,15 +13274,15 @@
       </c>
       <c r="J235">
         <f t="shared" si="28"/>
-        <v>12586.037364798427</v>
+        <v>15732.546705998033</v>
       </c>
       <c r="K235">
         <f t="shared" si="24"/>
-        <v>0.25172074729596855</v>
+        <v>0.31465093411996065</v>
       </c>
       <c r="L235">
         <f t="shared" si="22"/>
-        <v>0.19205355029142776</v>
+        <v>0.24006693786428471</v>
       </c>
       <c r="M235">
         <f t="shared" si="25"/>
@@ -13297,7 +13294,7 @@
       </c>
       <c r="O235">
         <f t="shared" si="23"/>
-        <v>10169.192025914816</v>
+        <v>10169.353610461136</v>
       </c>
     </row>
     <row r="236" spans="9:15" x14ac:dyDescent="0.3">
@@ -13307,15 +13304,15 @@
       </c>
       <c r="J236">
         <f t="shared" si="28"/>
-        <v>12524.461839530333</v>
+        <v>15655.577299412917</v>
       </c>
       <c r="K236">
         <f t="shared" si="24"/>
-        <v>0.25048923679060664</v>
+        <v>0.3131115459882583</v>
       </c>
       <c r="L236">
         <f t="shared" si="22"/>
-        <v>0.19111395366573583</v>
+        <v>0.23889244208216981</v>
       </c>
       <c r="M236">
         <f t="shared" si="25"/>
@@ -13327,7 +13324,7 @@
       </c>
       <c r="O236">
         <f t="shared" si="23"/>
-        <v>10219.184062022547</v>
+        <v>10219.347239195096</v>
       </c>
     </row>
     <row r="237" spans="9:15" x14ac:dyDescent="0.3">
@@ -13337,15 +13334,15 @@
       </c>
       <c r="J237">
         <f t="shared" si="28"/>
-        <v>12463.4858812074</v>
+        <v>15579.35735150925</v>
       </c>
       <c r="K237">
         <f t="shared" si="24"/>
-        <v>0.24926971762414801</v>
+        <v>0.31158714703018503</v>
       </c>
       <c r="L237">
         <f t="shared" si="22"/>
-        <v>0.19018350598479264</v>
+        <v>0.23772938248099079</v>
       </c>
       <c r="M237">
         <f t="shared" si="25"/>
@@ -13357,7 +13354,7 @@
       </c>
       <c r="O237">
         <f t="shared" si="23"/>
-        <v>10269.176059077136</v>
+        <v>10269.340836685045</v>
       </c>
     </row>
     <row r="238" spans="9:15" x14ac:dyDescent="0.3">
@@ -13367,15 +13364,15 @@
       </c>
       <c r="J238">
         <f t="shared" si="28"/>
-        <v>12403.100775193798</v>
+        <v>15503.875968992248</v>
       </c>
       <c r="K238">
         <f t="shared" si="24"/>
-        <v>0.24806201550387597</v>
+        <v>0.31007751937984496</v>
       </c>
       <c r="L238">
         <f t="shared" si="22"/>
-        <v>0.18926207426975003</v>
+        <v>0.23657759283718754</v>
       </c>
       <c r="M238">
         <f t="shared" si="25"/>
@@ -13387,7 +13384,7 @@
       </c>
       <c r="O238">
         <f t="shared" si="23"/>
-        <v>10319.168017078624</v>
+        <v>10319.33440293101</v>
       </c>
     </row>
     <row r="239" spans="9:15" x14ac:dyDescent="0.3">
@@ -13397,15 +13394,15 @@
       </c>
       <c r="J239">
         <f t="shared" si="28"/>
-        <v>12343.297974927676</v>
+        <v>15429.122468659594</v>
       </c>
       <c r="K239">
         <f t="shared" si="24"/>
-        <v>0.24686595949855353</v>
+        <v>0.3085824493731919</v>
       </c>
       <c r="L239">
         <f t="shared" si="22"/>
-        <v>0.18834952810644362</v>
+        <v>0.23543691013305451</v>
       </c>
       <c r="M239">
         <f t="shared" si="25"/>
@@ -13417,7 +13414,7 @@
       </c>
       <c r="O239">
         <f t="shared" si="23"/>
-        <v>10369.159936027057</v>
+        <v>10369.327937933023</v>
       </c>
     </row>
     <row r="240" spans="9:15" x14ac:dyDescent="0.3">
@@ -13427,15 +13424,15 @@
       </c>
       <c r="J240">
         <f t="shared" si="28"/>
-        <v>12284.069097888676</v>
+        <v>15355.086372360845</v>
       </c>
       <c r="K240">
         <f t="shared" si="24"/>
-        <v>0.2456813819577735</v>
+        <v>0.30710172744721687</v>
       </c>
       <c r="L240">
         <f t="shared" si="22"/>
-        <v>0.1874457395838599</v>
+        <v>0.23430717447982488</v>
       </c>
       <c r="M240">
         <f t="shared" si="25"/>
@@ -13447,7 +13444,7 @@
       </c>
       <c r="O240">
         <f t="shared" si="23"/>
-        <v>10419.151815922485</v>
+        <v>10419.321441691109</v>
       </c>
     </row>
     <row r="241" spans="9:15" x14ac:dyDescent="0.3">
@@ -13457,15 +13454,15 @@
       </c>
       <c r="J241">
         <f t="shared" si="28"/>
-        <v>12225.405921680993</v>
+        <v>15281.757402101242</v>
       </c>
       <c r="K241">
         <f t="shared" si="24"/>
-        <v>0.24450811843361986</v>
+        <v>0.30563514804202485</v>
       </c>
       <c r="L241">
         <f t="shared" si="22"/>
-        <v>0.1865505832343668</v>
+        <v>0.23318822904295849</v>
       </c>
       <c r="M241">
         <f t="shared" si="25"/>
@@ -13477,7 +13474,7 @@
       </c>
       <c r="O241">
         <f t="shared" si="23"/>
-        <v>10469.143656764951</v>
+        <v>10469.314914205301</v>
       </c>
     </row>
     <row r="242" spans="9:15" x14ac:dyDescent="0.3">
@@ -13487,15 +13484,15 @@
       </c>
       <c r="J242">
         <f t="shared" si="28"/>
-        <v>12167.300380228136</v>
+        <v>15209.125475285171</v>
       </c>
       <c r="K242">
         <f t="shared" si="24"/>
-        <v>0.24334600760456274</v>
+        <v>0.30418250950570341</v>
       </c>
       <c r="L242">
         <f t="shared" si="22"/>
-        <v>0.18566393597564831</v>
+        <v>0.2320799199695604</v>
       </c>
       <c r="M242">
         <f t="shared" si="25"/>
@@ -13507,7 +13504,7 @@
       </c>
       <c r="O242">
         <f t="shared" si="23"/>
-        <v>10519.1354585545</v>
+        <v>10519.308355475627</v>
       </c>
     </row>
     <row r="243" spans="9:15" x14ac:dyDescent="0.3">
@@ -13517,15 +13514,15 @@
       </c>
       <c r="J243">
         <f t="shared" si="28"/>
-        <v>12109.744560075686</v>
+        <v>15137.180700094608</v>
       </c>
       <c r="K243">
         <f t="shared" si="24"/>
-        <v>0.24219489120151372</v>
+        <v>0.30274361400189215</v>
       </c>
       <c r="L243">
         <f t="shared" si="22"/>
-        <v>0.18478567705428764</v>
+        <v>0.23098209631785954</v>
       </c>
       <c r="M243">
         <f t="shared" si="25"/>
@@ -13537,7 +13534,7 @@
       </c>
       <c r="O243">
         <f t="shared" si="23"/>
-        <v>10569.127221291179</v>
+        <v>10569.301765502116</v>
       </c>
     </row>
     <row r="244" spans="9:15" x14ac:dyDescent="0.3">
@@ -13547,15 +13544,15 @@
       </c>
       <c r="J244">
         <f t="shared" si="28"/>
-        <v>12052.730696798493</v>
+        <v>15065.913370998116</v>
       </c>
       <c r="K244">
         <f t="shared" si="24"/>
-        <v>0.24105461393596986</v>
+        <v>0.30131826741996232</v>
       </c>
       <c r="L244">
         <f t="shared" si="22"/>
-        <v>0.18391568799094354</v>
+        <v>0.22989460998867942</v>
       </c>
       <c r="M244">
         <f t="shared" si="25"/>
@@ -13567,7 +13564,7 @@
       </c>
       <c r="O244">
         <f t="shared" si="23"/>
-        <v>10619.118944975035</v>
+        <v>10619.295144284799</v>
       </c>
     </row>
     <row r="245" spans="9:15" x14ac:dyDescent="0.3">
@@ -13577,15 +13574,15 @@
       </c>
       <c r="J245">
         <f t="shared" si="28"/>
-        <v>11996.251171508904</v>
+        <v>14995.313964386129</v>
       </c>
       <c r="K245">
         <f t="shared" si="24"/>
-        <v>0.23992502343017807</v>
+        <v>0.29990627928772257</v>
       </c>
       <c r="L245">
         <f t="shared" si="22"/>
-        <v>0.18305385252706843</v>
+        <v>0.22881731565883556</v>
       </c>
       <c r="M245">
         <f t="shared" si="25"/>
@@ -13597,7 +13594,7 @@
       </c>
       <c r="O245">
         <f t="shared" si="23"/>
-        <v>10669.11062960611</v>
+        <v>10669.288491823701</v>
       </c>
     </row>
     <row r="246" spans="9:15" x14ac:dyDescent="0.3">
@@ -13607,15 +13604,15 @@
       </c>
       <c r="J246">
         <f t="shared" si="28"/>
-        <v>11940.298507462687</v>
+        <v>14925.373134328358</v>
       </c>
       <c r="K246">
         <f t="shared" si="24"/>
-        <v>0.23880597014925373</v>
+        <v>0.29850746268656714</v>
       </c>
       <c r="L246">
         <f t="shared" si="22"/>
-        <v>0.18220005657311755</v>
+        <v>0.22775007071639697</v>
       </c>
       <c r="M246">
         <f t="shared" si="25"/>
@@ -13627,7 +13624,7 @@
       </c>
       <c r="O246">
         <f t="shared" si="23"/>
-        <v>10719.102275184454</v>
+        <v>10719.281808118856</v>
       </c>
     </row>
     <row r="247" spans="9:15" x14ac:dyDescent="0.3">
@@ -13637,15 +13634,15 @@
       </c>
       <c r="J247">
         <f t="shared" si="28"/>
-        <v>11884.865366759517</v>
+        <v>14856.081708449396</v>
       </c>
       <c r="K247">
         <f t="shared" si="24"/>
-        <v>0.23769730733519034</v>
+        <v>0.2971216341689879</v>
       </c>
       <c r="L247">
         <f t="shared" si="22"/>
-        <v>0.18135418815820059</v>
+        <v>0.22669273519775074</v>
       </c>
       <c r="M247">
         <f t="shared" si="25"/>
@@ -13657,7 +13654,7 @@
       </c>
       <c r="O247">
         <f t="shared" si="23"/>
-        <v>10769.093881710109</v>
+        <v>10769.275093170292</v>
       </c>
     </row>
     <row r="248" spans="9:15" x14ac:dyDescent="0.3">
@@ -13667,15 +13664,15 @@
       </c>
       <c r="J248">
         <f t="shared" si="28"/>
-        <v>11829.944547134935</v>
+        <v>14787.430683918668</v>
       </c>
       <c r="K248">
         <f t="shared" si="24"/>
-        <v>0.2365988909426987</v>
+        <v>0.29574861367837341</v>
       </c>
       <c r="L248">
         <f t="shared" si="22"/>
-        <v>0.18051613738112943</v>
+        <v>0.22564517172641177</v>
       </c>
       <c r="M248">
         <f t="shared" si="25"/>
@@ -13687,7 +13684,7 @@
       </c>
       <c r="O248">
         <f t="shared" si="23"/>
-        <v>10819.085449183123</v>
+        <v>10819.268346978037</v>
       </c>
     </row>
     <row r="249" spans="9:15" x14ac:dyDescent="0.3">
@@ -13697,15 +13694,15 @@
       </c>
       <c r="J249">
         <f t="shared" si="28"/>
-        <v>11775.528978840846</v>
+        <v>14719.411223551058</v>
       </c>
       <c r="K249">
         <f t="shared" si="24"/>
-        <v>0.23551057957681693</v>
+        <v>0.29438822447102114</v>
       </c>
       <c r="L249">
         <f t="shared" si="22"/>
-        <v>0.17968579636281695</v>
+        <v>0.2246072454535212</v>
       </c>
       <c r="M249">
         <f t="shared" si="25"/>
@@ -13717,7 +13714,7 @@
       </c>
       <c r="O249">
         <f t="shared" si="23"/>
-        <v>10869.076977603543</v>
+        <v>10869.261569542119</v>
       </c>
     </row>
     <row r="250" spans="9:15" x14ac:dyDescent="0.3">
@@ -13727,15 +13724,15 @@
       </c>
       <c r="J250">
         <f t="shared" si="28"/>
-        <v>11721.611721611722</v>
+        <v>14652.014652014652</v>
       </c>
       <c r="K250">
         <f t="shared" si="24"/>
-        <v>0.23443223443223443</v>
+        <v>0.29304029304029305</v>
       </c>
       <c r="L250">
         <f t="shared" si="22"/>
-        <v>0.17886305919998355</v>
+        <v>0.22357882399997944</v>
       </c>
       <c r="M250">
         <f t="shared" si="25"/>
@@ -13747,7 +13744,7 @@
       </c>
       <c r="O250">
         <f t="shared" si="23"/>
-        <v>10919.068466971412</v>
+        <v>10919.254760862572</v>
       </c>
     </row>
     <row r="251" spans="9:15" x14ac:dyDescent="0.3">
@@ -13757,15 +13754,15 @@
       </c>
       <c r="J251">
         <f t="shared" si="28"/>
-        <v>11668.185961713765</v>
+        <v>14585.232452142205</v>
       </c>
       <c r="K251">
         <f t="shared" si="24"/>
-        <v>0.23336371923427529</v>
+        <v>0.2917046490428441</v>
       </c>
       <c r="L251">
         <f t="shared" si="22"/>
-        <v>0.17804782192012947</v>
+        <v>0.22255977740016183</v>
       </c>
       <c r="M251">
         <f t="shared" si="25"/>
@@ -13777,7 +13774,7 @@
       </c>
       <c r="O251">
         <f t="shared" si="23"/>
-        <v>10969.059917286775</v>
+        <v>10969.247920939421</v>
       </c>
     </row>
     <row r="252" spans="9:15" x14ac:dyDescent="0.3">
@@ -13787,15 +13784,15 @@
       </c>
       <c r="J252">
         <f t="shared" si="28"/>
-        <v>11615.24500907441</v>
+        <v>14519.056261343012</v>
       </c>
       <c r="K252">
         <f t="shared" si="24"/>
-        <v>0.23230490018148819</v>
+        <v>0.29038112522686027</v>
       </c>
       <c r="L252">
         <f t="shared" si="22"/>
-        <v>0.17723998243773323</v>
+        <v>0.22154997804716656</v>
       </c>
       <c r="M252">
         <f t="shared" si="25"/>
@@ -13807,7 +13804,7 @@
       </c>
       <c r="O252">
         <f t="shared" si="23"/>
-        <v>11019.051328549684</v>
+        <v>11019.241049772698</v>
       </c>
     </row>
     <row r="253" spans="9:15" x14ac:dyDescent="0.3">
@@ -13817,15 +13814,15 @@
       </c>
       <c r="J253">
         <f t="shared" si="28"/>
-        <v>11562.782294489612</v>
+        <v>14453.477868112015</v>
       </c>
       <c r="K253">
         <f t="shared" si="24"/>
-        <v>0.23125564588979222</v>
+        <v>0.28906955736224027</v>
       </c>
       <c r="L253">
         <f t="shared" si="22"/>
-        <v>0.17643944051163687</v>
+        <v>0.22054930063954611</v>
       </c>
       <c r="M253">
         <f t="shared" si="25"/>
@@ -13837,7 +13834,7 @@
       </c>
       <c r="O253">
         <f t="shared" si="23"/>
-        <v>11069.042700760176</v>
+        <v>11069.234147362429</v>
       </c>
     </row>
     <row r="254" spans="9:15" x14ac:dyDescent="0.3">
@@ -13847,15 +13844,15 @@
       </c>
       <c r="J254">
         <f t="shared" si="28"/>
-        <v>11510.791366906475</v>
+        <v>14388.489208633093</v>
       </c>
       <c r="K254">
         <f t="shared" si="24"/>
-        <v>0.23021582733812951</v>
+        <v>0.28776978417266186</v>
       </c>
       <c r="L254">
         <f t="shared" si="22"/>
-        <v>0.17564609770358097</v>
+        <v>0.21955762212947622</v>
       </c>
       <c r="M254">
         <f t="shared" si="25"/>
@@ -13867,7 +13864,7 @@
       </c>
       <c r="O254">
         <f t="shared" si="23"/>
-        <v>11119.034033918304</v>
+        <v>11119.227213708647</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\Stm32PrjTpl\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_UartDesignImpl\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDB8D5E-08AE-4916-8A3B-F287C114C457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617EBBA9-AEAB-4607-ACC3-E95714D18908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
     <sheet name="FMK_IO" sheetId="2" r:id="rId2"/>
     <sheet name="FMK_CPU" sheetId="3" r:id="rId3"/>
     <sheet name="FMK_CDA" sheetId="4" r:id="rId4"/>
-    <sheet name="Feuil1" sheetId="5" r:id="rId5"/>
+    <sheet name="FMKMAC" sheetId="6" r:id="rId5"/>
+    <sheet name="Feuil1" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="364">
   <si>
     <t>Colonne1</t>
   </si>
@@ -1087,6 +1088,51 @@
   </si>
   <si>
     <t>FrequenceeTheo</t>
+  </si>
+  <si>
+    <t>ADC1</t>
+  </si>
+  <si>
+    <t>DMA_1</t>
+  </si>
+  <si>
+    <t>DMA_2</t>
+  </si>
+  <si>
+    <t>RqstDmaType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DMA </t>
+  </si>
+  <si>
+    <t>CHANNEL</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>CHANNEL_5</t>
+  </si>
+  <si>
+    <t>UART4_RX</t>
+  </si>
+  <si>
+    <t>UART4_TX</t>
+  </si>
+  <si>
+    <t>USART1_RX</t>
+  </si>
+  <si>
+    <t>CHANNEL_6</t>
+  </si>
+  <si>
+    <t>USART1_TX</t>
+  </si>
+  <si>
+    <t>CHANNEL_7</t>
+  </si>
+  <si>
+    <t>SERIAL CONFIGURATION</t>
   </si>
 </sst>
 </file>
@@ -3669,8 +3715,8 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0413BBED-76B8-4200-A43C-D97EFAA1EA94}" name="FMKIO_CanCfg" displayName="FMKIO_CanCfg" ref="C29:H32" totalsRowShown="0">
-  <autoFilter ref="C29:H32" xr:uid="{0413BBED-76B8-4200-A43C-D97EFAA1EA94}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0413BBED-76B8-4200-A43C-D97EFAA1EA94}" name="FMKIO_CanCfg" displayName="FMKIO_CanCfg" ref="A25:F28" totalsRowShown="0">
+  <autoFilter ref="A25:F28" xr:uid="{0413BBED-76B8-4200-A43C-D97EFAA1EA94}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{95762CE8-B06D-493C-B844-88501CD65909}" name="Rx_GPIO_name"/>
     <tableColumn id="4" xr3:uid="{A74F40FB-56BA-4761-B2D5-1E61012674DB}" name="RxPin_name"/>
@@ -3684,6 +3730,21 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{978057A4-13F6-44F3-B65B-2C409866E1DE}" name="FMKIO_CanCfg31" displayName="FMKIO_CanCfg31" ref="A34:F37" totalsRowShown="0">
+  <autoFilter ref="A34:F37" xr:uid="{978057A4-13F6-44F3-B65B-2C409866E1DE}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{24FCFF33-29FB-4C97-8C6A-E82227514712}" name="Rx_GPIO_name"/>
+    <tableColumn id="4" xr3:uid="{12CA2E7A-25CB-4594-B099-0C3300125F20}" name="RxPin_name"/>
+    <tableColumn id="6" xr3:uid="{D003CF17-D1FC-4925-A150-971DDF359F41}" name="Tx_Gpio_Name"/>
+    <tableColumn id="5" xr3:uid="{14396C2C-537A-4355-B49A-DC2EB4D94AF0}" name="Tx_Pin_Name"/>
+    <tableColumn id="2" xr3:uid="{EBD561D8-5769-44A2-9D68-D1A8F057FDD0}" name="alternate function timer"/>
+    <tableColumn id="7" xr3:uid="{9DFBCFF1-0113-4C17-8011-2570BD8C9102}" name="FDCAnx"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{684AB3A4-4693-477C-AADC-64EBB335C3E9}" name="FMKCPU_EvntTimer" displayName="FMKCPU_EvntTimer" ref="B4:C6" totalsRowShown="0">
   <autoFilter ref="B4:C6" xr:uid="{684AB3A4-4693-477C-AADC-64EBB335C3E9}"/>
   <tableColumns count="2">
@@ -3694,7 +3755,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{A4F27ADC-56A6-479B-93EF-D6AA72368D72}" name="FMKCDA_CalibrationOthers" displayName="FMKCDA_CalibrationOthers" ref="I3:L5" totalsRowShown="0">
   <autoFilter ref="I3:L5" xr:uid="{A4F27ADC-56A6-479B-93EF-D6AA72368D72}"/>
   <tableColumns count="4">
@@ -3707,7 +3768,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{99B4503A-67B2-48AD-BE25-2B3425F892A9}" name="FMKCDA_VoltageRef" displayName="FMKCDA_VoltageRef" ref="S3:V4" totalsRowShown="0">
   <autoFilter ref="S3:V4" xr:uid="{99B4503A-67B2-48AD-BE25-2B3425F892A9}"/>
   <tableColumns count="4">
@@ -3721,13 +3782,26 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A27CADD5-26F4-4DF6-9D41-CEE02A85C4E9}" name="GI_ADC" displayName="GI_ADC" ref="S36:V41" totalsRowShown="0">
-  <autoFilter ref="S36:V41" xr:uid="{A27CADD5-26F4-4DF6-9D41-CEE02A85C4E9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A27CADD5-26F4-4DF6-9D41-CEE02A85C4E9}" name="GI_ADC" displayName="GI_ADC" ref="S20:V25" totalsRowShown="0">
+  <autoFilter ref="S20:V25" xr:uid="{A27CADD5-26F4-4DF6-9D41-CEE02A85C4E9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{46462DEE-B3A7-45AD-A2F8-63AC8C3C0154}" name="ADC_Name"/>
     <tableColumn id="2" xr3:uid="{20DF5352-4B39-416D-A6E4-D94E56AED1C9}" name="number of channel"/>
     <tableColumn id="3" xr3:uid="{9F9316C2-2066-47BF-B84E-436D4C41B07C}" name="IRQN assoiated"/>
     <tableColumn id="4" xr3:uid="{CC116C4D-98B0-46BC-A882-0B90828FFD68}" name="Clock Associated"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{333A4E38-7E7A-4098-B282-4F58DD308AC2}" name="FMKMAC_Cfg" displayName="FMKMAC_Cfg" ref="B2:E9" totalsRowShown="0">
+  <autoFilter ref="B2:E9" xr:uid="{333A4E38-7E7A-4098-B282-4F58DD308AC2}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{9B6EDCAA-F526-412C-A8EC-AC6897A0EB04}" name="RqstDmaType"/>
+    <tableColumn id="2" xr3:uid="{ED583461-6D2B-456F-A394-15F76B273D8C}" name="DMA "/>
+    <tableColumn id="3" xr3:uid="{7F10CEC2-41BD-45B5-9EDB-D20E18825436}" name="CHANNEL"/>
+    <tableColumn id="4" xr3:uid="{EFAF749E-49CF-4544-A2E6-D7B17CF25518}" name="Priority"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3767,11 +3841,12 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FC2F87AB-FFF7-4006-99CC-8D938E27338D}" name="GI_DMA" displayName="GI_DMA" ref="AA36:AB38" totalsRowShown="0">
-  <autoFilter ref="AA36:AB38" xr:uid="{FC2F87AB-FFF7-4006-99CC-8D938E27338D}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FC2F87AB-FFF7-4006-99CC-8D938E27338D}" name="GI_DMA" displayName="GI_DMA" ref="AA20:AC22" totalsRowShown="0">
+  <autoFilter ref="AA20:AC22" xr:uid="{FC2F87AB-FFF7-4006-99CC-8D938E27338D}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00302DEC-D815-47CE-9380-676FE769FF43}" name="DMA_Name"/>
     <tableColumn id="2" xr3:uid="{2654BB85-F763-4BBA-9124-13A3875B62D0}" name="number of channel"/>
+    <tableColumn id="3" xr3:uid="{8630D7D5-DAE5-4E6D-9958-F1FC2A620F7A}" name="Clock Associated"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4116,8 +4191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2D6D-43F7-44B1-8255-ECFDDA33AA9C}">
   <dimension ref="A18:AE119"/>
   <sheetViews>
-    <sheetView topLeftCell="G14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27:L27"/>
+    <sheetView topLeftCell="U16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AA29" sqref="AA29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4146,7 +4221,7 @@
     <col min="30" max="30" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>132</v>
       </c>
@@ -4178,7 +4253,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>133</v>
       </c>
@@ -4210,7 +4285,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>240</v>
       </c>
@@ -4238,8 +4313,29 @@
       <c r="N20" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S20" t="s">
+        <v>17</v>
+      </c>
+      <c r="T20" t="s">
+        <v>18</v>
+      </c>
+      <c r="U20" t="s">
+        <v>288</v>
+      </c>
+      <c r="V20" t="s">
+        <v>289</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>243</v>
       </c>
@@ -4267,8 +4363,29 @@
       <c r="N21" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S21" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21">
+        <v>18</v>
+      </c>
+      <c r="U21" t="s">
+        <v>148</v>
+      </c>
+      <c r="V21" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB21">
+        <v>8</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>244</v>
       </c>
@@ -4296,8 +4413,29 @@
       <c r="N22" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S22" t="s">
+        <v>271</v>
+      </c>
+      <c r="T22">
+        <v>18</v>
+      </c>
+      <c r="U22" t="s">
+        <v>148</v>
+      </c>
+      <c r="V22" t="s">
+        <v>247</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>351</v>
+      </c>
+      <c r="AB22">
+        <v>8</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>245</v>
       </c>
@@ -4325,8 +4463,20 @@
       <c r="N23" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S23" t="s">
+        <v>272</v>
+      </c>
+      <c r="T23">
+        <v>18</v>
+      </c>
+      <c r="U23" t="s">
+        <v>171</v>
+      </c>
+      <c r="V23" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>246</v>
       </c>
@@ -4354,8 +4504,20 @@
       <c r="N24" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S24" t="s">
+        <v>273</v>
+      </c>
+      <c r="T24">
+        <v>18</v>
+      </c>
+      <c r="U24" t="s">
+        <v>185</v>
+      </c>
+      <c r="V24" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>84</v>
       </c>
@@ -4383,8 +4545,20 @@
       <c r="N25" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="S25" t="s">
+        <v>274</v>
+      </c>
+      <c r="T25">
+        <v>18</v>
+      </c>
+      <c r="U25" t="s">
+        <v>186</v>
+      </c>
+      <c r="V25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>270</v>
       </c>
@@ -4413,7 +4587,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>292</v>
       </c>
@@ -4448,7 +4622,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>293</v>
       </c>
@@ -4483,7 +4657,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>256</v>
       </c>
@@ -4518,7 +4692,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>82</v>
       </c>
@@ -4547,7 +4721,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>81</v>
       </c>
@@ -4561,7 +4735,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>80</v>
       </c>
@@ -4654,28 +4828,10 @@
       <c r="P36">
         <v>16</v>
       </c>
-      <c r="S36" t="s">
-        <v>17</v>
-      </c>
-      <c r="T36" t="s">
-        <v>18</v>
-      </c>
-      <c r="U36" t="s">
-        <v>288</v>
-      </c>
-      <c r="V36" t="s">
-        <v>289</v>
-      </c>
       <c r="X36" t="s">
         <v>19</v>
       </c>
       <c r="Y36" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA36" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB36" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4698,29 +4854,11 @@
       <c r="P37">
         <v>16</v>
       </c>
-      <c r="S37" t="s">
-        <v>16</v>
-      </c>
-      <c r="T37">
-        <v>18</v>
-      </c>
-      <c r="U37" t="s">
-        <v>148</v>
-      </c>
-      <c r="V37" t="s">
-        <v>247</v>
-      </c>
       <c r="X37" t="s">
         <v>20</v>
       </c>
       <c r="Y37" t="s">
         <v>20</v>
-      </c>
-      <c r="AA37" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB37">
-        <v>8</v>
       </c>
     </row>
     <row r="38" spans="4:31" x14ac:dyDescent="0.3">
@@ -4742,24 +4880,6 @@
       <c r="P38">
         <v>16</v>
       </c>
-      <c r="S38" t="s">
-        <v>271</v>
-      </c>
-      <c r="T38">
-        <v>18</v>
-      </c>
-      <c r="U38" t="s">
-        <v>148</v>
-      </c>
-      <c r="V38" t="s">
-        <v>247</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>240</v>
-      </c>
-      <c r="AB38">
-        <v>8</v>
-      </c>
     </row>
     <row r="39" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
@@ -4780,18 +4900,6 @@
       <c r="P39">
         <v>16</v>
       </c>
-      <c r="S39" t="s">
-        <v>272</v>
-      </c>
-      <c r="T39">
-        <v>18</v>
-      </c>
-      <c r="U39" t="s">
-        <v>171</v>
-      </c>
-      <c r="V39" t="s">
-        <v>248</v>
-      </c>
     </row>
     <row r="40" spans="4:31" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
@@ -4812,18 +4920,6 @@
       <c r="P40">
         <v>11</v>
       </c>
-      <c r="S40" t="s">
-        <v>273</v>
-      </c>
-      <c r="T40">
-        <v>18</v>
-      </c>
-      <c r="U40" t="s">
-        <v>185</v>
-      </c>
-      <c r="V40" t="s">
-        <v>248</v>
-      </c>
       <c r="AE40" t="s">
         <v>88</v>
       </c>
@@ -4840,18 +4936,6 @@
       </c>
       <c r="H41" t="s">
         <v>90</v>
-      </c>
-      <c r="S41" t="s">
-        <v>274</v>
-      </c>
-      <c r="T41">
-        <v>18</v>
-      </c>
-      <c r="U41" t="s">
-        <v>186</v>
-      </c>
-      <c r="V41" t="s">
-        <v>248</v>
       </c>
       <c r="AE41" t="s">
         <v>89</v>
@@ -5772,8 +5856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7761-01BE-400F-9C40-BE71D85F5C61}">
   <dimension ref="A2:BA81"/>
   <sheetViews>
-    <sheetView topLeftCell="B12" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6332,38 +6416,100 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="3:53" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
       <c r="Q18" s="4"/>
     </row>
-    <row r="23" spans="3:53" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="28" spans="3:53" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>302</v>
+      </c>
+      <c r="B25" t="s">
+        <v>303</v>
+      </c>
+      <c r="C25" t="s">
+        <v>304</v>
+      </c>
+      <c r="D25" t="s">
+        <v>305</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>301</v>
+      </c>
+      <c r="F26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>301</v>
+      </c>
+      <c r="F27" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>269</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
       <c r="C28" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="29" spans="3:53" x14ac:dyDescent="0.3">
-      <c r="C29" t="s">
-        <v>302</v>
-      </c>
-      <c r="D29" t="s">
-        <v>303</v>
-      </c>
-      <c r="E29" t="s">
-        <v>304</v>
-      </c>
-      <c r="F29" t="s">
-        <v>305</v>
-      </c>
-      <c r="G29" t="s">
-        <v>42</v>
-      </c>
-      <c r="H29" t="s">
-        <v>309</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>301</v>
+      </c>
+      <c r="F28" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="29" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AW29" t="s">
         <v>91</v>
       </c>
@@ -6371,25 +6517,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="3:53" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" t="s">
-        <v>301</v>
-      </c>
-      <c r="H30" t="s">
-        <v>306</v>
-      </c>
+    <row r="30" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AW30" t="s">
         <v>25</v>
       </c>
@@ -6400,25 +6528,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="3:53" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>269</v>
-      </c>
-      <c r="D31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" t="s">
-        <v>269</v>
-      </c>
-      <c r="F31" t="s">
-        <v>41</v>
-      </c>
-      <c r="G31" t="s">
-        <v>301</v>
-      </c>
-      <c r="H31" t="s">
-        <v>308</v>
-      </c>
+    <row r="31" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AW31" t="s">
         <v>26</v>
       </c>
@@ -6429,25 +6539,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="3:53" x14ac:dyDescent="0.3">
-      <c r="C32" t="s">
-        <v>269</v>
-      </c>
-      <c r="D32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" t="s">
-        <v>269</v>
-      </c>
-      <c r="F32" t="s">
-        <v>38</v>
-      </c>
-      <c r="G32" t="s">
-        <v>301</v>
-      </c>
-      <c r="H32" t="s">
-        <v>307</v>
-      </c>
+    <row r="32" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AW32" t="s">
         <v>27</v>
       </c>
@@ -6458,7 +6550,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="33" spans="49:53" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>363</v>
+      </c>
       <c r="AW33" t="s">
         <v>28</v>
       </c>
@@ -6469,7 +6564,25 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="49:53" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>302</v>
+      </c>
+      <c r="B34" t="s">
+        <v>303</v>
+      </c>
+      <c r="C34" t="s">
+        <v>304</v>
+      </c>
+      <c r="D34" t="s">
+        <v>305</v>
+      </c>
+      <c r="E34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" t="s">
+        <v>309</v>
+      </c>
       <c r="AW34" t="s">
         <v>29</v>
       </c>
@@ -6480,7 +6593,25 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="49:53" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" t="s">
+        <v>301</v>
+      </c>
+      <c r="F35" t="s">
+        <v>306</v>
+      </c>
       <c r="AW35" t="s">
         <v>30</v>
       </c>
@@ -6488,7 +6619,25 @@
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="49:53" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>269</v>
+      </c>
+      <c r="B36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" t="s">
+        <v>301</v>
+      </c>
+      <c r="F36" t="s">
+        <v>308</v>
+      </c>
       <c r="AW36" t="s">
         <v>31</v>
       </c>
@@ -6496,7 +6645,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="49:53" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" t="s">
+        <v>301</v>
+      </c>
+      <c r="F37" t="s">
+        <v>307</v>
+      </c>
       <c r="AW37" t="s">
         <v>32</v>
       </c>
@@ -6504,7 +6671,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="49:53" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AW38" t="s">
         <v>33</v>
       </c>
@@ -6512,7 +6679,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="49:53" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AW39" t="s">
         <v>34</v>
       </c>
@@ -6520,7 +6687,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="49:53" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AW40" t="s">
         <v>35</v>
       </c>
@@ -6528,7 +6695,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="49:53" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AW41" t="s">
         <v>36</v>
       </c>
@@ -6536,7 +6703,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="49:53" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AW42" t="s">
         <v>38</v>
       </c>
@@ -6544,7 +6711,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="49:53" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AW43" t="s">
         <v>39</v>
       </c>
@@ -6552,7 +6719,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="44" spans="49:53" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AW44" t="s">
         <v>40</v>
       </c>
@@ -6560,7 +6727,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="45" spans="49:53" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AW45" t="s">
         <v>41</v>
       </c>
@@ -6568,12 +6735,12 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="49:53" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:53" x14ac:dyDescent="0.3">
       <c r="BA46" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="47" spans="49:53" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:53" x14ac:dyDescent="0.3">
       <c r="BA47" t="s">
         <v>111</v>
       </c>
@@ -6712,7 +6879,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="13">
+  <tableParts count="14">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -6726,6 +6893,7 @@
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
+    <tablePart r:id="rId15"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -6744,7 +6912,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C428027-B16D-4B04-9CB2-8290577ED0FB}">
           <x14:formula1>
-            <xm:f>General_Info!$S$37:$S$41</xm:f>
+            <xm:f>General_Info!$S$21:$S$25</xm:f>
           </x14:formula1>
           <xm:sqref>G6:G16</xm:sqref>
         </x14:dataValidation>
@@ -6759,7 +6927,7 @@
   <dimension ref="B3:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6907,17 +7075,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E258101-4BE3-4FFA-9159-E0120D35AA71}">
-          <x14:formula1>
-            <xm:f>General_Info!$S$37:$S$41</xm:f>
-          </x14:formula1>
-          <xm:sqref>K4:K5</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7AB0981D-B484-49AA-81E2-46EA728857EF}">
           <x14:formula1>
             <xm:f>FMK_IO!$BA$30:$BA$47</xm:f>
           </x14:formula1>
           <xm:sqref>V4 L4:L5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E258101-4BE3-4FFA-9159-E0120D35AA71}">
+          <x14:formula1>
+            <xm:f>General_Info!$S$21:$S$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>K4:K5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F78BF8D-EC95-4E4B-B9DE-1CEC06FF7E2D}">
           <x14:formula1>
@@ -6932,10 +7100,145 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E18236-E25D-41B3-8B1E-0194276152B3}">
+  <dimension ref="B2:E9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.77734375" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C2" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" t="s">
+        <v>354</v>
+      </c>
+      <c r="E2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" t="s">
+        <v>350</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" t="s">
+        <v>350</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>358</v>
+      </c>
+      <c r="C7" t="s">
+        <v>350</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>359</v>
+      </c>
+      <c r="C8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D8" t="s">
+        <v>360</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C9" t="s">
+        <v>350</v>
+      </c>
+      <c r="D9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860CCB6B-9BC8-4B28-B4AE-B22F38F81573}">
   <dimension ref="B1:P254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E27" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_UartDesignImpl\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617EBBA9-AEAB-4607-ACC3-E95714D18908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18C936F-9CA9-4431-970A-9E6B2A6C9999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="367">
   <si>
     <t>Colonne1</t>
   </si>
@@ -1133,6 +1133,15 @@
   </si>
   <si>
     <t>SERIAL CONFIGURATION</t>
+  </si>
+  <si>
+    <t>GPIO_AF7_USART2</t>
+  </si>
+  <si>
+    <t>GPIO_AF5_UART4</t>
+  </si>
+  <si>
+    <t>UART/USART REF</t>
   </si>
 </sst>
 </file>
@@ -3730,15 +3739,15 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{978057A4-13F6-44F3-B65B-2C409866E1DE}" name="FMKIO_CanCfg31" displayName="FMKIO_CanCfg31" ref="A34:F37" totalsRowShown="0">
-  <autoFilter ref="A34:F37" xr:uid="{978057A4-13F6-44F3-B65B-2C409866E1DE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{978057A4-13F6-44F3-B65B-2C409866E1DE}" name="FMKIO_SerialCfg" displayName="FMKIO_SerialCfg" ref="A34:F36" totalsRowShown="0">
+  <autoFilter ref="A34:F36" xr:uid="{978057A4-13F6-44F3-B65B-2C409866E1DE}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{24FCFF33-29FB-4C97-8C6A-E82227514712}" name="Rx_GPIO_name"/>
     <tableColumn id="4" xr3:uid="{12CA2E7A-25CB-4594-B099-0C3300125F20}" name="RxPin_name"/>
     <tableColumn id="6" xr3:uid="{D003CF17-D1FC-4925-A150-971DDF359F41}" name="Tx_Gpio_Name"/>
     <tableColumn id="5" xr3:uid="{14396C2C-537A-4355-B49A-DC2EB4D94AF0}" name="Tx_Pin_Name"/>
     <tableColumn id="2" xr3:uid="{EBD561D8-5769-44A2-9D68-D1A8F057FDD0}" name="alternate function timer"/>
-    <tableColumn id="7" xr3:uid="{9DFBCFF1-0113-4C17-8011-2570BD8C9102}" name="FDCAnx"/>
+    <tableColumn id="7" xr3:uid="{9DFBCFF1-0113-4C17-8011-2570BD8C9102}" name="UART/USART REF"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5856,8 +5865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7761-01BE-400F-9C40-BE71D85F5C61}">
   <dimension ref="A2:BA81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6378,7 +6387,7 @@
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F15" t="s">
         <v>27</v>
@@ -6398,7 +6407,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F16" t="s">
         <v>28</v>
@@ -6581,7 +6590,7 @@
         <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>309</v>
+        <v>366</v>
       </c>
       <c r="AW34" t="s">
         <v>29</v>
@@ -6598,19 +6607,19 @@
         <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>301</v>
+        <v>364</v>
       </c>
       <c r="F35" t="s">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="AW35" t="s">
         <v>30</v>
@@ -6621,22 +6630,22 @@
     </row>
     <row r="36" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>269</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>269</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>301</v>
+        <v>365</v>
       </c>
       <c r="F36" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="AW36" t="s">
         <v>31</v>
@@ -6646,24 +6655,6 @@
       </c>
     </row>
     <row r="37" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>269</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" t="s">
-        <v>269</v>
-      </c>
-      <c r="D37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" t="s">
-        <v>301</v>
-      </c>
-      <c r="F37" t="s">
-        <v>307</v>
-      </c>
       <c r="AW37" t="s">
         <v>32</v>
       </c>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_UartDesignImpl\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18C936F-9CA9-4431-970A-9E6B2A6C9999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5833EA-70C0-4B7A-B819-F4E31DA08974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="FMK_CPU" sheetId="3" r:id="rId3"/>
     <sheet name="FMK_CDA" sheetId="4" r:id="rId4"/>
     <sheet name="FMKMAC" sheetId="6" r:id="rId5"/>
-    <sheet name="Feuil1" sheetId="5" r:id="rId6"/>
+    <sheet name="FMKCAN" sheetId="7" r:id="rId6"/>
+    <sheet name="FMKSRL" sheetId="8" r:id="rId7"/>
+    <sheet name="Feuil1" sheetId="5" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="423">
   <si>
     <t>Colonne1</t>
   </si>
@@ -973,9 +975,6 @@
     <t>FDCAnx</t>
   </si>
   <si>
-    <t>d</t>
-  </si>
-  <si>
     <t>Clock Src</t>
   </si>
   <si>
@@ -1142,6 +1141,177 @@
   </si>
   <si>
     <t>UART/USART REF</t>
+  </si>
+  <si>
+    <t>TIM1_BRK_TIM15_IRQHandler</t>
+  </si>
+  <si>
+    <t>TIM1_UP_TIM16_IRQHandler</t>
+  </si>
+  <si>
+    <t>TIM1_TRG_COM_TIM17_IRQHandler</t>
+  </si>
+  <si>
+    <t>TIM1_CC_IRQHandler</t>
+  </si>
+  <si>
+    <t>TIM2_IRQHandler</t>
+  </si>
+  <si>
+    <t>TIM3_IRQHandler</t>
+  </si>
+  <si>
+    <t>TIM4_IRQHandler</t>
+  </si>
+  <si>
+    <t>List IRQN_Handler</t>
+  </si>
+  <si>
+    <t>TIM6_DAC_IRQHandler</t>
+  </si>
+  <si>
+    <t>TIM7_DAC_IRQHandler</t>
+  </si>
+  <si>
+    <t>TIM20_BRK_IRQHandler</t>
+  </si>
+  <si>
+    <t>TIM20_UP_IRQHandler</t>
+  </si>
+  <si>
+    <t>TIM20_TRG_COM_IRQHandler</t>
+  </si>
+  <si>
+    <t>TIM20_CC_IRQHandler</t>
+  </si>
+  <si>
+    <t>check startup_stm32XYYY</t>
+  </si>
+  <si>
+    <t>EXTI0_IRQHandler</t>
+  </si>
+  <si>
+    <t>EXTI1_IRQHandler</t>
+  </si>
+  <si>
+    <t>EXTI2_IRQHandler</t>
+  </si>
+  <si>
+    <t>EXTI3_IRQHandler</t>
+  </si>
+  <si>
+    <t>EXTI4_IRQHandler</t>
+  </si>
+  <si>
+    <t>EXTI9_5_IRQHandler</t>
+  </si>
+  <si>
+    <t>EXTI15_10_IRQHandler</t>
+  </si>
+  <si>
+    <t>ADC1_2_IRQHandler</t>
+  </si>
+  <si>
+    <t>ADC3_IRQHandler</t>
+  </si>
+  <si>
+    <t>ADC4_IRQHandler</t>
+  </si>
+  <si>
+    <t>ADC5_IRQHandler</t>
+  </si>
+  <si>
+    <t>DMA2_Channel1_IRQHandler</t>
+  </si>
+  <si>
+    <t>DMA2_Channel2_IRQHandler</t>
+  </si>
+  <si>
+    <t>DMA2_Channel3_IRQHandler</t>
+  </si>
+  <si>
+    <t>DMA2_Channel4_IRQHandler</t>
+  </si>
+  <si>
+    <t>DMA2_Channel5_IRQHandler</t>
+  </si>
+  <si>
+    <t>DMA1_Channel1_IRQHandler</t>
+  </si>
+  <si>
+    <t>DMA1_Channel2_IRQHandler</t>
+  </si>
+  <si>
+    <t>DMA1_Channel3_IRQHandler</t>
+  </si>
+  <si>
+    <t>DMA1_Channel4_IRQHandler</t>
+  </si>
+  <si>
+    <t>DMA1_Channel5_IRQHandler</t>
+  </si>
+  <si>
+    <t>DMA1_Channel6_IRQHandler</t>
+  </si>
+  <si>
+    <t>DMA1_Channel7_IRQHandler</t>
+  </si>
+  <si>
+    <t>DMA2_Channel6_IRQHandler</t>
+  </si>
+  <si>
+    <t>DMA2_Channel7_IRQHandler</t>
+  </si>
+  <si>
+    <t>DMA2_Channel8_IRQHandler</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>FDCAN2_IT0_IRQHandler</t>
+  </si>
+  <si>
+    <t>FDCAN2_IT1_IRQHandler</t>
+  </si>
+  <si>
+    <t>FDCAN3_IT0_IRQHandler</t>
+  </si>
+  <si>
+    <t>FDCAN3_IT1_IRQHandler</t>
+  </si>
+  <si>
+    <t>FDCAN1_IT0_IRQHandler</t>
+  </si>
+  <si>
+    <t>FDCAN1_IT1_IRQHandler</t>
+  </si>
+  <si>
+    <t>Timer Associated</t>
+  </si>
+  <si>
+    <t>Adc, Dac associated</t>
+  </si>
+  <si>
+    <t>ADC1,ADC2</t>
+  </si>
+  <si>
+    <t>ADC3</t>
+  </si>
+  <si>
+    <t>ADC4</t>
+  </si>
+  <si>
+    <t>ADC5</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Request Periph Cfg</t>
   </si>
 </sst>
 </file>
@@ -3528,8 +3698,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82E1452B-3AF2-4D4B-B30D-A715E2B5240F}" name="GI_Timer" displayName="GI_Timer" ref="J18:N30" totalsRowShown="0">
-  <autoFilter ref="J18:N30" xr:uid="{82E1452B-3AF2-4D4B-B30D-A715E2B5240F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{82E1452B-3AF2-4D4B-B30D-A715E2B5240F}" name="GI_Timer" displayName="GI_Timer" ref="K18:O30" totalsRowShown="0">
+  <autoFilter ref="K18:O30" xr:uid="{82E1452B-3AF2-4D4B-B30D-A715E2B5240F}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{8EBC08AF-F674-4D3F-80D1-664693CE12C7}" name="Timer_name"/>
     <tableColumn id="2" xr3:uid="{9707AE90-9D0C-47B3-A89D-28A13CE83851}" name="Number of channels"/>
@@ -3542,8 +3712,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{7B17A539-E635-4152-9412-9ADCB0D5ADE1}" name="Tableau26" displayName="Tableau26" ref="AE46:AE49" totalsRowShown="0">
-  <autoFilter ref="AE46:AE49" xr:uid="{7B17A539-E635-4152-9412-9ADCB0D5ADE1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{7B17A539-E635-4152-9412-9ADCB0D5ADE1}" name="Tableau26" displayName="Tableau26" ref="AF46:AF49" totalsRowShown="0">
+  <autoFilter ref="AF46:AF49" xr:uid="{7B17A539-E635-4152-9412-9ADCB0D5ADE1}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{41DEADB1-B8AC-4DA1-AAC6-1E2E0AF40D54}" name="Timer Purpose"/>
   </tableColumns>
@@ -3563,8 +3733,8 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{93312290-37F4-462E-A13D-1DDA737E97BF}" name="GI_OSCILLATOR" displayName="GI_OSCILLATOR" ref="AE52:AE62" totalsRowShown="0">
-  <autoFilter ref="AE52:AE62" xr:uid="{93312290-37F4-462E-A13D-1DDA737E97BF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{93312290-37F4-462E-A13D-1DDA737E97BF}" name="GI_OSCILLATOR" displayName="GI_OSCILLATOR" ref="AF52:AF62" totalsRowShown="0">
+  <autoFilter ref="AF52:AF62" xr:uid="{93312290-37F4-462E-A13D-1DDA737E97BF}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{23F99948-81BD-4C18-8B63-7CCABA76B6A0}" name="Clock Src"/>
   </tableColumns>
@@ -3658,8 +3828,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FB0F4D34-CEA0-4CC8-AB6D-4C40C7CBEB5D}" name="GI_GPIO" displayName="GI_GPIO" ref="O33:P40" totalsRowShown="0">
-  <autoFilter ref="O33:P40" xr:uid="{FB0F4D34-CEA0-4CC8-AB6D-4C40C7CBEB5D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FB0F4D34-CEA0-4CC8-AB6D-4C40C7CBEB5D}" name="GI_GPIO" displayName="GI_GPIO" ref="P33:Q40" totalsRowShown="0">
+  <autoFilter ref="P33:Q40" xr:uid="{FB0F4D34-CEA0-4CC8-AB6D-4C40C7CBEB5D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3404615A-1121-4984-AE0D-5A1D34461BCA}" name="GPIO_Name"/>
     <tableColumn id="2" xr3:uid="{37ECDCD3-2CED-4177-80B2-3A88EFA9E7C2}" name="Number of pin"/>
@@ -3754,6 +3924,16 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{DA1831B2-BC94-42A9-B299-31A3CE618396}" name="FMKIO_IRQNHandler" displayName="FMKIO_IRQNHandler" ref="L21:L28" totalsRowShown="0">
+  <autoFilter ref="L21:L28" xr:uid="{DA1831B2-BC94-42A9-B299-31A3CE618396}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{435A2CB3-E527-4D4E-9A3C-7D2BA856E09C}" name="List IRQN_Handler"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{684AB3A4-4693-477C-AADC-64EBB335C3E9}" name="FMKCPU_EvntTimer" displayName="FMKCPU_EvntTimer" ref="B4:C6" totalsRowShown="0">
   <autoFilter ref="B4:C6" xr:uid="{684AB3A4-4693-477C-AADC-64EBB335C3E9}"/>
   <tableColumns count="2">
@@ -3764,7 +3944,31 @@
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{CCB68487-82CB-434C-A0E4-701B1FDDACF5}" name="FMKCPU_IRQNHandler" displayName="FMKCPU_IRQNHandler" ref="F4:G17" totalsRowShown="0">
+  <autoFilter ref="F4:G17" xr:uid="{CCB68487-82CB-434C-A0E4-701B1FDDACF5}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C0EA827E-D0A1-4F96-9D94-60107C8F02D0}" name="List IRQN_Handler"/>
+    <tableColumn id="2" xr3:uid="{B344E14A-A089-45F4-9C1B-D978E362DC5A}" name="Timer Associated"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A27CADD5-26F4-4DF6-9D41-CEE02A85C4E9}" name="GI_ADC" displayName="GI_ADC" ref="T20:W25" totalsRowShown="0">
+  <autoFilter ref="T20:W25" xr:uid="{A27CADD5-26F4-4DF6-9D41-CEE02A85C4E9}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{46462DEE-B3A7-45AD-A2F8-63AC8C3C0154}" name="ADC_Name"/>
+    <tableColumn id="2" xr3:uid="{20DF5352-4B39-416D-A6E4-D94E56AED1C9}" name="number of channel"/>
+    <tableColumn id="3" xr3:uid="{9F9316C2-2066-47BF-B84E-436D4C41B07C}" name="IRQN assoiated"/>
+    <tableColumn id="4" xr3:uid="{CC116C4D-98B0-46BC-A882-0B90828FFD68}" name="Clock Associated"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{A4F27ADC-56A6-479B-93EF-D6AA72368D72}" name="FMKCDA_CalibrationOthers" displayName="FMKCDA_CalibrationOthers" ref="I3:L5" totalsRowShown="0">
   <autoFilter ref="I3:L5" xr:uid="{A4F27ADC-56A6-479B-93EF-D6AA72368D72}"/>
   <tableColumns count="4">
@@ -3777,7 +3981,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{99B4503A-67B2-48AD-BE25-2B3425F892A9}" name="FMKCDA_VoltageRef" displayName="FMKCDA_VoltageRef" ref="S3:V4" totalsRowShown="0">
   <autoFilter ref="S3:V4" xr:uid="{99B4503A-67B2-48AD-BE25-2B3425F892A9}"/>
   <tableColumns count="4">
@@ -3790,20 +3994,18 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{A27CADD5-26F4-4DF6-9D41-CEE02A85C4E9}" name="GI_ADC" displayName="GI_ADC" ref="S20:V25" totalsRowShown="0">
-  <autoFilter ref="S20:V25" xr:uid="{A27CADD5-26F4-4DF6-9D41-CEE02A85C4E9}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{46462DEE-B3A7-45AD-A2F8-63AC8C3C0154}" name="ADC_Name"/>
-    <tableColumn id="2" xr3:uid="{20DF5352-4B39-416D-A6E4-D94E56AED1C9}" name="number of channel"/>
-    <tableColumn id="3" xr3:uid="{9F9316C2-2066-47BF-B84E-436D4C41B07C}" name="IRQN assoiated"/>
-    <tableColumn id="4" xr3:uid="{CC116C4D-98B0-46BC-A882-0B90828FFD68}" name="Clock Associated"/>
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{FAF38277-E25D-413A-A145-AFBC74566FF1}" name="FMKCDA_IRQNHandler" displayName="FMKCDA_IRQNHandler" ref="E8:F12" totalsRowShown="0">
+  <autoFilter ref="E8:F12" xr:uid="{FAF38277-E25D-413A-A145-AFBC74566FF1}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CD80BAAD-36DA-496C-9F7C-D80D4296914C}" name="List IRQN_Handler"/>
+    <tableColumn id="2" xr3:uid="{9F8B466B-BFC7-4900-8330-976222B1008D}" name="Adc, Dac associated"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{333A4E38-7E7A-4098-B282-4F58DD308AC2}" name="FMKMAC_Cfg" displayName="FMKMAC_Cfg" ref="B2:E9" totalsRowShown="0">
   <autoFilter ref="B2:E9" xr:uid="{333A4E38-7E7A-4098-B282-4F58DD308AC2}"/>
   <tableColumns count="4">
@@ -3816,9 +4018,29 @@
 </table>
 </file>
 
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{8B613F4D-88F2-4091-AA3A-5550AB627653}" name="Tableau34" displayName="Tableau34" ref="J3:J18" totalsRowShown="0">
+  <autoFilter ref="J3:J18" xr:uid="{8B613F4D-88F2-4091-AA3A-5550AB627653}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{7FC5E369-C5C5-44CD-98EF-8136D5348789}" name="List IRQN_Handler"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{3568793B-2270-4B9A-A9E5-55F929444AFF}" name="Tableau35" displayName="Tableau35" ref="B5:B11" totalsRowShown="0">
+  <autoFilter ref="B5:B11" xr:uid="{3568793B-2270-4B9A-A9E5-55F929444AFF}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{61C0BDFB-C4E4-44F5-AA25-0ECEC1F95FDC}" name="List IRQN_Handler"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5A8C957F-EDE6-44F1-B8F8-2086E255196A}" name="GI_DAC" displayName="GI_DAC" ref="X36:Y37" totalsRowShown="0">
-  <autoFilter ref="X36:Y37" xr:uid="{5A8C957F-EDE6-44F1-B8F8-2086E255196A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5A8C957F-EDE6-44F1-B8F8-2086E255196A}" name="GI_DAC" displayName="GI_DAC" ref="Y36:Z37" totalsRowShown="0">
+  <autoFilter ref="Y36:Z37" xr:uid="{5A8C957F-EDE6-44F1-B8F8-2086E255196A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{73150C50-6B2A-4CD8-A7E6-62C171935AF8}" name="DAC_Name"/>
     <tableColumn id="2" xr3:uid="{EF9B5413-9A3C-4163-8063-C74DAB2D51F7}" name="number of channel"/>
@@ -3828,8 +4050,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0BD818BF-294B-4FA2-8E5A-7FD1DB70B357}" name="GI_IRQN" displayName="GI_IRQN" ref="G18:H119" totalsRowShown="0">
-  <autoFilter ref="G18:H119" xr:uid="{0BD818BF-294B-4FA2-8E5A-7FD1DB70B357}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0BD818BF-294B-4FA2-8E5A-7FD1DB70B357}" name="GI_IRQN" displayName="GI_IRQN" ref="H18:I119" totalsRowShown="0">
+  <autoFilter ref="H18:I119" xr:uid="{0BD818BF-294B-4FA2-8E5A-7FD1DB70B357}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{95486269-8ABF-444C-A7FD-956C784AC88B}" name="IRQN_name"/>
     <tableColumn id="2" xr3:uid="{72C5AB1D-5859-4FB9-812E-7971E444E4B8}" name="Interrupt Prioirty "/>
@@ -3839,19 +4061,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9B4F1398-0B6D-4B55-A4C3-611E0B66A012}" name="GI_RCC_CLOCK" displayName="GI_RCC_CLOCK" ref="D18:E75" totalsRowShown="0">
-  <autoFilter ref="D18:E75" xr:uid="{9B4F1398-0B6D-4B55-A4C3-611E0B66A012}"/>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9B4F1398-0B6D-4B55-A4C3-611E0B66A012}" name="GI_RCC_CLOCK" displayName="GI_RCC_CLOCK" ref="D18:F75" totalsRowShown="0">
+  <autoFilter ref="D18:F75" xr:uid="{9B4F1398-0B6D-4B55-A4C3-611E0B66A012}"/>
+  <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{402A3AD5-0AFA-40A5-A5A4-0D9CB2EED72D}" name="RCC_ClockName"/>
     <tableColumn id="2" xr3:uid="{05025EF0-98DC-4B06-8DD6-ABD9D73D50B7}" name="Clock Soure"/>
+    <tableColumn id="3" xr3:uid="{A98345EB-D57F-464A-8549-42B6B6F4ED23}" name="Request Periph Cfg"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FC2F87AB-FFF7-4006-99CC-8D938E27338D}" name="GI_DMA" displayName="GI_DMA" ref="AA20:AC22" totalsRowShown="0">
-  <autoFilter ref="AA20:AC22" xr:uid="{FC2F87AB-FFF7-4006-99CC-8D938E27338D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FC2F87AB-FFF7-4006-99CC-8D938E27338D}" name="GI_DMA" displayName="GI_DMA" ref="AB20:AD22" totalsRowShown="0">
+  <autoFilter ref="AB20:AD22" xr:uid="{FC2F87AB-FFF7-4006-99CC-8D938E27338D}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00302DEC-D815-47CE-9380-676FE769FF43}" name="DMA_Name"/>
     <tableColumn id="2" xr3:uid="{2654BB85-F763-4BBA-9124-13A3875B62D0}" name="number of channel"/>
@@ -3862,8 +4085,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{13E9277E-229F-41F0-9B99-7D1A0B71D1B3}" name="Tableau16" displayName="Tableau16" ref="AE40:AE43" totalsRowShown="0">
-  <autoFilter ref="AE40:AE43" xr:uid="{13E9277E-229F-41F0-9B99-7D1A0B71D1B3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{13E9277E-229F-41F0-9B99-7D1A0B71D1B3}" name="Tableau16" displayName="Tableau16" ref="AF40:AF43" totalsRowShown="0">
+  <autoFilter ref="AF40:AF43" xr:uid="{13E9277E-229F-41F0-9B99-7D1A0B71D1B3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{84137467-8FB1-43EA-9F20-573D7FE9FADD}" name="_NVIC_Piority_Choice"/>
   </tableColumns>
@@ -4198,10 +4421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2D6D-43F7-44B1-8255-ECFDDA33AA9C}">
-  <dimension ref="A18:AE119"/>
+  <dimension ref="A18:AF119"/>
   <sheetViews>
-    <sheetView topLeftCell="U16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA29" sqref="AA29"/>
+    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4210,27 +4433,27 @@
     <col min="2" max="2" width="24.77734375" customWidth="1"/>
     <col min="3" max="3" width="37.33203125" customWidth="1"/>
     <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="5" width="25.109375" customWidth="1"/>
-    <col min="6" max="6" width="33.109375" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21.44140625" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" customWidth="1"/>
-    <col min="11" max="11" width="20.44140625" customWidth="1"/>
-    <col min="12" max="12" width="29.44140625" customWidth="1"/>
-    <col min="13" max="13" width="21.33203125" customWidth="1"/>
-    <col min="14" max="14" width="22.77734375" customWidth="1"/>
-    <col min="15" max="15" width="23.44140625" customWidth="1"/>
-    <col min="16" max="16" width="20.6640625" customWidth="1"/>
-    <col min="19" max="19" width="21.33203125" customWidth="1"/>
-    <col min="20" max="20" width="21.21875" customWidth="1"/>
-    <col min="21" max="21" width="19.109375" customWidth="1"/>
-    <col min="22" max="22" width="18.77734375" customWidth="1"/>
-    <col min="23" max="23" width="29.21875" customWidth="1"/>
-    <col min="27" max="27" width="24" customWidth="1"/>
-    <col min="30" max="30" width="17.77734375" customWidth="1"/>
+    <col min="5" max="6" width="25.109375" customWidth="1"/>
+    <col min="7" max="7" width="33.109375" customWidth="1"/>
+    <col min="8" max="8" width="26.88671875" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" customWidth="1"/>
+    <col min="12" max="12" width="20.44140625" customWidth="1"/>
+    <col min="13" max="13" width="29.44140625" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" customWidth="1"/>
+    <col min="15" max="15" width="22.77734375" customWidth="1"/>
+    <col min="16" max="16" width="23.44140625" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" customWidth="1"/>
+    <col min="20" max="20" width="21.33203125" customWidth="1"/>
+    <col min="21" max="21" width="21.21875" customWidth="1"/>
+    <col min="22" max="22" width="19.109375" customWidth="1"/>
+    <col min="23" max="23" width="18.77734375" customWidth="1"/>
+    <col min="24" max="24" width="29.21875" customWidth="1"/>
+    <col min="28" max="28" width="24" customWidth="1"/>
+    <col min="31" max="31" width="17.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>132</v>
       </c>
@@ -4238,31 +4461,34 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>315</v>
-      </c>
-      <c r="G18" t="s">
+        <v>314</v>
+      </c>
+      <c r="F18" t="s">
+        <v>422</v>
+      </c>
+      <c r="H18" t="s">
         <v>57</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>58</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>2</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>3</v>
       </c>
-      <c r="L18" t="s">
+      <c r="M18" t="s">
         <v>282</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>283</v>
       </c>
-      <c r="N18" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O18" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>133</v>
       </c>
@@ -4270,333 +4496,357 @@
         <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>322</v>
-      </c>
-      <c r="G19" t="s">
+        <v>321</v>
+      </c>
+      <c r="F19" t="s">
+        <v>420</v>
+      </c>
+      <c r="H19" t="s">
         <v>59</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>69</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>4</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>4</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>154</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>285</v>
       </c>
-      <c r="N19" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O19" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
         <v>240</v>
       </c>
       <c r="E20" t="s">
-        <v>322</v>
-      </c>
-      <c r="G20" t="s">
+        <v>321</v>
+      </c>
+      <c r="F20" t="s">
+        <v>420</v>
+      </c>
+      <c r="H20" t="s">
         <v>134</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>69</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>261</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>4</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>157</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>285</v>
       </c>
-      <c r="N20" t="s">
-        <v>312</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="O20" t="s">
+        <v>311</v>
+      </c>
+      <c r="T20" t="s">
         <v>17</v>
       </c>
-      <c r="T20" t="s">
+      <c r="U20" t="s">
         <v>18</v>
       </c>
-      <c r="U20" t="s">
+      <c r="V20" t="s">
         <v>288</v>
       </c>
-      <c r="V20" t="s">
+      <c r="W20" t="s">
         <v>289</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>22</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>18</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>243</v>
       </c>
       <c r="E21" t="s">
-        <v>322</v>
-      </c>
-      <c r="G21" t="s">
+        <v>321</v>
+      </c>
+      <c r="F21" t="s">
+        <v>420</v>
+      </c>
+      <c r="H21" t="s">
         <v>135</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>69</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>5</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>4</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>64</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>285</v>
       </c>
-      <c r="N21" t="s">
-        <v>312</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="O21" t="s">
+        <v>311</v>
+      </c>
+      <c r="T21" t="s">
         <v>16</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>18</v>
       </c>
-      <c r="U21" t="s">
+      <c r="V21" t="s">
         <v>148</v>
       </c>
-      <c r="V21" t="s">
+      <c r="W21" t="s">
         <v>247</v>
       </c>
-      <c r="AA21" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB21">
+      <c r="AB21" t="s">
+        <v>349</v>
+      </c>
+      <c r="AC21">
         <v>8</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>244</v>
       </c>
       <c r="E22" t="s">
-        <v>322</v>
-      </c>
-      <c r="G22" t="s">
+        <v>321</v>
+      </c>
+      <c r="F22" t="s">
+        <v>420</v>
+      </c>
+      <c r="H22" t="s">
         <v>136</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>69</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>262</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>4</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>158</v>
       </c>
-      <c r="M22" t="s">
+      <c r="N22" t="s">
         <v>285</v>
       </c>
-      <c r="N22" t="s">
-        <v>312</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="O22" t="s">
+        <v>311</v>
+      </c>
+      <c r="T22" t="s">
         <v>271</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>18</v>
       </c>
-      <c r="U22" t="s">
+      <c r="V22" t="s">
         <v>148</v>
       </c>
-      <c r="V22" t="s">
+      <c r="W22" t="s">
         <v>247</v>
       </c>
-      <c r="AA22" t="s">
-        <v>351</v>
-      </c>
-      <c r="AB22">
+      <c r="AB22" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC22">
         <v>8</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
         <v>245</v>
       </c>
       <c r="E23" t="s">
-        <v>322</v>
-      </c>
-      <c r="G23" t="s">
+        <v>321</v>
+      </c>
+      <c r="F23" t="s">
+        <v>420</v>
+      </c>
+      <c r="H23" t="s">
         <v>60</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>69</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>267</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>4</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>174</v>
       </c>
-      <c r="M23" t="s">
+      <c r="N23" t="s">
         <v>285</v>
       </c>
-      <c r="N23" t="s">
-        <v>312</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="O23" t="s">
+        <v>311</v>
+      </c>
+      <c r="T23" t="s">
         <v>272</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>18</v>
       </c>
-      <c r="U23" t="s">
+      <c r="V23" t="s">
         <v>171</v>
       </c>
-      <c r="V23" t="s">
+      <c r="W23" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
         <v>246</v>
       </c>
       <c r="E24" t="s">
-        <v>322</v>
-      </c>
-      <c r="G24" t="s">
+        <v>321</v>
+      </c>
+      <c r="F24" t="s">
+        <v>420</v>
+      </c>
+      <c r="H24" t="s">
         <v>61</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>69</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>263</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>1</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>178</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>287</v>
       </c>
-      <c r="N24" t="s">
-        <v>312</v>
-      </c>
-      <c r="S24" t="s">
+      <c r="O24" t="s">
+        <v>311</v>
+      </c>
+      <c r="T24" t="s">
         <v>273</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>18</v>
       </c>
-      <c r="U24" t="s">
+      <c r="V24" t="s">
         <v>185</v>
       </c>
-      <c r="V24" t="s">
+      <c r="W24" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>322</v>
-      </c>
-      <c r="G25" t="s">
+        <v>321</v>
+      </c>
+      <c r="F25" t="s">
+        <v>420</v>
+      </c>
+      <c r="H25" t="s">
         <v>137</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>69</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>264</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>1</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>179</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>287</v>
       </c>
-      <c r="N25" t="s">
-        <v>313</v>
-      </c>
-      <c r="S25" t="s">
+      <c r="O25" t="s">
+        <v>312</v>
+      </c>
+      <c r="T25" t="s">
         <v>274</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>18</v>
       </c>
-      <c r="U25" t="s">
+      <c r="V25" t="s">
         <v>186</v>
       </c>
-      <c r="V25" t="s">
+      <c r="W25" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>270</v>
       </c>
       <c r="E26" t="s">
-        <v>323</v>
-      </c>
-      <c r="G26" t="s">
+        <v>322</v>
+      </c>
+      <c r="F26" t="s">
+        <v>420</v>
+      </c>
+      <c r="H26" t="s">
         <v>138</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>69</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>265</v>
       </c>
-      <c r="K26">
-        <v>4</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="L26">
+        <v>6</v>
+      </c>
+      <c r="M26" t="s">
         <v>167</v>
       </c>
-      <c r="M26" t="s">
+      <c r="N26" t="s">
         <v>285</v>
       </c>
-      <c r="N26" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O26" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>292</v>
       </c>
@@ -4607,31 +4857,34 @@
         <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>323</v>
-      </c>
-      <c r="G27" t="s">
+        <v>322</v>
+      </c>
+      <c r="F27" t="s">
+        <v>420</v>
+      </c>
+      <c r="H27" t="s">
         <v>139</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>69</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>6</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>2</v>
       </c>
-      <c r="L27" t="s">
+      <c r="M27" t="s">
         <v>154</v>
       </c>
-      <c r="M27" t="s">
+      <c r="N27" t="s">
         <v>286</v>
       </c>
-      <c r="N27" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O27" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>293</v>
       </c>
@@ -4642,31 +4895,34 @@
         <v>241</v>
       </c>
       <c r="E28" t="s">
-        <v>323</v>
-      </c>
-      <c r="G28" t="s">
+        <v>322</v>
+      </c>
+      <c r="F28" t="s">
+        <v>420</v>
+      </c>
+      <c r="H28" t="s">
         <v>140</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>69</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>7</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>155</v>
       </c>
-      <c r="M28" t="s">
+      <c r="N28" t="s">
         <v>286</v>
       </c>
-      <c r="N28" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O28" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>256</v>
       </c>
@@ -4677,1169 +4933,1313 @@
         <v>242</v>
       </c>
       <c r="E29" t="s">
-        <v>323</v>
-      </c>
-      <c r="G29" t="s">
+        <v>322</v>
+      </c>
+      <c r="F29" t="s">
+        <v>420</v>
+      </c>
+      <c r="H29" t="s">
         <v>141</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>69</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>8</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>1</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>156</v>
       </c>
-      <c r="M29" t="s">
+      <c r="N29" t="s">
         <v>286</v>
       </c>
-      <c r="N29" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O29" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
         <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>323</v>
-      </c>
-      <c r="G30" t="s">
+        <v>322</v>
+      </c>
+      <c r="F30" t="s">
+        <v>420</v>
+      </c>
+      <c r="H30" t="s">
         <v>62</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>69</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>266</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>4</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>201</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
         <v>285</v>
       </c>
-      <c r="N30" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="O30" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>323</v>
-      </c>
-      <c r="G31" t="s">
+        <v>322</v>
+      </c>
+      <c r="F31" t="s">
+        <v>420</v>
+      </c>
+      <c r="H31" t="s">
         <v>142</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D32" t="s">
         <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>323</v>
-      </c>
-      <c r="G32" t="s">
+        <v>322</v>
+      </c>
+      <c r="F32" t="s">
+        <v>420</v>
+      </c>
+      <c r="H32" t="s">
         <v>143</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
         <v>247</v>
       </c>
       <c r="E33" t="s">
-        <v>321</v>
-      </c>
-      <c r="G33" t="s">
+        <v>320</v>
+      </c>
+      <c r="F33" t="s">
+        <v>421</v>
+      </c>
+      <c r="H33" t="s">
         <v>144</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>69</v>
       </c>
-      <c r="O33" t="s">
+      <c r="P33" t="s">
         <v>9</v>
       </c>
-      <c r="P33" t="s">
+      <c r="Q33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>248</v>
       </c>
       <c r="E34" t="s">
-        <v>321</v>
-      </c>
-      <c r="G34" t="s">
+        <v>320</v>
+      </c>
+      <c r="F34" t="s">
+        <v>421</v>
+      </c>
+      <c r="H34" t="s">
         <v>145</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>69</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>11</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>239</v>
       </c>
       <c r="E35" t="s">
-        <v>313</v>
-      </c>
-      <c r="G35" t="s">
+        <v>312</v>
+      </c>
+      <c r="F35" t="s">
+        <v>420</v>
+      </c>
+      <c r="H35" t="s">
         <v>146</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>69</v>
       </c>
-      <c r="O35" t="s">
+      <c r="P35" t="s">
         <v>12</v>
       </c>
-      <c r="P35">
+      <c r="Q35">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
         <v>238</v>
       </c>
       <c r="E36" t="s">
-        <v>313</v>
-      </c>
-      <c r="G36" t="s">
+        <v>312</v>
+      </c>
+      <c r="F36" t="s">
+        <v>420</v>
+      </c>
+      <c r="H36" t="s">
         <v>147</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>69</v>
       </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>13</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>16</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>19</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>249</v>
       </c>
       <c r="E37" t="s">
-        <v>313</v>
-      </c>
-      <c r="G37" t="s">
+        <v>312</v>
+      </c>
+      <c r="F37" t="s">
+        <v>420</v>
+      </c>
+      <c r="H37" t="s">
         <v>148</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>69</v>
       </c>
-      <c r="O37" t="s">
+      <c r="P37" t="s">
         <v>14</v>
       </c>
-      <c r="P37">
+      <c r="Q37">
         <v>16</v>
-      </c>
-      <c r="X37" t="s">
-        <v>20</v>
       </c>
       <c r="Y37" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="Z37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>250</v>
       </c>
       <c r="E38" t="s">
-        <v>313</v>
-      </c>
-      <c r="G38" t="s">
+        <v>312</v>
+      </c>
+      <c r="F38" t="s">
+        <v>420</v>
+      </c>
+      <c r="H38" t="s">
         <v>149</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>69</v>
       </c>
-      <c r="O38" t="s">
+      <c r="P38" t="s">
         <v>268</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
         <v>225</v>
       </c>
       <c r="E39" t="s">
-        <v>323</v>
-      </c>
-      <c r="G39" t="s">
+        <v>322</v>
+      </c>
+      <c r="F39" t="s">
+        <v>420</v>
+      </c>
+      <c r="H39" t="s">
         <v>150</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>69</v>
       </c>
-      <c r="O39" t="s">
+      <c r="P39" t="s">
         <v>15</v>
       </c>
-      <c r="P39">
+      <c r="Q39">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
         <v>251</v>
       </c>
       <c r="E40" t="s">
-        <v>323</v>
-      </c>
-      <c r="G40" t="s">
+        <v>322</v>
+      </c>
+      <c r="F40" t="s">
+        <v>420</v>
+      </c>
+      <c r="H40" t="s">
         <v>151</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>90</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>269</v>
       </c>
-      <c r="P40">
+      <c r="Q40">
         <v>11</v>
       </c>
-      <c r="AE40" t="s">
+      <c r="AF40" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>252</v>
       </c>
       <c r="E41" t="s">
-        <v>320</v>
-      </c>
-      <c r="G41" t="s">
+        <v>319</v>
+      </c>
+      <c r="F41" t="s">
+        <v>421</v>
+      </c>
+      <c r="H41" t="s">
         <v>152</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>90</v>
       </c>
-      <c r="AE41" t="s">
+      <c r="AF41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
         <v>237</v>
       </c>
       <c r="E42" t="s">
-        <v>312</v>
-      </c>
-      <c r="G42" t="s">
+        <v>311</v>
+      </c>
+      <c r="F42" t="s">
+        <v>420</v>
+      </c>
+      <c r="H42" t="s">
         <v>153</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>69</v>
       </c>
-      <c r="AE42" t="s">
+      <c r="AF42" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="43" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>312</v>
-      </c>
-      <c r="G43" t="s">
+        <v>311</v>
+      </c>
+      <c r="F43" t="s">
+        <v>420</v>
+      </c>
+      <c r="H43" t="s">
         <v>154</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>69</v>
       </c>
-      <c r="AE43" t="s">
+      <c r="AF43" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
         <v>236</v>
       </c>
       <c r="E44" t="s">
-        <v>312</v>
-      </c>
-      <c r="G44" t="s">
+        <v>311</v>
+      </c>
+      <c r="F44" t="s">
+        <v>420</v>
+      </c>
+      <c r="H44" t="s">
         <v>155</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
         <v>253</v>
       </c>
       <c r="E45" t="s">
-        <v>312</v>
-      </c>
-      <c r="G45" t="s">
+        <v>311</v>
+      </c>
+      <c r="F45" t="s">
+        <v>420</v>
+      </c>
+      <c r="H45" t="s">
         <v>156</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
         <v>235</v>
       </c>
       <c r="E46" t="s">
-        <v>312</v>
-      </c>
-      <c r="G46" t="s">
+        <v>311</v>
+      </c>
+      <c r="F46" t="s">
+        <v>420</v>
+      </c>
+      <c r="H46" t="s">
         <v>63</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>69</v>
       </c>
-      <c r="AE46" t="s">
+      <c r="AF46" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="47" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
         <v>234</v>
       </c>
       <c r="E47" t="s">
-        <v>312</v>
-      </c>
-      <c r="G47" t="s">
+        <v>311</v>
+      </c>
+      <c r="F47" t="s">
+        <v>420</v>
+      </c>
+      <c r="H47" t="s">
         <v>157</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>69</v>
       </c>
-      <c r="AE47" t="s">
+      <c r="AF47" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="48" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
         <v>254</v>
       </c>
       <c r="E48" t="s">
-        <v>312</v>
-      </c>
-      <c r="G48" t="s">
+        <v>311</v>
+      </c>
+      <c r="F48" t="s">
+        <v>420</v>
+      </c>
+      <c r="H48" t="s">
         <v>64</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>69</v>
       </c>
-      <c r="AE48" t="s">
+      <c r="AF48" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="49" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>255</v>
       </c>
       <c r="E49" t="s">
-        <v>312</v>
-      </c>
-      <c r="G49" t="s">
+        <v>311</v>
+      </c>
+      <c r="F49" t="s">
+        <v>420</v>
+      </c>
+      <c r="H49" t="s">
         <v>158</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>69</v>
       </c>
-      <c r="AE49" t="s">
+      <c r="AF49" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="50" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>312</v>
-      </c>
-      <c r="G50" t="s">
+        <v>311</v>
+      </c>
+      <c r="F50" t="s">
+        <v>420</v>
+      </c>
+      <c r="H50" t="s">
         <v>159</v>
       </c>
-      <c r="H50" t="s">
+      <c r="I50" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>312</v>
-      </c>
-      <c r="G51" t="s">
+        <v>311</v>
+      </c>
+      <c r="F51" t="s">
+        <v>420</v>
+      </c>
+      <c r="H51" t="s">
         <v>160</v>
       </c>
-      <c r="H51" t="s">
+      <c r="I51" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>230</v>
       </c>
       <c r="E52" t="s">
-        <v>312</v>
-      </c>
-      <c r="G52" t="s">
+        <v>311</v>
+      </c>
+      <c r="F52" t="s">
+        <v>420</v>
+      </c>
+      <c r="H52" t="s">
         <v>161</v>
       </c>
-      <c r="H52" t="s">
+      <c r="I52" t="s">
         <v>69</v>
       </c>
-      <c r="AE52" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="53" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="AF52" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="53" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>79</v>
       </c>
       <c r="E53" t="s">
-        <v>312</v>
-      </c>
-      <c r="G53" t="s">
+        <v>311</v>
+      </c>
+      <c r="F53" t="s">
+        <v>421</v>
+      </c>
+      <c r="H53" t="s">
         <v>162</v>
       </c>
-      <c r="H53" t="s">
+      <c r="I53" t="s">
         <v>69</v>
       </c>
-      <c r="AE53" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="54" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="AF53" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="54" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>229</v>
       </c>
       <c r="E54" t="s">
-        <v>312</v>
-      </c>
-      <c r="G54" t="s">
+        <v>311</v>
+      </c>
+      <c r="F54" t="s">
+        <v>421</v>
+      </c>
+      <c r="H54" t="s">
         <v>65</v>
       </c>
-      <c r="H54" t="s">
+      <c r="I54" t="s">
         <v>69</v>
       </c>
-      <c r="AE54" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="55" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="AF54" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="55" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>290</v>
       </c>
       <c r="E55" t="s">
-        <v>312</v>
-      </c>
-      <c r="G55" t="s">
+        <v>311</v>
+      </c>
+      <c r="F55" t="s">
+        <v>421</v>
+      </c>
+      <c r="H55" t="s">
         <v>66</v>
       </c>
-      <c r="H55" t="s">
+      <c r="I55" t="s">
         <v>69</v>
       </c>
-      <c r="AE55" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="56" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="AF55" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="56" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>291</v>
       </c>
       <c r="E56" t="s">
-        <v>312</v>
-      </c>
-      <c r="G56" t="s">
+        <v>311</v>
+      </c>
+      <c r="F56" t="s">
+        <v>421</v>
+      </c>
+      <c r="H56" t="s">
         <v>67</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>69</v>
       </c>
-      <c r="AE56" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="57" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="AF56" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="57" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
         <v>228</v>
       </c>
       <c r="E57" t="s">
-        <v>312</v>
-      </c>
-      <c r="G57" t="s">
+        <v>311</v>
+      </c>
+      <c r="F57" t="s">
+        <v>420</v>
+      </c>
+      <c r="H57" t="s">
         <v>68</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I57" t="s">
         <v>69</v>
       </c>
-      <c r="AE57" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="58" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="AF57" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="58" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
         <v>226</v>
       </c>
       <c r="E58" t="s">
-        <v>312</v>
-      </c>
-      <c r="G58" t="s">
+        <v>311</v>
+      </c>
+      <c r="F58" t="s">
+        <v>420</v>
+      </c>
+      <c r="H58" t="s">
         <v>163</v>
       </c>
-      <c r="H58" t="s">
+      <c r="I58" t="s">
         <v>69</v>
       </c>
-      <c r="AE58" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="59" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="AF58" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
         <v>256</v>
       </c>
       <c r="E59" t="s">
-        <v>320</v>
-      </c>
-      <c r="G59" t="s">
+        <v>319</v>
+      </c>
+      <c r="F59" t="s">
+        <v>421</v>
+      </c>
+      <c r="H59" t="s">
         <v>164</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>69</v>
       </c>
-      <c r="AE59" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="60" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="AF59" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D60" t="s">
         <v>87</v>
       </c>
       <c r="E60" t="s">
+        <v>311</v>
+      </c>
+      <c r="F60" t="s">
+        <v>420</v>
+      </c>
+      <c r="H60" t="s">
+        <v>165</v>
+      </c>
+      <c r="I60" t="s">
+        <v>69</v>
+      </c>
+      <c r="AF60" t="s">
         <v>312</v>
       </c>
-      <c r="G60" t="s">
-        <v>165</v>
-      </c>
-      <c r="H60" t="s">
-        <v>69</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="61" spans="4:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
         <v>227</v>
       </c>
       <c r="E61" t="s">
-        <v>312</v>
-      </c>
-      <c r="G61" t="s">
+        <v>311</v>
+      </c>
+      <c r="F61" t="s">
+        <v>421</v>
+      </c>
+      <c r="H61" t="s">
         <v>166</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>69</v>
       </c>
-      <c r="AE61" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="62" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="AF61" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="62" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
         <v>231</v>
       </c>
       <c r="E62" t="s">
-        <v>312</v>
-      </c>
-      <c r="G62" t="s">
+        <v>311</v>
+      </c>
+      <c r="F62" t="s">
+        <v>420</v>
+      </c>
+      <c r="H62" t="s">
         <v>167</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>69</v>
       </c>
-      <c r="AE62" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="63" spans="4:31" x14ac:dyDescent="0.3">
+      <c r="AF62" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="63" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
         <v>257</v>
       </c>
       <c r="E63" t="s">
-        <v>312</v>
-      </c>
-      <c r="G63" t="s">
+        <v>311</v>
+      </c>
+      <c r="F63" t="s">
+        <v>420</v>
+      </c>
+      <c r="H63" t="s">
         <v>168</v>
       </c>
-      <c r="H63" t="s">
+      <c r="I63" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="64" spans="4:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
         <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>313</v>
-      </c>
-      <c r="G64" t="s">
+        <v>312</v>
+      </c>
+      <c r="F64" t="s">
+        <v>420</v>
+      </c>
+      <c r="H64" t="s">
         <v>169</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
         <v>71</v>
       </c>
       <c r="E65" t="s">
-        <v>313</v>
-      </c>
-      <c r="G65" t="s">
+        <v>312</v>
+      </c>
+      <c r="F65" t="s">
+        <v>420</v>
+      </c>
+      <c r="H65" t="s">
         <v>170</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
         <v>76</v>
       </c>
       <c r="E66" t="s">
-        <v>313</v>
-      </c>
-      <c r="G66" t="s">
+        <v>312</v>
+      </c>
+      <c r="F66" t="s">
+        <v>420</v>
+      </c>
+      <c r="H66" t="s">
         <v>171</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
         <v>233</v>
       </c>
       <c r="E67" t="s">
-        <v>313</v>
-      </c>
-      <c r="G67" t="s">
+        <v>312</v>
+      </c>
+      <c r="F67" t="s">
+        <v>420</v>
+      </c>
+      <c r="H67" t="s">
         <v>172</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="68" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
         <v>78</v>
       </c>
       <c r="E68" t="s">
-        <v>313</v>
-      </c>
-      <c r="G68" t="s">
+        <v>312</v>
+      </c>
+      <c r="F68" t="s">
+        <v>421</v>
+      </c>
+      <c r="H68" t="s">
         <v>173</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="69" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
         <v>258</v>
       </c>
       <c r="E69" t="s">
-        <v>313</v>
-      </c>
-      <c r="G69" t="s">
+        <v>312</v>
+      </c>
+      <c r="F69" t="s">
+        <v>420</v>
+      </c>
+      <c r="H69" t="s">
         <v>174</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="70" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D70" t="s">
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>313</v>
-      </c>
-      <c r="G70" t="s">
+        <v>312</v>
+      </c>
+      <c r="F70" t="s">
+        <v>420</v>
+      </c>
+      <c r="H70" t="s">
         <v>175</v>
       </c>
-      <c r="H70" t="s">
+      <c r="I70" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D71" t="s">
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>313</v>
-      </c>
-      <c r="G71" t="s">
+        <v>312</v>
+      </c>
+      <c r="F71" t="s">
+        <v>420</v>
+      </c>
+      <c r="H71" t="s">
         <v>176</v>
       </c>
-      <c r="H71" t="s">
+      <c r="I71" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>313</v>
-      </c>
-      <c r="G72" t="s">
+        <v>312</v>
+      </c>
+      <c r="F72" t="s">
+        <v>420</v>
+      </c>
+      <c r="H72" t="s">
         <v>177</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>232</v>
       </c>
       <c r="E73" t="s">
-        <v>313</v>
-      </c>
-      <c r="G73" t="s">
+        <v>312</v>
+      </c>
+      <c r="F73" t="s">
+        <v>420</v>
+      </c>
+      <c r="H73" t="s">
         <v>178</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I73" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
         <v>259</v>
       </c>
       <c r="E74" t="s">
-        <v>313</v>
-      </c>
-      <c r="G74" t="s">
+        <v>312</v>
+      </c>
+      <c r="F74" t="s">
+        <v>420</v>
+      </c>
+      <c r="H74" t="s">
         <v>179</v>
       </c>
-      <c r="H74" t="s">
+      <c r="I74" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
         <v>260</v>
       </c>
       <c r="E75" t="s">
-        <v>313</v>
-      </c>
-      <c r="G75" t="s">
+        <v>312</v>
+      </c>
+      <c r="F75" t="s">
+        <v>420</v>
+      </c>
+      <c r="H75" t="s">
         <v>180</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="G76" t="s">
+    <row r="76" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="H76" t="s">
         <v>181</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="G77" t="s">
+    <row r="77" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="H77" t="s">
         <v>182</v>
       </c>
-      <c r="H77" t="s">
+      <c r="I77" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="G78" t="s">
+    <row r="78" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="H78" t="s">
         <v>183</v>
       </c>
-      <c r="H78" t="s">
+      <c r="I78" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="G79" t="s">
+    <row r="79" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="H79" t="s">
         <v>184</v>
       </c>
-      <c r="H79" t="s">
+      <c r="I79" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="G80" t="s">
+    <row r="80" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="H80" t="s">
         <v>185</v>
       </c>
-      <c r="H80" t="s">
+      <c r="I80" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G81" t="s">
+    <row r="81" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H81" t="s">
         <v>186</v>
       </c>
-      <c r="H81" t="s">
+      <c r="I81" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G82" t="s">
+    <row r="82" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H82" t="s">
         <v>187</v>
       </c>
-      <c r="H82" t="s">
+      <c r="I82" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G83" t="s">
+    <row r="83" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H83" t="s">
         <v>188</v>
       </c>
-      <c r="H83" t="s">
+      <c r="I83" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G84" t="s">
+    <row r="84" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H84" t="s">
         <v>189</v>
       </c>
-      <c r="H84" t="s">
+      <c r="I84" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G85" t="s">
+    <row r="85" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H85" t="s">
         <v>190</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G86" t="s">
+    <row r="86" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H86" t="s">
         <v>191</v>
       </c>
-      <c r="H86" t="s">
+      <c r="I86" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G87" t="s">
+    <row r="87" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H87" t="s">
         <v>192</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G88" t="s">
+    <row r="88" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
         <v>193</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G89" t="s">
+    <row r="89" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H89" t="s">
         <v>194</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I89" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G90" t="s">
+    <row r="90" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H90" t="s">
         <v>195</v>
       </c>
-      <c r="H90" t="s">
+      <c r="I90" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G91" t="s">
+    <row r="91" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H91" t="s">
         <v>196</v>
       </c>
-      <c r="H91" t="s">
+      <c r="I91" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G92" t="s">
+    <row r="92" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H92" t="s">
         <v>197</v>
       </c>
-      <c r="H92" t="s">
+      <c r="I92" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G93" t="s">
+    <row r="93" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H93" t="s">
         <v>198</v>
       </c>
-      <c r="H93" t="s">
+      <c r="I93" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G94" t="s">
+    <row r="94" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H94" t="s">
         <v>199</v>
       </c>
-      <c r="H94" t="s">
+      <c r="I94" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G95" t="s">
+    <row r="95" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H95" t="s">
         <v>200</v>
       </c>
-      <c r="H95" t="s">
+      <c r="I95" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G96" t="s">
+    <row r="96" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H96" t="s">
         <v>201</v>
       </c>
-      <c r="H96" t="s">
+      <c r="I96" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G97" t="s">
+    <row r="97" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H97" t="s">
         <v>202</v>
       </c>
-      <c r="H97" t="s">
+      <c r="I97" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G98" t="s">
+    <row r="98" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H98" t="s">
         <v>203</v>
       </c>
-      <c r="H98" t="s">
+      <c r="I98" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G99" t="s">
+    <row r="99" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H99" t="s">
         <v>204</v>
       </c>
-      <c r="H99" t="s">
+      <c r="I99" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G100" t="s">
+    <row r="100" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H100" t="s">
         <v>205</v>
       </c>
-      <c r="H100" t="s">
+      <c r="I100" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="101" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G101" t="s">
+    <row r="101" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H101" t="s">
         <v>206</v>
       </c>
-      <c r="H101" t="s">
+      <c r="I101" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="102" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G102" t="s">
+    <row r="102" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H102" t="s">
         <v>207</v>
       </c>
-      <c r="H102" t="s">
+      <c r="I102" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="103" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G103" t="s">
+    <row r="103" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H103" t="s">
         <v>208</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="104" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G104" t="s">
+    <row r="104" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H104" t="s">
         <v>209</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="105" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G105" t="s">
+    <row r="105" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H105" t="s">
         <v>210</v>
       </c>
-      <c r="H105" t="s">
+      <c r="I105" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="106" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G106" t="s">
+    <row r="106" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H106" t="s">
         <v>211</v>
       </c>
-      <c r="H106" t="s">
+      <c r="I106" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="107" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G107" t="s">
+    <row r="107" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H107" t="s">
         <v>212</v>
       </c>
-      <c r="H107" t="s">
+      <c r="I107" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="108" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G108" t="s">
+    <row r="108" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H108" t="s">
         <v>213</v>
       </c>
-      <c r="H108" t="s">
+      <c r="I108" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="109" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G109" t="s">
+    <row r="109" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H109" t="s">
         <v>214</v>
       </c>
-      <c r="H109" t="s">
+      <c r="I109" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="110" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G110" t="s">
+    <row r="110" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H110" t="s">
         <v>215</v>
       </c>
-      <c r="H110" t="s">
+      <c r="I110" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="111" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G111" t="s">
+    <row r="111" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H111" t="s">
         <v>216</v>
       </c>
-      <c r="H111" t="s">
+      <c r="I111" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="112" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G112" t="s">
+    <row r="112" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H112" t="s">
         <v>217</v>
       </c>
-      <c r="H112" t="s">
+      <c r="I112" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G113" t="s">
+    <row r="113" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H113" t="s">
         <v>218</v>
       </c>
-      <c r="H113" t="s">
+      <c r="I113" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G114" t="s">
+    <row r="114" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H114" t="s">
         <v>219</v>
       </c>
-      <c r="H114" t="s">
+      <c r="I114" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G115" t="s">
+    <row r="115" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H115" t="s">
         <v>220</v>
       </c>
-      <c r="H115" t="s">
+      <c r="I115" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G116" t="s">
+    <row r="116" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H116" t="s">
         <v>221</v>
       </c>
-      <c r="H116" t="s">
+      <c r="I116" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G117" t="s">
+    <row r="117" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H117" t="s">
         <v>222</v>
       </c>
-      <c r="H117" t="s">
+      <c r="I117" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G118" t="s">
+    <row r="118" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H118" t="s">
         <v>223</v>
       </c>
-      <c r="H118" t="s">
+      <c r="I118" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.3">
-      <c r="G119" t="s">
+    <row r="119" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H119" t="s">
         <v>224</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H119" xr:uid="{3E8F037A-5A22-4138-A36A-F90B67434DDA}">
-      <formula1>$AE$41:$AE$43</formula1>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I18:I119" xr:uid="{AAB57854-EE21-4648-A1CB-0F7D2F2AF990}">
+      <formula1>$AF$41:$AF$43</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M19:M30" xr:uid="{17DBAA90-8141-4522-B025-71F13961596F}">
-      <formula1>$AE$47:$AE$49</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N19:N30" xr:uid="{FCBABE9C-10FE-40A4-8AA4-1BAED7C63E26}">
+      <formula1>$AF$47:$AF$49</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N19:N30 E19:E75" xr:uid="{C93913E9-44DA-490C-8435-4DAABE3AC990}">
-      <formula1>$AE$53:$AE$62</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O19:O30 E19:E75" xr:uid="{FB123359-30B9-419B-AE41-551AB7BB7CAB}">
+      <formula1>$AF$53:$AF$62</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F19:F75" xr:uid="{FBAC43ED-7412-4717-84C1-361BAB253D8D}">
+      <formula1>"No,Yes"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5865,8 +6265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7761-01BE-400F-9C40-BE71D85F5C61}">
   <dimension ref="A2:BA81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A5" zoomScale="63" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6428,15 +6828,33 @@
     <row r="18" spans="1:53" x14ac:dyDescent="0.3">
       <c r="Q18" s="4"/>
     </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="L20" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="L21" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="L22" t="s">
+        <v>381</v>
+      </c>
+    </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
-        <v>310</v>
+      <c r="L23" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>300</v>
       </c>
+      <c r="L24" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -6457,6 +6875,9 @@
       <c r="F25" t="s">
         <v>309</v>
       </c>
+      <c r="L25" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -6477,6 +6898,9 @@
       <c r="F26" t="s">
         <v>306</v>
       </c>
+      <c r="L26" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -6497,6 +6921,9 @@
       <c r="F27" t="s">
         <v>308</v>
       </c>
+      <c r="L27" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -6517,6 +6944,9 @@
       <c r="F28" t="s">
         <v>307</v>
       </c>
+      <c r="L28" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.3">
       <c r="AW29" t="s">
@@ -6561,7 +6991,7 @@
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AW33" t="s">
         <v>28</v>
@@ -6590,7 +7020,7 @@
         <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AW34" t="s">
         <v>29</v>
@@ -6616,7 +7046,7 @@
         <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F35" t="s">
         <v>79</v>
@@ -6642,7 +7072,7 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F36" t="s">
         <v>290</v>
@@ -6857,7 +7287,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW46 B7:B15 F7:F16 AA8:AA16 Q7:Q14 W7:W8 K7:K9" xr:uid="{14BC2D73-1395-4E2C-9D1E-55C781825C64}">
       <formula1>$AW$30:$AW$45</formula1>
     </dataValidation>
@@ -6870,7 +7300,7 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="14">
+  <tableParts count="15">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -6885,25 +7315,26 @@
     <tablePart r:id="rId13"/>
     <tablePart r:id="rId14"/>
     <tablePart r:id="rId15"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1C3D18C3-7241-4088-8034-07AAE0EB53A9}">
           <x14:formula1>
-            <xm:f>General_Info!$J$19:$J$30</xm:f>
+            <xm:f>General_Info!$K$19:$K$30</xm:f>
           </x14:formula1>
           <xm:sqref>S7:S14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA00DA78-9682-47F8-B701-D35809CE3FB0}">
           <x14:formula1>
-            <xm:f>General_Info!$O$34:$O$39</xm:f>
+            <xm:f>General_Info!$P$34:$P$39</xm:f>
           </x14:formula1>
-          <xm:sqref>J7:J9 V7:V8 P7:P14 Z8:Z16 E7:E16 A7:A15</xm:sqref>
+          <xm:sqref>J7:J9 A7:A15 E7:E16 Z8:Z16 P7:P14 V7:V8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C428027-B16D-4B04-9CB2-8290577ED0FB}">
           <x14:formula1>
-            <xm:f>General_Info!$S$21:$S$25</xm:f>
+            <xm:f>General_Info!$T$21:$T$25</xm:f>
           </x14:formula1>
           <xm:sqref>G6:G16</xm:sqref>
         </x14:dataValidation>
@@ -6915,62 +7346,178 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E52BA6-3E0A-4F7C-9391-164B38476F25}">
-  <dimension ref="B3:C6"/>
+  <dimension ref="B3:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>373</v>
+      </c>
+      <c r="G4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>366</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>367</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>369</v>
+      </c>
+      <c r="G8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>370</v>
+      </c>
+      <c r="G9" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>371</v>
+      </c>
+      <c r="G10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>372</v>
+      </c>
+      <c r="G11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>374</v>
+      </c>
+      <c r="G12" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>375</v>
+      </c>
+      <c r="G13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>376</v>
+      </c>
+      <c r="G14" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>377</v>
+      </c>
+      <c r="G15" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>378</v>
+      </c>
+      <c r="G16" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>379</v>
+      </c>
+      <c r="G17" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0962FBCC-E1F3-44E3-92A8-D1FF17927B08}">
-  <dimension ref="I2:V5"/>
+  <dimension ref="E2:V12"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
     <col min="9" max="9" width="43.88671875" customWidth="1"/>
     <col min="10" max="10" width="21.6640625" customWidth="1"/>
     <col min="11" max="11" width="11.5546875" customWidth="1"/>
@@ -6982,7 +7529,7 @@
     <col min="22" max="22" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="9:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="3" t="s">
         <v>127</v>
       </c>
@@ -6990,7 +7537,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:22" x14ac:dyDescent="0.3">
       <c r="I3" t="s">
         <v>123</v>
       </c>
@@ -7016,7 +7563,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="4" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:22" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
         <v>122</v>
       </c>
@@ -7042,7 +7589,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="9:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:22" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
         <v>278</v>
       </c>
@@ -7054,18 +7601,64 @@
       </c>
       <c r="L5" t="s">
         <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="8" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>373</v>
+      </c>
+      <c r="F8" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="9" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>388</v>
+      </c>
+      <c r="F9" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="10" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>389</v>
+      </c>
+      <c r="F10" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="11" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>390</v>
+      </c>
+      <c r="F11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="12" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>391</v>
+      </c>
+      <c r="F12" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7AB0981D-B484-49AA-81E2-46EA728857EF}">
           <x14:formula1>
             <xm:f>FMK_IO!$BA$30:$BA$47</xm:f>
@@ -7074,13 +7667,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E258101-4BE3-4FFA-9159-E0120D35AA71}">
           <x14:formula1>
-            <xm:f>General_Info!$S$21:$S$25</xm:f>
+            <xm:f>General_Info!$T$21:$T$25</xm:f>
           </x14:formula1>
           <xm:sqref>K4:K5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F78BF8D-EC95-4E4B-B9DE-1CEC06FF7E2D}">
           <x14:formula1>
-            <xm:f>General_Info!W37</xm:f>
+            <xm:f>General_Info!X37</xm:f>
           </x14:formula1>
           <xm:sqref>U4</xm:sqref>
         </x14:dataValidation>
@@ -7092,10 +7685,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E18236-E25D-41B3-8B1E-0194276152B3}">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B2:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="J2" sqref="J2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7103,42 +7696,49 @@
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="10" max="10" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" t="s">
         <v>352</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>353</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>354</v>
       </c>
-      <c r="E2" t="s">
+      <c r="J2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C3" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>349</v>
-      </c>
-      <c r="C3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D3" t="s">
-        <v>356</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>76</v>
       </c>
       <c r="C4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -7146,13 +7746,16 @@
       <c r="E4" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>77</v>
       </c>
       <c r="C5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D5" t="s">
         <v>92</v>
@@ -7160,13 +7763,16 @@
       <c r="E5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -7174,13 +7780,16 @@
       <c r="E6" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -7188,33 +7797,151 @@
       <c r="E7" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C8" t="s">
+        <v>349</v>
+      </c>
+      <c r="D8" t="s">
         <v>359</v>
-      </c>
-      <c r="C8" t="s">
-        <v>350</v>
-      </c>
-      <c r="D8" t="s">
-        <v>360</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C9" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" t="s">
         <v>361</v>
-      </c>
-      <c r="C9" t="s">
-        <v>350</v>
-      </c>
-      <c r="D9" t="s">
-        <v>362</v>
       </c>
       <c r="E9" t="s">
         <v>69</v>
+      </c>
+      <c r="J9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="18" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>406</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D1D4C8-FD0D-4DBE-B311-5297C41CC83F}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -7225,7 +7952,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85D06B3-E762-495B-BF06-A6CD7E704A4C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860CCB6B-9BC8-4B28-B4AE-B22F38F81573}">
   <dimension ref="B1:P254"/>
   <sheetViews>
@@ -7245,7 +7984,7 @@
   <sheetData>
     <row r="1" spans="3:14" ht="93.6" x14ac:dyDescent="1.75">
       <c r="D1" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.3">
@@ -7255,10 +7994,10 @@
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="N4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
@@ -7271,19 +8010,19 @@
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7" t="s">
+        <v>323</v>
+      </c>
+      <c r="G7" t="s">
+        <v>324</v>
+      </c>
+      <c r="J7" t="s">
         <v>327</v>
-      </c>
-      <c r="E7" t="s">
-        <v>326</v>
-      </c>
-      <c r="F7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G7" t="s">
-        <v>325</v>
-      </c>
-      <c r="J7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
@@ -7305,7 +8044,7 @@
         <v>2519.6453599155921</v>
       </c>
       <c r="M8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
@@ -7316,12 +8055,12 @@
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="L12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="J13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L13">
         <v>63997</v>
@@ -7349,10 +8088,10 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="L17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
@@ -7387,15 +8126,15 @@
     </row>
     <row r="27" spans="2:16" ht="93.6" x14ac:dyDescent="1.75">
       <c r="D27" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K28" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
@@ -7407,39 +8146,39 @@
         <v>0.5</v>
       </c>
       <c r="M29" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
+        <v>337</v>
+      </c>
+      <c r="E30" t="s">
         <v>338</v>
       </c>
-      <c r="E30" t="s">
-        <v>339</v>
-      </c>
       <c r="F30" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G30" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I30" t="s">
+        <v>344</v>
+      </c>
+      <c r="J30" t="s">
+        <v>342</v>
+      </c>
+      <c r="K30" t="s">
         <v>345</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
+        <v>346</v>
+      </c>
+      <c r="M30" t="s">
         <v>343</v>
       </c>
-      <c r="K30" t="s">
-        <v>346</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="O30" t="s">
         <v>347</v>
-      </c>
-      <c r="M30" t="s">
-        <v>344</v>
-      </c>
-      <c r="O30" t="s">
-        <v>348</v>
       </c>
       <c r="P30" t="e">
         <f>2^#REF!</f>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_UartDesignImpl\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5833EA-70C0-4B7A-B819-F4E31DA08974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F50AF80-7BBA-4846-B338-6866A16FA9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="429">
   <si>
     <t>Colonne1</t>
   </si>
@@ -1312,6 +1312,24 @@
   </si>
   <si>
     <t>Request Periph Cfg</t>
+  </si>
+  <si>
+    <t>USART2_RX</t>
+  </si>
+  <si>
+    <t>USART2_TX</t>
+  </si>
+  <si>
+    <t>RqstType Associated</t>
+  </si>
+  <si>
+    <t>put ',' if two channel in one IRQN Handler</t>
+  </si>
+  <si>
+    <t>ADC2</t>
+  </si>
+  <si>
+    <t>DMAMUX List</t>
   </si>
 </sst>
 </file>
@@ -4006,8 +4024,8 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{333A4E38-7E7A-4098-B282-4F58DD308AC2}" name="FMKMAC_Cfg" displayName="FMKMAC_Cfg" ref="B2:E9" totalsRowShown="0">
-  <autoFilter ref="B2:E9" xr:uid="{333A4E38-7E7A-4098-B282-4F58DD308AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{333A4E38-7E7A-4098-B282-4F58DD308AC2}" name="FMKMAC_Cfg" displayName="FMKMAC_Cfg" ref="B2:E11" totalsRowShown="0">
+  <autoFilter ref="B2:E11" xr:uid="{333A4E38-7E7A-4098-B282-4F58DD308AC2}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9B6EDCAA-F526-412C-A8EC-AC6897A0EB04}" name="RqstDmaType"/>
     <tableColumn id="2" xr3:uid="{ED583461-6D2B-456F-A394-15F76B273D8C}" name="DMA "/>
@@ -4019,16 +4037,27 @@
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{8B613F4D-88F2-4091-AA3A-5550AB627653}" name="Tableau34" displayName="Tableau34" ref="J3:J18" totalsRowShown="0">
-  <autoFilter ref="J3:J18" xr:uid="{8B613F4D-88F2-4091-AA3A-5550AB627653}"/>
-  <tableColumns count="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{8B613F4D-88F2-4091-AA3A-5550AB627653}" name="FMKMAC_IRQN" displayName="FMKMAC_IRQN" ref="J3:K18" totalsRowShown="0">
+  <autoFilter ref="J3:K18" xr:uid="{8B613F4D-88F2-4091-AA3A-5550AB627653}"/>
+  <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{7FC5E369-C5C5-44CD-98EF-8136D5348789}" name="List IRQN_Handler"/>
+    <tableColumn id="2" xr3:uid="{0FFD83C8-633F-48FF-B94F-239B6386B204}" name="RqstType Associated"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{9E75F4B3-8C66-44CB-A927-82E8A09563A2}" name="FMKMAC_DMAMUX" displayName="FMKMAC_DMAMUX" ref="P3:P4" totalsRowShown="0">
+  <autoFilter ref="P3:P4" xr:uid="{9E75F4B3-8C66-44CB-A927-82E8A09563A2}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{230DEE15-D20F-429D-B4EB-51FB3C57F9A9}" name="DMAMUX List"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{3568793B-2270-4B9A-A9E5-55F929444AFF}" name="Tableau35" displayName="Tableau35" ref="B5:B11" totalsRowShown="0">
   <autoFilter ref="B5:B11" xr:uid="{3568793B-2270-4B9A-A9E5-55F929444AFF}"/>
   <tableColumns count="1">
@@ -4423,8 +4452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2D6D-43F7-44B1-8255-ECFDDA33AA9C}">
   <dimension ref="A18:AF119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B48" zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView topLeftCell="M7" zoomScale="45" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD49" sqref="AD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7685,10 +7714,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E18236-E25D-41B3-8B1E-0194276152B3}">
-  <dimension ref="B2:J18"/>
+  <dimension ref="B2:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7697,9 +7726,11 @@
     <col min="3" max="3" width="17.77734375" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
     <col min="10" max="10" width="30" customWidth="1"/>
+    <col min="11" max="11" width="21.77734375" customWidth="1"/>
+    <col min="16" max="16" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>351</v>
       </c>
@@ -7716,7 +7747,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>348</v>
       </c>
@@ -7732,10 +7763,16 @@
       <c r="J3" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K3" t="s">
+        <v>425</v>
+      </c>
+      <c r="P3" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>76</v>
+        <v>427</v>
       </c>
       <c r="C4" t="s">
         <v>349</v>
@@ -7749,10 +7786,19 @@
       <c r="J4" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K4" t="s">
+        <v>348</v>
+      </c>
+      <c r="L4" t="s">
+        <v>426</v>
+      </c>
+      <c r="P4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="C5" t="s">
         <v>349</v>
@@ -7766,13 +7812,16 @@
       <c r="J5" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K5" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>356</v>
       </c>
       <c r="C6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -7783,13 +7832,16 @@
       <c r="J6" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>357</v>
       </c>
       <c r="C7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -7800,8 +7852,11 @@
       <c r="J7" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K7" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>358</v>
       </c>
@@ -7817,8 +7872,11 @@
       <c r="J8" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K8" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>360</v>
       </c>
@@ -7834,38 +7892,74 @@
       <c r="J9" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C10" t="s">
+        <v>349</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>69</v>
+      </c>
       <c r="J10" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>424</v>
+      </c>
+      <c r="C11" t="s">
+        <v>349</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
       <c r="J11" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J12" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J13" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J14" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J15" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J16" t="s">
         <v>404</v>
       </c>
@@ -7882,9 +7976,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="3">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7968,7 +8063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860CCB6B-9BC8-4B28-B4AE-B22F38F81573}">
   <dimension ref="B1:P254"/>
   <sheetViews>
-    <sheetView topLeftCell="E27" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A205" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_UartDesignImpl\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F50AF80-7BBA-4846-B338-6866A16FA9A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D5DBA9-C898-48EF-8C64-B35A615FB15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
@@ -945,9 +945,6 @@
     <t xml:space="preserve">Others USART configuration </t>
   </si>
   <si>
-    <t>OthersCAN configuration</t>
-  </si>
-  <si>
     <t>GPIO_AF9_FDCAN1</t>
   </si>
   <si>
@@ -1330,6 +1327,9 @@
   </si>
   <si>
     <t>DMAMUX List</t>
+  </si>
+  <si>
+    <t>CAN configuration</t>
   </si>
 </sst>
 </file>
@@ -4452,7 +4452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2D6D-43F7-44B1-8255-ECFDDA33AA9C}">
   <dimension ref="A18:AF119"/>
   <sheetViews>
-    <sheetView topLeftCell="M7" zoomScale="45" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="O9" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AD49" sqref="AD49"/>
     </sheetView>
   </sheetViews>
@@ -4490,10 +4490,10 @@
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F18" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H18" t="s">
         <v>57</v>
@@ -4514,7 +4514,7 @@
         <v>283</v>
       </c>
       <c r="O18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
@@ -4525,10 +4525,10 @@
         <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F19" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -4549,7 +4549,7 @@
         <v>285</v>
       </c>
       <c r="O19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
@@ -4557,10 +4557,10 @@
         <v>240</v>
       </c>
       <c r="E20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F20" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H20" t="s">
         <v>134</v>
@@ -4581,7 +4581,7 @@
         <v>285</v>
       </c>
       <c r="O20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T20" t="s">
         <v>17</v>
@@ -4610,10 +4610,10 @@
         <v>243</v>
       </c>
       <c r="E21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F21" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H21" t="s">
         <v>135</v>
@@ -4634,7 +4634,7 @@
         <v>285</v>
       </c>
       <c r="O21" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T21" t="s">
         <v>16</v>
@@ -4649,7 +4649,7 @@
         <v>247</v>
       </c>
       <c r="AB21" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AC21">
         <v>8</v>
@@ -4663,10 +4663,10 @@
         <v>244</v>
       </c>
       <c r="E22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H22" t="s">
         <v>136</v>
@@ -4687,7 +4687,7 @@
         <v>285</v>
       </c>
       <c r="O22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T22" t="s">
         <v>271</v>
@@ -4702,7 +4702,7 @@
         <v>247</v>
       </c>
       <c r="AB22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="AC22">
         <v>8</v>
@@ -4716,10 +4716,10 @@
         <v>245</v>
       </c>
       <c r="E23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F23" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -4740,7 +4740,7 @@
         <v>285</v>
       </c>
       <c r="O23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T23" t="s">
         <v>272</v>
@@ -4760,10 +4760,10 @@
         <v>246</v>
       </c>
       <c r="E24" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F24" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H24" t="s">
         <v>61</v>
@@ -4784,7 +4784,7 @@
         <v>287</v>
       </c>
       <c r="O24" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T24" t="s">
         <v>273</v>
@@ -4804,10 +4804,10 @@
         <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F25" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H25" t="s">
         <v>137</v>
@@ -4828,7 +4828,7 @@
         <v>287</v>
       </c>
       <c r="O25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="T25" t="s">
         <v>274</v>
@@ -4848,10 +4848,10 @@
         <v>270</v>
       </c>
       <c r="E26" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F26" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H26" t="s">
         <v>138</v>
@@ -4872,7 +4872,7 @@
         <v>285</v>
       </c>
       <c r="O26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
@@ -4886,10 +4886,10 @@
         <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H27" t="s">
         <v>139</v>
@@ -4910,7 +4910,7 @@
         <v>286</v>
       </c>
       <c r="O27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
@@ -4924,10 +4924,10 @@
         <v>241</v>
       </c>
       <c r="E28" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H28" t="s">
         <v>140</v>
@@ -4948,7 +4948,7 @@
         <v>286</v>
       </c>
       <c r="O28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
@@ -4962,10 +4962,10 @@
         <v>242</v>
       </c>
       <c r="E29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H29" t="s">
         <v>141</v>
@@ -4986,7 +4986,7 @@
         <v>286</v>
       </c>
       <c r="O29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
@@ -4994,10 +4994,10 @@
         <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F30" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H30" t="s">
         <v>62</v>
@@ -5018,7 +5018,7 @@
         <v>285</v>
       </c>
       <c r="O30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
@@ -5026,10 +5026,10 @@
         <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F31" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H31" t="s">
         <v>142</v>
@@ -5043,10 +5043,10 @@
         <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F32" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H32" t="s">
         <v>143</v>
@@ -5060,10 +5060,10 @@
         <v>247</v>
       </c>
       <c r="E33" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F33" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H33" t="s">
         <v>144</v>
@@ -5083,10 +5083,10 @@
         <v>248</v>
       </c>
       <c r="E34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F34" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H34" t="s">
         <v>145</v>
@@ -5106,10 +5106,10 @@
         <v>239</v>
       </c>
       <c r="E35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H35" t="s">
         <v>146</v>
@@ -5129,10 +5129,10 @@
         <v>238</v>
       </c>
       <c r="E36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H36" t="s">
         <v>147</v>
@@ -5158,10 +5158,10 @@
         <v>249</v>
       </c>
       <c r="E37" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F37" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H37" t="s">
         <v>148</v>
@@ -5187,10 +5187,10 @@
         <v>250</v>
       </c>
       <c r="E38" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H38" t="s">
         <v>149</v>
@@ -5210,10 +5210,10 @@
         <v>225</v>
       </c>
       <c r="E39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F39" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H39" t="s">
         <v>150</v>
@@ -5233,10 +5233,10 @@
         <v>251</v>
       </c>
       <c r="E40" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F40" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H40" t="s">
         <v>151</v>
@@ -5259,10 +5259,10 @@
         <v>252</v>
       </c>
       <c r="E41" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F41" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H41" t="s">
         <v>152</v>
@@ -5279,10 +5279,10 @@
         <v>237</v>
       </c>
       <c r="E42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F42" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H42" t="s">
         <v>153</v>
@@ -5299,10 +5299,10 @@
         <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F43" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H43" t="s">
         <v>154</v>
@@ -5319,10 +5319,10 @@
         <v>236</v>
       </c>
       <c r="E44" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F44" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H44" t="s">
         <v>155</v>
@@ -5336,10 +5336,10 @@
         <v>253</v>
       </c>
       <c r="E45" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F45" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H45" t="s">
         <v>156</v>
@@ -5353,10 +5353,10 @@
         <v>235</v>
       </c>
       <c r="E46" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F46" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H46" t="s">
         <v>63</v>
@@ -5373,10 +5373,10 @@
         <v>234</v>
       </c>
       <c r="E47" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H47" t="s">
         <v>157</v>
@@ -5393,10 +5393,10 @@
         <v>254</v>
       </c>
       <c r="E48" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F48" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H48" t="s">
         <v>64</v>
@@ -5413,10 +5413,10 @@
         <v>255</v>
       </c>
       <c r="E49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F49" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H49" t="s">
         <v>158</v>
@@ -5433,10 +5433,10 @@
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F50" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H50" t="s">
         <v>159</v>
@@ -5450,10 +5450,10 @@
         <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H51" t="s">
         <v>160</v>
@@ -5467,10 +5467,10 @@
         <v>230</v>
       </c>
       <c r="E52" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F52" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H52" t="s">
         <v>161</v>
@@ -5479,7 +5479,7 @@
         <v>69</v>
       </c>
       <c r="AF52" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53" spans="4:32" x14ac:dyDescent="0.3">
@@ -5487,10 +5487,10 @@
         <v>79</v>
       </c>
       <c r="E53" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F53" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H53" t="s">
         <v>162</v>
@@ -5499,7 +5499,7 @@
         <v>69</v>
       </c>
       <c r="AF53" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="4:32" x14ac:dyDescent="0.3">
@@ -5507,10 +5507,10 @@
         <v>229</v>
       </c>
       <c r="E54" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F54" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H54" t="s">
         <v>65</v>
@@ -5519,7 +5519,7 @@
         <v>69</v>
       </c>
       <c r="AF54" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="4:32" x14ac:dyDescent="0.3">
@@ -5527,10 +5527,10 @@
         <v>290</v>
       </c>
       <c r="E55" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F55" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H55" t="s">
         <v>66</v>
@@ -5539,7 +5539,7 @@
         <v>69</v>
       </c>
       <c r="AF55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="4:32" x14ac:dyDescent="0.3">
@@ -5547,10 +5547,10 @@
         <v>291</v>
       </c>
       <c r="E56" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F56" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H56" t="s">
         <v>67</v>
@@ -5559,7 +5559,7 @@
         <v>69</v>
       </c>
       <c r="AF56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="4:32" x14ac:dyDescent="0.3">
@@ -5567,10 +5567,10 @@
         <v>228</v>
       </c>
       <c r="E57" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F57" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H57" t="s">
         <v>68</v>
@@ -5579,7 +5579,7 @@
         <v>69</v>
       </c>
       <c r="AF57" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="4:32" x14ac:dyDescent="0.3">
@@ -5587,10 +5587,10 @@
         <v>226</v>
       </c>
       <c r="E58" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F58" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H58" t="s">
         <v>163</v>
@@ -5599,7 +5599,7 @@
         <v>69</v>
       </c>
       <c r="AF58" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="4:32" x14ac:dyDescent="0.3">
@@ -5607,10 +5607,10 @@
         <v>256</v>
       </c>
       <c r="E59" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F59" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H59" t="s">
         <v>164</v>
@@ -5619,7 +5619,7 @@
         <v>69</v>
       </c>
       <c r="AF59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="60" spans="4:32" x14ac:dyDescent="0.3">
@@ -5627,10 +5627,10 @@
         <v>87</v>
       </c>
       <c r="E60" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F60" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H60" t="s">
         <v>165</v>
@@ -5639,7 +5639,7 @@
         <v>69</v>
       </c>
       <c r="AF60" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="61" spans="4:32" x14ac:dyDescent="0.3">
@@ -5647,10 +5647,10 @@
         <v>227</v>
       </c>
       <c r="E61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F61" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H61" t="s">
         <v>166</v>
@@ -5659,7 +5659,7 @@
         <v>69</v>
       </c>
       <c r="AF61" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="4:32" x14ac:dyDescent="0.3">
@@ -5667,10 +5667,10 @@
         <v>231</v>
       </c>
       <c r="E62" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F62" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H62" t="s">
         <v>167</v>
@@ -5679,7 +5679,7 @@
         <v>69</v>
       </c>
       <c r="AF62" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="4:32" x14ac:dyDescent="0.3">
@@ -5687,10 +5687,10 @@
         <v>257</v>
       </c>
       <c r="E63" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F63" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H63" t="s">
         <v>168</v>
@@ -5704,10 +5704,10 @@
         <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F64" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H64" t="s">
         <v>169</v>
@@ -5721,10 +5721,10 @@
         <v>71</v>
       </c>
       <c r="E65" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F65" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H65" t="s">
         <v>170</v>
@@ -5738,10 +5738,10 @@
         <v>76</v>
       </c>
       <c r="E66" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F66" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H66" t="s">
         <v>171</v>
@@ -5755,10 +5755,10 @@
         <v>233</v>
       </c>
       <c r="E67" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F67" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H67" t="s">
         <v>172</v>
@@ -5772,10 +5772,10 @@
         <v>78</v>
       </c>
       <c r="E68" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F68" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H68" t="s">
         <v>173</v>
@@ -5789,10 +5789,10 @@
         <v>258</v>
       </c>
       <c r="E69" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F69" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H69" t="s">
         <v>174</v>
@@ -5806,10 +5806,10 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F70" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H70" t="s">
         <v>175</v>
@@ -5823,10 +5823,10 @@
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F71" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H71" t="s">
         <v>176</v>
@@ -5840,10 +5840,10 @@
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F72" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H72" t="s">
         <v>177</v>
@@ -5857,10 +5857,10 @@
         <v>232</v>
       </c>
       <c r="E73" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F73" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H73" t="s">
         <v>178</v>
@@ -5874,10 +5874,10 @@
         <v>259</v>
       </c>
       <c r="E74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F74" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H74" t="s">
         <v>179</v>
@@ -5891,10 +5891,10 @@
         <v>260</v>
       </c>
       <c r="E75" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F75" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H75" t="s">
         <v>180</v>
@@ -6294,8 +6294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7761-01BE-400F-9C40-BE71D85F5C61}">
   <dimension ref="A2:BA81"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="63" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="63" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6859,53 +6859,53 @@
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.3">
       <c r="L20" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.3">
       <c r="L21" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.3">
       <c r="L22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.3">
       <c r="L23" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>300</v>
+        <v>428</v>
       </c>
       <c r="L24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>301</v>
+      </c>
+      <c r="B25" t="s">
         <v>302</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>303</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>304</v>
-      </c>
-      <c r="D25" t="s">
-        <v>305</v>
       </c>
       <c r="E25" t="s">
         <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="L25" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.3">
@@ -6922,13 +6922,13 @@
         <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.3">
@@ -6945,13 +6945,13 @@
         <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.3">
@@ -6968,13 +6968,13 @@
         <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F28" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L28" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.3">
@@ -7020,7 +7020,7 @@
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AW33" t="s">
         <v>28</v>
@@ -7034,22 +7034,22 @@
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>301</v>
+      </c>
+      <c r="B34" t="s">
         <v>302</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>303</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>304</v>
-      </c>
-      <c r="D34" t="s">
-        <v>305</v>
       </c>
       <c r="E34" t="s">
         <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AW34" t="s">
         <v>29</v>
@@ -7075,7 +7075,7 @@
         <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F35" t="s">
         <v>79</v>
@@ -7101,7 +7101,7 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F36" t="s">
         <v>290</v>
@@ -7392,7 +7392,7 @@
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -7403,10 +7403,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -7417,7 +7417,7 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -7431,7 +7431,7 @@
         <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
@@ -7439,7 +7439,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -7447,7 +7447,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G9" t="s">
         <v>261</v>
@@ -7463,7 +7463,7 @@
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -7471,7 +7471,7 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G11" t="s">
         <v>262</v>
@@ -7479,7 +7479,7 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G12" t="s">
         <v>263</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G13" t="s">
         <v>264</v>
@@ -7495,7 +7495,7 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G14" t="s">
         <v>266</v>
@@ -7503,7 +7503,7 @@
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G15" t="s">
         <v>266</v>
@@ -7511,7 +7511,7 @@
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G16" t="s">
         <v>266</v>
@@ -7519,7 +7519,7 @@
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G17" t="s">
         <v>266</v>
@@ -7634,47 +7634,47 @@
     </row>
     <row r="7" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F9" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="11" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -7716,7 +7716,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E18236-E25D-41B3-8B1E-0194276152B3}">
   <dimension ref="B2:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
@@ -7732,50 +7732,50 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" t="s">
         <v>351</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>352</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>353</v>
       </c>
-      <c r="E2" t="s">
-        <v>354</v>
-      </c>
       <c r="J2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" t="s">
         <v>348</v>
       </c>
-      <c r="C3" t="s">
-        <v>349</v>
-      </c>
       <c r="D3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="K3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -7784,13 +7784,13 @@
         <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="P4" t="s">
         <v>243</v>
@@ -7798,10 +7798,10 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C5" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D5" t="s">
         <v>92</v>
@@ -7810,18 +7810,18 @@
         <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -7830,18 +7830,18 @@
         <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C7" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -7850,58 +7850,58 @@
         <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>357</v>
+      </c>
+      <c r="C8" t="s">
+        <v>348</v>
+      </c>
+      <c r="D8" t="s">
         <v>358</v>
-      </c>
-      <c r="C8" t="s">
-        <v>349</v>
-      </c>
-      <c r="D8" t="s">
-        <v>359</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
       </c>
       <c r="J8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>359</v>
+      </c>
+      <c r="C9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D9" t="s">
         <v>360</v>
-      </c>
-      <c r="C9" t="s">
-        <v>349</v>
-      </c>
-      <c r="D9" t="s">
-        <v>361</v>
       </c>
       <c r="E9" t="s">
         <v>69</v>
       </c>
       <c r="J9" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
@@ -7910,18 +7910,18 @@
         <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -7930,48 +7930,48 @@
         <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J17" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J18" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -7996,47 +7996,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
   <sheetData>
     <row r="1" spans="3:14" ht="93.6" x14ac:dyDescent="1.75">
       <c r="D1" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.3">
@@ -8089,10 +8089,10 @@
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="N4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
@@ -8105,19 +8105,19 @@
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" t="s">
+        <v>323</v>
+      </c>
+      <c r="J7" t="s">
         <v>326</v>
-      </c>
-      <c r="E7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G7" t="s">
-        <v>324</v>
-      </c>
-      <c r="J7" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
@@ -8139,7 +8139,7 @@
         <v>2519.6453599155921</v>
       </c>
       <c r="M8" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
@@ -8150,12 +8150,12 @@
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="L12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="J13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L13">
         <v>63997</v>
@@ -8183,10 +8183,10 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J17" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L17" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
@@ -8221,15 +8221,15 @@
     </row>
     <row r="27" spans="2:16" ht="93.6" x14ac:dyDescent="1.75">
       <c r="D27" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="K28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
@@ -8241,39 +8241,39 @@
         <v>0.5</v>
       </c>
       <c r="M29" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
+        <v>336</v>
+      </c>
+      <c r="E30" t="s">
         <v>337</v>
       </c>
-      <c r="E30" t="s">
-        <v>338</v>
-      </c>
       <c r="F30" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I30" t="s">
+        <v>343</v>
+      </c>
+      <c r="J30" t="s">
+        <v>341</v>
+      </c>
+      <c r="K30" t="s">
         <v>344</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
+        <v>345</v>
+      </c>
+      <c r="M30" t="s">
         <v>342</v>
       </c>
-      <c r="K30" t="s">
-        <v>345</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="O30" t="s">
         <v>346</v>
-      </c>
-      <c r="M30" t="s">
-        <v>343</v>
-      </c>
-      <c r="O30" t="s">
-        <v>347</v>
       </c>
       <c r="P30" t="e">
         <f>2^#REF!</f>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_UartDesignImpl\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D5DBA9-C898-48EF-8C64-B35A615FB15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872A3135-3098-4DE5-8AC9-98CFF3AE8BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="438">
   <si>
     <t>Colonne1</t>
   </si>
@@ -1330,6 +1330,33 @@
   </si>
   <si>
     <t>CAN configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRQN_Handler </t>
+  </si>
+  <si>
+    <t>List USART/UART</t>
+  </si>
+  <si>
+    <t>USART1_IRQHandler</t>
+  </si>
+  <si>
+    <t>USART2_IRQHandler</t>
+  </si>
+  <si>
+    <t>USART3_IRQHandler</t>
+  </si>
+  <si>
+    <t>UART4_IRQHandler</t>
+  </si>
+  <si>
+    <t>UART5_IRQHandler</t>
+  </si>
+  <si>
+    <t>Rx Buffer Size</t>
+  </si>
+  <si>
+    <t>Tx Buffer Size</t>
   </si>
 </sst>
 </file>
@@ -4067,6 +4094,19 @@
 </table>
 </file>
 
+<file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{CF6032E9-4D15-4575-AD94-133BB9C2FD31}" name="FMKSRL_INFO" displayName="FMKSRL_INFO" ref="E2:H7" totalsRowShown="0">
+  <autoFilter ref="E2:H7" xr:uid="{CF6032E9-4D15-4575-AD94-133BB9C2FD31}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{12502774-1323-464D-ABF1-A64EAE0742C0}" name="List USART/UART"/>
+    <tableColumn id="2" xr3:uid="{73C1FD75-5549-419D-8E5F-A6563E10AE3C}" name="IRQN_Handler "/>
+    <tableColumn id="3" xr3:uid="{51FF6EA1-88DA-48AF-B204-9E7E41DF7DE2}" name="Rx Buffer Size"/>
+    <tableColumn id="4" xr3:uid="{0B3BF550-8B6E-4A05-8D50-A860E7703D9A}" name="Tx Buffer Size"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5A8C957F-EDE6-44F1-B8F8-2086E255196A}" name="GI_DAC" displayName="GI_DAC" ref="Y36:Z37" totalsRowShown="0">
   <autoFilter ref="Y36:Z37" xr:uid="{5A8C957F-EDE6-44F1-B8F8-2086E255196A}"/>
@@ -4452,7 +4492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2D6D-43F7-44B1-8255-ECFDDA33AA9C}">
   <dimension ref="A18:AF119"/>
   <sheetViews>
-    <sheetView topLeftCell="O9" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AD49" sqref="AD49"/>
     </sheetView>
   </sheetViews>
@@ -6294,7 +6334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7761-01BE-400F-9C40-BE71D85F5C61}">
   <dimension ref="A2:BA81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="63" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="63" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -8049,13 +8089,102 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85D06B3-E762-495B-BF06-A6CD7E704A4C}">
-  <dimension ref="A1"/>
+  <dimension ref="E2:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F2" t="s">
+        <v>429</v>
+      </c>
+      <c r="G2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" t="s">
+        <v>431</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G4">
+        <v>256</v>
+      </c>
+      <c r="H4">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="5" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="6" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>290</v>
+      </c>
+      <c r="F6" t="s">
+        <v>434</v>
+      </c>
+      <c r="G6">
+        <v>256</v>
+      </c>
+      <c r="H6">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="7" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_UartDesignImpl\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{872A3135-3098-4DE5-8AC9-98CFF3AE8BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A81AD52-11C9-4CF5-8A02-184D02DA2F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="442">
   <si>
     <t>Colonne1</t>
   </si>
@@ -420,9 +420,6 @@
     <t>Put in this array the name and address for calibration for reference tension Vref for each adc</t>
   </si>
   <si>
-    <t>VREFINT_CAL</t>
-  </si>
-  <si>
     <t>Vref Calib</t>
   </si>
   <si>
@@ -1357,6 +1354,21 @@
   </si>
   <si>
     <t>Tx Buffer Size</t>
+  </si>
+  <si>
+    <t>VREFINT_CAL_1</t>
+  </si>
+  <si>
+    <t>VREFINT_CAL_2</t>
+  </si>
+  <si>
+    <t>VREFINT_CAL_3</t>
+  </si>
+  <si>
+    <t>VREFINT_CAL_4</t>
+  </si>
+  <si>
+    <t>VREFINT_CAL_5</t>
   </si>
 </sst>
 </file>
@@ -4027,8 +4039,8 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{99B4503A-67B2-48AD-BE25-2B3425F892A9}" name="FMKCDA_VoltageRef" displayName="FMKCDA_VoltageRef" ref="S3:V4" totalsRowShown="0">
-  <autoFilter ref="S3:V4" xr:uid="{99B4503A-67B2-48AD-BE25-2B3425F892A9}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{99B4503A-67B2-48AD-BE25-2B3425F892A9}" name="FMKCDA_VoltageRef" displayName="FMKCDA_VoltageRef" ref="S3:V8" totalsRowShown="0">
+  <autoFilter ref="S3:V8" xr:uid="{99B4503A-67B2-48AD-BE25-2B3425F892A9}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{0BCC2BC4-7FF0-4C14-809D-9D95A3225151}" name="Vref Calib"/>
     <tableColumn id="2" xr3:uid="{0E78A6D4-DF9E-4966-A80E-64FE5BD9F1E2}" name="address  hexacecimal"/>
@@ -4492,7 +4504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2D6D-43F7-44B1-8255-ECFDDA33AA9C}">
   <dimension ref="A18:AF119"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="N15" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AD49" sqref="AD49"/>
     </sheetView>
   </sheetViews>
@@ -4524,16 +4536,16 @@
   <sheetData>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F18" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H18" t="s">
         <v>57</v>
@@ -4548,27 +4560,27 @@
         <v>3</v>
       </c>
       <c r="M18" t="s">
+        <v>281</v>
+      </c>
+      <c r="N18" t="s">
         <v>282</v>
       </c>
-      <c r="N18" t="s">
-        <v>283</v>
-      </c>
       <c r="O18" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
         <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F19" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -4583,45 +4595,45 @@
         <v>4</v>
       </c>
       <c r="M19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O19" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F20" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I20" t="s">
         <v>69</v>
       </c>
       <c r="K20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L20">
         <v>4</v>
       </c>
       <c r="M20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N20" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T20" t="s">
         <v>17</v>
@@ -4630,10 +4642,10 @@
         <v>18</v>
       </c>
       <c r="V20" t="s">
+        <v>287</v>
+      </c>
+      <c r="W20" t="s">
         <v>288</v>
-      </c>
-      <c r="W20" t="s">
-        <v>289</v>
       </c>
       <c r="AB20" t="s">
         <v>22</v>
@@ -4642,21 +4654,21 @@
         <v>18</v>
       </c>
       <c r="AD20" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F21" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I21" t="s">
         <v>69</v>
@@ -4671,10 +4683,10 @@
         <v>64</v>
       </c>
       <c r="N21" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O21" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T21" t="s">
         <v>16</v>
@@ -4683,13 +4695,13 @@
         <v>18</v>
       </c>
       <c r="V21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AC21">
         <v>8</v>
@@ -4700,66 +4712,66 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F22" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I22" t="s">
         <v>69</v>
       </c>
       <c r="K22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="L22">
         <v>4</v>
       </c>
       <c r="M22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="N22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="U22">
         <v>18</v>
       </c>
       <c r="V22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="W22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AB22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AC22">
         <v>8</v>
       </c>
       <c r="AD22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F23" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -4768,42 +4780,42 @@
         <v>69</v>
       </c>
       <c r="K23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L23">
         <v>4</v>
       </c>
       <c r="M23" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="N23" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O23" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T23" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="U23">
         <v>18</v>
       </c>
       <c r="V23" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="W23" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E24" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F24" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H24" t="s">
         <v>61</v>
@@ -4812,31 +4824,31 @@
         <v>69</v>
       </c>
       <c r="K24" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="N24" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="T24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="U24">
         <v>18</v>
       </c>
       <c r="V24" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="W24" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
@@ -4844,95 +4856,95 @@
         <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F25" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I25" t="s">
         <v>69</v>
       </c>
       <c r="K25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="N25" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="T25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="U25">
         <v>18</v>
       </c>
       <c r="V25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="W25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F26" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I26" t="s">
         <v>69</v>
       </c>
       <c r="K26" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L26">
         <v>6</v>
       </c>
       <c r="M26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="N26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O26" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B27" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D27" t="s">
         <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I27" t="s">
         <v>69</v>
@@ -4944,33 +4956,33 @@
         <v>2</v>
       </c>
       <c r="M27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="N27" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B28">
         <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E28" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H28" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I28" t="s">
         <v>69</v>
@@ -4982,33 +4994,33 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="N28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O28" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B29">
         <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E29" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I29" t="s">
         <v>69</v>
@@ -5020,13 +5032,13 @@
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N29" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
@@ -5034,10 +5046,10 @@
         <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F30" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H30" t="s">
         <v>62</v>
@@ -5046,19 +5058,19 @@
         <v>69</v>
       </c>
       <c r="K30" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="L30">
         <v>4</v>
       </c>
       <c r="M30" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="N30" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O30" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
@@ -5066,13 +5078,13 @@
         <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F31" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I31" t="s">
         <v>69</v>
@@ -5083,13 +5095,13 @@
         <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F32" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I32" t="s">
         <v>69</v>
@@ -5097,16 +5109,16 @@
     </row>
     <row r="33" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F33" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I33" t="s">
         <v>69</v>
@@ -5120,16 +5132,16 @@
     </row>
     <row r="34" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F34" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I34" t="s">
         <v>69</v>
@@ -5143,16 +5155,16 @@
     </row>
     <row r="35" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E35" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I35" t="s">
         <v>69</v>
@@ -5166,16 +5178,16 @@
     </row>
     <row r="36" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E36" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I36" t="s">
         <v>69</v>
@@ -5195,16 +5207,16 @@
     </row>
     <row r="37" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E37" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F37" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I37" t="s">
         <v>69</v>
@@ -5224,22 +5236,22 @@
     </row>
     <row r="38" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I38" t="s">
         <v>69</v>
       </c>
       <c r="P38" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="Q38">
         <v>16</v>
@@ -5247,16 +5259,16 @@
     </row>
     <row r="39" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E39" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I39" t="s">
         <v>69</v>
@@ -5270,22 +5282,22 @@
     </row>
     <row r="40" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E40" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F40" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I40" t="s">
         <v>90</v>
       </c>
       <c r="P40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q40">
         <v>11</v>
@@ -5296,16 +5308,16 @@
     </row>
     <row r="41" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E41" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F41" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I41" t="s">
         <v>90</v>
@@ -5316,16 +5328,16 @@
     </row>
     <row r="42" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E42" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F42" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I42" t="s">
         <v>69</v>
@@ -5339,13 +5351,13 @@
         <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F43" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I43" t="s">
         <v>69</v>
@@ -5356,16 +5368,16 @@
     </row>
     <row r="44" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E44" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F44" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I44" t="s">
         <v>69</v>
@@ -5373,16 +5385,16 @@
     </row>
     <row r="45" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E45" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F45" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I45" t="s">
         <v>69</v>
@@ -5390,13 +5402,13 @@
     </row>
     <row r="46" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E46" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F46" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H46" t="s">
         <v>63</v>
@@ -5405,38 +5417,38 @@
         <v>69</v>
       </c>
       <c r="AF46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E47" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F47" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H47" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I47" t="s">
         <v>69</v>
       </c>
       <c r="AF47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="48" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F48" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H48" t="s">
         <v>64</v>
@@ -5445,27 +5457,27 @@
         <v>69</v>
       </c>
       <c r="AF48" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F49" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I49" t="s">
         <v>69</v>
       </c>
       <c r="AF49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="50" spans="4:32" x14ac:dyDescent="0.3">
@@ -5473,13 +5485,13 @@
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F50" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H50" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I50" t="s">
         <v>69</v>
@@ -5490,13 +5502,13 @@
         <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F51" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H51" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I51" t="s">
         <v>69</v>
@@ -5504,22 +5516,22 @@
     </row>
     <row r="52" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E52" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F52" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I52" t="s">
         <v>69</v>
       </c>
       <c r="AF52" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="53" spans="4:32" x14ac:dyDescent="0.3">
@@ -5527,30 +5539,30 @@
         <v>79</v>
       </c>
       <c r="E53" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F53" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H53" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I53" t="s">
         <v>69</v>
       </c>
       <c r="AF53" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="54" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E54" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F54" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H54" t="s">
         <v>65</v>
@@ -5559,18 +5571,18 @@
         <v>69</v>
       </c>
       <c r="AF54" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="55" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E55" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F55" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H55" t="s">
         <v>66</v>
@@ -5579,18 +5591,18 @@
         <v>69</v>
       </c>
       <c r="AF55" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E56" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F56" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H56" t="s">
         <v>67</v>
@@ -5599,18 +5611,18 @@
         <v>69</v>
       </c>
       <c r="AF56" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="57" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E57" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F57" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H57" t="s">
         <v>68</v>
@@ -5619,47 +5631,47 @@
         <v>69</v>
       </c>
       <c r="AF57" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E58" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F58" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I58" t="s">
         <v>69</v>
       </c>
       <c r="AF58" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E59" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F59" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H59" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I59" t="s">
         <v>69</v>
       </c>
       <c r="AF59" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="60" spans="4:32" x14ac:dyDescent="0.3">
@@ -5667,73 +5679,73 @@
         <v>87</v>
       </c>
       <c r="E60" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F60" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I60" t="s">
         <v>69</v>
       </c>
       <c r="AF60" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="61" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E61" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F61" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H61" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I61" t="s">
         <v>69</v>
       </c>
       <c r="AF61" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E62" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F62" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H62" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I62" t="s">
         <v>69</v>
       </c>
       <c r="AF62" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="63" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E63" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F63" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I63" t="s">
         <v>69</v>
@@ -5744,13 +5756,13 @@
         <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F64" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H64" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I64" t="s">
         <v>69</v>
@@ -5761,13 +5773,13 @@
         <v>71</v>
       </c>
       <c r="E65" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F65" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I65" t="s">
         <v>69</v>
@@ -5778,13 +5790,13 @@
         <v>76</v>
       </c>
       <c r="E66" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F66" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I66" t="s">
         <v>69</v>
@@ -5792,16 +5804,16 @@
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E67" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F67" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H67" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I67" t="s">
         <v>69</v>
@@ -5812,13 +5824,13 @@
         <v>78</v>
       </c>
       <c r="E68" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F68" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H68" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I68" t="s">
         <v>69</v>
@@ -5826,16 +5838,16 @@
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E69" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F69" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H69" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I69" t="s">
         <v>69</v>
@@ -5846,13 +5858,13 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F70" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H70" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I70" t="s">
         <v>69</v>
@@ -5863,13 +5875,13 @@
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F71" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H71" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I71" t="s">
         <v>69</v>
@@ -5880,13 +5892,13 @@
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F72" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H72" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I72" t="s">
         <v>69</v>
@@ -5894,16 +5906,16 @@
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E73" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F73" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I73" t="s">
         <v>69</v>
@@ -5911,16 +5923,16 @@
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F74" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I74" t="s">
         <v>69</v>
@@ -5928,16 +5940,16 @@
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F75" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H75" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I75" t="s">
         <v>69</v>
@@ -5945,7 +5957,7 @@
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I76" t="s">
         <v>69</v>
@@ -5953,7 +5965,7 @@
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I77" t="s">
         <v>69</v>
@@ -5961,7 +5973,7 @@
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I78" t="s">
         <v>69</v>
@@ -5969,7 +5981,7 @@
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I79" t="s">
         <v>69</v>
@@ -5977,7 +5989,7 @@
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H80" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I80" t="s">
         <v>69</v>
@@ -5985,7 +5997,7 @@
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I81" t="s">
         <v>69</v>
@@ -5993,7 +6005,7 @@
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I82" t="s">
         <v>69</v>
@@ -6001,7 +6013,7 @@
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H83" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I83" t="s">
         <v>69</v>
@@ -6009,7 +6021,7 @@
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I84" t="s">
         <v>69</v>
@@ -6017,7 +6029,7 @@
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H85" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I85" t="s">
         <v>69</v>
@@ -6025,7 +6037,7 @@
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H86" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I86" t="s">
         <v>69</v>
@@ -6033,7 +6045,7 @@
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H87" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I87" t="s">
         <v>69</v>
@@ -6041,7 +6053,7 @@
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H88" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I88" t="s">
         <v>69</v>
@@ -6049,7 +6061,7 @@
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I89" t="s">
         <v>69</v>
@@ -6057,7 +6069,7 @@
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I90" t="s">
         <v>69</v>
@@ -6065,7 +6077,7 @@
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I91" t="s">
         <v>69</v>
@@ -6073,7 +6085,7 @@
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H92" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I92" t="s">
         <v>69</v>
@@ -6081,7 +6093,7 @@
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H93" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I93" t="s">
         <v>69</v>
@@ -6089,7 +6101,7 @@
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H94" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I94" t="s">
         <v>69</v>
@@ -6097,7 +6109,7 @@
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H95" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I95" t="s">
         <v>69</v>
@@ -6105,7 +6117,7 @@
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H96" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I96" t="s">
         <v>69</v>
@@ -6113,7 +6125,7 @@
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H97" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I97" t="s">
         <v>69</v>
@@ -6121,7 +6133,7 @@
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H98" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I98" t="s">
         <v>69</v>
@@ -6129,7 +6141,7 @@
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H99" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I99" t="s">
         <v>69</v>
@@ -6137,7 +6149,7 @@
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H100" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I100" t="s">
         <v>69</v>
@@ -6145,7 +6157,7 @@
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H101" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I101" t="s">
         <v>69</v>
@@ -6153,7 +6165,7 @@
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H102" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I102" t="s">
         <v>69</v>
@@ -6161,7 +6173,7 @@
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H103" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I103" t="s">
         <v>69</v>
@@ -6169,7 +6181,7 @@
     </row>
     <row r="104" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H104" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I104" t="s">
         <v>90</v>
@@ -6177,7 +6189,7 @@
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H105" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I105" t="s">
         <v>90</v>
@@ -6185,7 +6197,7 @@
     </row>
     <row r="106" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H106" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I106" t="s">
         <v>90</v>
@@ -6193,7 +6205,7 @@
     </row>
     <row r="107" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H107" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I107" t="s">
         <v>90</v>
@@ -6201,7 +6213,7 @@
     </row>
     <row r="108" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H108" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I108" t="s">
         <v>69</v>
@@ -6209,7 +6221,7 @@
     </row>
     <row r="109" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H109" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I109" t="s">
         <v>69</v>
@@ -6217,7 +6229,7 @@
     </row>
     <row r="110" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H110" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I110" t="s">
         <v>69</v>
@@ -6225,7 +6237,7 @@
     </row>
     <row r="111" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H111" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I111" t="s">
         <v>69</v>
@@ -6233,7 +6245,7 @@
     </row>
     <row r="112" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H112" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I112" t="s">
         <v>69</v>
@@ -6241,7 +6253,7 @@
     </row>
     <row r="113" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H113" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I113" t="s">
         <v>69</v>
@@ -6249,7 +6261,7 @@
     </row>
     <row r="114" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H114" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I114" t="s">
         <v>69</v>
@@ -6257,7 +6269,7 @@
     </row>
     <row r="115" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H115" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I115" t="s">
         <v>69</v>
@@ -6265,7 +6277,7 @@
     </row>
     <row r="116" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H116" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I116" t="s">
         <v>69</v>
@@ -6273,7 +6285,7 @@
     </row>
     <row r="117" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H117" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I117" t="s">
         <v>69</v>
@@ -6281,7 +6293,7 @@
     </row>
     <row r="118" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H118" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I118" t="s">
         <v>69</v>
@@ -6289,7 +6301,7 @@
     </row>
     <row r="119" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H119" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I119" t="s">
         <v>69</v>
@@ -6334,8 +6346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7761-01BE-400F-9C40-BE71D85F5C61}">
   <dimension ref="A2:BA81"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="63" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView topLeftCell="A9" zoomScale="74" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6383,13 +6395,13 @@
         <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="P5" t="s">
         <v>56</v>
       </c>
       <c r="R5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="V5" t="s">
         <v>55</v>
@@ -6477,16 +6489,16 @@
         <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K7" t="s">
         <v>27</v>
       </c>
       <c r="L7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N7" t="s">
         <v>45</v>
@@ -6498,7 +6510,7 @@
         <v>32</v>
       </c>
       <c r="R7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S7" t="s">
         <v>5</v>
@@ -6513,7 +6525,7 @@
         <v>35</v>
       </c>
       <c r="X7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Z7" t="s">
         <v>23</v>
@@ -6542,13 +6554,13 @@
         <v>101</v>
       </c>
       <c r="J8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K8" t="s">
         <v>28</v>
       </c>
       <c r="L8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M8" t="s">
         <v>5</v>
@@ -6563,7 +6575,7 @@
         <v>31</v>
       </c>
       <c r="R8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="S8" t="s">
         <v>5</v>
@@ -6578,7 +6590,7 @@
         <v>29</v>
       </c>
       <c r="X8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z8" t="s">
         <v>12</v>
@@ -6607,13 +6619,13 @@
         <v>102</v>
       </c>
       <c r="J9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K9" t="s">
         <v>29</v>
       </c>
       <c r="L9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M9" t="s">
         <v>5</v>
@@ -6628,10 +6640,10 @@
         <v>38</v>
       </c>
       <c r="R9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T9" t="s">
         <v>45</v>
@@ -6669,10 +6681,10 @@
         <v>39</v>
       </c>
       <c r="R10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T10" t="s">
         <v>46</v>
@@ -6698,7 +6710,7 @@
         <v>31</v>
       </c>
       <c r="G11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H11" t="s">
         <v>97</v>
@@ -6710,10 +6722,10 @@
         <v>40</v>
       </c>
       <c r="R11" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T11" t="s">
         <v>92</v>
@@ -6739,7 +6751,7 @@
         <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H12" t="s">
         <v>98</v>
@@ -6751,10 +6763,10 @@
         <v>41</v>
       </c>
       <c r="R12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="S12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T12" t="s">
         <v>50</v>
@@ -6792,10 +6804,10 @@
         <v>31</v>
       </c>
       <c r="R13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T13" t="s">
         <v>45</v>
@@ -6833,10 +6845,10 @@
         <v>32</v>
       </c>
       <c r="R14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="S14" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T14" t="s">
         <v>46</v>
@@ -6899,53 +6911,53 @@
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.3">
       <c r="L20" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="21" spans="1:53" x14ac:dyDescent="0.3">
       <c r="L21" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="22" spans="1:53" x14ac:dyDescent="0.3">
       <c r="L22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" spans="1:53" x14ac:dyDescent="0.3">
       <c r="L23" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="L24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>300</v>
+      </c>
+      <c r="B25" t="s">
         <v>301</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>302</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>303</v>
-      </c>
-      <c r="D25" t="s">
-        <v>304</v>
       </c>
       <c r="E25" t="s">
         <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="L25" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.3">
@@ -6962,59 +6974,59 @@
         <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F26" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="L26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D27" t="s">
         <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="L27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D28" t="s">
         <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.3">
@@ -7060,7 +7072,7 @@
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AW33" t="s">
         <v>28</v>
@@ -7074,22 +7086,22 @@
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" t="s">
         <v>301</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>302</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>303</v>
-      </c>
-      <c r="D34" t="s">
-        <v>304</v>
       </c>
       <c r="E34" t="s">
         <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AW34" t="s">
         <v>29</v>
@@ -7115,7 +7127,7 @@
         <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F35" t="s">
         <v>79</v>
@@ -7141,10 +7153,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AW36" t="s">
         <v>31</v>
@@ -7280,7 +7292,7 @@
         <v>115</v>
       </c>
       <c r="R77" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="78" spans="11:21" x14ac:dyDescent="0.3">
@@ -7417,7 +7429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E52BA6-3E0A-4F7C-9391-164B38476F25}">
   <dimension ref="B3:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -7432,7 +7444,7 @@
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -7443,10 +7455,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -7457,7 +7469,7 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -7471,7 +7483,7 @@
         <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
@@ -7479,7 +7491,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -7487,7 +7499,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
@@ -7495,15 +7507,15 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -7511,58 +7523,58 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G15" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G16" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G17" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -7579,8 +7591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0962FBCC-E1F3-44E3-92A8-D1FF17927B08}">
   <dimension ref="E2:V12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7600,7 +7612,7 @@
   <sheetData>
     <row r="2" spans="5:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>124</v>
@@ -7611,25 +7623,25 @@
         <v>123</v>
       </c>
       <c r="J3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L3" t="s">
+        <v>128</v>
+      </c>
+      <c r="S3" t="s">
+        <v>125</v>
+      </c>
+      <c r="T3" t="s">
         <v>130</v>
       </c>
-      <c r="K3" t="s">
+      <c r="U3" t="s">
+        <v>127</v>
+      </c>
+      <c r="V3" t="s">
         <v>128</v>
-      </c>
-      <c r="L3" t="s">
-        <v>129</v>
-      </c>
-      <c r="S3" t="s">
-        <v>126</v>
-      </c>
-      <c r="T3" t="s">
-        <v>131</v>
-      </c>
-      <c r="U3" t="s">
-        <v>128</v>
-      </c>
-      <c r="V3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" spans="5:22" x14ac:dyDescent="0.3">
@@ -7637,7 +7649,7 @@
         <v>122</v>
       </c>
       <c r="J4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -7646,10 +7658,10 @@
         <v>110</v>
       </c>
       <c r="S4" t="s">
-        <v>125</v>
+        <v>437</v>
       </c>
       <c r="T4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="U4" t="s">
         <v>16</v>
@@ -7660,61 +7672,111 @@
     </row>
     <row r="5" spans="5:22" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="L5" t="s">
         <v>98</v>
       </c>
+      <c r="S5" t="s">
+        <v>438</v>
+      </c>
+      <c r="T5" t="s">
+        <v>280</v>
+      </c>
+      <c r="U5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="5:22" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>439</v>
+      </c>
+      <c r="T6" t="s">
+        <v>280</v>
+      </c>
+      <c r="U6" t="s">
+        <v>271</v>
+      </c>
+      <c r="V6" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="7" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>379</v>
+        <v>378</v>
+      </c>
+      <c r="S7" t="s">
+        <v>440</v>
+      </c>
+      <c r="T7" t="s">
+        <v>280</v>
+      </c>
+      <c r="U7" t="s">
+        <v>272</v>
+      </c>
+      <c r="V7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F8" t="s">
-        <v>414</v>
+        <v>413</v>
+      </c>
+      <c r="S8" t="s">
+        <v>441</v>
+      </c>
+      <c r="T8" t="s">
+        <v>280</v>
+      </c>
+      <c r="U8" t="s">
+        <v>273</v>
+      </c>
+      <c r="V8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F9" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="10" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="12" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -7727,24 +7789,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7AB0981D-B484-49AA-81E2-46EA728857EF}">
           <x14:formula1>
             <xm:f>FMK_IO!$BA$30:$BA$47</xm:f>
           </x14:formula1>
-          <xm:sqref>V4 L4:L5</xm:sqref>
+          <xm:sqref>L4:L5 V4:V8</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E258101-4BE3-4FFA-9159-E0120D35AA71}">
           <x14:formula1>
             <xm:f>General_Info!$T$21:$T$25</xm:f>
           </x14:formula1>
-          <xm:sqref>K4:K5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6F78BF8D-EC95-4E4B-B9DE-1CEC06FF7E2D}">
-          <x14:formula1>
-            <xm:f>General_Info!X37</xm:f>
-          </x14:formula1>
-          <xm:sqref>U4</xm:sqref>
+          <xm:sqref>K4:K5 U4:U8</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7757,7 +7813,7 @@
   <dimension ref="B2:P18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7772,50 +7828,50 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>349</v>
+      </c>
+      <c r="C2" t="s">
         <v>350</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>351</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>352</v>
       </c>
-      <c r="E2" t="s">
-        <v>353</v>
-      </c>
       <c r="J2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C3" t="s">
         <v>347</v>
       </c>
-      <c r="C3" t="s">
-        <v>348</v>
-      </c>
       <c r="D3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="P3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -7824,24 +7880,24 @@
         <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="L4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="P4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D5" t="s">
         <v>92</v>
@@ -7850,18 +7906,18 @@
         <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -7870,18 +7926,18 @@
         <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C7" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -7890,58 +7946,58 @@
         <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" t="s">
         <v>357</v>
-      </c>
-      <c r="C8" t="s">
-        <v>348</v>
-      </c>
-      <c r="D8" t="s">
-        <v>358</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
       </c>
       <c r="J8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" t="s">
         <v>359</v>
-      </c>
-      <c r="C9" t="s">
-        <v>348</v>
-      </c>
-      <c r="D9" t="s">
-        <v>360</v>
       </c>
       <c r="E9" t="s">
         <v>69</v>
       </c>
       <c r="J9" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
@@ -7950,18 +8006,18 @@
         <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -7970,48 +8026,48 @@
         <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J13" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J14" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J16" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J17" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -8036,47 +8092,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -8091,8 +8147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85D06B3-E762-495B-BF06-A6CD7E704A4C}">
   <dimension ref="E2:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8100,20 +8156,22 @@
     <col min="2" max="2" width="15.6640625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F2" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G2" t="s">
+        <v>435</v>
+      </c>
+      <c r="H2" t="s">
         <v>436</v>
-      </c>
-      <c r="H2" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="3" spans="5:8" x14ac:dyDescent="0.3">
@@ -8121,7 +8179,7 @@
         <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -8135,7 +8193,7 @@
         <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G4">
         <v>256</v>
@@ -8146,18 +8204,18 @@
     </row>
     <row r="5" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F5" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G6">
         <v>256</v>
@@ -8168,10 +8226,10 @@
     </row>
     <row r="7" spans="5:8" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -8208,7 +8266,7 @@
   <sheetData>
     <row r="1" spans="3:14" ht="93.6" x14ac:dyDescent="1.75">
       <c r="D1" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.3">
@@ -8218,10 +8276,10 @@
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="N4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
@@ -8234,19 +8292,19 @@
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F7" t="s">
+        <v>321</v>
+      </c>
+      <c r="G7" t="s">
+        <v>322</v>
+      </c>
+      <c r="J7" t="s">
         <v>325</v>
-      </c>
-      <c r="E7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G7" t="s">
-        <v>323</v>
-      </c>
-      <c r="J7" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
@@ -8268,7 +8326,7 @@
         <v>2519.6453599155921</v>
       </c>
       <c r="M8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
@@ -8279,12 +8337,12 @@
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="L12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="J13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L13">
         <v>63997</v>
@@ -8312,10 +8370,10 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J17" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L17" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
@@ -8350,15 +8408,15 @@
     </row>
     <row r="27" spans="2:16" ht="93.6" x14ac:dyDescent="1.75">
       <c r="D27" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K28" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
@@ -8370,39 +8428,39 @@
         <v>0.5</v>
       </c>
       <c r="M29" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
+        <v>335</v>
+      </c>
+      <c r="E30" t="s">
         <v>336</v>
       </c>
-      <c r="E30" t="s">
-        <v>337</v>
-      </c>
       <c r="F30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G30" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I30" t="s">
+        <v>342</v>
+      </c>
+      <c r="J30" t="s">
+        <v>340</v>
+      </c>
+      <c r="K30" t="s">
         <v>343</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
+        <v>344</v>
+      </c>
+      <c r="M30" t="s">
         <v>341</v>
       </c>
-      <c r="K30" t="s">
-        <v>344</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="O30" t="s">
         <v>345</v>
-      </c>
-      <c r="M30" t="s">
-        <v>342</v>
-      </c>
-      <c r="O30" t="s">
-        <v>346</v>
       </c>
       <c r="P30" t="e">
         <f>2^#REF!</f>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_UartDesignImpl\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A81AD52-11C9-4CF5-8A02-184D02DA2F4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0055E5-4462-478E-904B-498319B4F725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="446">
   <si>
     <t>Colonne1</t>
   </si>
@@ -1369,6 +1369,18 @@
   </si>
   <si>
     <t>VREFINT_CAL_5</t>
+  </si>
+  <si>
+    <t>GPIO_AF7_USART1</t>
+  </si>
+  <si>
+    <t>GPIO_AF7_USART3</t>
+  </si>
+  <si>
+    <t>GPIO_AF8_UART5</t>
+  </si>
+  <si>
+    <t>GPIO_AF14_UART4</t>
   </si>
 </sst>
 </file>
@@ -4107,13 +4119,18 @@
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{CF6032E9-4D15-4575-AD94-133BB9C2FD31}" name="FMKSRL_INFO" displayName="FMKSRL_INFO" ref="E2:H7" totalsRowShown="0">
-  <autoFilter ref="E2:H7" xr:uid="{CF6032E9-4D15-4575-AD94-133BB9C2FD31}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{CF6032E9-4D15-4575-AD94-133BB9C2FD31}" name="FMKSRL_INFO" displayName="FMKSRL_INFO" ref="E2:M7" totalsRowShown="0">
+  <autoFilter ref="E2:M7" xr:uid="{CF6032E9-4D15-4575-AD94-133BB9C2FD31}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{12502774-1323-464D-ABF1-A64EAE0742C0}" name="List USART/UART"/>
     <tableColumn id="2" xr3:uid="{73C1FD75-5549-419D-8E5F-A6563E10AE3C}" name="IRQN_Handler "/>
     <tableColumn id="3" xr3:uid="{51FF6EA1-88DA-48AF-B204-9E7E41DF7DE2}" name="Rx Buffer Size"/>
     <tableColumn id="4" xr3:uid="{0B3BF550-8B6E-4A05-8D50-A860E7703D9A}" name="Tx Buffer Size"/>
+    <tableColumn id="5" xr3:uid="{6D86083F-0334-4F94-BB1A-53D1074988B3}" name="Rx_GPIO_name"/>
+    <tableColumn id="6" xr3:uid="{386C4D1D-01F5-4796-8676-B3D0ACAF503C}" name="RxPin_name"/>
+    <tableColumn id="7" xr3:uid="{A5D26E27-EB27-44C5-9EC3-C28B26CCAA76}" name="Tx_Gpio_Name"/>
+    <tableColumn id="8" xr3:uid="{2F846358-5341-48BB-8F3B-6C6370021E51}" name="Tx_Pin_Name"/>
+    <tableColumn id="9" xr3:uid="{81B54DFD-A22D-46F2-8062-B9CA25246E06}" name="alternate function timer"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6346,8 +6363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7761-01BE-400F-9C40-BE71D85F5C61}">
   <dimension ref="A2:BA81"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="74" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A6" zoomScale="74" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7591,7 +7608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0962FBCC-E1F3-44E3-92A8-D1FF17927B08}">
   <dimension ref="E2:V12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
@@ -8145,10 +8162,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85D06B3-E762-495B-BF06-A6CD7E704A4C}">
-  <dimension ref="E2:H7"/>
+  <dimension ref="E2:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8158,9 +8175,14 @@
     <col min="6" max="6" width="19.6640625" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" customWidth="1"/>
     <col min="8" max="8" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="18.44140625" customWidth="1"/>
+    <col min="10" max="10" width="20.44140625" customWidth="1"/>
+    <col min="11" max="11" width="23.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
         <v>429</v>
       </c>
@@ -8173,8 +8195,23 @@
       <c r="H2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="3" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>300</v>
+      </c>
+      <c r="J2" t="s">
+        <v>301</v>
+      </c>
+      <c r="K2" t="s">
+        <v>302</v>
+      </c>
+      <c r="L2" t="s">
+        <v>303</v>
+      </c>
+      <c r="M2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>78</v>
       </c>
@@ -8187,8 +8224,23 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>268</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="4" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>79</v>
       </c>
@@ -8201,16 +8253,46 @@
       <c r="H4">
         <v>256</v>
       </c>
-    </row>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>228</v>
       </c>
       <c r="F5" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="6" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="I5" t="s">
+        <v>268</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>268</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>289</v>
       </c>
@@ -8223,8 +8305,23 @@
       <c r="H6">
         <v>256</v>
       </c>
-    </row>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>268</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>268</v>
+      </c>
+      <c r="L6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="7" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>290</v>
       </c>
@@ -8237,8 +8334,24 @@
       <c r="H7">
         <v>0</v>
       </c>
+      <c r="I7" t="s">
+        <v>268</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M7" t="s">
+        <v>444</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_UartDesignImpl\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_Ecdr_Htim\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0055E5-4462-478E-904B-498319B4F725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CFF432-CDFF-40D2-9F11-B1B2B8B1ECC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="447">
   <si>
     <t>Colonne1</t>
   </si>
@@ -1381,6 +1381,9 @@
   </si>
   <si>
     <t>GPIO_AF14_UART4</t>
+  </si>
+  <si>
+    <t>TIM8_CH1</t>
   </si>
 </sst>
 </file>
@@ -4075,8 +4078,8 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{333A4E38-7E7A-4098-B282-4F58DD308AC2}" name="FMKMAC_Cfg" displayName="FMKMAC_Cfg" ref="B2:E11" totalsRowShown="0">
-  <autoFilter ref="B2:E11" xr:uid="{333A4E38-7E7A-4098-B282-4F58DD308AC2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{333A4E38-7E7A-4098-B282-4F58DD308AC2}" name="FMKMAC_Cfg" displayName="FMKMAC_Cfg" ref="B2:E12" totalsRowShown="0">
+  <autoFilter ref="B2:E12" xr:uid="{333A4E38-7E7A-4098-B282-4F58DD308AC2}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{9B6EDCAA-F526-412C-A8EC-AC6897A0EB04}" name="RqstDmaType"/>
     <tableColumn id="2" xr3:uid="{ED583461-6D2B-456F-A394-15F76B273D8C}" name="DMA "/>
@@ -7829,8 +7832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E18236-E25D-41B3-8B1E-0194276152B3}">
   <dimension ref="B2:P18"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7838,7 +7841,7 @@
     <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.77734375" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
+    <col min="10" max="10" width="36.6640625" customWidth="1"/>
     <col min="11" max="11" width="21.77734375" customWidth="1"/>
     <col min="16" max="16" width="25.33203125" customWidth="1"/>
   </cols>
@@ -8050,6 +8053,18 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>446</v>
+      </c>
+      <c r="C12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>69</v>
+      </c>
       <c r="J12" t="s">
         <v>398</v>
       </c>
@@ -8060,6 +8075,9 @@
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J13" t="s">
         <v>399</v>
+      </c>
+      <c r="K13" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
@@ -8164,7 +8182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E85D06B3-E762-495B-BF06-A6CD7E704A4C}">
   <dimension ref="E2:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_Ecdr_Htim\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_DrvStepper\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2CFF432-CDFF-40D2-9F11-B1B2B8B1ECC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08782A85-2B53-4E15-BD9B-94B0FB1FA8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
@@ -6366,8 +6366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7761-01BE-400F-9C40-BE71D85F5C61}">
   <dimension ref="A2:BA81"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="74" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:F36"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="74" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7388,7 +7388,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW46 B7:B15 F7:F16 AA8:AA16 Q7:Q14 W7:W8 K7:K9" xr:uid="{14BC2D73-1395-4E2C-9D1E-55C781825C64}">
       <formula1>$AW$30:$AW$45</formula1>
     </dataValidation>
@@ -7420,7 +7420,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1C3D18C3-7241-4088-8034-07AAE0EB53A9}">
           <x14:formula1>
             <xm:f>General_Info!$K$19:$K$30</xm:f>
@@ -7832,7 +7832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06E18236-E25D-41B3-8B1E-0194276152B3}">
   <dimension ref="B2:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_DrvStepper\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_PwmImprove\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08782A85-2B53-4E15-BD9B-94B0FB1FA8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E06BA4-BD33-4877-8791-6B70AEE08AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
@@ -6366,7 +6366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7761-01BE-400F-9C40-BE71D85F5C61}">
   <dimension ref="A2:BA81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="74" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="74" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
@@ -8381,8 +8381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860CCB6B-9BC8-4B28-B4AE-B22F38F81573}">
   <dimension ref="B1:P254"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8415,10 +8415,10 @@
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="L5">
-        <v>63500</v>
+        <v>21332.3</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
@@ -8440,21 +8440,21 @@
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D8">
-        <v>200</v>
+        <v>6000</v>
       </c>
       <c r="E8">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <f>E8*C3/((D8)*(F8+1))</f>
-        <v>800000</v>
+        <f>E8*C3/((D8)*(F8+1))-1</f>
+        <v>21332.333333333332</v>
       </c>
       <c r="J8">
-        <f>(E8*1000000)/((L5+1))</f>
-        <v>2519.6453599155921</v>
+        <f>(E8*1000000)/((L5))</f>
+        <v>6000.2906390778307</v>
       </c>
       <c r="M8" t="s">
         <v>332</v>
@@ -8463,7 +8463,7 @@
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="M9">
         <f>J14-ROUND(J14,0)</f>
-        <v>-0.40177320042204023</v>
+        <v>4.8439846304981771E-5</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
@@ -8472,28 +8472,34 @@
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="D13">
+        <f>E8/(L13+1)*D8</f>
+        <v>35.998312579097856</v>
+      </c>
       <c r="J13" t="s">
         <v>327</v>
       </c>
       <c r="L13">
-        <v>63997</v>
+        <f>L5+(L5/J15)*M9</f>
+        <v>21333.333333333332</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="J14">
-        <f>E8*C3/(D8*(L5+1))</f>
-        <v>12.59822679957796</v>
+        <f>E8*C3/(D8*(L5))</f>
+        <v>1.000048439846305</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="J15">
-        <v>9</v>
+        <f>TRUNC(J14)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D16">
         <f>E8*C3/D8</f>
-        <v>800000</v>
+        <v>21333.333333333332</v>
       </c>
       <c r="J16" t="s">
         <v>112</v>
@@ -8510,15 +8516,15 @@
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D18">
         <f>E8*C3/D16</f>
-        <v>200</v>
+        <v>6000</v>
       </c>
       <c r="J18">
-        <f>(E8*C3)/((L5)*(INT(J14)))</f>
-        <v>209.9737532808399</v>
+        <f>(E8*C3)/((L5)*(INT(J14)+1))</f>
+        <v>3000.1453195389154</v>
       </c>
       <c r="L18">
         <f>(E8*C3)/((J15)*(L13))</f>
-        <v>277.79079922149128</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.3">

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_PwmImprove\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_DiagDesign\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E06BA4-BD33-4877-8791-6B70AEE08AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D5BF9E-500B-40A8-A132-9CE93DF0F2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="7" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
     <sheet name="FMK_IO" sheetId="2" r:id="rId2"/>
-    <sheet name="FMK_CPU" sheetId="3" r:id="rId3"/>
+    <sheet name="FMK_TIM" sheetId="3" r:id="rId3"/>
     <sheet name="FMK_CDA" sheetId="4" r:id="rId4"/>
     <sheet name="FMKMAC" sheetId="6" r:id="rId5"/>
     <sheet name="FMKCAN" sheetId="7" r:id="rId6"/>
@@ -4006,7 +4006,7 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{684AB3A4-4693-477C-AADC-64EBB335C3E9}" name="FMKCPU_EvntTimer" displayName="FMKCPU_EvntTimer" ref="B4:C6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{684AB3A4-4693-477C-AADC-64EBB335C3E9}" name="FMKTIM_EvntTimer" displayName="FMKTIM_EvntTimer" ref="B4:C6" totalsRowShown="0">
   <autoFilter ref="B4:C6" xr:uid="{684AB3A4-4693-477C-AADC-64EBB335C3E9}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B097540B-A2DD-432F-8D25-C369E6A041DD}" name="Colonne1"/>
@@ -4017,7 +4017,7 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{CCB68487-82CB-434C-A0E4-701B1FDDACF5}" name="FMKCPU_IRQNHandler" displayName="FMKCPU_IRQNHandler" ref="F4:G17" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{CCB68487-82CB-434C-A0E4-701B1FDDACF5}" name="FMKTIM_IRQNHandler" displayName="FMKTIM_IRQNHandler" ref="F4:G17" totalsRowShown="0">
   <autoFilter ref="F4:G17" xr:uid="{CCB68487-82CB-434C-A0E4-701B1FDDACF5}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C0EA827E-D0A1-4F96-9D94-60107C8F02D0}" name="List IRQN_Handler"/>
@@ -4524,8 +4524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2D6D-43F7-44B1-8255-ECFDDA33AA9C}">
   <dimension ref="A18:AF119"/>
   <sheetViews>
-    <sheetView topLeftCell="N15" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AD49" sqref="AD49"/>
+    <sheetView topLeftCell="I15" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L38" sqref="L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7449,8 +7449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E52BA6-3E0A-4F7C-9391-164B38476F25}">
   <dimension ref="B3:G17"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8381,7 +8381,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{860CCB6B-9BC8-4B28-B4AE-B22F38F81573}">
   <dimension ref="B1:P254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="96" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="96" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_DiagDesign\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D5BF9E-500B-40A8-A132-9CE93DF0F2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E1536A-CE8A-4FCE-8FAB-7BB30FA8FE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="448">
   <si>
     <t>Colonne1</t>
   </si>
@@ -1384,6 +1384,9 @@
   </si>
   <si>
     <t>TIM8_CH1</t>
+  </si>
+  <si>
+    <t>GPIO_AF2_TIM1</t>
   </si>
 </sst>
 </file>
@@ -6366,8 +6369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7761-01BE-400F-9C40-BE71D85F5C61}">
   <dimension ref="A2:BA81"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="74" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="74" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6654,19 +6657,19 @@
         <v>92</v>
       </c>
       <c r="P9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="R9" t="s">
-        <v>296</v>
+        <v>447</v>
       </c>
       <c r="S9" t="s">
-        <v>265</v>
+        <v>4</v>
       </c>
       <c r="T9" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="Z9" t="s">
         <v>12</v>
@@ -7449,7 +7452,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E52BA6-3E0A-4F7C-9391-164B38476F25}">
   <dimension ref="B3:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_DiagDesign\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_designLogc\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E1536A-CE8A-4FCE-8FAB-7BB30FA8FE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FEC151-B6AC-4EA1-A2FD-12F7BAF43378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="439">
   <si>
     <t>Colonne1</t>
   </si>
@@ -384,30 +384,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Others SPI configuration</t>
-  </si>
-  <si>
-    <t>Bsp_Pin_Name</t>
-  </si>
-  <si>
-    <t>Others I2C  configuration</t>
-  </si>
-  <si>
-    <t>PB6</t>
-  </si>
-  <si>
-    <t>PB7</t>
-  </si>
-  <si>
-    <t>PC10</t>
-  </si>
-  <si>
-    <t>PC11</t>
-  </si>
-  <si>
-    <t>PC12</t>
-  </si>
-  <si>
     <t>PC15, PC14, PF0, PF1  are forbidden</t>
   </si>
   <si>
@@ -867,15 +843,6 @@
     <t>ADC_5</t>
   </si>
   <si>
-    <t>GPIO_AF1_TIM16</t>
-  </si>
-  <si>
-    <t>GPIO_AF1_TIM17</t>
-  </si>
-  <si>
-    <t>GPIO_AF9_TIM15</t>
-  </si>
-  <si>
     <t>TS_CAL2</t>
   </si>
   <si>
@@ -933,15 +900,6 @@
     <t>GPIO_AF2_TIM3</t>
   </si>
   <si>
-    <t>GPIO_AF2_TIM20</t>
-  </si>
-  <si>
-    <t>GPIO_AF6_TIM5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Others USART configuration </t>
-  </si>
-  <si>
     <t>GPIO_AF9_FDCAN1</t>
   </si>
   <si>
@@ -1146,9 +1104,6 @@
     <t>TIM1_TRG_COM_TIM17_IRQHandler</t>
   </si>
   <si>
-    <t>TIM1_CC_IRQHandler</t>
-  </si>
-  <si>
     <t>TIM2_IRQHandler</t>
   </si>
   <si>
@@ -1387,6 +1342,24 @@
   </si>
   <si>
     <t>GPIO_AF2_TIM1</t>
+  </si>
+  <si>
+    <t>GPIO_AF4_TIM8</t>
+  </si>
+  <si>
+    <t>GPIO_AF6_TIM20</t>
+  </si>
+  <si>
+    <t>GPIO_AF2_TIM4</t>
+  </si>
+  <si>
+    <t>TIM8_UP_IRQHandler</t>
+  </si>
+  <si>
+    <t>EXTI2_IRQN</t>
+  </si>
+  <si>
+    <t>EXTI9_5_IRQN</t>
   </si>
 </sst>
 </file>
@@ -3818,8 +3791,8 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9F4B7C8E-8730-4908-B1BE-2954AF9427C0}" name="FMKIO_InputDig" displayName="FMKIO_InputDig" ref="A6:B15" totalsRowShown="0">
-  <autoFilter ref="A6:B15" xr:uid="{9F4B7C8E-8730-4908-B1BE-2954AF9427C0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9F4B7C8E-8730-4908-B1BE-2954AF9427C0}" name="FMKIO_InputDig" displayName="FMKIO_InputDig" ref="A6:B14" totalsRowShown="0">
+  <autoFilter ref="A6:B14" xr:uid="{9F4B7C8E-8730-4908-B1BE-2954AF9427C0}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6C4BEFED-5E85-401A-AA66-51A07D13FEBC}" name="GPIO_name"/>
     <tableColumn id="2" xr3:uid="{E08F986F-8D6D-4DEB-A18F-F4FB9A36C956}" name="Pin_name"/>
@@ -3829,8 +3802,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{098A48DC-88A9-4122-ADE1-86E0F3796141}" name="FMKIO_OutputDig" displayName="FMKIO_OutputDig" ref="Z7:AA16" totalsRowShown="0">
-  <autoFilter ref="Z7:AA16" xr:uid="{098A48DC-88A9-4122-ADE1-86E0F3796141}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{098A48DC-88A9-4122-ADE1-86E0F3796141}" name="FMKIO_OutputDig" displayName="FMKIO_OutputDig" ref="Z7:AA18" totalsRowShown="0">
+  <autoFilter ref="Z7:AA18" xr:uid="{098A48DC-88A9-4122-ADE1-86E0F3796141}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{395BD36A-0840-48CF-8D8D-56878E366FC5}" name="GPIO_name"/>
     <tableColumn id="2" xr3:uid="{34DF2CF3-8826-4F9E-A09D-280EE0FEFFBB}" name="Pin_name"/>
@@ -3840,8 +3813,8 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{27D0C574-E325-48F5-AA31-7FBAF1E09007}" name="FMKIO_InputFreq" displayName="FMKIO_InputFreq" ref="J6:N9" totalsRowShown="0">
-  <autoFilter ref="J6:N9" xr:uid="{27D0C574-E325-48F5-AA31-7FBAF1E09007}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{27D0C574-E325-48F5-AA31-7FBAF1E09007}" name="FMKIO_InputFreq" displayName="FMKIO_InputFreq" ref="J6:N10" totalsRowShown="0">
+  <autoFilter ref="J6:N10" xr:uid="{27D0C574-E325-48F5-AA31-7FBAF1E09007}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F1DD33F7-0EF3-4BDF-839A-2E3FA15D0FD7}" name="GPIO_name"/>
     <tableColumn id="2" xr3:uid="{1EC5875F-046C-4961-B678-CB3386C5E012}" name="Pin_name"/>
@@ -3866,8 +3839,8 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{DE41CD30-BCBD-40FE-B5DD-848DAAA9C25B}" name="FMKIO_OutputPwm" displayName="FMKIO_OutputPwm" ref="P6:T14" totalsRowShown="0">
-  <autoFilter ref="P6:T14" xr:uid="{DE41CD30-BCBD-40FE-B5DD-848DAAA9C25B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{DE41CD30-BCBD-40FE-B5DD-848DAAA9C25B}" name="FMKIO_OutputPwm" displayName="FMKIO_OutputPwm" ref="P6:T18" totalsRowShown="0">
+  <autoFilter ref="P6:T18" xr:uid="{DE41CD30-BCBD-40FE-B5DD-848DAAA9C25B}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F2B685DB-87AE-429A-9E70-076DA856F9A2}" name="GPIO_name"/>
     <tableColumn id="2" xr3:uid="{30126296-E33C-4D56-9110-2D49FE159CF1}" name="Pin_name"/>
@@ -3880,8 +3853,8 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B6D8F853-4E95-4D0E-932E-0F3ECC221901}" name="FMKIO_InputAna" displayName="FMKIO_InputAna" ref="E6:H16" totalsRowShown="0">
-  <autoFilter ref="E6:H16" xr:uid="{B6D8F853-4E95-4D0E-932E-0F3ECC221901}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{B6D8F853-4E95-4D0E-932E-0F3ECC221901}" name="FMKIO_InputAna" displayName="FMKIO_InputAna" ref="E6:H11" totalsRowShown="0">
+  <autoFilter ref="E6:H11" xr:uid="{B6D8F853-4E95-4D0E-932E-0F3ECC221901}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{EDBDBF14-1FA4-44B8-A62D-BAA9F312652A}" name="GPIO_name"/>
     <tableColumn id="2" xr3:uid="{75AD9B1E-8F88-4CD9-86AB-C0D6BFDB44CD}" name="Pin_name"/>
@@ -3934,41 +3907,6 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B3BFFBC0-5215-4824-AE53-6F0674E6F949}" name="Tableau20" displayName="Tableau20" ref="K74:L77" totalsRowShown="0">
-  <autoFilter ref="K74:L77" xr:uid="{B3BFFBC0-5215-4824-AE53-6F0674E6F949}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{35492CF7-2D64-4A31-B52A-8DC201862D23}" name="GPIO_name"/>
-    <tableColumn id="2" xr3:uid="{55201EA4-78EC-451A-894D-4121BE7C2D46}" name="Pin_name"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{0C2EE56A-0FA0-4A8F-A981-3DF80A8100DC}" name="Tableau2022" displayName="Tableau2022" ref="O78:Q80" totalsRowShown="0">
-  <autoFilter ref="O78:Q80" xr:uid="{0C2EE56A-0FA0-4A8F-A981-3DF80A8100DC}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{231389D4-B645-4CB2-A30E-5CBE9EE6FEFC}" name="GPIO_name"/>
-    <tableColumn id="2" xr3:uid="{56336DBF-18EC-4309-B422-97BDC37985D4}" name="Pin_name"/>
-    <tableColumn id="3" xr3:uid="{1167559C-5083-4ABC-8F8C-8F11E7C7FAA7}" name="Bsp_Pin_Name"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{EB071486-BBE3-47FA-A4DE-38B8C83448BA}" name="Tableau202223" displayName="Tableau202223" ref="S78:U81" totalsRowShown="0">
-  <autoFilter ref="S78:U81" xr:uid="{EB071486-BBE3-47FA-A4DE-38B8C83448BA}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{30F87F4B-0EBB-4470-919C-8CEF7288D9C8}" name="GPIO_name"/>
-    <tableColumn id="2" xr3:uid="{DAB30C64-2E65-452D-A80D-3D932E8F35B6}" name="Pin_name"/>
-    <tableColumn id="3" xr3:uid="{5633DAA7-5910-4D39-A1CD-689650D5DAF3}" name="Bsp_Pin_Name"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{0413BBED-76B8-4200-A43C-D97EFAA1EA94}" name="FMKIO_CanCfg" displayName="FMKIO_CanCfg" ref="A25:F28" totalsRowShown="0">
   <autoFilter ref="A25:F28" xr:uid="{0413BBED-76B8-4200-A43C-D97EFAA1EA94}"/>
   <tableColumns count="6">
@@ -3983,7 +3921,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{978057A4-13F6-44F3-B65B-2C409866E1DE}" name="FMKIO_SerialCfg" displayName="FMKIO_SerialCfg" ref="A34:F36" totalsRowShown="0">
   <autoFilter ref="A34:F36" xr:uid="{978057A4-13F6-44F3-B65B-2C409866E1DE}"/>
   <tableColumns count="6">
@@ -3998,9 +3936,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{DA1831B2-BC94-42A9-B299-31A3CE618396}" name="FMKIO_IRQNHandler" displayName="FMKIO_IRQNHandler" ref="L21:L28" totalsRowShown="0">
-  <autoFilter ref="L21:L28" xr:uid="{DA1831B2-BC94-42A9-B299-31A3CE618396}"/>
+<file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{DA1831B2-BC94-42A9-B299-31A3CE618396}" name="FMKIO_IRQNHandler" displayName="FMKIO_IRQNHandler" ref="W29:W36" totalsRowShown="0">
+  <autoFilter ref="W29:W36" xr:uid="{DA1831B2-BC94-42A9-B299-31A3CE618396}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{435A2CB3-E527-4D4E-9A3C-7D2BA856E09C}" name="List IRQN_Handler"/>
   </tableColumns>
@@ -4008,7 +3946,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{684AB3A4-4693-477C-AADC-64EBB335C3E9}" name="FMKTIM_EvntTimer" displayName="FMKTIM_EvntTimer" ref="B4:C6" totalsRowShown="0">
   <autoFilter ref="B4:C6" xr:uid="{684AB3A4-4693-477C-AADC-64EBB335C3E9}"/>
   <tableColumns count="2">
@@ -4019,12 +3957,49 @@
 </table>
 </file>
 
-<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{CCB68487-82CB-434C-A0E4-701B1FDDACF5}" name="FMKTIM_IRQNHandler" displayName="FMKTIM_IRQNHandler" ref="F4:G17" totalsRowShown="0">
   <autoFilter ref="F4:G17" xr:uid="{CCB68487-82CB-434C-A0E4-701B1FDDACF5}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{C0EA827E-D0A1-4F96-9D94-60107C8F02D0}" name="List IRQN_Handler"/>
     <tableColumn id="2" xr3:uid="{B344E14A-A089-45F4-9C1B-D978E362DC5A}" name="Timer Associated"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{A4F27ADC-56A6-479B-93EF-D6AA72368D72}" name="FMKCDA_CalibrationOthers" displayName="FMKCDA_CalibrationOthers" ref="I3:L5" totalsRowShown="0">
+  <autoFilter ref="I3:L5" xr:uid="{A4F27ADC-56A6-479B-93EF-D6AA72368D72}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{74AD6856-B046-40F9-89E8-C5AC0EB4C661}" name="calibration temperature "/>
+    <tableColumn id="2" xr3:uid="{D58B2B24-74EC-4445-9DDA-83A119877B67}" name="address in hexacecimal"/>
+    <tableColumn id="3" xr3:uid="{0793AAF2-321B-4695-AEBB-122FAB9D49F7}" name="Adc Vref"/>
+    <tableColumn id="4" xr3:uid="{F1198D75-5BAD-4CA5-814F-DDA2BB66E5F2}" name="Channel Vref"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{99B4503A-67B2-48AD-BE25-2B3425F892A9}" name="FMKCDA_VoltageRef" displayName="FMKCDA_VoltageRef" ref="S3:V8" totalsRowShown="0">
+  <autoFilter ref="S3:V8" xr:uid="{99B4503A-67B2-48AD-BE25-2B3425F892A9}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{0BCC2BC4-7FF0-4C14-809D-9D95A3225151}" name="Vref Calib"/>
+    <tableColumn id="2" xr3:uid="{0E78A6D4-DF9E-4966-A80E-64FE5BD9F1E2}" name="address  hexacecimal"/>
+    <tableColumn id="4" xr3:uid="{4C711A0D-EAF5-4229-B4D2-99254AE9F9BA}" name="Adc Vref"/>
+    <tableColumn id="5" xr3:uid="{0B4759AE-B188-4822-92BB-EEEB3203C895}" name="Channel Vref"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{FAF38277-E25D-413A-A145-AFBC74566FF1}" name="FMKCDA_IRQNHandler" displayName="FMKCDA_IRQNHandler" ref="E8:F12" totalsRowShown="0">
+  <autoFilter ref="E8:F12" xr:uid="{FAF38277-E25D-413A-A145-AFBC74566FF1}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CD80BAAD-36DA-496C-9F7C-D80D4296914C}" name="List IRQN_Handler"/>
+    <tableColumn id="2" xr3:uid="{9F8B466B-BFC7-4900-8330-976222B1008D}" name="Adc, Dac associated"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4044,43 +4019,6 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{A4F27ADC-56A6-479B-93EF-D6AA72368D72}" name="FMKCDA_CalibrationOthers" displayName="FMKCDA_CalibrationOthers" ref="I3:L5" totalsRowShown="0">
-  <autoFilter ref="I3:L5" xr:uid="{A4F27ADC-56A6-479B-93EF-D6AA72368D72}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{74AD6856-B046-40F9-89E8-C5AC0EB4C661}" name="calibration temperature "/>
-    <tableColumn id="2" xr3:uid="{D58B2B24-74EC-4445-9DDA-83A119877B67}" name="address in hexacecimal"/>
-    <tableColumn id="3" xr3:uid="{0793AAF2-321B-4695-AEBB-122FAB9D49F7}" name="Adc Vref"/>
-    <tableColumn id="4" xr3:uid="{F1198D75-5BAD-4CA5-814F-DDA2BB66E5F2}" name="Channel Vref"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{99B4503A-67B2-48AD-BE25-2B3425F892A9}" name="FMKCDA_VoltageRef" displayName="FMKCDA_VoltageRef" ref="S3:V8" totalsRowShown="0">
-  <autoFilter ref="S3:V8" xr:uid="{99B4503A-67B2-48AD-BE25-2B3425F892A9}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0BCC2BC4-7FF0-4C14-809D-9D95A3225151}" name="Vref Calib"/>
-    <tableColumn id="2" xr3:uid="{0E78A6D4-DF9E-4966-A80E-64FE5BD9F1E2}" name="address  hexacecimal"/>
-    <tableColumn id="4" xr3:uid="{4C711A0D-EAF5-4229-B4D2-99254AE9F9BA}" name="Adc Vref"/>
-    <tableColumn id="5" xr3:uid="{0B4759AE-B188-4822-92BB-EEEB3203C895}" name="Channel Vref"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{FAF38277-E25D-413A-A145-AFBC74566FF1}" name="FMKCDA_IRQNHandler" displayName="FMKCDA_IRQNHandler" ref="E8:F12" totalsRowShown="0">
-  <autoFilter ref="E8:F12" xr:uid="{FAF38277-E25D-413A-A145-AFBC74566FF1}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CD80BAAD-36DA-496C-9F7C-D80D4296914C}" name="List IRQN_Handler"/>
-    <tableColumn id="2" xr3:uid="{9F8B466B-BFC7-4900-8330-976222B1008D}" name="Adc, Dac associated"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{333A4E38-7E7A-4098-B282-4F58DD308AC2}" name="FMKMAC_Cfg" displayName="FMKMAC_Cfg" ref="B2:E12" totalsRowShown="0">
   <autoFilter ref="B2:E12" xr:uid="{333A4E38-7E7A-4098-B282-4F58DD308AC2}"/>
   <tableColumns count="4">
@@ -4093,7 +4031,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{8B613F4D-88F2-4091-AA3A-5550AB627653}" name="FMKMAC_IRQN" displayName="FMKMAC_IRQN" ref="J3:K18" totalsRowShown="0">
   <autoFilter ref="J3:K18" xr:uid="{8B613F4D-88F2-4091-AA3A-5550AB627653}"/>
   <tableColumns count="2">
@@ -4104,7 +4042,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{9E75F4B3-8C66-44CB-A927-82E8A09563A2}" name="FMKMAC_DMAMUX" displayName="FMKMAC_DMAMUX" ref="P3:P4" totalsRowShown="0">
   <autoFilter ref="P3:P4" xr:uid="{9E75F4B3-8C66-44CB-A927-82E8A09563A2}"/>
   <tableColumns count="1">
@@ -4114,7 +4052,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{3568793B-2270-4B9A-A9E5-55F929444AFF}" name="Tableau35" displayName="Tableau35" ref="B5:B11" totalsRowShown="0">
   <autoFilter ref="B5:B11" xr:uid="{3568793B-2270-4B9A-A9E5-55F929444AFF}"/>
   <tableColumns count="1">
@@ -4124,7 +4062,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{CF6032E9-4D15-4575-AD94-133BB9C2FD31}" name="FMKSRL_INFO" displayName="FMKSRL_INFO" ref="E2:M7" totalsRowShown="0">
   <autoFilter ref="E2:M7" xr:uid="{CF6032E9-4D15-4575-AD94-133BB9C2FD31}"/>
   <tableColumns count="9">
@@ -4527,8 +4465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2D6D-43F7-44B1-8255-ECFDDA33AA9C}">
   <dimension ref="A18:AF119"/>
   <sheetViews>
-    <sheetView topLeftCell="I15" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView topLeftCell="H15" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4559,16 +4497,16 @@
   <sheetData>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="F18" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="H18" t="s">
         <v>57</v>
@@ -4583,27 +4521,27 @@
         <v>3</v>
       </c>
       <c r="M18" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="N18" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="O18" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
         <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F19" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -4618,45 +4556,45 @@
         <v>4</v>
       </c>
       <c r="M19" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="N19" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="O19" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E20" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F20" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H20" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="I20" t="s">
         <v>69</v>
       </c>
       <c r="K20" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="L20">
         <v>4</v>
       </c>
       <c r="M20" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="N20" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="O20" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="T20" t="s">
         <v>17</v>
@@ -4665,10 +4603,10 @@
         <v>18</v>
       </c>
       <c r="V20" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="W20" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="AB20" t="s">
         <v>22</v>
@@ -4677,21 +4615,21 @@
         <v>18</v>
       </c>
       <c r="AD20" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="E21" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F21" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H21" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="I21" t="s">
         <v>69</v>
@@ -4706,10 +4644,10 @@
         <v>64</v>
       </c>
       <c r="N21" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="O21" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="T21" t="s">
         <v>16</v>
@@ -4718,13 +4656,13 @@
         <v>18</v>
       </c>
       <c r="V21" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="W21" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="AB21" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="AC21">
         <v>8</v>
@@ -4735,66 +4673,66 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E22" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F22" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H22" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="I22" t="s">
         <v>69</v>
       </c>
       <c r="K22" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="L22">
         <v>4</v>
       </c>
       <c r="M22" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="N22" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="O22" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="T22" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="U22">
         <v>18</v>
       </c>
       <c r="V22" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="W22" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="AB22" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="AC22">
         <v>8</v>
       </c>
       <c r="AD22" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="E23" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F23" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -4803,42 +4741,42 @@
         <v>69</v>
       </c>
       <c r="K23" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L23">
         <v>4</v>
       </c>
       <c r="M23" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="N23" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="O23" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="T23" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="U23">
         <v>18</v>
       </c>
       <c r="V23" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="W23" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E24" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F24" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H24" t="s">
         <v>61</v>
@@ -4847,31 +4785,31 @@
         <v>69</v>
       </c>
       <c r="K24" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="N24" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="O24" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="T24" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="U24">
         <v>18</v>
       </c>
       <c r="V24" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="W24" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
@@ -4879,95 +4817,95 @@
         <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F25" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H25" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="I25" t="s">
         <v>69</v>
       </c>
       <c r="K25" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="N25" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="O25" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="T25" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="U25">
         <v>18</v>
       </c>
       <c r="V25" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="W25" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="E26" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="F26" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H26" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="I26" t="s">
         <v>69</v>
       </c>
       <c r="K26" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L26">
         <v>6</v>
       </c>
       <c r="M26" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="N26" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="O26" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B27" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D27" t="s">
         <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="F27" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H27" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I27" t="s">
         <v>69</v>
@@ -4979,33 +4917,33 @@
         <v>2</v>
       </c>
       <c r="M27" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="N27" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O27" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B28">
         <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E28" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="F28" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H28" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="I28" t="s">
         <v>69</v>
@@ -5017,33 +4955,33 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="N28" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O28" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B29">
         <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="E29" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="F29" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H29" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
         <v>69</v>
@@ -5055,13 +4993,13 @@
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="N29" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="O29" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
@@ -5069,10 +5007,10 @@
         <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="F30" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H30" t="s">
         <v>62</v>
@@ -5081,19 +5019,19 @@
         <v>69</v>
       </c>
       <c r="K30" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="L30">
         <v>4</v>
       </c>
       <c r="M30" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="N30" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="O30" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
@@ -5101,13 +5039,13 @@
         <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="F31" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H31" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I31" t="s">
         <v>69</v>
@@ -5118,13 +5056,13 @@
         <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="F32" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H32" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="I32" t="s">
         <v>69</v>
@@ -5132,16 +5070,16 @@
     </row>
     <row r="33" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E33" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="F33" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="H33" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="I33" t="s">
         <v>69</v>
@@ -5155,16 +5093,16 @@
     </row>
     <row r="34" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E34" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="F34" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="H34" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="I34" t="s">
         <v>69</v>
@@ -5178,16 +5116,16 @@
     </row>
     <row r="35" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E35" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F35" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H35" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
         <v>69</v>
@@ -5201,16 +5139,16 @@
     </row>
     <row r="36" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="E36" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F36" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H36" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I36" t="s">
         <v>69</v>
@@ -5230,16 +5168,16 @@
     </row>
     <row r="37" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E37" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F37" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H37" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="I37" t="s">
         <v>69</v>
@@ -5259,22 +5197,22 @@
     </row>
     <row r="38" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="E38" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F38" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H38" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I38" t="s">
         <v>69</v>
       </c>
       <c r="P38" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="Q38">
         <v>16</v>
@@ -5282,16 +5220,16 @@
     </row>
     <row r="39" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E39" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="F39" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H39" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="I39" t="s">
         <v>69</v>
@@ -5305,22 +5243,22 @@
     </row>
     <row r="40" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="E40" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="F40" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H40" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="I40" t="s">
         <v>90</v>
       </c>
       <c r="P40" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="Q40">
         <v>11</v>
@@ -5331,16 +5269,16 @@
     </row>
     <row r="41" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="E41" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="F41" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="H41" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="I41" t="s">
         <v>90</v>
@@ -5351,16 +5289,16 @@
     </row>
     <row r="42" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="E42" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F42" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H42" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="I42" t="s">
         <v>69</v>
@@ -5374,13 +5312,13 @@
         <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F43" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H43" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I43" t="s">
         <v>69</v>
@@ -5391,16 +5329,16 @@
     </row>
     <row r="44" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="E44" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F44" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H44" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="I44" t="s">
         <v>69</v>
@@ -5408,16 +5346,16 @@
     </row>
     <row r="45" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E45" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F45" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H45" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="I45" t="s">
         <v>69</v>
@@ -5425,13 +5363,13 @@
     </row>
     <row r="46" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E46" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F46" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H46" t="s">
         <v>63</v>
@@ -5440,38 +5378,38 @@
         <v>69</v>
       </c>
       <c r="AF46" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="E47" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F47" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H47" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I47" t="s">
         <v>69</v>
       </c>
       <c r="AF47" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="E48" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F48" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H48" t="s">
         <v>64</v>
@@ -5480,27 +5418,27 @@
         <v>69</v>
       </c>
       <c r="AF48" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E49" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F49" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H49" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I49" t="s">
         <v>69</v>
       </c>
       <c r="AF49" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" spans="4:32" x14ac:dyDescent="0.3">
@@ -5508,13 +5446,13 @@
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F50" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H50" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="I50" t="s">
         <v>69</v>
@@ -5525,13 +5463,13 @@
         <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F51" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H51" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I51" t="s">
         <v>69</v>
@@ -5539,22 +5477,22 @@
     </row>
     <row r="52" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E52" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F52" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H52" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="I52" t="s">
         <v>69</v>
       </c>
       <c r="AF52" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="53" spans="4:32" x14ac:dyDescent="0.3">
@@ -5562,30 +5500,30 @@
         <v>79</v>
       </c>
       <c r="E53" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F53" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="H53" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="I53" t="s">
         <v>69</v>
       </c>
       <c r="AF53" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="54" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="E54" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F54" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="H54" t="s">
         <v>65</v>
@@ -5594,18 +5532,18 @@
         <v>69</v>
       </c>
       <c r="AF54" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="55" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E55" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F55" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="H55" t="s">
         <v>66</v>
@@ -5614,18 +5552,18 @@
         <v>69</v>
       </c>
       <c r="AF55" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="56" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="E56" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F56" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="H56" t="s">
         <v>67</v>
@@ -5634,18 +5572,18 @@
         <v>69</v>
       </c>
       <c r="AF56" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="57" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="E57" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F57" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H57" t="s">
         <v>68</v>
@@ -5654,47 +5592,47 @@
         <v>69</v>
       </c>
       <c r="AF57" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F58" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H58" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="I58" t="s">
         <v>69</v>
       </c>
       <c r="AF58" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="E59" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="F59" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="H59" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I59" t="s">
         <v>69</v>
       </c>
       <c r="AF59" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="60" spans="4:32" x14ac:dyDescent="0.3">
@@ -5702,73 +5640,73 @@
         <v>87</v>
       </c>
       <c r="E60" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F60" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H60" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I60" t="s">
         <v>69</v>
       </c>
       <c r="AF60" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="61" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E61" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F61" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="H61" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I61" t="s">
         <v>69</v>
       </c>
       <c r="AF61" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="62" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E62" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F62" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H62" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="I62" t="s">
         <v>69</v>
       </c>
       <c r="AF62" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E63" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="F63" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H63" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="I63" t="s">
         <v>69</v>
@@ -5779,13 +5717,13 @@
         <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F64" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H64" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="I64" t="s">
         <v>69</v>
@@ -5796,13 +5734,13 @@
         <v>71</v>
       </c>
       <c r="E65" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F65" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H65" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="I65" t="s">
         <v>69</v>
@@ -5813,13 +5751,13 @@
         <v>76</v>
       </c>
       <c r="E66" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F66" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H66" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="I66" t="s">
         <v>69</v>
@@ -5827,16 +5765,16 @@
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E67" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F67" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H67" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="I67" t="s">
         <v>69</v>
@@ -5847,13 +5785,13 @@
         <v>78</v>
       </c>
       <c r="E68" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F68" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="H68" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I68" t="s">
         <v>69</v>
@@ -5861,16 +5799,16 @@
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="E69" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F69" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H69" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="I69" t="s">
         <v>69</v>
@@ -5881,13 +5819,13 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F70" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H70" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="I70" t="s">
         <v>69</v>
@@ -5898,13 +5836,13 @@
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F71" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H71" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="I71" t="s">
         <v>69</v>
@@ -5915,13 +5853,13 @@
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F72" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H72" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="I72" t="s">
         <v>69</v>
@@ -5929,16 +5867,16 @@
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E73" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F73" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H73" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I73" t="s">
         <v>69</v>
@@ -5946,16 +5884,16 @@
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E74" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F74" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H74" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I74" t="s">
         <v>69</v>
@@ -5963,16 +5901,16 @@
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="E75" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="F75" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="H75" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="I75" t="s">
         <v>69</v>
@@ -5980,7 +5918,7 @@
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H76" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I76" t="s">
         <v>69</v>
@@ -5988,7 +5926,7 @@
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H77" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I77" t="s">
         <v>69</v>
@@ -5996,7 +5934,7 @@
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H78" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I78" t="s">
         <v>69</v>
@@ -6004,7 +5942,7 @@
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H79" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="I79" t="s">
         <v>69</v>
@@ -6012,7 +5950,7 @@
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H80" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="I80" t="s">
         <v>69</v>
@@ -6020,7 +5958,7 @@
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H81" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I81" t="s">
         <v>69</v>
@@ -6028,7 +5966,7 @@
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H82" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="I82" t="s">
         <v>69</v>
@@ -6036,7 +5974,7 @@
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H83" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="I83" t="s">
         <v>69</v>
@@ -6044,7 +5982,7 @@
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H84" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I84" t="s">
         <v>69</v>
@@ -6052,7 +5990,7 @@
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H85" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="I85" t="s">
         <v>69</v>
@@ -6060,7 +5998,7 @@
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H86" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="I86" t="s">
         <v>69</v>
@@ -6068,7 +6006,7 @@
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H87" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="I87" t="s">
         <v>69</v>
@@ -6076,7 +6014,7 @@
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H88" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="I88" t="s">
         <v>69</v>
@@ -6084,7 +6022,7 @@
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H89" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I89" t="s">
         <v>69</v>
@@ -6092,7 +6030,7 @@
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H90" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="I90" t="s">
         <v>69</v>
@@ -6100,7 +6038,7 @@
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H91" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="I91" t="s">
         <v>69</v>
@@ -6108,7 +6046,7 @@
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H92" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I92" t="s">
         <v>69</v>
@@ -6116,7 +6054,7 @@
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H93" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I93" t="s">
         <v>69</v>
@@ -6124,7 +6062,7 @@
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H94" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="I94" t="s">
         <v>69</v>
@@ -6132,7 +6070,7 @@
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H95" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="I95" t="s">
         <v>69</v>
@@ -6140,7 +6078,7 @@
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H96" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I96" t="s">
         <v>69</v>
@@ -6148,7 +6086,7 @@
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H97" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="I97" t="s">
         <v>69</v>
@@ -6156,7 +6094,7 @@
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H98" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="I98" t="s">
         <v>69</v>
@@ -6164,7 +6102,7 @@
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H99" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="I99" t="s">
         <v>69</v>
@@ -6172,7 +6110,7 @@
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H100" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I100" t="s">
         <v>69</v>
@@ -6180,7 +6118,7 @@
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H101" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I101" t="s">
         <v>69</v>
@@ -6188,7 +6126,7 @@
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H102" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I102" t="s">
         <v>69</v>
@@ -6196,7 +6134,7 @@
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H103" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="I103" t="s">
         <v>69</v>
@@ -6204,7 +6142,7 @@
     </row>
     <row r="104" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H104" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="I104" t="s">
         <v>90</v>
@@ -6212,7 +6150,7 @@
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H105" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="I105" t="s">
         <v>90</v>
@@ -6220,7 +6158,7 @@
     </row>
     <row r="106" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H106" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="I106" t="s">
         <v>90</v>
@@ -6228,7 +6166,7 @@
     </row>
     <row r="107" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H107" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="I107" t="s">
         <v>90</v>
@@ -6236,7 +6174,7 @@
     </row>
     <row r="108" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H108" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I108" t="s">
         <v>69</v>
@@ -6244,7 +6182,7 @@
     </row>
     <row r="109" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H109" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="I109" t="s">
         <v>69</v>
@@ -6252,7 +6190,7 @@
     </row>
     <row r="110" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H110" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="I110" t="s">
         <v>69</v>
@@ -6260,7 +6198,7 @@
     </row>
     <row r="111" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H111" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="I111" t="s">
         <v>69</v>
@@ -6268,7 +6206,7 @@
     </row>
     <row r="112" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H112" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I112" t="s">
         <v>69</v>
@@ -6276,7 +6214,7 @@
     </row>
     <row r="113" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H113" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="I113" t="s">
         <v>69</v>
@@ -6284,7 +6222,7 @@
     </row>
     <row r="114" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H114" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="I114" t="s">
         <v>69</v>
@@ -6292,7 +6230,7 @@
     </row>
     <row r="115" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H115" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I115" t="s">
         <v>69</v>
@@ -6300,7 +6238,7 @@
     </row>
     <row r="116" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H116" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I116" t="s">
         <v>69</v>
@@ -6308,7 +6246,7 @@
     </row>
     <row r="117" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H117" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="I117" t="s">
         <v>69</v>
@@ -6316,7 +6254,7 @@
     </row>
     <row r="118" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H118" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="I118" t="s">
         <v>69</v>
@@ -6324,7 +6262,7 @@
     </row>
     <row r="119" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H119" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="I119" t="s">
         <v>69</v>
@@ -6367,10 +6305,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7761-01BE-400F-9C40-BE71D85F5C61}">
-  <dimension ref="A2:BA81"/>
+  <dimension ref="A2:BA57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J4" zoomScale="74" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T22" sqref="T22"/>
+    <sheetView tabSelected="1" topLeftCell="Q3" zoomScale="91" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6392,7 +6330,8 @@
     <col min="19" max="19" width="23.33203125" customWidth="1"/>
     <col min="20" max="20" width="18.44140625" customWidth="1"/>
     <col min="21" max="21" width="23.109375" customWidth="1"/>
-    <col min="24" max="24" width="20" customWidth="1"/>
+    <col min="23" max="23" width="25.109375" customWidth="1"/>
+    <col min="24" max="24" width="34" customWidth="1"/>
     <col min="25" max="25" width="16.77734375" customWidth="1"/>
     <col min="26" max="26" width="20.77734375" customWidth="1"/>
     <col min="27" max="27" width="16.77734375" customWidth="1"/>
@@ -6404,7 +6343,7 @@
   <sheetData>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
@@ -6418,13 +6357,13 @@
         <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="P5" t="s">
         <v>56</v>
       </c>
       <c r="R5" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="V5" t="s">
         <v>55</v>
@@ -6494,61 +6433,61 @@
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
       <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H7" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>100</v>
-      </c>
-      <c r="J7" t="s">
-        <v>267</v>
-      </c>
-      <c r="K7" t="s">
-        <v>27</v>
-      </c>
       <c r="L7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="M7" t="s">
-        <v>264</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="P7" t="s">
         <v>13</v>
       </c>
       <c r="Q7" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="R7" t="s">
-        <v>295</v>
+        <v>432</v>
       </c>
       <c r="S7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="V7" t="s">
         <v>12</v>
       </c>
       <c r="W7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="X7" t="s">
-        <v>163</v>
+        <v>437</v>
       </c>
       <c r="Z7" t="s">
         <v>23</v>
@@ -6559,31 +6498,31 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
-      </c>
       <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>262</v>
+      </c>
+      <c r="H8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
         <v>26</v>
       </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" t="s">
-        <v>101</v>
-      </c>
-      <c r="J8" t="s">
-        <v>267</v>
-      </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
       <c r="L8" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="M8" t="s">
         <v>5</v>
@@ -6595,464 +6534,457 @@
         <v>13</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="R8" t="s">
-        <v>295</v>
+        <v>432</v>
       </c>
       <c r="S8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V8" t="s">
         <v>11</v>
       </c>
       <c r="W8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="X8" t="s">
-        <v>140</v>
+        <v>438</v>
       </c>
       <c r="Z8" t="s">
         <v>12</v>
       </c>
       <c r="AA8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" t="s">
+        <v>262</v>
+      </c>
+      <c r="H9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" t="s">
-        <v>102</v>
-      </c>
-      <c r="J9" t="s">
-        <v>267</v>
-      </c>
       <c r="K9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="M9" t="s">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="P9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Q9" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="R9" t="s">
-        <v>447</v>
+        <v>434</v>
       </c>
       <c r="S9" t="s">
-        <v>4</v>
+        <v>257</v>
       </c>
       <c r="T9" t="s">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="Z9" t="s">
         <v>12</v>
       </c>
       <c r="AA9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L10" t="s">
+        <v>284</v>
+      </c>
+      <c r="M10" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" t="s">
+      <c r="Q10" t="s">
         <v>28</v>
       </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>103</v>
-      </c>
-      <c r="P10" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>39</v>
-      </c>
       <c r="R10" t="s">
-        <v>296</v>
+        <v>432</v>
       </c>
       <c r="S10" t="s">
-        <v>265</v>
+        <v>4</v>
       </c>
       <c r="T10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="Z10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
       <c r="F11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" t="s">
+        <v>262</v>
+      </c>
+      <c r="H11" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q11" t="s">
         <v>31</v>
       </c>
-      <c r="G11" t="s">
-        <v>270</v>
-      </c>
-      <c r="H11" t="s">
-        <v>97</v>
-      </c>
-      <c r="P11" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>40</v>
-      </c>
       <c r="R11" t="s">
-        <v>296</v>
+        <v>433</v>
       </c>
       <c r="S11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="T11" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="Z11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>32</v>
+      </c>
+      <c r="R12" t="s">
+        <v>433</v>
+      </c>
+      <c r="S12" t="s">
+        <v>256</v>
+      </c>
+      <c r="T12" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G12" t="s">
-        <v>270</v>
-      </c>
-      <c r="H12" t="s">
-        <v>98</v>
-      </c>
-      <c r="P12" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>41</v>
-      </c>
-      <c r="R12" t="s">
-        <v>296</v>
-      </c>
-      <c r="S12" t="s">
-        <v>265</v>
-      </c>
-      <c r="T12" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>13</v>
-      </c>
       <c r="AA12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" t="s">
         <v>25</v>
       </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" t="s">
-        <v>109</v>
-      </c>
       <c r="P13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R13" t="s">
-        <v>297</v>
+        <v>434</v>
       </c>
       <c r="S13" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="T13" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="Z13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AA13" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" t="s">
+        <v>433</v>
+      </c>
+      <c r="S14" t="s">
+        <v>256</v>
+      </c>
+      <c r="T14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="P15" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="Q15" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" t="s">
+        <v>435</v>
+      </c>
+      <c r="S15" t="s">
+        <v>253</v>
+      </c>
+      <c r="T15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="P16" t="s">
         <v>12</v>
       </c>
-      <c r="F14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s">
-        <v>106</v>
-      </c>
-      <c r="P14" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q14" t="s">
+      <c r="Q16" t="s">
         <v>32</v>
       </c>
-      <c r="R14" t="s">
-        <v>297</v>
-      </c>
-      <c r="S14" t="s">
-        <v>266</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="R16" t="s">
+        <v>435</v>
+      </c>
+      <c r="S16" t="s">
+        <v>253</v>
+      </c>
+      <c r="T16" t="s">
         <v>46</v>
       </c>
-      <c r="Z14" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA14" t="s">
+      <c r="Z16" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA16" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="17" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="P17" t="s">
         <v>12</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA15" t="s">
+      <c r="Q17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" t="s">
+        <v>435</v>
+      </c>
+      <c r="S17" t="s">
+        <v>253</v>
+      </c>
+      <c r="T17" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="P18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="L20" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="21" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="L21" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="22" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="L22" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53" x14ac:dyDescent="0.3">
-      <c r="L23" t="s">
-        <v>380</v>
+      <c r="R18" t="s">
+        <v>435</v>
+      </c>
+      <c r="S18" t="s">
+        <v>253</v>
+      </c>
+      <c r="T18" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>427</v>
-      </c>
-      <c r="L24" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B25" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C25" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="D25" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="E25" t="s">
         <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>307</v>
-      </c>
-      <c r="L25" t="s">
-        <v>382</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B26" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
         <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="F26" t="s">
-        <v>304</v>
-      </c>
-      <c r="L26" t="s">
-        <v>383</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D27" t="s">
         <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="F27" t="s">
-        <v>306</v>
-      </c>
-      <c r="L27" t="s">
-        <v>384</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D28" t="s">
         <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="F28" t="s">
-        <v>305</v>
-      </c>
-      <c r="L28" t="s">
-        <v>385</v>
+        <v>291</v>
+      </c>
+      <c r="W28" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="W29" t="s">
+        <v>356</v>
+      </c>
       <c r="AW29" t="s">
         <v>91</v>
       </c>
@@ -7061,6 +6993,9 @@
       </c>
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="W30" t="s">
+        <v>364</v>
+      </c>
       <c r="AW30" t="s">
         <v>25</v>
       </c>
@@ -7072,6 +7007,9 @@
       </c>
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="W31" t="s">
+        <v>365</v>
+      </c>
       <c r="AW31" t="s">
         <v>26</v>
       </c>
@@ -7083,6 +7021,9 @@
       </c>
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="W32" t="s">
+        <v>366</v>
+      </c>
       <c r="AW32" t="s">
         <v>27</v>
       </c>
@@ -7095,7 +7036,10 @@
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>360</v>
+        <v>346</v>
+      </c>
+      <c r="W33" t="s">
+        <v>367</v>
       </c>
       <c r="AW33" t="s">
         <v>28</v>
@@ -7109,22 +7053,25 @@
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="B34" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="C34" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="D34" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="E34" t="s">
         <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>363</v>
+        <v>349</v>
+      </c>
+      <c r="W34" t="s">
+        <v>368</v>
       </c>
       <c r="AW34" t="s">
         <v>29</v>
@@ -7150,10 +7097,13 @@
         <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="F35" t="s">
         <v>79</v>
+      </c>
+      <c r="W35" t="s">
+        <v>369</v>
       </c>
       <c r="AW35" t="s">
         <v>30</v>
@@ -7176,10 +7126,13 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="F36" t="s">
-        <v>289</v>
+        <v>278</v>
+      </c>
+      <c r="W36" t="s">
+        <v>370</v>
       </c>
       <c r="AW36" t="s">
         <v>31</v>
@@ -7275,136 +7228,22 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="11:21" x14ac:dyDescent="0.3">
-      <c r="K73" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="74" spans="11:21" x14ac:dyDescent="0.3">
-      <c r="K74" t="s">
-        <v>23</v>
-      </c>
-      <c r="L74" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="75" spans="11:21" x14ac:dyDescent="0.3">
-      <c r="K75" t="s">
-        <v>11</v>
-      </c>
-      <c r="L75" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="76" spans="11:21" x14ac:dyDescent="0.3">
-      <c r="K76" t="s">
-        <v>11</v>
-      </c>
-      <c r="L76" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="77" spans="11:21" x14ac:dyDescent="0.3">
-      <c r="K77" t="s">
-        <v>11</v>
-      </c>
-      <c r="L77" t="s">
-        <v>32</v>
-      </c>
-      <c r="N77" t="s">
-        <v>115</v>
-      </c>
-      <c r="R77" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="78" spans="11:21" x14ac:dyDescent="0.3">
-      <c r="O78" t="s">
-        <v>23</v>
-      </c>
-      <c r="P78" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>114</v>
-      </c>
-      <c r="S78" t="s">
-        <v>23</v>
-      </c>
-      <c r="T78" t="s">
-        <v>24</v>
-      </c>
-      <c r="U78" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="79" spans="11:21" x14ac:dyDescent="0.3">
-      <c r="O79" t="s">
-        <v>12</v>
-      </c>
-      <c r="P79" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>116</v>
-      </c>
-      <c r="S79" t="s">
-        <v>13</v>
-      </c>
-      <c r="T79" t="s">
-        <v>35</v>
-      </c>
-      <c r="U79" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="80" spans="11:21" x14ac:dyDescent="0.3">
-      <c r="O80" t="s">
-        <v>12</v>
-      </c>
-      <c r="P80" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>117</v>
-      </c>
-      <c r="S80" t="s">
-        <v>13</v>
-      </c>
-      <c r="T80" t="s">
-        <v>36</v>
-      </c>
-      <c r="U80" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="81" spans="19:21" x14ac:dyDescent="0.3">
-      <c r="S81" t="s">
-        <v>13</v>
-      </c>
-      <c r="T81" t="s">
-        <v>38</v>
-      </c>
-      <c r="U81" t="s">
-        <v>120</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW46 B7:B15 F7:F16 AA8:AA16 Q7:Q14 W7:W8 K7:K9" xr:uid="{14BC2D73-1395-4E2C-9D1E-55C781825C64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW46 K7:K10 Q7:Q14 F7:F11 B7:B14 W7:W8 AA8:AA18" xr:uid="{14BC2D73-1395-4E2C-9D1E-55C781825C64}">
       <formula1>$AW$30:$AW$45</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T14 N7:N9" xr:uid="{727A5344-B28A-4866-9EC1-7C96029AF8B6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T14 N7:N10" xr:uid="{727A5344-B28A-4866-9EC1-7C96029AF8B6}">
       <formula1>$AY$31:$AY$34</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H16" xr:uid="{FFFA1AF2-B35F-4BAA-AEF6-4A6121806F8D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H11" xr:uid="{FFFA1AF2-B35F-4BAA-AEF6-4A6121806F8D}">
       <formula1>$BA$30:$BA$47</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="15">
+  <tableParts count="12">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -7417,30 +7256,27 @@
     <tablePart r:id="rId11"/>
     <tablePart r:id="rId12"/>
     <tablePart r:id="rId13"/>
-    <tablePart r:id="rId14"/>
-    <tablePart r:id="rId15"/>
-    <tablePart r:id="rId16"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA00DA78-9682-47F8-B701-D35809CE3FB0}">
+          <x14:formula1>
+            <xm:f>General_Info!$P$34:$P$39</xm:f>
+          </x14:formula1>
+          <xm:sqref>P7:P14 J7:J10 E7:E11 A7:A14 V7:V8 Z8:Z18</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C428027-B16D-4B04-9CB2-8290577ED0FB}">
+          <x14:formula1>
+            <xm:f>General_Info!$T$21:$T$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>G6:G11</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1C3D18C3-7241-4088-8034-07AAE0EB53A9}">
           <x14:formula1>
             <xm:f>General_Info!$K$19:$K$30</xm:f>
           </x14:formula1>
           <xm:sqref>S7:S14</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA00DA78-9682-47F8-B701-D35809CE3FB0}">
-          <x14:formula1>
-            <xm:f>General_Info!$P$34:$P$39</xm:f>
-          </x14:formula1>
-          <xm:sqref>J7:J9 A7:A15 E7:E16 Z8:Z16 P7:P14 V7:V8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C428027-B16D-4B04-9CB2-8290577ED0FB}">
-          <x14:formula1>
-            <xm:f>General_Info!$T$21:$T$25</xm:f>
-          </x14:formula1>
-          <xm:sqref>G6:G16</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7453,11 +7289,13 @@
   <dimension ref="B3:G17"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.21875" customWidth="1"/>
     <col min="6" max="6" width="31.33203125" customWidth="1"/>
     <col min="7" max="7" width="26.6640625" customWidth="1"/>
   </cols>
@@ -7467,7 +7305,7 @@
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -7478,10 +7316,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="G4" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -7492,7 +7330,7 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -7506,7 +7344,7 @@
         <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
@@ -7514,7 +7352,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -7522,7 +7360,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
@@ -7530,15 +7368,15 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="G9" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -7546,58 +7384,58 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="G11" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="G12" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="G13" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>374</v>
+        <v>436</v>
       </c>
       <c r="G14" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="G15" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="G16" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="G17" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -7635,44 +7473,44 @@
   <sheetData>
     <row r="2" spans="5:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="3" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="5:22" x14ac:dyDescent="0.3">
       <c r="I3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="J3" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="K3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="L3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="S3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="T3" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="U3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="V3" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="5:22" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -7681,10 +7519,10 @@
         <v>110</v>
       </c>
       <c r="S4" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="T4" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="U4" t="s">
         <v>16</v>
@@ -7695,22 +7533,22 @@
     </row>
     <row r="5" spans="5:22" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="J5" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="K5" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="L5" t="s">
         <v>98</v>
       </c>
       <c r="S5" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="T5" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="U5" t="s">
         <v>16</v>
@@ -7721,13 +7559,13 @@
     </row>
     <row r="6" spans="5:22" x14ac:dyDescent="0.3">
       <c r="S6" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="T6" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="U6" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="V6" t="s">
         <v>111</v>
@@ -7735,16 +7573,16 @@
     </row>
     <row r="7" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="S7" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="T7" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="U7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="V7" t="s">
         <v>111</v>
@@ -7752,19 +7590,19 @@
     </row>
     <row r="8" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="F8" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="S8" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="T8" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="U8" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="V8" t="s">
         <v>111</v>
@@ -7772,34 +7610,34 @@
     </row>
     <row r="9" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="F9" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
     </row>
     <row r="10" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="F10" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="F11" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="F12" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -7851,50 +7689,50 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="C2" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="D2" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="E2" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="J2" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C3" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D3" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="K3" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="P3" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C4" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -7903,24 +7741,24 @@
         <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="K4" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="L4" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="P4" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="C5" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D5" t="s">
         <v>92</v>
@@ -7929,18 +7767,18 @@
         <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="K5" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="C6" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -7949,18 +7787,18 @@
         <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="K6" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="C7" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -7969,58 +7807,58 @@
         <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="K7" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="C8" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D8" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
       </c>
       <c r="J8" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="K8" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="C9" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D9" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="E9" t="s">
         <v>69</v>
       </c>
       <c r="J9" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="K9" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C10" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
@@ -8029,18 +7867,18 @@
         <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="K10" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="C11" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -8049,18 +7887,18 @@
         <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="K11" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="C12" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="D12" t="s">
         <v>92</v>
@@ -8069,43 +7907,43 @@
         <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="K12" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J13" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="K13" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J14" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J15" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J16" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J17" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J18" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -8130,47 +7968,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -8205,28 +8043,28 @@
   <sheetData>
     <row r="2" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="F2" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="G2" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="H2" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="I2" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="J2" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="K2" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="L2" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="M2" t="s">
         <v>42</v>
@@ -8237,7 +8075,7 @@
         <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -8246,19 +8084,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="J3" t="s">
         <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L3" t="s">
         <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4" spans="5:13" x14ac:dyDescent="0.3">
@@ -8266,7 +8104,7 @@
         <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="G4">
         <v>256</v>
@@ -8287,38 +8125,38 @@
         <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="F5" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="I5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="J5" t="s">
         <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L5" t="s">
         <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="F6" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="G6">
         <v>256</v>
@@ -8327,27 +8165,27 @@
         <v>256</v>
       </c>
       <c r="I6" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="J6" t="s">
         <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L6" t="s">
         <v>33</v>
       </c>
       <c r="M6" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="F7" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -8356,19 +8194,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="J7" t="s">
         <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="L7" t="s">
         <v>35</v>
       </c>
       <c r="M7" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -8400,7 +8238,7 @@
   <sheetData>
     <row r="1" spans="3:14" ht="93.6" x14ac:dyDescent="1.75">
       <c r="D1" s="6" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.3">
@@ -8410,10 +8248,10 @@
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="N4" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
@@ -8426,19 +8264,19 @@
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="E7" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="F7" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="G7" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="J7" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
@@ -8460,7 +8298,7 @@
         <v>6000.2906390778307</v>
       </c>
       <c r="M8" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
@@ -8471,7 +8309,7 @@
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="L12" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
@@ -8480,7 +8318,7 @@
         <v>35.998312579097856</v>
       </c>
       <c r="J13" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="L13">
         <f>L5+(L5/J15)*M9</f>
@@ -8510,10 +8348,10 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J17" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="L17" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
@@ -8548,15 +8386,15 @@
     </row>
     <row r="27" spans="2:16" ht="93.6" x14ac:dyDescent="1.75">
       <c r="D27" s="6" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="K28" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
@@ -8568,39 +8406,39 @@
         <v>0.5</v>
       </c>
       <c r="M29" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="E30" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="F30" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="G30" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="I30" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="J30" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="K30" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="L30" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="M30" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="O30" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="P30" t="e">
         <f>2^#REF!</f>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_designLogc\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FEC151-B6AC-4EA1-A2FD-12F7BAF43378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC6EC67-F4CB-4C2C-A8A8-7473ECD5F0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="440">
   <si>
     <t>Colonne1</t>
   </si>
@@ -1360,6 +1360,9 @@
   </si>
   <si>
     <t>EXTI9_5_IRQN</t>
+  </si>
+  <si>
+    <t>JTAG User -&gt; PA14/PA13</t>
   </si>
 </sst>
 </file>
@@ -6307,15 +6310,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7761-01BE-400F-9C40-BE71D85F5C61}">
   <dimension ref="A2:BA57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q3" zoomScale="91" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="X8" sqref="X8"/>
+    <sheetView tabSelected="1" topLeftCell="S2" zoomScale="91" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.109375" customWidth="1"/>
     <col min="2" max="2" width="24.77734375" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="22.109375" customWidth="1"/>
     <col min="7" max="7" width="25" customWidth="1"/>
@@ -6345,6 +6348,9 @@
       <c r="A2" s="1" t="s">
         <v>113</v>
       </c>
+      <c r="C2" s="5" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -6844,7 +6850,7 @@
         <v>11</v>
       </c>
       <c r="AA16" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.3">
@@ -6864,10 +6870,10 @@
         <v>92</v>
       </c>
       <c r="Z17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA17" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.3">
@@ -6887,10 +6893,10 @@
         <v>50</v>
       </c>
       <c r="Z18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AA18" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.3">

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_designLogc\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_debugCL42T\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC6EC67-F4CB-4C2C-A8A8-7473ECD5F0E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837F6EA8-C6C7-4A7C-962B-E1A27BD99F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
@@ -4468,8 +4468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2D6D-43F7-44B1-8255-ECFDDA33AA9C}">
   <dimension ref="A18:AF119"/>
   <sheetViews>
-    <sheetView topLeftCell="H15" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="H15" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4879,7 +4879,7 @@
         <v>256</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M26" t="s">
         <v>159</v>
@@ -6310,7 +6310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7761-01BE-400F-9C40-BE71D85F5C61}">
   <dimension ref="A2:BA57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S2" zoomScale="91" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="S2" zoomScale="91" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AA18" sqref="AA18"/>
     </sheetView>
   </sheetViews>

--- a/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
+++ b/Doc/ConfigPrj/ExcelCfg/STM32G474RE/STM32G474RE_HwCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Software\STM32\f_debugCL42T\Doc\ConfigPrj\ExcelCfg\STM32G474RE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837F6EA8-C6C7-4A7C-962B-E1A27BD99F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F3F433-34F5-4C18-84B3-6F13E4CA76C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2AF09063-600F-437A-B138-F66136E922A5}"/>
   </bookViews>
   <sheets>
     <sheet name="General_Info" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="441">
   <si>
     <t>Colonne1</t>
   </si>
@@ -384,9 +384,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>PC15, PC14, PF0, PF1  are forbidden</t>
-  </si>
-  <si>
     <t>TS_CAL1</t>
   </si>
   <si>
@@ -1362,7 +1359,13 @@
     <t>EXTI9_5_IRQN</t>
   </si>
   <si>
-    <t>JTAG User -&gt; PA14/PA13</t>
+    <t>JTAG User -&gt; PA14/PA13, PA15, PC1, PC0</t>
+  </si>
+  <si>
+    <t>GPIO_AF6_TIM1</t>
+  </si>
+  <si>
+    <t>;</t>
   </si>
 </sst>
 </file>
@@ -3805,8 +3808,8 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{098A48DC-88A9-4122-ADE1-86E0F3796141}" name="FMKIO_OutputDig" displayName="FMKIO_OutputDig" ref="Z7:AA18" totalsRowShown="0">
-  <autoFilter ref="Z7:AA18" xr:uid="{098A48DC-88A9-4122-ADE1-86E0F3796141}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{098A48DC-88A9-4122-ADE1-86E0F3796141}" name="FMKIO_OutputDig" displayName="FMKIO_OutputDig" ref="Z7:AA16" totalsRowShown="0">
+  <autoFilter ref="Z7:AA16" xr:uid="{098A48DC-88A9-4122-ADE1-86E0F3796141}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{395BD36A-0840-48CF-8D8D-56878E366FC5}" name="GPIO_name"/>
     <tableColumn id="2" xr3:uid="{34DF2CF3-8826-4F9E-A09D-280EE0FEFFBB}" name="Pin_name"/>
@@ -4468,7 +4471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{871E2D6D-43F7-44B1-8255-ECFDDA33AA9C}">
   <dimension ref="A18:AF119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H15" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="H15" zoomScale="99" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
@@ -4500,16 +4503,16 @@
   <sheetData>
     <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
       </c>
       <c r="E18" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H18" t="s">
         <v>57</v>
@@ -4524,27 +4527,27 @@
         <v>3</v>
       </c>
       <c r="M18" t="s">
+        <v>269</v>
+      </c>
+      <c r="N18" t="s">
         <v>270</v>
       </c>
-      <c r="N18" t="s">
-        <v>271</v>
-      </c>
       <c r="O18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D19" t="s">
         <v>85</v>
       </c>
       <c r="E19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F19" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -4559,45 +4562,45 @@
         <v>4</v>
       </c>
       <c r="M19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F20" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I20" t="s">
         <v>69</v>
       </c>
       <c r="K20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="L20">
         <v>4</v>
       </c>
       <c r="M20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O20" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T20" t="s">
         <v>17</v>
@@ -4606,10 +4609,10 @@
         <v>18</v>
       </c>
       <c r="V20" t="s">
+        <v>275</v>
+      </c>
+      <c r="W20" t="s">
         <v>276</v>
-      </c>
-      <c r="W20" t="s">
-        <v>277</v>
       </c>
       <c r="AB20" t="s">
         <v>22</v>
@@ -4618,21 +4621,21 @@
         <v>18</v>
       </c>
       <c r="AD20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E21" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I21" t="s">
         <v>69</v>
@@ -4647,10 +4650,10 @@
         <v>64</v>
       </c>
       <c r="N21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O21" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T21" t="s">
         <v>16</v>
@@ -4659,13 +4662,13 @@
         <v>18</v>
       </c>
       <c r="V21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AB21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="AC21">
         <v>8</v>
@@ -4676,66 +4679,66 @@
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I22" t="s">
         <v>69</v>
       </c>
       <c r="K22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="L22">
         <v>4</v>
       </c>
       <c r="M22" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T22" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="U22">
         <v>18</v>
       </c>
       <c r="V22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AB22" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="AC22">
         <v>8</v>
       </c>
       <c r="AD22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E23" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F23" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H23" t="s">
         <v>60</v>
@@ -4744,42 +4747,42 @@
         <v>69</v>
       </c>
       <c r="K23" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L23">
         <v>4</v>
       </c>
       <c r="M23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="N23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U23">
         <v>18</v>
       </c>
       <c r="V23" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="W23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E24" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F24" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H24" t="s">
         <v>61</v>
@@ -4788,31 +4791,31 @@
         <v>69</v>
       </c>
       <c r="K24" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="N24" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O24" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="U24">
         <v>18</v>
       </c>
       <c r="V24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="W24" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.3">
@@ -4820,95 +4823,95 @@
         <v>84</v>
       </c>
       <c r="E25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I25" t="s">
         <v>69</v>
       </c>
       <c r="K25" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="N25" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="T25" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="U25">
         <v>18</v>
       </c>
       <c r="V25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E26" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F26" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I26" t="s">
         <v>69</v>
       </c>
       <c r="K26" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="L26">
         <v>4</v>
       </c>
       <c r="M26" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="N26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O26" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D27" t="s">
         <v>83</v>
       </c>
       <c r="E27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F27" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I27" t="s">
         <v>69</v>
@@ -4920,33 +4923,33 @@
         <v>2</v>
       </c>
       <c r="M27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O27" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B28">
         <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E28" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I28" t="s">
         <v>69</v>
@@ -4958,33 +4961,33 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B29">
         <v>170</v>
       </c>
       <c r="D29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
         <v>69</v>
@@ -4996,13 +4999,13 @@
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N29" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O29" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.3">
@@ -5010,10 +5013,10 @@
         <v>82</v>
       </c>
       <c r="E30" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F30" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H30" t="s">
         <v>62</v>
@@ -5022,19 +5025,19 @@
         <v>69</v>
       </c>
       <c r="K30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="L30">
         <v>4</v>
       </c>
       <c r="M30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O30" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.3">
@@ -5042,13 +5045,13 @@
         <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I31" t="s">
         <v>69</v>
@@ -5059,13 +5062,13 @@
         <v>80</v>
       </c>
       <c r="E32" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F32" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I32" t="s">
         <v>69</v>
@@ -5073,16 +5076,16 @@
     </row>
     <row r="33" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E33" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I33" t="s">
         <v>69</v>
@@ -5096,16 +5099,16 @@
     </row>
     <row r="34" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E34" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F34" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H34" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I34" t="s">
         <v>69</v>
@@ -5119,16 +5122,16 @@
     </row>
     <row r="35" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E35" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F35" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I35" t="s">
         <v>69</v>
@@ -5142,16 +5145,16 @@
     </row>
     <row r="36" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E36" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F36" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H36" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I36" t="s">
         <v>69</v>
@@ -5171,16 +5174,16 @@
     </row>
     <row r="37" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E37" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F37" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H37" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I37" t="s">
         <v>69</v>
@@ -5200,22 +5203,22 @@
     </row>
     <row r="38" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F38" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I38" t="s">
         <v>69</v>
       </c>
       <c r="P38" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="Q38">
         <v>16</v>
@@ -5223,16 +5226,16 @@
     </row>
     <row r="39" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D39" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F39" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I39" t="s">
         <v>69</v>
@@ -5246,22 +5249,22 @@
     </row>
     <row r="40" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F40" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I40" t="s">
         <v>90</v>
       </c>
       <c r="P40" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="Q40">
         <v>11</v>
@@ -5272,16 +5275,16 @@
     </row>
     <row r="41" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F41" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I41" t="s">
         <v>90</v>
@@ -5292,16 +5295,16 @@
     </row>
     <row r="42" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F42" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I42" t="s">
         <v>69</v>
@@ -5315,13 +5318,13 @@
         <v>72</v>
       </c>
       <c r="E43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F43" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H43" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I43" t="s">
         <v>69</v>
@@ -5332,16 +5335,16 @@
     </row>
     <row r="44" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E44" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F44" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I44" t="s">
         <v>69</v>
@@ -5349,16 +5352,16 @@
     </row>
     <row r="45" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F45" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H45" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I45" t="s">
         <v>69</v>
@@ -5366,13 +5369,13 @@
     </row>
     <row r="46" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E46" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F46" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H46" t="s">
         <v>63</v>
@@ -5381,38 +5384,38 @@
         <v>69</v>
       </c>
       <c r="AF46" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D47" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E47" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F47" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I47" t="s">
         <v>69</v>
       </c>
       <c r="AF47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E48" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F48" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H48" t="s">
         <v>64</v>
@@ -5421,27 +5424,27 @@
         <v>69</v>
       </c>
       <c r="AF48" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="49" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E49" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F49" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I49" t="s">
         <v>69</v>
       </c>
       <c r="AF49" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="4:32" x14ac:dyDescent="0.3">
@@ -5449,13 +5452,13 @@
         <v>86</v>
       </c>
       <c r="E50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F50" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I50" t="s">
         <v>69</v>
@@ -5466,13 +5469,13 @@
         <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F51" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H51" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I51" t="s">
         <v>69</v>
@@ -5480,22 +5483,22 @@
     </row>
     <row r="52" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E52" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F52" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I52" t="s">
         <v>69</v>
       </c>
       <c r="AF52" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="53" spans="4:32" x14ac:dyDescent="0.3">
@@ -5503,30 +5506,30 @@
         <v>79</v>
       </c>
       <c r="E53" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F53" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I53" t="s">
         <v>69</v>
       </c>
       <c r="AF53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E54" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F54" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H54" t="s">
         <v>65</v>
@@ -5535,18 +5538,18 @@
         <v>69</v>
       </c>
       <c r="AF54" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="55" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E55" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F55" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H55" t="s">
         <v>66</v>
@@ -5555,18 +5558,18 @@
         <v>69</v>
       </c>
       <c r="AF55" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="56" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E56" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F56" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H56" t="s">
         <v>67</v>
@@ -5575,18 +5578,18 @@
         <v>69</v>
       </c>
       <c r="AF56" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D57" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E57" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F57" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H57" t="s">
         <v>68</v>
@@ -5595,47 +5598,47 @@
         <v>69</v>
       </c>
       <c r="AF57" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E58" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F58" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H58" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I58" t="s">
         <v>69</v>
       </c>
       <c r="AF58" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="59" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E59" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F59" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I59" t="s">
         <v>69</v>
       </c>
       <c r="AF59" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="4:32" x14ac:dyDescent="0.3">
@@ -5643,73 +5646,73 @@
         <v>87</v>
       </c>
       <c r="E60" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F60" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H60" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I60" t="s">
         <v>69</v>
       </c>
       <c r="AF60" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="61" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E61" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F61" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H61" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I61" t="s">
         <v>69</v>
       </c>
       <c r="AF61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="62" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D62" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E62" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F62" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I62" t="s">
         <v>69</v>
       </c>
       <c r="AF62" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" spans="4:32" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E63" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F63" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H63" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I63" t="s">
         <v>69</v>
@@ -5720,13 +5723,13 @@
         <v>70</v>
       </c>
       <c r="E64" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H64" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I64" t="s">
         <v>69</v>
@@ -5737,13 +5740,13 @@
         <v>71</v>
       </c>
       <c r="E65" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F65" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H65" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I65" t="s">
         <v>69</v>
@@ -5754,13 +5757,13 @@
         <v>76</v>
       </c>
       <c r="E66" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F66" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I66" t="s">
         <v>69</v>
@@ -5768,16 +5771,16 @@
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E67" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F67" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H67" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I67" t="s">
         <v>69</v>
@@ -5788,13 +5791,13 @@
         <v>78</v>
       </c>
       <c r="E68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F68" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I68" t="s">
         <v>69</v>
@@ -5802,16 +5805,16 @@
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E69" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F69" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H69" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I69" t="s">
         <v>69</v>
@@ -5822,13 +5825,13 @@
         <v>73</v>
       </c>
       <c r="E70" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F70" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H70" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I70" t="s">
         <v>69</v>
@@ -5839,13 +5842,13 @@
         <v>74</v>
       </c>
       <c r="E71" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F71" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I71" t="s">
         <v>69</v>
@@ -5856,13 +5859,13 @@
         <v>75</v>
       </c>
       <c r="E72" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F72" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I72" t="s">
         <v>69</v>
@@ -5870,16 +5873,16 @@
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E73" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F73" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I73" t="s">
         <v>69</v>
@@ -5887,16 +5890,16 @@
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D74" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E74" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F74" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H74" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I74" t="s">
         <v>69</v>
@@ -5904,16 +5907,16 @@
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E75" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F75" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H75" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I75" t="s">
         <v>69</v>
@@ -5921,7 +5924,7 @@
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H76" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I76" t="s">
         <v>69</v>
@@ -5929,7 +5932,7 @@
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I77" t="s">
         <v>69</v>
@@ -5937,7 +5940,7 @@
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H78" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I78" t="s">
         <v>69</v>
@@ -5945,7 +5948,7 @@
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H79" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I79" t="s">
         <v>69</v>
@@ -5953,7 +5956,7 @@
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.3">
       <c r="H80" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I80" t="s">
         <v>69</v>
@@ -5961,7 +5964,7 @@
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I81" t="s">
         <v>69</v>
@@ -5969,7 +5972,7 @@
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I82" t="s">
         <v>69</v>
@@ -5977,7 +5980,7 @@
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I83" t="s">
         <v>69</v>
@@ -5985,7 +5988,7 @@
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H84" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I84" t="s">
         <v>69</v>
@@ -5993,7 +5996,7 @@
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I85" t="s">
         <v>69</v>
@@ -6001,7 +6004,7 @@
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I86" t="s">
         <v>69</v>
@@ -6009,7 +6012,7 @@
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H87" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I87" t="s">
         <v>69</v>
@@ -6017,7 +6020,7 @@
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H88" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I88" t="s">
         <v>69</v>
@@ -6025,7 +6028,7 @@
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H89" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I89" t="s">
         <v>69</v>
@@ -6033,7 +6036,7 @@
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H90" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I90" t="s">
         <v>69</v>
@@ -6041,7 +6044,7 @@
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H91" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="I91" t="s">
         <v>69</v>
@@ -6049,7 +6052,7 @@
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H92" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I92" t="s">
         <v>69</v>
@@ -6057,7 +6060,7 @@
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H93" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I93" t="s">
         <v>69</v>
@@ -6065,7 +6068,7 @@
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H94" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I94" t="s">
         <v>69</v>
@@ -6073,7 +6076,7 @@
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H95" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I95" t="s">
         <v>69</v>
@@ -6081,7 +6084,7 @@
     </row>
     <row r="96" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H96" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I96" t="s">
         <v>69</v>
@@ -6089,7 +6092,7 @@
     </row>
     <row r="97" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H97" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I97" t="s">
         <v>69</v>
@@ -6097,7 +6100,7 @@
     </row>
     <row r="98" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H98" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I98" t="s">
         <v>69</v>
@@ -6105,7 +6108,7 @@
     </row>
     <row r="99" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I99" t="s">
         <v>69</v>
@@ -6113,7 +6116,7 @@
     </row>
     <row r="100" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H100" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I100" t="s">
         <v>69</v>
@@ -6121,7 +6124,7 @@
     </row>
     <row r="101" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H101" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I101" t="s">
         <v>69</v>
@@ -6129,7 +6132,7 @@
     </row>
     <row r="102" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H102" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I102" t="s">
         <v>69</v>
@@ -6137,7 +6140,7 @@
     </row>
     <row r="103" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H103" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I103" t="s">
         <v>69</v>
@@ -6145,7 +6148,7 @@
     </row>
     <row r="104" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H104" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I104" t="s">
         <v>90</v>
@@ -6153,7 +6156,7 @@
     </row>
     <row r="105" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H105" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I105" t="s">
         <v>90</v>
@@ -6161,7 +6164,7 @@
     </row>
     <row r="106" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H106" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I106" t="s">
         <v>90</v>
@@ -6169,7 +6172,7 @@
     </row>
     <row r="107" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H107" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I107" t="s">
         <v>90</v>
@@ -6177,7 +6180,7 @@
     </row>
     <row r="108" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H108" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I108" t="s">
         <v>69</v>
@@ -6185,7 +6188,7 @@
     </row>
     <row r="109" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H109" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I109" t="s">
         <v>69</v>
@@ -6193,7 +6196,7 @@
     </row>
     <row r="110" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H110" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I110" t="s">
         <v>69</v>
@@ -6201,7 +6204,7 @@
     </row>
     <row r="111" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H111" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I111" t="s">
         <v>69</v>
@@ -6209,7 +6212,7 @@
     </row>
     <row r="112" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H112" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I112" t="s">
         <v>69</v>
@@ -6217,7 +6220,7 @@
     </row>
     <row r="113" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H113" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I113" t="s">
         <v>69</v>
@@ -6225,7 +6228,7 @@
     </row>
     <row r="114" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H114" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I114" t="s">
         <v>69</v>
@@ -6233,7 +6236,7 @@
     </row>
     <row r="115" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H115" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I115" t="s">
         <v>69</v>
@@ -6241,7 +6244,7 @@
     </row>
     <row r="116" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H116" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I116" t="s">
         <v>69</v>
@@ -6249,7 +6252,7 @@
     </row>
     <row r="117" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H117" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I117" t="s">
         <v>69</v>
@@ -6257,7 +6260,7 @@
     </row>
     <row r="118" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H118" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I118" t="s">
         <v>69</v>
@@ -6265,7 +6268,7 @@
     </row>
     <row r="119" spans="8:9" x14ac:dyDescent="0.3">
       <c r="H119" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I119" t="s">
         <v>69</v>
@@ -6310,8 +6313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{492C7761-01BE-400F-9C40-BE71D85F5C61}">
   <dimension ref="A2:BA57"/>
   <sheetViews>
-    <sheetView topLeftCell="S2" zoomScale="91" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AA18" sqref="AA18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6346,10 +6349,10 @@
   <sheetData>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>440</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
@@ -6363,13 +6366,13 @@
         <v>54</v>
       </c>
       <c r="L5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="P5" t="s">
         <v>56</v>
       </c>
       <c r="R5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="V5" t="s">
         <v>55</v>
@@ -6451,7 +6454,7 @@
         <v>29</v>
       </c>
       <c r="G7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H7" t="s">
         <v>111</v>
@@ -6463,7 +6466,7 @@
         <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M7" t="s">
         <v>5</v>
@@ -6472,19 +6475,19 @@
         <v>92</v>
       </c>
       <c r="P7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q7" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="R7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="S7" t="s">
         <v>4</v>
       </c>
       <c r="T7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V7" t="s">
         <v>12</v>
@@ -6493,7 +6496,7 @@
         <v>27</v>
       </c>
       <c r="X7" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="Z7" t="s">
         <v>23</v>
@@ -6516,7 +6519,7 @@
         <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H8" t="s">
         <v>107</v>
@@ -6528,7 +6531,7 @@
         <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M8" t="s">
         <v>5</v>
@@ -6537,28 +6540,28 @@
         <v>50</v>
       </c>
       <c r="P8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q8" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="R8" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="S8" t="s">
         <v>4</v>
       </c>
       <c r="T8" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="V8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="X8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Z8" t="s">
         <v>12</v>
@@ -6581,7 +6584,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H9" t="s">
         <v>97</v>
@@ -6593,7 +6596,7 @@
         <v>28</v>
       </c>
       <c r="L9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M9" t="s">
         <v>5</v>
@@ -6608,10 +6611,10 @@
         <v>27</v>
       </c>
       <c r="R9" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T9" t="s">
         <v>46</v>
@@ -6637,7 +6640,7 @@
         <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H10" t="s">
         <v>98</v>
@@ -6649,7 +6652,7 @@
         <v>29</v>
       </c>
       <c r="L10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="M10" t="s">
         <v>5</v>
@@ -6664,7 +6667,7 @@
         <v>28</v>
       </c>
       <c r="R10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="S10" t="s">
         <v>4</v>
@@ -6693,7 +6696,7 @@
         <v>41</v>
       </c>
       <c r="G11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H11" t="s">
         <v>109</v>
@@ -6705,10 +6708,10 @@
         <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="S11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T11" t="s">
         <v>45</v>
@@ -6734,10 +6737,10 @@
         <v>32</v>
       </c>
       <c r="R12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="S12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T12" t="s">
         <v>46</v>
@@ -6763,10 +6766,10 @@
         <v>33</v>
       </c>
       <c r="R13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="S13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="T13" t="s">
         <v>92</v>
@@ -6775,7 +6778,7 @@
         <v>11</v>
       </c>
       <c r="AA13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
@@ -6792,10 +6795,10 @@
         <v>34</v>
       </c>
       <c r="R14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="S14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="T14" t="s">
         <v>50</v>
@@ -6815,10 +6818,10 @@
         <v>31</v>
       </c>
       <c r="R15" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S15" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T15" t="s">
         <v>45</v>
@@ -6838,19 +6841,19 @@
         <v>32</v>
       </c>
       <c r="R16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T16" t="s">
         <v>46</v>
       </c>
       <c r="Z16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AA16" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.3">
@@ -6861,19 +6864,13 @@
         <v>33</v>
       </c>
       <c r="R17" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T17" t="s">
         <v>92</v>
-      </c>
-      <c r="Z17" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.3">
@@ -6884,44 +6881,38 @@
         <v>34</v>
       </c>
       <c r="R18" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="S18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="T18" t="s">
         <v>50</v>
       </c>
-      <c r="Z18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="24" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="25" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>285</v>
+      </c>
+      <c r="B25" t="s">
         <v>286</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>287</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>288</v>
-      </c>
-      <c r="D25" t="s">
-        <v>289</v>
       </c>
       <c r="E25" t="s">
         <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:53" x14ac:dyDescent="0.3">
@@ -6938,58 +6929,58 @@
         <v>38</v>
       </c>
       <c r="E26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F26" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B27" t="s">
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D27" t="s">
         <v>41</v>
       </c>
       <c r="E27" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F27" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s">
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D28" t="s">
         <v>38</v>
       </c>
       <c r="E28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="W28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="29" spans="1:53" x14ac:dyDescent="0.3">
       <c r="W29" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AW29" t="s">
         <v>91</v>
@@ -7000,7 +6991,7 @@
     </row>
     <row r="30" spans="1:53" x14ac:dyDescent="0.3">
       <c r="W30" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AW30" t="s">
         <v>25</v>
@@ -7014,7 +7005,7 @@
     </row>
     <row r="31" spans="1:53" x14ac:dyDescent="0.3">
       <c r="W31" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AW31" t="s">
         <v>26</v>
@@ -7028,7 +7019,7 @@
     </row>
     <row r="32" spans="1:53" x14ac:dyDescent="0.3">
       <c r="W32" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AW32" t="s">
         <v>27</v>
@@ -7042,10 +7033,10 @@
     </row>
     <row r="33" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="W33" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AW33" t="s">
         <v>28</v>
@@ -7059,25 +7050,25 @@
     </row>
     <row r="34" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" t="s">
         <v>286</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>287</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>288</v>
-      </c>
-      <c r="D34" t="s">
-        <v>289</v>
       </c>
       <c r="E34" t="s">
         <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="W34" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AW34" t="s">
         <v>29</v>
@@ -7103,13 +7094,13 @@
         <v>27</v>
       </c>
       <c r="E35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F35" t="s">
         <v>79</v>
       </c>
       <c r="W35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AW35" t="s">
         <v>30</v>
@@ -7132,13 +7123,13 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="W36" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AW36" t="s">
         <v>31</v>
@@ -7237,7 +7228,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW46 K7:K10 Q7:Q14 F7:F11 B7:B14 W7:W8 AA8:AA18" xr:uid="{14BC2D73-1395-4E2C-9D1E-55C781825C64}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW46 K7:K10 Q7:Q14 F7:F11 B7:B14 W7:W8 AA8:AA16" xr:uid="{14BC2D73-1395-4E2C-9D1E-55C781825C64}">
       <formula1>$AW$30:$AW$45</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T7:T14 N7:N10" xr:uid="{727A5344-B28A-4866-9EC1-7C96029AF8B6}">
@@ -7270,7 +7261,7 @@
           <x14:formula1>
             <xm:f>General_Info!$P$34:$P$39</xm:f>
           </x14:formula1>
-          <xm:sqref>P7:P14 J7:J10 E7:E11 A7:A14 V7:V8 Z8:Z18</xm:sqref>
+          <xm:sqref>P7:P14 J7:J10 E7:E11 A7:A14 V7:V8 Z8:Z16</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3C428027-B16D-4B04-9CB2-8290577ED0FB}">
           <x14:formula1>
@@ -7311,7 +7302,7 @@
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.3">
@@ -7322,10 +7313,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
@@ -7336,7 +7327,7 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G5" t="s">
         <v>6</v>
@@ -7350,7 +7341,7 @@
         <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
@@ -7358,7 +7349,7 @@
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G7" t="s">
         <v>8</v>
@@ -7366,7 +7357,7 @@
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
@@ -7374,15 +7365,15 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
@@ -7390,58 +7381,58 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F11" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
       <c r="F16" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="17" spans="6:7" x14ac:dyDescent="0.3">
       <c r="F17" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G17" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -7479,44 +7470,44 @@
   <sheetData>
     <row r="2" spans="5:22" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I2" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="5:22" x14ac:dyDescent="0.3">
       <c r="I3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" t="s">
+        <v>119</v>
+      </c>
+      <c r="S3" t="s">
+        <v>116</v>
+      </c>
+      <c r="T3" t="s">
         <v>121</v>
       </c>
-      <c r="K3" t="s">
+      <c r="U3" t="s">
+        <v>118</v>
+      </c>
+      <c r="V3" t="s">
         <v>119</v>
-      </c>
-      <c r="L3" t="s">
-        <v>120</v>
-      </c>
-      <c r="S3" t="s">
-        <v>117</v>
-      </c>
-      <c r="T3" t="s">
-        <v>122</v>
-      </c>
-      <c r="U3" t="s">
-        <v>119</v>
-      </c>
-      <c r="V3" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" spans="5:22" x14ac:dyDescent="0.3">
       <c r="I4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -7525,10 +7516,10 @@
         <v>110</v>
       </c>
       <c r="S4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="T4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U4" t="s">
         <v>16</v>
@@ -7539,22 +7530,22 @@
     </row>
     <row r="5" spans="5:22" x14ac:dyDescent="0.3">
       <c r="I5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L5" t="s">
         <v>98</v>
       </c>
       <c r="S5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="T5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U5" t="s">
         <v>16</v>
@@ -7565,13 +7556,13 @@
     </row>
     <row r="6" spans="5:22" x14ac:dyDescent="0.3">
       <c r="S6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="T6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="V6" t="s">
         <v>111</v>
@@ -7579,16 +7570,16 @@
     </row>
     <row r="7" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S7" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="T7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="V7" t="s">
         <v>111</v>
@@ -7596,19 +7587,19 @@
     </row>
     <row r="8" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F8" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="S8" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="T8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="U8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="V8" t="s">
         <v>111</v>
@@ -7616,34 +7607,34 @@
     </row>
     <row r="9" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F11" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="5:22" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -7695,50 +7686,50 @@
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" t="s">
         <v>335</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>336</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>337</v>
       </c>
-      <c r="E2" t="s">
-        <v>338</v>
-      </c>
       <c r="J2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" t="s">
         <v>332</v>
       </c>
-      <c r="C3" t="s">
-        <v>333</v>
-      </c>
       <c r="D3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E3" t="s">
         <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="P3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D4" t="s">
         <v>50</v>
@@ -7747,24 +7738,24 @@
         <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="K4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="L4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="P4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D5" t="s">
         <v>92</v>
@@ -7773,18 +7764,18 @@
         <v>69</v>
       </c>
       <c r="J5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K5" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -7793,18 +7784,18 @@
         <v>69</v>
       </c>
       <c r="J6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="K6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -7813,58 +7804,58 @@
         <v>69</v>
       </c>
       <c r="J7" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" t="s">
         <v>342</v>
-      </c>
-      <c r="C8" t="s">
-        <v>333</v>
-      </c>
-      <c r="D8" t="s">
-        <v>343</v>
       </c>
       <c r="E8" t="s">
         <v>69</v>
       </c>
       <c r="J8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>343</v>
+      </c>
+      <c r="C9" t="s">
+        <v>332</v>
+      </c>
+      <c r="D9" t="s">
         <v>344</v>
-      </c>
-      <c r="C9" t="s">
-        <v>333</v>
-      </c>
-      <c r="D9" t="s">
-        <v>345</v>
       </c>
       <c r="E9" t="s">
         <v>69</v>
       </c>
       <c r="J9" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D10" t="s">
         <v>46</v>
@@ -7873,18 +7864,18 @@
         <v>69</v>
       </c>
       <c r="J10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -7893,18 +7884,18 @@
         <v>69</v>
       </c>
       <c r="J11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K11" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D12" t="s">
         <v>92</v>
@@ -7913,43 +7904,43 @@
         <v>69</v>
       </c>
       <c r="J12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J16" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J17" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J18" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -7974,47 +7965,47 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -8049,28 +8040,28 @@
   <sheetData>
     <row r="2" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G2" t="s">
+        <v>419</v>
+      </c>
+      <c r="H2" t="s">
         <v>420</v>
       </c>
-      <c r="H2" t="s">
-        <v>421</v>
-      </c>
       <c r="I2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J2" t="s">
         <v>286</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>287</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>288</v>
-      </c>
-      <c r="L2" t="s">
-        <v>289</v>
       </c>
       <c r="M2" t="s">
         <v>42</v>
@@ -8081,7 +8072,7 @@
         <v>78</v>
       </c>
       <c r="F3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -8090,19 +8081,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J3" t="s">
         <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L3" t="s">
         <v>29</v>
       </c>
       <c r="M3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4" spans="5:13" x14ac:dyDescent="0.3">
@@ -8110,7 +8101,7 @@
         <v>79</v>
       </c>
       <c r="F4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G4">
         <v>256</v>
@@ -8131,38 +8122,38 @@
         <v>27</v>
       </c>
       <c r="M4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J5" t="s">
         <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L5" t="s">
         <v>31</v>
       </c>
       <c r="M5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G6">
         <v>256</v>
@@ -8171,27 +8162,27 @@
         <v>256</v>
       </c>
       <c r="I6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J6" t="s">
         <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L6" t="s">
         <v>33</v>
       </c>
       <c r="M6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -8200,19 +8191,19 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J7" t="s">
         <v>34</v>
       </c>
       <c r="K7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L7" t="s">
         <v>35</v>
       </c>
       <c r="M7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -8244,7 +8235,7 @@
   <sheetData>
     <row r="1" spans="3:14" ht="93.6" x14ac:dyDescent="1.75">
       <c r="D1" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" spans="3:14" x14ac:dyDescent="0.3">
@@ -8254,10 +8245,10 @@
     </row>
     <row r="4" spans="3:14" x14ac:dyDescent="0.3">
       <c r="L4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="N4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.3">
@@ -8270,19 +8261,19 @@
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
+        <v>309</v>
+      </c>
+      <c r="E7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G7" t="s">
+        <v>307</v>
+      </c>
+      <c r="J7" t="s">
         <v>310</v>
-      </c>
-      <c r="E7" t="s">
-        <v>309</v>
-      </c>
-      <c r="F7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G7" t="s">
-        <v>308</v>
-      </c>
-      <c r="J7" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.3">
@@ -8304,7 +8295,7 @@
         <v>6000.2906390778307</v>
       </c>
       <c r="M8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.3">
@@ -8315,7 +8306,7 @@
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="L12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.3">
@@ -8324,7 +8315,7 @@
         <v>35.998312579097856</v>
       </c>
       <c r="J13" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="L13">
         <f>L5+(L5/J15)*M9</f>
@@ -8354,10 +8345,10 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="J17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="L17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
@@ -8392,15 +8383,15 @@
     </row>
     <row r="27" spans="2:16" ht="93.6" x14ac:dyDescent="1.75">
       <c r="D27" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="K28" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.3">
@@ -8412,39 +8403,39 @@
         <v>0.5</v>
       </c>
       <c r="M29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="D30" t="s">
+        <v>320</v>
+      </c>
+      <c r="E30" t="s">
         <v>321</v>
       </c>
-      <c r="E30" t="s">
-        <v>322</v>
-      </c>
       <c r="F30" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I30" t="s">
+        <v>327</v>
+      </c>
+      <c r="J30" t="s">
+        <v>325</v>
+      </c>
+      <c r="K30" t="s">
         <v>328</v>
       </c>
-      <c r="J30" t="s">
+      <c r="L30" t="s">
+        <v>329</v>
+      </c>
+      <c r="M30" t="s">
         <v>326</v>
       </c>
-      <c r="K30" t="s">
-        <v>329</v>
-      </c>
-      <c r="L30" t="s">
+      <c r="O30" t="s">
         <v>330</v>
-      </c>
-      <c r="M30" t="s">
-        <v>327</v>
-      </c>
-      <c r="O30" t="s">
-        <v>331</v>
       </c>
       <c r="P30" t="e">
         <f>2^#REF!</f>
